--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.ufl.edu\ifas\SFRC\Groups\Hydrology\Bradford_Forest_Project\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28F6699-6ADB-4485-A510-D9E489AFE864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F577FBF-DB29-4B27-9790-03AA2A57B77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="10800" activeTab="1" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -45,9 +58,6 @@
   </si>
   <si>
     <t>pH</t>
-  </si>
-  <si>
-    <t>CO2</t>
   </si>
   <si>
     <t>Temp</t>
@@ -114,6 +124,18 @@
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>Eosense</t>
+  </si>
+  <si>
+    <t>K30</t>
+  </si>
+  <si>
+    <t>CO2 (mv)</t>
+  </si>
+  <si>
+    <t>CO2_ppm</t>
   </si>
 </sst>
 </file>
@@ -597,9 +619,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -656,6 +681,2691 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.9743219597550308E-2"/>
+                  <c:y val="0.47406532516768746"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$K:$K</c:f>
+              <c:strCache>
+                <c:ptCount val="297"/>
+                <c:pt idx="0">
+                  <c:v>K30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.86391</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.94373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.2021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.92243</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.05933</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.3707</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.19745</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.81543</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76.59083</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76.60622</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76.51302</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.62263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.85773</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.04565</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67.10912</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.50293</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>66.84219</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>66.69511</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.07284</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>66.49216</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>66.82178</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>66.97043</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>66.74321</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66.74113</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>66.64201</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66.60493</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66.72791</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66.75513</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>66.56596</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>66.70888</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>66.43863</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66.722</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66.50232</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>66.60336</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>66.73564</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67.00954</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>66.73096</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>66.70052</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>66.4324</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>66.44021</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>66.81068</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>66.76597</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>66.68806</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>66.70864</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>66.70712</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66.69951</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>67.01123</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>66.57888</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>66.43957</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>66.42168</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>66.69904</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>66.41798</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>66.55577</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66.71391</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>66.67946</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>66.71635</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>66.6007</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>67.23249</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66.47572</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>69.48903</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66.66169</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>77.51184</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>66.7132</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>80.54454</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.88289</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>82.61302</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>66.87572</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>81.67912</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76.52004</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>76.52303</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76.55854</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>76.32227</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>76.8404</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76.86628</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.2976</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76.88184</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>76.469</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>76.61813</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>76.48062</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>76.64857</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>76.3115</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>76.67915</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>76.62164</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>76.37128</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>76.63695</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>76.88206</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>76.91395</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>76.39491</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>76.66458</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>76.79201</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>86.62289</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>86.42693</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>86.29105</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>86.61604</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>86.72577</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>86.36484</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>86.45461</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>86.40399</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>86.47124</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>86.73338</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>86.40208</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>86.43971</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>86.73092</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>86.13641</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>86.48643</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>86.40894</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>86.26636</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>96.32126</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>95.99462</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>96.47484</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>96.48746</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>95.94254</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>96.21225</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>96.16</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>96.53206</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>96.26186</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>96.20457</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>95.94713</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>102.5564</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>96.26979</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>107.5222</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>96.17422</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>111.3181</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>96.21484</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>122.138</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>105.7696</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>106.3018</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>106.0164</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>106.0008</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>106.2757</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>105.7705</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>106.0813</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>106.3004</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>105.8387</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>106.3312</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>105.9429</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>105.8838</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>105.9689</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>106.0755</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>105.9944</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>105.9682</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>106.0844</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>106.253</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>105.9712</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>105.7208</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>106.0037</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>105.7485</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>105.6892</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>115.9367</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>115.7723</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>115.5065</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>116.0567</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>115.9269</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>115.9965</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>115.4991</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>115.5228</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>115.8371</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>115.677</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>115.5472</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>116.0281</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>115.7191</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>115.8503</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>116.0135</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>116.0718</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>115.882</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>115.8264</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>116.0414</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>115.7786</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>115.9244</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>116.0988</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>115.9281</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>115.8377</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>116.0936</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>115.8402</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>116.1702</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>115.6253</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>116.0719</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>116.3058</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>115.8853</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>116.3834</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>116.1009</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>126.4013</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>115.6763</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>128.953</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>115.9194</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>131.6455</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>115.8611</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>115.6882</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>116.1933</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>116.134</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>116.1763</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>116.0438</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>115.9259</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>116.0008</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>116.0121</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>115.7264</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>115.9374</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>115.9146</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>115.6394</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>116.1581</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>115.8416</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>115.8566</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>115.8509</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>115.8514</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>125.8671</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>125.4483</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>125.4024</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>125.7238</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>125.682</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>125.6857</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>125.4738</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>125.9331</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>125.3714</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>125.9153</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>125.6576</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>125.5729</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>125.9589</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>135.2037</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>135.5279</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>135.4736</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>135.5221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>135.203</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>135.6287</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>135.7516</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>135.196</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>135.7215</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>135.1522</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>135.5285</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>135.5004</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>135.1428</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>135.7586</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>135.2062</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>135.1905</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>135.5018</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>135.7023</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>135.1432</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>135.9186</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>135.1687</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>136.1391</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>135.4334</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>146.0427</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>135.4138</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>148.2755</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>135.7269</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>150.4016</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>135.6863</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>149.3246</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>135.1683</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>135.6373</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>135.4209</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>135.4411</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>135.7314</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>135.5298</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>135.1659</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>135.4311</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>135.6944</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>135.5111</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>135.7453</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>135.589</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>135.4787</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>135.501</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>135.6834</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>135.4048</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>135.3444</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>135.4581</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>135.1977</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>135.344</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>135.7635</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>135.492</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>135.4792</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>135.7834</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>135.5045</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>135.222</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>135.4921</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>135.198</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>135.4767</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>135.2436</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>135.782</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>135.6187</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>135.5112</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>135.2596</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>135.5743</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>135.4814</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>135.2486</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>135.2543</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>135.7846</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>135.5619</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>135.6161</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>135.5201</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>135.763</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>135.5329</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>135.2821</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>135.4861</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>135.5595</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>135.2533</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>135.8517</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J:$J</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>532.32979999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>547.30619999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>547.31349999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>577.80020000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>623.08079999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>653.02340000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>698.30179999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>698.75670000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>744.30139999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>728.80870000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>728.81809999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>728.81179999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>759.42010000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>744.24469999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>698.35050000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>667.92629999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>652.93119999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>653.20910000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>607.95830000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>607.56110000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>638.08180000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>638.25340000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>623.13530000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>607.76750000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>592.50710000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>577.47490000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>562.39620000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>562.76610000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>562.50009999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>562.36329999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>577.42870000000005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>577.51340000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>622.80349999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>698.44579999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>728.82050000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>744.46180000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>728.54539999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>728.59079999999994</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>728.52480000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>744.04729999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>744.07650000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>759.36440000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>774.61670000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>774.67240000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>789.6807</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>834.55520000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>834.96130000000005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>850.197</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>865.02120000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>865.25400000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>880.46839999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>895.39089999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>895.33799999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>910.66690000000006</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>925.98109999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>940.77919999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>955.72770000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>970.87699999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>986.60170000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1001.513</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1016.558</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1031.5419999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1047.2439999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1061.7260000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1077.3230000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1107.306</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1122.7550000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1167.7729999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1183.0219999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1183.3119999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1198.4190000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1213.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1213.443</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1228.8979999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1244.1220000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1259.123</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1258.752</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1304.1369999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1349.9849999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1350.0229999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1364.8150000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1380.152</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1380.086</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1379.7149999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1394.9970000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1410.3409999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1425.6030000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1409.979</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1410.248</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1455.58</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1486.2159999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1485.806</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1516.0709999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1515.9280000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1516.348</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1531.32</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1531.4570000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1531.6220000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1531.232</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1531.4369999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1531.0519999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1531.268</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1546.579</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1546.319</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1576.8009999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1591.886</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1607.3309999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1607.1669999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1622.027</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1622.26</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1637.01</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1637.1120000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1652.441</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1652.6880000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1652.4690000000001</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1667.163</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1682.24</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1682.7049999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1697.7449999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1697.4570000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1697.8979999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1713.067</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1713.4069999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1713.269</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1742.9939999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1773.7049999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1788.712</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1803.973</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1803.799</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1788.7460000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1803.846</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1788.356</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1773.8130000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1773.46</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1773.855</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1758.252</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1758.42</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1743.6389999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1743.116</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1743.41</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1758.229</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1758.6110000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1758.502</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1758.336</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1743.46</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1743.7249999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1743.2550000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1743.2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1743.645</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1743.6010000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1743.2650000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1743.1210000000001</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1743.5830000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1743.1949999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1758.404</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1743.6780000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1743.75</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1743.4010000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1758.3130000000001</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1758.4659999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1758.309</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1758.383</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1758.7819999999999</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1788.462</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1804.0540000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1804.001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1818.5730000000001</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1818.624</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1818.7860000000001</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1834.075</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1834.6020000000001</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1834.0730000000001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1834.4480000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1834.4960000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1849.4380000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1864.201</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1864.7149999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1879.3689999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1894.5129999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1894.61</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1895.0039999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1909.9960000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1909.953</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1909.9480000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1925.124</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1924.905</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1939.692</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1939.9169999999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1955.596</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1970.683</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1970.617</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1970.1420000000001</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1985.317</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1985.1020000000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>2000.7739999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>2000.3019999999999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2015.693</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>2030.57</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2046.1120000000001</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>2076.0819999999999</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2091.7159999999999</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>2106.19</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>2106.2840000000001</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2121.7220000000002</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>2136.712</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>2136.752</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>2136.913</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>2167.261</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>2181.7249999999999</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2182.0329999999999</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2197.1640000000002</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>2212.6770000000001</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>2227.3980000000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2242.422</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>2257.8890000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>2272.59</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2288.2159999999999</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2302.7950000000001</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>2318.6460000000002</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2333.2890000000002</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2348.8989999999999</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>2363.453</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>2379.2429999999999</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2378.7959999999998</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2379.1619999999998</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2363.471</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>2318.3110000000001</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2303.3679999999999</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>2303.4119999999998</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>2272.797</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2257.855</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>2257.732</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2243.0100000000002</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>2227.8380000000002</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2227.8609999999999</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>2227.7280000000001</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2212.5929999999998</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>2212.4630000000002</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>2197.69</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>2197.442</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>2197.8220000000001</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>2181.6410000000001</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2181.77</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>2182.2109999999998</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>2166.9209999999998</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>2167.4630000000002</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2166.9349999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>2152.0659999999998</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>2151.8969999999999</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>2151.701</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2152.1179999999999</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>2137.1120000000001</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2152.1480000000001</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>2136.7139999999999</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>2136.7220000000002</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>2137.1190000000001</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2137.2060000000001</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>2137.136</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>2136.998</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2137.0430000000001</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>2136.9940000000001</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>2151.7600000000002</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>2136.674</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>2151.973</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>2151.9319999999998</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>2151.9209999999998</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>2151.9989999999998</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2166.6460000000002</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>2152.134</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>2167.125</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2166.8739999999998</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2182.17</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>2182.067</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>2197.5309999999999</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2197.299</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2212.5549999999998</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2227.5909999999999</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2242.674</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2242.6320000000001</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2257.8119999999999</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2257.9879999999998</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>2273.31</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2272.7620000000002</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>2272.7910000000002</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2303.0889999999999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2318.8209999999999</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2334.0030000000002</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>2348.922</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2348.8249999999998</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2348.7159999999999</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2363.6129999999998</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>2378.8510000000001</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2379.19</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>2394.2730000000001</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2393.9299999999998</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2394.2550000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF0D-4E31-BB7D-D5095BEEADC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1775679775"/>
+        <c:axId val="1775694655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1775679775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775694655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1775694655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775679775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC15FF2-F49F-9FEB-A6FE-3771B49B5D69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -975,19 +3685,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E7760-F87C-4D84-A63F-D473D279D553}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P81" sqref="P81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,13 +3724,16 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45400</v>
       </c>
@@ -1030,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1.85</v>
@@ -1041,11 +3755,11 @@
       <c r="H2">
         <v>5.41</v>
       </c>
-      <c r="J2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45400</v>
       </c>
@@ -1056,7 +3770,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>2.1</v>
@@ -1067,11 +3781,11 @@
       <c r="H3">
         <v>5.8</v>
       </c>
-      <c r="J3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45400</v>
       </c>
@@ -1082,7 +3796,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1.95</v>
@@ -1093,11 +3807,11 @@
       <c r="H4">
         <v>6.1</v>
       </c>
-      <c r="J4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45400</v>
       </c>
@@ -1108,7 +3822,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>2.25</v>
@@ -1119,11 +3833,11 @@
       <c r="H5">
         <v>6.67</v>
       </c>
-      <c r="J5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45400</v>
       </c>
@@ -1134,7 +3848,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>1.34</v>
@@ -1145,11 +3859,11 @@
       <c r="H6">
         <v>6.2</v>
       </c>
-      <c r="J6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45400</v>
       </c>
@@ -1160,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>2.02</v>
@@ -1169,13 +3883,13 @@
         <v>1.33</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45400</v>
       </c>
@@ -1186,7 +3900,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1195,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45400</v>
       </c>
@@ -1212,7 +3926,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>1.91</v>
@@ -1223,11 +3937,11 @@
       <c r="H9">
         <v>4.76</v>
       </c>
-      <c r="J9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45400</v>
       </c>
@@ -1238,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>1.47</v>
@@ -1249,11 +3963,11 @@
       <c r="H10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45400</v>
       </c>
@@ -1264,7 +3978,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>2.75</v>
@@ -1275,11 +3989,11 @@
       <c r="H11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45400</v>
       </c>
@@ -1290,7 +4004,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0.73</v>
@@ -1301,11 +4015,11 @@
       <c r="H12">
         <v>4.7</v>
       </c>
-      <c r="J12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45400</v>
       </c>
@@ -1316,7 +4030,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3.38</v>
@@ -1324,11 +4038,11 @@
       <c r="F13">
         <v>2.17</v>
       </c>
-      <c r="J13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45400</v>
       </c>
@@ -1339,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1.85</v>
@@ -1350,11 +4064,11 @@
       <c r="H14">
         <v>4.7699999999999996</v>
       </c>
-      <c r="J14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45400</v>
       </c>
@@ -1365,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2.1</v>
@@ -1376,11 +4090,11 @@
       <c r="H15">
         <v>4.72</v>
       </c>
-      <c r="J15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45400</v>
       </c>
@@ -1391,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>1.95</v>
@@ -1402,11 +4116,11 @@
       <c r="H16">
         <v>4.84</v>
       </c>
-      <c r="J16">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45400</v>
       </c>
@@ -1417,7 +4131,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>2.25</v>
@@ -1428,11 +4142,11 @@
       <c r="H17">
         <v>5.1870000000000003</v>
       </c>
-      <c r="J17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45420</v>
       </c>
@@ -1443,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>1.06</v>
@@ -1452,13 +4166,13 @@
         <v>1.03</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45420</v>
       </c>
@@ -1469,7 +4183,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>1.06</v>
@@ -1480,11 +4194,11 @@
       <c r="H19">
         <v>5.36</v>
       </c>
-      <c r="J19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45420</v>
       </c>
@@ -1495,7 +4209,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>1.0449999999999999</v>
@@ -1506,11 +4220,11 @@
       <c r="H20">
         <v>5.024</v>
       </c>
-      <c r="J20">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45420</v>
       </c>
@@ -1521,7 +4235,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>1.57</v>
@@ -1532,11 +4246,11 @@
       <c r="H21">
         <v>6.36</v>
       </c>
-      <c r="J21">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45420</v>
       </c>
@@ -1547,7 +4261,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>1.095</v>
@@ -1558,11 +4272,11 @@
       <c r="H22">
         <v>4.7</v>
       </c>
-      <c r="J22">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45420</v>
       </c>
@@ -1573,7 +4287,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>1.34</v>
@@ -1584,11 +4298,11 @@
       <c r="H23">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45420</v>
       </c>
@@ -1599,7 +4313,7 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1608,13 +4322,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45420</v>
       </c>
@@ -1625,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>1.1200000000000001</v>
@@ -1634,13 +4348,13 @@
         <v>0.63</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45420</v>
       </c>
@@ -1651,7 +4365,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>0.75</v>
@@ -1662,11 +4376,11 @@
       <c r="H26">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45420</v>
       </c>
@@ -1677,7 +4391,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27">
         <v>1.97</v>
@@ -1686,13 +4400,13 @@
         <v>1.07</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45420</v>
       </c>
@@ -1703,7 +4417,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0.72</v>
@@ -1712,13 +4426,13 @@
         <v>0.69</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45420</v>
       </c>
@@ -1729,7 +4443,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>2.5499999999999998</v>
@@ -1740,11 +4454,11 @@
       <c r="H29">
         <v>5.8</v>
       </c>
-      <c r="J29">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45420</v>
       </c>
@@ -1755,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>1.1299999999999999</v>
@@ -1766,11 +4480,11 @@
       <c r="H30">
         <v>5</v>
       </c>
-      <c r="J30">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45420</v>
       </c>
@@ -1781,7 +4495,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>1.26</v>
@@ -1792,11 +4506,11 @@
       <c r="H31">
         <v>4.7699999999999996</v>
       </c>
-      <c r="J31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45420</v>
       </c>
@@ -1807,7 +4521,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32">
         <v>1.52</v>
@@ -1818,11 +4532,11 @@
       <c r="H32">
         <v>4.42</v>
       </c>
-      <c r="J32">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45420</v>
       </c>
@@ -1833,7 +4547,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>1.59</v>
@@ -1844,11 +4558,11 @@
       <c r="H33">
         <v>4.74</v>
       </c>
-      <c r="J33">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45442</v>
       </c>
@@ -1859,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>1.06</v>
@@ -1868,13 +4582,13 @@
         <v>1.03</v>
       </c>
       <c r="H34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45442</v>
       </c>
@@ -1885,7 +4599,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>1.01</v>
@@ -1896,11 +4610,11 @@
       <c r="H35">
         <v>6.4</v>
       </c>
-      <c r="J35">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45442</v>
       </c>
@@ -1911,7 +4625,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36">
         <v>1.04</v>
@@ -1922,11 +4636,11 @@
       <c r="H36">
         <v>6.8</v>
       </c>
-      <c r="J36">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45442</v>
       </c>
@@ -1937,7 +4651,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37">
         <v>1.57</v>
@@ -1948,11 +4662,11 @@
       <c r="H37">
         <v>6.35</v>
       </c>
-      <c r="J37">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45442</v>
       </c>
@@ -1963,7 +4677,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <v>1.0900000000000001</v>
@@ -1974,11 +4688,11 @@
       <c r="H38">
         <v>6.13</v>
       </c>
-      <c r="J38">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45442</v>
       </c>
@@ -1989,7 +4703,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>1.34</v>
@@ -2000,11 +4714,11 @@
       <c r="H39">
         <v>5.66</v>
       </c>
-      <c r="J39">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45442</v>
       </c>
@@ -2015,22 +4729,22 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45442</v>
       </c>
@@ -2041,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>1.1200000000000001</v>
@@ -2050,13 +4764,13 @@
         <v>1.109</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45442</v>
       </c>
@@ -2067,7 +4781,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>0.75</v>
@@ -2076,13 +4790,13 @@
         <v>0.72</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45442</v>
       </c>
@@ -2093,7 +4807,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43">
         <v>1.96</v>
@@ -2102,13 +4816,13 @@
         <v>1.33</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45442</v>
       </c>
@@ -2119,7 +4833,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44">
         <v>0.72</v>
@@ -2128,13 +4842,13 @@
         <v>0.7</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45442</v>
       </c>
@@ -2145,7 +4859,7 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45">
         <v>2.56</v>
@@ -2154,13 +4868,13 @@
         <v>2.16</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="K45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45442</v>
       </c>
@@ -2171,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E46">
         <v>1.1299999999999999</v>
@@ -2182,11 +4896,11 @@
       <c r="H46">
         <v>4.6500000000000004</v>
       </c>
-      <c r="J46">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45442</v>
       </c>
@@ -2197,7 +4911,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E47">
         <v>1.27</v>
@@ -2205,11 +4919,11 @@
       <c r="F47">
         <v>1.24</v>
       </c>
-      <c r="J47">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45442</v>
       </c>
@@ -2220,7 +4934,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48">
         <v>0.97</v>
@@ -2231,11 +4945,11 @@
       <c r="H48">
         <v>4.03</v>
       </c>
-      <c r="J48">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45442</v>
       </c>
@@ -2246,7 +4960,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49">
         <v>1.59</v>
@@ -2257,11 +4971,11 @@
       <c r="H49">
         <v>3.66</v>
       </c>
-      <c r="J49">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45463</v>
       </c>
@@ -2272,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50">
         <v>1.06</v>
@@ -2281,7 +4995,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45463</v>
       </c>
@@ -2292,7 +5006,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>1.01</v>
@@ -2301,7 +5015,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45463</v>
       </c>
@@ -2312,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E52">
         <v>1.92</v>
@@ -2327,10 +5041,14 @@
         <v>708</v>
       </c>
       <c r="J52">
+        <f>I52*6.33+702.4</f>
+        <v>5184.04</v>
+      </c>
+      <c r="K52">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45463</v>
       </c>
@@ -2341,7 +5059,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E53">
         <v>1.56</v>
@@ -2356,10 +5074,14 @@
         <v>246</v>
       </c>
       <c r="J53">
+        <f>I53*6.33+702.4</f>
+        <v>2259.58</v>
+      </c>
+      <c r="K53">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45463</v>
       </c>
@@ -2370,7 +5092,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E54">
         <v>1.0900000000000001</v>
@@ -2379,7 +5101,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45463</v>
       </c>
@@ -2390,7 +5112,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E55">
         <v>1.34</v>
@@ -2399,7 +5121,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45463</v>
       </c>
@@ -2410,7 +5132,7 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>3.26</v>
@@ -2425,10 +5147,14 @@
         <v>473</v>
       </c>
       <c r="J56">
+        <f t="shared" ref="J54:J80" si="0">I56*6.33+702.4</f>
+        <v>3696.4900000000002</v>
+      </c>
+      <c r="K56">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45463</v>
       </c>
@@ -2439,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57">
         <v>2.41</v>
@@ -2454,10 +5180,14 @@
         <v>101</v>
       </c>
       <c r="J57">
+        <f t="shared" si="0"/>
+        <v>1341.73</v>
+      </c>
+      <c r="K57">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45463</v>
       </c>
@@ -2468,7 +5198,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>3.1</v>
@@ -2483,10 +5213,14 @@
         <v>116</v>
       </c>
       <c r="J58">
+        <f t="shared" si="0"/>
+        <v>1436.6799999999998</v>
+      </c>
+      <c r="K58">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45463</v>
       </c>
@@ -2497,7 +5231,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>2.74</v>
@@ -2506,7 +5240,7 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45463</v>
       </c>
@@ -2517,7 +5251,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E60">
         <v>2.09</v>
@@ -2526,7 +5260,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45463</v>
       </c>
@@ -2537,7 +5271,7 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E61">
         <v>4.25</v>
@@ -2546,7 +5280,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45463</v>
       </c>
@@ -2557,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E62">
         <v>1.71</v>
@@ -2566,7 +5300,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45463</v>
       </c>
@@ -2577,7 +5311,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E63">
         <v>2.48</v>
@@ -2588,8 +5322,12 @@
       <c r="I63">
         <v>848</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>6070.24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45463</v>
       </c>
@@ -2600,7 +5338,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E64">
         <v>2.1800000000000002</v>
@@ -2609,7 +5347,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45463</v>
       </c>
@@ -2620,7 +5358,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E65">
         <v>2.35</v>
@@ -2629,7 +5367,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45484</v>
       </c>
@@ -2640,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66">
         <v>1.06</v>
@@ -2655,10 +5393,14 @@
         <v>103</v>
       </c>
       <c r="J66">
+        <f t="shared" si="0"/>
+        <v>1354.3899999999999</v>
+      </c>
+      <c r="K66">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45484</v>
       </c>
@@ -2669,7 +5411,7 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>1.01</v>
@@ -2684,10 +5426,14 @@
         <v>92</v>
       </c>
       <c r="J67">
+        <f t="shared" si="0"/>
+        <v>1284.76</v>
+      </c>
+      <c r="K67">
         <v>25.7</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45484</v>
       </c>
@@ -2698,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E68">
         <v>1.92</v>
@@ -2713,10 +5459,14 @@
         <v>333</v>
       </c>
       <c r="J68">
+        <f t="shared" si="0"/>
+        <v>2810.29</v>
+      </c>
+      <c r="K68">
         <v>24.9</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45484</v>
       </c>
@@ -2727,7 +5477,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69">
         <v>1.57</v>
@@ -2742,10 +5492,14 @@
         <v>649</v>
       </c>
       <c r="J69">
+        <f t="shared" si="0"/>
+        <v>4810.57</v>
+      </c>
+      <c r="K69">
         <v>25.9</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45484</v>
       </c>
@@ -2756,7 +5510,7 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E70">
         <v>1.0900000000000001</v>
@@ -2771,10 +5525,14 @@
         <v>348</v>
       </c>
       <c r="J70">
+        <f t="shared" si="0"/>
+        <v>2905.2400000000002</v>
+      </c>
+      <c r="K70">
         <v>25.9</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45484</v>
       </c>
@@ -2785,7 +5543,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E71">
         <v>1.34</v>
@@ -2800,10 +5558,14 @@
         <v>603</v>
       </c>
       <c r="J71">
+        <f t="shared" si="0"/>
+        <v>4519.3900000000003</v>
+      </c>
+      <c r="K71">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45484</v>
       </c>
@@ -2814,7 +5576,7 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>3.26</v>
@@ -2829,10 +5591,14 @@
         <v>103</v>
       </c>
       <c r="J72">
+        <f t="shared" si="0"/>
+        <v>1354.3899999999999</v>
+      </c>
+      <c r="K72">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45484</v>
       </c>
@@ -2843,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>2.4</v>
@@ -2858,10 +5624,14 @@
         <v>4425</v>
       </c>
       <c r="J73">
+        <f t="shared" si="0"/>
+        <v>28712.65</v>
+      </c>
+      <c r="K73">
         <v>27.75</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45484</v>
       </c>
@@ -2872,7 +5642,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>3.12</v>
@@ -2887,10 +5657,14 @@
         <v>1791</v>
       </c>
       <c r="J74">
+        <f t="shared" si="0"/>
+        <v>12039.43</v>
+      </c>
+      <c r="K74">
         <v>25.89</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45484</v>
       </c>
@@ -2901,7 +5675,7 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E75">
         <v>2.73</v>
@@ -2916,10 +5690,14 @@
         <v>3358</v>
       </c>
       <c r="J75">
+        <f t="shared" si="0"/>
+        <v>21958.54</v>
+      </c>
+      <c r="K75">
         <v>26.57</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45484</v>
       </c>
@@ -2930,7 +5708,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E76">
         <v>3.6</v>
@@ -2945,10 +5723,14 @@
         <v>3828</v>
       </c>
       <c r="J76">
+        <f t="shared" si="0"/>
+        <v>24933.640000000003</v>
+      </c>
+      <c r="K76">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45484</v>
       </c>
@@ -2959,7 +5741,7 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E77">
         <v>4.25</v>
@@ -2968,7 +5750,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45484</v>
       </c>
@@ -2979,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E78">
         <v>1.1299999999999999</v>
@@ -2988,7 +5770,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45484</v>
       </c>
@@ -2999,7 +5781,7 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E79">
         <v>2.25</v>
@@ -3014,10 +5796,14 @@
         <v>3703</v>
       </c>
       <c r="J79">
+        <f t="shared" si="0"/>
+        <v>24142.390000000003</v>
+      </c>
+      <c r="K79">
         <v>28.7</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45484</v>
       </c>
@@ -3028,7 +5814,7 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E80">
         <v>2.4649999999999999</v>
@@ -3043,6 +5829,10 @@
         <v>2916</v>
       </c>
       <c r="J80">
+        <f t="shared" si="0"/>
+        <v>19160.68</v>
+      </c>
+      <c r="K80">
         <v>30.6</v>
       </c>
     </row>
@@ -3057,7 +5847,7 @@
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81">
         <v>1.59</v>
@@ -3073,34 +5863,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DED55BC-E84B-4096-92BA-96DACA0090BF}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:K297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -3109,10 +5905,16 @@
         <f>CONVERT(B2,"ft","m")</f>
         <v>4.2671999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>532.32979999999998</v>
+      </c>
+      <c r="K2">
+        <v>79.863910000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -3121,10 +5923,16 @@
         <f t="shared" ref="C3:C17" si="0">CONVERT(B3,"ft","m")</f>
         <v>2.1335999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>547.30619999999999</v>
+      </c>
+      <c r="K3">
+        <v>76.943730000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -3133,10 +5941,16 @@
         <f t="shared" si="0"/>
         <v>1.2192000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>547.31349999999998</v>
+      </c>
+      <c r="K4">
+        <v>88.202100000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3145,10 +5959,16 @@
         <f t="shared" si="0"/>
         <v>0.30480000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>577.80020000000002</v>
+      </c>
+      <c r="K5">
+        <v>76.922430000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -3157,10 +5977,16 @@
         <f t="shared" si="0"/>
         <v>4.8768000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>623.08079999999995</v>
+      </c>
+      <c r="K6">
+        <v>92.059330000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -3169,10 +5995,16 @@
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>653.02340000000004</v>
+      </c>
+      <c r="K7">
+        <v>76.370699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -3181,10 +6013,16 @@
         <f t="shared" si="0"/>
         <v>12.192</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>698.30179999999996</v>
+      </c>
+      <c r="K8">
+        <v>93.197450000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3193,10 +6031,16 @@
         <f t="shared" si="0"/>
         <v>0.30480000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>698.75670000000002</v>
+      </c>
+      <c r="K9">
+        <v>76.815430000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -3205,10 +6049,16 @@
         <f t="shared" si="0"/>
         <v>2.4384000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>744.30139999999994</v>
+      </c>
+      <c r="K10">
+        <v>76.590829999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>26</v>
@@ -3217,10 +6067,16 @@
         <f t="shared" si="0"/>
         <v>7.9248000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>728.80870000000004</v>
+      </c>
+      <c r="K11">
+        <v>76.606219999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -3229,10 +6085,16 @@
         <f t="shared" si="0"/>
         <v>1.524</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>728.81809999999996</v>
+      </c>
+      <c r="K12">
+        <v>76.513019999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>25</v>
@@ -3241,10 +6103,16 @@
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>728.81179999999995</v>
+      </c>
+      <c r="K13">
+        <v>76.622630000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -3253,10 +6121,16 @@
         <f t="shared" si="0"/>
         <v>0.30480000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>759.42010000000005</v>
+      </c>
+      <c r="K14">
+        <v>66.857730000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -3265,10 +6139,16 @@
         <f t="shared" si="0"/>
         <v>1.524</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>744.24469999999997</v>
+      </c>
+      <c r="K15">
+        <v>67.045649999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -3277,22 +6157,2292 @@
         <f t="shared" si="0"/>
         <v>4.2671999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>698.35050000000001</v>
+      </c>
+      <c r="K16">
+        <v>67.109120000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J17">
+        <v>667.92629999999997</v>
+      </c>
+      <c r="K17">
+        <v>66.502930000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>652.93119999999999</v>
+      </c>
+      <c r="K18">
+        <v>66.842190000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>653.20910000000003</v>
+      </c>
+      <c r="K19">
+        <v>66.69511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>607.95830000000001</v>
+      </c>
+      <c r="K20">
+        <v>67.072839999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>607.56110000000001</v>
+      </c>
+      <c r="K21">
+        <v>66.492159999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>638.08180000000004</v>
+      </c>
+      <c r="K22">
+        <v>66.821780000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>638.25340000000006</v>
+      </c>
+      <c r="K23">
+        <v>66.970429999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>623.13530000000003</v>
+      </c>
+      <c r="K24">
+        <v>66.743210000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>607.76750000000004</v>
+      </c>
+      <c r="K25">
+        <v>66.741129999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>592.50710000000004</v>
+      </c>
+      <c r="K26">
+        <v>66.642009999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>577.47490000000005</v>
+      </c>
+      <c r="K27">
+        <v>66.604929999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>562.39620000000002</v>
+      </c>
+      <c r="K28">
+        <v>66.727909999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>562.76610000000005</v>
+      </c>
+      <c r="K29">
+        <v>66.755129999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>562.50009999999997</v>
+      </c>
+      <c r="K30">
+        <v>66.565960000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>562.36329999999998</v>
+      </c>
+      <c r="K31">
+        <v>66.708879999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>577.42870000000005</v>
+      </c>
+      <c r="K32">
+        <v>66.438630000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>577.51340000000005</v>
+      </c>
+      <c r="K33">
+        <v>66.721999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>622.80349999999999</v>
+      </c>
+      <c r="K34">
+        <v>66.502319999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>698.44579999999996</v>
+      </c>
+      <c r="K35">
+        <v>66.603359999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>728.82050000000004</v>
+      </c>
+      <c r="K36">
+        <v>66.735640000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>744.46180000000004</v>
+      </c>
+      <c r="K37">
+        <v>67.009540000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>728.54539999999997</v>
+      </c>
+      <c r="K38">
+        <v>66.730959999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>728.59079999999994</v>
+      </c>
+      <c r="K39">
+        <v>66.700519999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>728.52480000000003</v>
+      </c>
+      <c r="K40">
+        <v>66.432400000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>744.04729999999995</v>
+      </c>
+      <c r="K41">
+        <v>66.440209999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>744.07650000000001</v>
+      </c>
+      <c r="K42">
+        <v>66.810680000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>759.36440000000005</v>
+      </c>
+      <c r="K43">
+        <v>66.765969999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>774.61670000000004</v>
+      </c>
+      <c r="K44">
+        <v>66.688059999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>774.67240000000004</v>
+      </c>
+      <c r="K45">
+        <v>66.708640000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>789.6807</v>
+      </c>
+      <c r="K46">
+        <v>66.707120000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>834.55520000000001</v>
+      </c>
+      <c r="K47">
+        <v>66.699510000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>834.96130000000005</v>
+      </c>
+      <c r="K48">
+        <v>67.011229999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>850.197</v>
+      </c>
+      <c r="K49">
+        <v>66.578879999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>865.02120000000002</v>
+      </c>
+      <c r="K50">
+        <v>66.439570000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>865.25400000000002</v>
+      </c>
+      <c r="K51">
+        <v>66.421679999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>880.46839999999997</v>
+      </c>
+      <c r="K52">
+        <v>66.699039999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>895.39089999999999</v>
+      </c>
+      <c r="K53">
+        <v>66.41798</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>895.33799999999997</v>
+      </c>
+      <c r="K54">
+        <v>66.555769999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>910.66690000000006</v>
+      </c>
+      <c r="K55">
+        <v>66.713909999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>925.98109999999997</v>
+      </c>
+      <c r="K56">
+        <v>66.679460000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>940.77919999999995</v>
+      </c>
+      <c r="K57">
+        <v>66.716350000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>955.72770000000003</v>
+      </c>
+      <c r="K58">
+        <v>66.600700000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>970.87699999999995</v>
+      </c>
+      <c r="K59">
+        <v>67.232489999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>986.60170000000005</v>
+      </c>
+      <c r="K60">
+        <v>66.475719999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>1001.513</v>
+      </c>
+      <c r="K61">
+        <v>69.48903</v>
+      </c>
+    </row>
+    <row r="62" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>1016.558</v>
+      </c>
+      <c r="K62">
+        <v>66.661689999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>1031.5419999999999</v>
+      </c>
+      <c r="K63">
+        <v>77.511840000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>1047.2439999999999</v>
+      </c>
+      <c r="K64">
+        <v>66.713200000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>1061.7260000000001</v>
+      </c>
+      <c r="K65">
+        <v>80.544539999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>1077.3230000000001</v>
+      </c>
+      <c r="K66">
+        <v>66.882890000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>1107.306</v>
+      </c>
+      <c r="K67">
+        <v>82.613020000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>1122.7550000000001</v>
+      </c>
+      <c r="K68">
+        <v>66.875720000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>1167.7729999999999</v>
+      </c>
+      <c r="K69">
+        <v>81.679119999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>1183.0219999999999</v>
+      </c>
+      <c r="K70">
+        <v>76.520039999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>1183.3119999999999</v>
+      </c>
+      <c r="K71">
+        <v>76.523030000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>1198.4190000000001</v>
+      </c>
+      <c r="K72">
+        <v>76.558539999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>1213.2</v>
+      </c>
+      <c r="K73">
+        <v>76.322270000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>1213.443</v>
+      </c>
+      <c r="K74">
+        <v>76.840400000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>1228.8979999999999</v>
+      </c>
+      <c r="K75">
+        <v>76.866280000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>1244.1220000000001</v>
+      </c>
+      <c r="K76">
+        <v>76.297600000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>1259.123</v>
+      </c>
+      <c r="K77">
+        <v>76.881839999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>1258.752</v>
+      </c>
+      <c r="K78">
+        <v>76.468999999999994</v>
+      </c>
+    </row>
+    <row r="79" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>1304.1369999999999</v>
+      </c>
+      <c r="K79">
+        <v>76.618129999999994</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>1349.9849999999999</v>
+      </c>
+      <c r="K80">
+        <v>76.480620000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <v>1350.0229999999999</v>
+      </c>
+      <c r="K81">
+        <v>76.648570000000007</v>
+      </c>
+    </row>
+    <row r="82" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>1364.8150000000001</v>
+      </c>
+      <c r="K82">
+        <v>76.311499999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <v>1380.152</v>
+      </c>
+      <c r="K83">
+        <v>76.679150000000007</v>
+      </c>
+    </row>
+    <row r="84" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>1380.086</v>
+      </c>
+      <c r="K84">
+        <v>76.621639999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>1379.7149999999999</v>
+      </c>
+      <c r="K85">
+        <v>76.371279999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>1394.9970000000001</v>
+      </c>
+      <c r="K86">
+        <v>76.636949999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>1410.3409999999999</v>
+      </c>
+      <c r="K87">
+        <v>76.882059999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>1425.6030000000001</v>
+      </c>
+      <c r="K88">
+        <v>76.91395</v>
+      </c>
+    </row>
+    <row r="89" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>1409.979</v>
+      </c>
+      <c r="K89">
+        <v>76.394909999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>1410.248</v>
+      </c>
+      <c r="K90">
+        <v>76.664580000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>1455.58</v>
+      </c>
+      <c r="K91">
+        <v>76.792010000000005</v>
+      </c>
+    </row>
+    <row r="92" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>1486.2159999999999</v>
+      </c>
+      <c r="K92">
+        <v>86.622889999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <v>1485.806</v>
+      </c>
+      <c r="K93">
+        <v>86.426929999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>1516.0709999999999</v>
+      </c>
+      <c r="K94">
+        <v>86.291049999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>1515.9280000000001</v>
+      </c>
+      <c r="K95">
+        <v>86.616039999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <v>1516.348</v>
+      </c>
+      <c r="K96">
+        <v>86.725769999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <v>1531.32</v>
+      </c>
+      <c r="K97">
+        <v>86.364840000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <v>1531.4570000000001</v>
+      </c>
+      <c r="K98">
+        <v>86.454610000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <v>1531.6220000000001</v>
+      </c>
+      <c r="K99">
+        <v>86.403989999999993</v>
+      </c>
+    </row>
+    <row r="100" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>1531.232</v>
+      </c>
+      <c r="K100">
+        <v>86.471239999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <v>1531.4369999999999</v>
+      </c>
+      <c r="K101">
+        <v>86.733379999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <v>1531.0519999999999</v>
+      </c>
+      <c r="K102">
+        <v>86.402079999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J103">
+        <v>1531.268</v>
+      </c>
+      <c r="K103">
+        <v>86.439710000000005</v>
+      </c>
+    </row>
+    <row r="104" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>1546.579</v>
+      </c>
+      <c r="K104">
+        <v>86.730919999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <v>1546.319</v>
+      </c>
+      <c r="K105">
+        <v>86.136409999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>1576.8009999999999</v>
+      </c>
+      <c r="K106">
+        <v>86.486429999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>1591.886</v>
+      </c>
+      <c r="K107">
+        <v>86.408940000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>1607.3309999999999</v>
+      </c>
+      <c r="K108">
+        <v>86.266360000000006</v>
+      </c>
+    </row>
+    <row r="109" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <v>1607.1669999999999</v>
+      </c>
+      <c r="K109">
+        <v>96.321259999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>1622.027</v>
+      </c>
+      <c r="K110">
+        <v>95.994619999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <v>1622.26</v>
+      </c>
+      <c r="K111">
+        <v>96.47484</v>
+      </c>
+    </row>
+    <row r="112" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>1637.01</v>
+      </c>
+      <c r="K112">
+        <v>96.487459999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J113">
+        <v>1637.1120000000001</v>
+      </c>
+      <c r="K113">
+        <v>95.942539999999994</v>
+      </c>
+    </row>
+    <row r="114" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <v>1652.441</v>
+      </c>
+      <c r="K114">
+        <v>96.212249999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <v>1652.6880000000001</v>
+      </c>
+      <c r="K115">
+        <v>96.16</v>
+      </c>
+    </row>
+    <row r="116" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <v>1652.4690000000001</v>
+      </c>
+      <c r="K116">
+        <v>96.532060000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J117">
+        <v>1667.163</v>
+      </c>
+      <c r="K117">
+        <v>96.261859999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <v>1682.24</v>
+      </c>
+      <c r="K118">
+        <v>96.204570000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>1682.7049999999999</v>
+      </c>
+      <c r="K119">
+        <v>95.947130000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <v>1697.7449999999999</v>
+      </c>
+      <c r="K120">
+        <v>102.5564</v>
+      </c>
+    </row>
+    <row r="121" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J121">
+        <v>1697.4570000000001</v>
+      </c>
+      <c r="K121">
+        <v>96.26979</v>
+      </c>
+    </row>
+    <row r="122" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <v>1697.8979999999999</v>
+      </c>
+      <c r="K122">
+        <v>107.5222</v>
+      </c>
+    </row>
+    <row r="123" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J123">
+        <v>1713.067</v>
+      </c>
+      <c r="K123">
+        <v>96.174220000000005</v>
+      </c>
+    </row>
+    <row r="124" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <v>1713.4069999999999</v>
+      </c>
+      <c r="K124">
+        <v>111.3181</v>
+      </c>
+    </row>
+    <row r="125" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J125">
+        <v>1713.269</v>
+      </c>
+      <c r="K125">
+        <v>96.214839999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J126">
+        <v>1742.9939999999999</v>
+      </c>
+      <c r="K126">
+        <v>122.13800000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J127">
+        <v>1773.7049999999999</v>
+      </c>
+      <c r="K127">
+        <v>105.7696</v>
+      </c>
+    </row>
+    <row r="128" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <v>1788.712</v>
+      </c>
+      <c r="K128">
+        <v>106.3018</v>
+      </c>
+    </row>
+    <row r="129" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J129">
+        <v>1803.973</v>
+      </c>
+      <c r="K129">
+        <v>106.0164</v>
+      </c>
+    </row>
+    <row r="130" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <v>1803.799</v>
+      </c>
+      <c r="K130">
+        <v>106.0008</v>
+      </c>
+    </row>
+    <row r="131" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J131">
+        <v>1788.7460000000001</v>
+      </c>
+      <c r="K131">
+        <v>106.2757</v>
+      </c>
+    </row>
+    <row r="132" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J132">
+        <v>1803.846</v>
+      </c>
+      <c r="K132">
+        <v>105.7705</v>
+      </c>
+    </row>
+    <row r="133" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J133">
+        <v>1788.356</v>
+      </c>
+      <c r="K133">
+        <v>106.0813</v>
+      </c>
+    </row>
+    <row r="134" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J134">
+        <v>1773.8130000000001</v>
+      </c>
+      <c r="K134">
+        <v>106.3004</v>
+      </c>
+    </row>
+    <row r="135" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J135">
+        <v>1773.46</v>
+      </c>
+      <c r="K135">
+        <v>105.8387</v>
+      </c>
+    </row>
+    <row r="136" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J136">
+        <v>1773.855</v>
+      </c>
+      <c r="K136">
+        <v>106.3312</v>
+      </c>
+    </row>
+    <row r="137" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J137">
+        <v>1758.252</v>
+      </c>
+      <c r="K137">
+        <v>105.94289999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J138">
+        <v>1758.42</v>
+      </c>
+      <c r="K138">
+        <v>105.88379999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J139">
+        <v>1743.6389999999999</v>
+      </c>
+      <c r="K139">
+        <v>105.9689</v>
+      </c>
+    </row>
+    <row r="140" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J140">
+        <v>1743.116</v>
+      </c>
+      <c r="K140">
+        <v>106.07550000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J141">
+        <v>1743.41</v>
+      </c>
+      <c r="K141">
+        <v>105.9944</v>
+      </c>
+    </row>
+    <row r="142" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J142">
+        <v>1758.229</v>
+      </c>
+      <c r="K142">
+        <v>105.9682</v>
+      </c>
+    </row>
+    <row r="143" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J143">
+        <v>1758.6110000000001</v>
+      </c>
+      <c r="K143">
+        <v>106.0844</v>
+      </c>
+    </row>
+    <row r="144" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J144">
+        <v>1758.502</v>
+      </c>
+      <c r="K144">
+        <v>106.253</v>
+      </c>
+    </row>
+    <row r="145" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J145">
+        <v>1758.336</v>
+      </c>
+      <c r="K145">
+        <v>105.9712</v>
+      </c>
+    </row>
+    <row r="146" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J146">
+        <v>1743.46</v>
+      </c>
+      <c r="K146">
+        <v>105.7208</v>
+      </c>
+    </row>
+    <row r="147" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J147">
+        <v>1743.7249999999999</v>
+      </c>
+      <c r="K147">
+        <v>106.00369999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J148">
+        <v>1743.2550000000001</v>
+      </c>
+      <c r="K148">
+        <v>105.74850000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J149">
+        <v>1743.2</v>
+      </c>
+      <c r="K149">
+        <v>105.6892</v>
+      </c>
+    </row>
+    <row r="150" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J150">
+        <v>1743.645</v>
+      </c>
+      <c r="K150">
+        <v>115.9367</v>
+      </c>
+    </row>
+    <row r="151" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J151">
+        <v>1743.6010000000001</v>
+      </c>
+      <c r="K151">
+        <v>115.7723</v>
+      </c>
+    </row>
+    <row r="152" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J152">
+        <v>1743.2650000000001</v>
+      </c>
+      <c r="K152">
+        <v>115.5065</v>
+      </c>
+    </row>
+    <row r="153" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J153">
+        <v>1743.1210000000001</v>
+      </c>
+      <c r="K153">
+        <v>116.05670000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J154">
+        <v>1743.5830000000001</v>
+      </c>
+      <c r="K154">
+        <v>115.9269</v>
+      </c>
+    </row>
+    <row r="155" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J155">
+        <v>1743.1949999999999</v>
+      </c>
+      <c r="K155">
+        <v>115.9965</v>
+      </c>
+    </row>
+    <row r="156" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J156">
+        <v>1758.404</v>
+      </c>
+      <c r="K156">
+        <v>115.4991</v>
+      </c>
+    </row>
+    <row r="157" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J157">
+        <v>1743.6780000000001</v>
+      </c>
+      <c r="K157">
+        <v>115.5228</v>
+      </c>
+    </row>
+    <row r="158" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J158">
+        <v>1743.75</v>
+      </c>
+      <c r="K158">
+        <v>115.83710000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J159">
+        <v>1743.4010000000001</v>
+      </c>
+      <c r="K159">
+        <v>115.67700000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J160">
+        <v>1758.3130000000001</v>
+      </c>
+      <c r="K160">
+        <v>115.5472</v>
+      </c>
+    </row>
+    <row r="161" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J161">
+        <v>1758.4659999999999</v>
+      </c>
+      <c r="K161">
+        <v>116.02809999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J162">
+        <v>1758.309</v>
+      </c>
+      <c r="K162">
+        <v>115.7191</v>
+      </c>
+    </row>
+    <row r="163" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J163">
+        <v>1758.383</v>
+      </c>
+      <c r="K163">
+        <v>115.8503</v>
+      </c>
+    </row>
+    <row r="164" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J164">
+        <v>1758.7819999999999</v>
+      </c>
+      <c r="K164">
+        <v>116.01349999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J165">
+        <v>1788.462</v>
+      </c>
+      <c r="K165">
+        <v>116.0718</v>
+      </c>
+    </row>
+    <row r="166" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J166">
+        <v>1804.0540000000001</v>
+      </c>
+      <c r="K166">
+        <v>115.88200000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J167">
+        <v>1804.001</v>
+      </c>
+      <c r="K167">
+        <v>115.82640000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J168">
+        <v>1818.5730000000001</v>
+      </c>
+      <c r="K168">
+        <v>116.0414</v>
+      </c>
+    </row>
+    <row r="169" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J169">
+        <v>1818.624</v>
+      </c>
+      <c r="K169">
+        <v>115.7786</v>
+      </c>
+    </row>
+    <row r="170" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J170">
+        <v>1818.7860000000001</v>
+      </c>
+      <c r="K170">
+        <v>115.92440000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J171">
+        <v>1834.075</v>
+      </c>
+      <c r="K171">
+        <v>116.0988</v>
+      </c>
+    </row>
+    <row r="172" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J172">
+        <v>1834.6020000000001</v>
+      </c>
+      <c r="K172">
+        <v>115.9281</v>
+      </c>
+    </row>
+    <row r="173" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J173">
+        <v>1834.0730000000001</v>
+      </c>
+      <c r="K173">
+        <v>115.8377</v>
+      </c>
+    </row>
+    <row r="174" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J174">
+        <v>1834.4480000000001</v>
+      </c>
+      <c r="K174">
+        <v>116.0936</v>
+      </c>
+    </row>
+    <row r="175" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J175">
+        <v>1834.4960000000001</v>
+      </c>
+      <c r="K175">
+        <v>115.8402</v>
+      </c>
+    </row>
+    <row r="176" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J176">
+        <v>1849.4380000000001</v>
+      </c>
+      <c r="K176">
+        <v>116.17019999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J177">
+        <v>1864.201</v>
+      </c>
+      <c r="K177">
+        <v>115.6253</v>
+      </c>
+    </row>
+    <row r="178" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J178">
+        <v>1864.7149999999999</v>
+      </c>
+      <c r="K178">
+        <v>116.0719</v>
+      </c>
+    </row>
+    <row r="179" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J179">
+        <v>1879.3689999999999</v>
+      </c>
+      <c r="K179">
+        <v>116.3058</v>
+      </c>
+    </row>
+    <row r="180" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J180">
+        <v>1894.5129999999999</v>
+      </c>
+      <c r="K180">
+        <v>115.8853</v>
+      </c>
+    </row>
+    <row r="181" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J181">
+        <v>1894.61</v>
+      </c>
+      <c r="K181">
+        <v>116.38339999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J182">
+        <v>1895.0039999999999</v>
+      </c>
+      <c r="K182">
+        <v>116.1009</v>
+      </c>
+    </row>
+    <row r="183" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J183">
+        <v>1909.9960000000001</v>
+      </c>
+      <c r="K183">
+        <v>126.40130000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J184">
+        <v>1909.953</v>
+      </c>
+      <c r="K184">
+        <v>115.6763</v>
+      </c>
+    </row>
+    <row r="185" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J185">
+        <v>1909.9480000000001</v>
+      </c>
+      <c r="K185">
+        <v>128.953</v>
+      </c>
+    </row>
+    <row r="186" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J186">
+        <v>1925.124</v>
+      </c>
+      <c r="K186">
+        <v>115.9194</v>
+      </c>
+    </row>
+    <row r="187" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J187">
+        <v>1924.905</v>
+      </c>
+      <c r="K187">
+        <v>131.6455</v>
+      </c>
+    </row>
+    <row r="188" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J188">
+        <v>1939.692</v>
+      </c>
+      <c r="K188">
+        <v>115.86109999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J189">
+        <v>1939.9169999999999</v>
+      </c>
+      <c r="K189">
+        <v>115.68819999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J190">
+        <v>1955.596</v>
+      </c>
+      <c r="K190">
+        <v>116.19329999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J191">
+        <v>1970.683</v>
+      </c>
+      <c r="K191">
+        <v>116.134</v>
+      </c>
+    </row>
+    <row r="192" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J192">
+        <v>1970.617</v>
+      </c>
+      <c r="K192">
+        <v>116.1763</v>
+      </c>
+    </row>
+    <row r="193" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J193">
+        <v>1970.1420000000001</v>
+      </c>
+      <c r="K193">
+        <v>116.0438</v>
+      </c>
+    </row>
+    <row r="194" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J194">
+        <v>1985.317</v>
+      </c>
+      <c r="K194">
+        <v>115.9259</v>
+      </c>
+    </row>
+    <row r="195" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J195">
+        <v>1985.1020000000001</v>
+      </c>
+      <c r="K195">
+        <v>116.0008</v>
+      </c>
+    </row>
+    <row r="196" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J196">
+        <v>2000.7739999999999</v>
+      </c>
+      <c r="K196">
+        <v>116.0121</v>
+      </c>
+    </row>
+    <row r="197" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J197">
+        <v>2000.3019999999999</v>
+      </c>
+      <c r="K197">
+        <v>115.7264</v>
+      </c>
+    </row>
+    <row r="198" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J198">
+        <v>2015.693</v>
+      </c>
+      <c r="K198">
+        <v>115.9374</v>
+      </c>
+    </row>
+    <row r="199" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J199">
+        <v>2030.57</v>
+      </c>
+      <c r="K199">
+        <v>115.91459999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J200">
+        <v>2046.1120000000001</v>
+      </c>
+      <c r="K200">
+        <v>115.63939999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J201">
+        <v>2076.0819999999999</v>
+      </c>
+      <c r="K201">
+        <v>116.1581</v>
+      </c>
+    </row>
+    <row r="202" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J202">
+        <v>2091.7159999999999</v>
+      </c>
+      <c r="K202">
+        <v>115.8416</v>
+      </c>
+    </row>
+    <row r="203" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J203">
+        <v>2106.19</v>
+      </c>
+      <c r="K203">
+        <v>115.8566</v>
+      </c>
+    </row>
+    <row r="204" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J204">
+        <v>2106.2840000000001</v>
+      </c>
+      <c r="K204">
+        <v>115.8509</v>
+      </c>
+    </row>
+    <row r="205" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J205">
+        <v>2121.7220000000002</v>
+      </c>
+      <c r="K205">
+        <v>115.8514</v>
+      </c>
+    </row>
+    <row r="206" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J206">
+        <v>2136.712</v>
+      </c>
+      <c r="K206">
+        <v>125.86709999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J207">
+        <v>2136.752</v>
+      </c>
+      <c r="K207">
+        <v>125.4483</v>
+      </c>
+    </row>
+    <row r="208" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J208">
+        <v>2136.913</v>
+      </c>
+      <c r="K208">
+        <v>125.4024</v>
+      </c>
+    </row>
+    <row r="209" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J209">
+        <v>2167.261</v>
+      </c>
+      <c r="K209">
+        <v>125.7238</v>
+      </c>
+    </row>
+    <row r="210" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J210">
+        <v>2181.7249999999999</v>
+      </c>
+      <c r="K210">
+        <v>125.682</v>
+      </c>
+    </row>
+    <row r="211" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J211">
+        <v>2182.0329999999999</v>
+      </c>
+      <c r="K211">
+        <v>125.6857</v>
+      </c>
+    </row>
+    <row r="212" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J212">
+        <v>2197.1640000000002</v>
+      </c>
+      <c r="K212">
+        <v>125.4738</v>
+      </c>
+    </row>
+    <row r="213" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J213">
+        <v>2212.6770000000001</v>
+      </c>
+      <c r="K213">
+        <v>125.9331</v>
+      </c>
+    </row>
+    <row r="214" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J214">
+        <v>2227.3980000000001</v>
+      </c>
+      <c r="K214">
+        <v>125.37139999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J215">
+        <v>2242.422</v>
+      </c>
+      <c r="K215">
+        <v>125.9153</v>
+      </c>
+    </row>
+    <row r="216" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J216">
+        <v>2257.8890000000001</v>
+      </c>
+      <c r="K216">
+        <v>125.6576</v>
+      </c>
+    </row>
+    <row r="217" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J217">
+        <v>2272.59</v>
+      </c>
+      <c r="K217">
+        <v>125.5729</v>
+      </c>
+    </row>
+    <row r="218" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J218">
+        <v>2288.2159999999999</v>
+      </c>
+      <c r="K218">
+        <v>125.9589</v>
+      </c>
+    </row>
+    <row r="219" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J219">
+        <v>2302.7950000000001</v>
+      </c>
+      <c r="K219">
+        <v>135.2037</v>
+      </c>
+    </row>
+    <row r="220" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J220">
+        <v>2318.6460000000002</v>
+      </c>
+      <c r="K220">
+        <v>135.52789999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J221">
+        <v>2333.2890000000002</v>
+      </c>
+      <c r="K221">
+        <v>135.4736</v>
+      </c>
+    </row>
+    <row r="222" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J222">
+        <v>2348.8989999999999</v>
+      </c>
+      <c r="K222">
+        <v>135.52209999999999</v>
+      </c>
+    </row>
+    <row r="223" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J223">
+        <v>2363.453</v>
+      </c>
+      <c r="K223">
+        <v>135.203</v>
+      </c>
+    </row>
+    <row r="224" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J224">
+        <v>2379.2429999999999</v>
+      </c>
+      <c r="K224">
+        <v>135.62870000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J225">
+        <v>2378.7959999999998</v>
+      </c>
+      <c r="K225">
+        <v>135.7516</v>
+      </c>
+    </row>
+    <row r="226" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J226">
+        <v>2379.1619999999998</v>
+      </c>
+      <c r="K226">
+        <v>135.196</v>
+      </c>
+    </row>
+    <row r="227" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J227">
+        <v>2363.471</v>
+      </c>
+      <c r="K227">
+        <v>135.72149999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J228">
+        <v>2318.3110000000001</v>
+      </c>
+      <c r="K228">
+        <v>135.15219999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J229">
+        <v>2303.3679999999999</v>
+      </c>
+      <c r="K229">
+        <v>135.52850000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J230">
+        <v>2303.4119999999998</v>
+      </c>
+      <c r="K230">
+        <v>135.50040000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J231">
+        <v>2272.797</v>
+      </c>
+      <c r="K231">
+        <v>135.14279999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J232">
+        <v>2257.855</v>
+      </c>
+      <c r="K232">
+        <v>135.7586</v>
+      </c>
+    </row>
+    <row r="233" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J233">
+        <v>2257.732</v>
+      </c>
+      <c r="K233">
+        <v>135.2062</v>
+      </c>
+    </row>
+    <row r="234" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J234">
+        <v>2243.0100000000002</v>
+      </c>
+      <c r="K234">
+        <v>135.19049999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J235">
+        <v>2227.8380000000002</v>
+      </c>
+      <c r="K235">
+        <v>135.5018</v>
+      </c>
+    </row>
+    <row r="236" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J236">
+        <v>2227.8609999999999</v>
+      </c>
+      <c r="K236">
+        <v>135.70230000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J237">
+        <v>2227.7280000000001</v>
+      </c>
+      <c r="K237">
+        <v>135.14320000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J238">
+        <v>2212.5929999999998</v>
+      </c>
+      <c r="K238">
+        <v>135.9186</v>
+      </c>
+    </row>
+    <row r="239" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J239">
+        <v>2212.4630000000002</v>
+      </c>
+      <c r="K239">
+        <v>135.1687</v>
+      </c>
+    </row>
+    <row r="240" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J240">
+        <v>2197.69</v>
+      </c>
+      <c r="K240">
+        <v>136.13910000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J241">
+        <v>2197.442</v>
+      </c>
+      <c r="K241">
+        <v>135.43340000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J242">
+        <v>2197.8220000000001</v>
+      </c>
+      <c r="K242">
+        <v>146.0427</v>
+      </c>
+    </row>
+    <row r="243" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J243">
+        <v>2181.6410000000001</v>
+      </c>
+      <c r="K243">
+        <v>135.41380000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J244">
+        <v>2181.77</v>
+      </c>
+      <c r="K244">
+        <v>148.27549999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J245">
+        <v>2182.2109999999998</v>
+      </c>
+      <c r="K245">
+        <v>135.7269</v>
+      </c>
+    </row>
+    <row r="246" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J246">
+        <v>2166.9209999999998</v>
+      </c>
+      <c r="K246">
+        <v>150.4016</v>
+      </c>
+    </row>
+    <row r="247" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J247">
+        <v>2167.4630000000002</v>
+      </c>
+      <c r="K247">
+        <v>135.68629999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J248">
+        <v>2166.9349999999999</v>
+      </c>
+      <c r="K248">
+        <v>149.3246</v>
+      </c>
+    </row>
+    <row r="249" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J249">
+        <v>2152.0659999999998</v>
+      </c>
+      <c r="K249">
+        <v>135.16829999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J250">
+        <v>2151.8969999999999</v>
+      </c>
+      <c r="K250">
+        <v>135.63730000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J251">
+        <v>2151.701</v>
+      </c>
+      <c r="K251">
+        <v>135.42089999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J252">
+        <v>2152.1179999999999</v>
+      </c>
+      <c r="K252">
+        <v>135.44110000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J253">
+        <v>2137.1120000000001</v>
+      </c>
+      <c r="K253">
+        <v>135.73140000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J254">
+        <v>2152.1480000000001</v>
+      </c>
+      <c r="K254">
+        <v>135.52979999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J255">
+        <v>2136.7139999999999</v>
+      </c>
+      <c r="K255">
+        <v>135.16589999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J256">
+        <v>2136.7220000000002</v>
+      </c>
+      <c r="K256">
+        <v>135.43109999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J257">
+        <v>2137.1190000000001</v>
+      </c>
+      <c r="K257">
+        <v>135.6944</v>
+      </c>
+    </row>
+    <row r="258" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J258">
+        <v>2137.2060000000001</v>
+      </c>
+      <c r="K258">
+        <v>135.5111</v>
+      </c>
+    </row>
+    <row r="259" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J259">
+        <v>2137.136</v>
+      </c>
+      <c r="K259">
+        <v>135.74529999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J260">
+        <v>2136.998</v>
+      </c>
+      <c r="K260">
+        <v>135.589</v>
+      </c>
+    </row>
+    <row r="261" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J261">
+        <v>2137.0430000000001</v>
+      </c>
+      <c r="K261">
+        <v>135.4787</v>
+      </c>
+    </row>
+    <row r="262" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J262">
+        <v>2136.9940000000001</v>
+      </c>
+      <c r="K262">
+        <v>135.501</v>
+      </c>
+    </row>
+    <row r="263" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J263">
+        <v>2151.7600000000002</v>
+      </c>
+      <c r="K263">
+        <v>135.68340000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J264">
+        <v>2136.674</v>
+      </c>
+      <c r="K264">
+        <v>135.40479999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J265">
+        <v>2151.973</v>
+      </c>
+      <c r="K265">
+        <v>135.34440000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J266">
+        <v>2151.9319999999998</v>
+      </c>
+      <c r="K266">
+        <v>135.4581</v>
+      </c>
+    </row>
+    <row r="267" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J267">
+        <v>2151.9209999999998</v>
+      </c>
+      <c r="K267">
+        <v>135.1977</v>
+      </c>
+    </row>
+    <row r="268" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J268">
+        <v>2151.9989999999998</v>
+      </c>
+      <c r="K268">
+        <v>135.34399999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J269">
+        <v>2166.6460000000002</v>
+      </c>
+      <c r="K269">
+        <v>135.76349999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J270">
+        <v>2152.134</v>
+      </c>
+      <c r="K270">
+        <v>135.49199999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J271">
+        <v>2167.125</v>
+      </c>
+      <c r="K271">
+        <v>135.47919999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J272">
+        <v>2166.8739999999998</v>
+      </c>
+      <c r="K272">
+        <v>135.7834</v>
+      </c>
+    </row>
+    <row r="273" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J273">
+        <v>2182.17</v>
+      </c>
+      <c r="K273">
+        <v>135.50450000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J274">
+        <v>2182.067</v>
+      </c>
+      <c r="K274">
+        <v>135.22200000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J275">
+        <v>2197.5309999999999</v>
+      </c>
+      <c r="K275">
+        <v>135.49209999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J276">
+        <v>2197.299</v>
+      </c>
+      <c r="K276">
+        <v>135.19800000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J277">
+        <v>2212.5549999999998</v>
+      </c>
+      <c r="K277">
+        <v>135.47669999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J278">
+        <v>2227.5909999999999</v>
+      </c>
+      <c r="K278">
+        <v>135.24359999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J279">
+        <v>2242.674</v>
+      </c>
+      <c r="K279">
+        <v>135.78200000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J280">
+        <v>2242.6320000000001</v>
+      </c>
+      <c r="K280">
+        <v>135.61869999999999</v>
+      </c>
+    </row>
+    <row r="281" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J281">
+        <v>2257.8119999999999</v>
+      </c>
+      <c r="K281">
+        <v>135.5112</v>
+      </c>
+    </row>
+    <row r="282" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J282">
+        <v>2257.9879999999998</v>
+      </c>
+      <c r="K282">
+        <v>135.25960000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J283">
+        <v>2273.31</v>
+      </c>
+      <c r="K283">
+        <v>135.57429999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J284">
+        <v>2272.7620000000002</v>
+      </c>
+      <c r="K284">
+        <v>135.48140000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J285">
+        <v>2272.7910000000002</v>
+      </c>
+      <c r="K285">
+        <v>135.24860000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J286">
+        <v>2303.0889999999999</v>
+      </c>
+      <c r="K286">
+        <v>135.2543</v>
+      </c>
+    </row>
+    <row r="287" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J287">
+        <v>2318.8209999999999</v>
+      </c>
+      <c r="K287">
+        <v>135.78460000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J288">
+        <v>2334.0030000000002</v>
+      </c>
+      <c r="K288">
+        <v>135.56190000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J289">
+        <v>2348.922</v>
+      </c>
+      <c r="K289">
+        <v>135.61609999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J290">
+        <v>2348.8249999999998</v>
+      </c>
+      <c r="K290">
+        <v>135.52010000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J291">
+        <v>2348.7159999999999</v>
+      </c>
+      <c r="K291">
+        <v>135.76300000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J292">
+        <v>2363.6129999999998</v>
+      </c>
+      <c r="K292">
+        <v>135.53290000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J293">
+        <v>2378.8510000000001</v>
+      </c>
+      <c r="K293">
+        <v>135.28210000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J294">
+        <v>2379.19</v>
+      </c>
+      <c r="K294">
+        <v>135.48609999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J295">
+        <v>2394.2730000000001</v>
+      </c>
+      <c r="K295">
+        <v>135.55950000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J296">
+        <v>2393.9299999999998</v>
+      </c>
+      <c r="K296">
+        <v>135.2533</v>
+      </c>
+    </row>
+    <row r="297" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J297">
+        <v>2394.2550000000001</v>
+      </c>
+      <c r="K297">
+        <v>135.85169999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100205AA101E2883C419D53A6EAA58BE6E4" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0732453c88b6c24a50b901808cd2a95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0ed78115-f4df-42b0-9376-ad3306022cc8" xmlns:ns4="94b7f148-c09a-42e6-baca-973a9a7cd962" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c3ce456d5e9a668ce7bebc57d13ab49" ns3:_="" ns4:_="">
     <xsd:import namespace="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
@@ -3545,24 +8695,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="94b7f148-c09a-42e6-baca-973a9a7cd962"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88B5DFD5-AF32-4053-8117-B9F97580063E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3579,29 +8737,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="94b7f148-c09a-42e6-baca-973a9a7cd962"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ad.ufl.edu\ifas\SFRC\Groups\Hydrology\Bradford_Forest_Project\Howley_Bradford_Streams\01_Raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F577FBF-DB29-4B27-9790-03AA2A57B77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF8CBCA-D112-4C8F-93DA-CFC2F9178B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Site</t>
-  </si>
-  <si>
-    <t>Total Well Length</t>
   </si>
   <si>
     <t>WT to Well</t>
@@ -111,19 +108,10 @@
     <t>9GW3</t>
   </si>
   <si>
-    <t>9GW24</t>
-  </si>
-  <si>
     <t>9GW4</t>
   </si>
   <si>
-    <t>well height</t>
-  </si>
-  <si>
     <t>Distance (ft)</t>
-  </si>
-  <si>
-    <t>m</t>
   </si>
   <si>
     <t>Eosense</t>
@@ -136,6 +124,18 @@
   </si>
   <si>
     <t>CO2_ppm</t>
+  </si>
+  <si>
+    <t>Well hieght</t>
+  </si>
+  <si>
+    <t>Distance_m</t>
+  </si>
+  <si>
+    <t>surface_hieght</t>
+  </si>
+  <si>
+    <t>surface_height</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$K:$K</c:f>
+              <c:f>Sheet1!$H:$H</c:f>
               <c:strCache>
                 <c:ptCount val="297"/>
                 <c:pt idx="0">
@@ -1679,7 +1679,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J:$J</c:f>
+              <c:f>Sheet1!$G:$G</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
@@ -3331,13 +3331,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
@@ -3685,20 +3685,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E7760-F87C-4D84-A63F-D473D279D553}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X70" sqref="X70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.40625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3712,28 +3713,28 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>45400</v>
       </c>
@@ -3744,14 +3745,18 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>1.85</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
         <v>1.54</v>
       </c>
+      <c r="G2">
+        <f>E2-F2</f>
+        <v>-1.34</v>
+      </c>
       <c r="H2">
         <v>5.41</v>
       </c>
@@ -3759,7 +3764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>45400</v>
       </c>
@@ -3770,14 +3775,18 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>2.1</v>
+        <v>0.42</v>
       </c>
       <c r="F3">
         <v>1.47</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G66" si="0">E3-F3</f>
+        <v>-1.05</v>
+      </c>
       <c r="H3">
         <v>5.8</v>
       </c>
@@ -3785,7 +3794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>45400</v>
       </c>
@@ -3796,14 +3805,18 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>1.95</v>
+        <v>0.755</v>
       </c>
       <c r="F4">
         <v>1.25</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-0.495</v>
+      </c>
       <c r="H4">
         <v>6.1</v>
       </c>
@@ -3811,7 +3824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>45400</v>
       </c>
@@ -3822,14 +3835,18 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>2.25</v>
+        <v>0.24</v>
       </c>
       <c r="F5">
         <v>1.63</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-1.39</v>
+      </c>
       <c r="H5">
         <v>6.67</v>
       </c>
@@ -3837,7 +3854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>45400</v>
       </c>
@@ -3848,14 +3865,18 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>1.34</v>
+        <v>0.75</v>
       </c>
       <c r="F6">
         <v>0.86</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>-0.10999999999999999</v>
+      </c>
       <c r="H6">
         <v>6.2</v>
       </c>
@@ -3863,7 +3884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45400</v>
       </c>
@@ -3874,22 +3895,26 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>2.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F7">
         <v>1.33</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>-1.26</v>
+      </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K7">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>45400</v>
       </c>
@@ -3900,7 +3925,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3908,14 +3933,18 @@
       <c r="F8">
         <v>0</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>45400</v>
       </c>
@@ -3926,14 +3955,18 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>1.91</v>
+        <v>0.08</v>
       </c>
       <c r="F9">
         <v>1.1299999999999999</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-1.0499999999999998</v>
+      </c>
       <c r="H9">
         <v>4.76</v>
       </c>
@@ -3941,7 +3974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>45400</v>
       </c>
@@ -3952,14 +3985,18 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>1.47</v>
+        <v>0.84</v>
       </c>
       <c r="F10">
         <v>0.82</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
       <c r="H10">
         <v>4.5999999999999996</v>
       </c>
@@ -3967,7 +4004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>45400</v>
       </c>
@@ -3978,14 +4015,18 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1.42</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-1.42</v>
+      </c>
       <c r="H11">
         <v>5.0999999999999996</v>
       </c>
@@ -3993,7 +4034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>45400</v>
       </c>
@@ -4004,14 +4045,18 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>0.73</v>
+        <v>0.81</v>
       </c>
       <c r="F12">
         <v>0.45</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.36000000000000004</v>
+      </c>
       <c r="H12">
         <v>4.7</v>
       </c>
@@ -4019,7 +4064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>45400</v>
       </c>
@@ -4030,19 +4075,23 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>3.38</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>2.17</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-1.17</v>
+      </c>
       <c r="K13">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="1">
         <v>45400</v>
       </c>
@@ -4053,14 +4102,18 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1.85</v>
+        <v>0.245</v>
       </c>
       <c r="F14">
         <v>0.55000000000000004</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-0.30500000000000005</v>
+      </c>
       <c r="H14">
         <v>4.7699999999999996</v>
       </c>
@@ -4068,7 +4121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>45400</v>
       </c>
@@ -4079,14 +4132,18 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0.83</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>-0.83</v>
+      </c>
       <c r="H15">
         <v>4.72</v>
       </c>
@@ -4094,7 +4151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="1">
         <v>45400</v>
       </c>
@@ -4105,14 +4162,18 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1.95</v>
+        <v>-0.08</v>
       </c>
       <c r="F16">
         <v>1.33</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>-1.4100000000000001</v>
+      </c>
       <c r="H16">
         <v>4.84</v>
       </c>
@@ -4120,7 +4181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>45400</v>
       </c>
@@ -4131,14 +4192,18 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>2.25</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="F17">
         <v>1.1599999999999999</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>-0.81499999999999995</v>
+      </c>
       <c r="H17">
         <v>5.1870000000000003</v>
       </c>
@@ -4146,7 +4211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="1">
         <v>45420</v>
       </c>
@@ -4157,22 +4222,26 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>1.06</v>
+        <v>0.2</v>
       </c>
       <c r="F18">
         <v>1.03</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>-0.83000000000000007</v>
+      </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K18">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>45420</v>
       </c>
@@ -4183,14 +4252,18 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>1.06</v>
+        <v>0.42</v>
       </c>
       <c r="F19">
         <v>0.71</v>
       </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>-0.28999999999999998</v>
+      </c>
       <c r="H19">
         <v>5.36</v>
       </c>
@@ -4198,7 +4271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="1">
         <v>45420</v>
       </c>
@@ -4209,14 +4282,18 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>1.0449999999999999</v>
+        <v>0.755</v>
       </c>
       <c r="F20">
         <v>0.47</v>
       </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0.28500000000000003</v>
+      </c>
       <c r="H20">
         <v>5.024</v>
       </c>
@@ -4224,7 +4301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="1">
         <v>45420</v>
       </c>
@@ -4235,14 +4312,18 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21">
-        <v>1.57</v>
+        <v>0.24</v>
       </c>
       <c r="F21">
         <v>1.06</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>-0.82000000000000006</v>
+      </c>
       <c r="H21">
         <v>6.36</v>
       </c>
@@ -4250,7 +4331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="1">
         <v>45420</v>
       </c>
@@ -4261,14 +4342,18 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>1.095</v>
+        <v>0.75</v>
       </c>
       <c r="F22">
         <v>0.41</v>
       </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0.34</v>
+      </c>
       <c r="H22">
         <v>4.7</v>
       </c>
@@ -4276,7 +4361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="1">
         <v>45420</v>
       </c>
@@ -4287,14 +4372,18 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>1.34</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F23">
         <v>1.01</v>
       </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>-0.94</v>
+      </c>
       <c r="H23">
         <v>4.9000000000000004</v>
       </c>
@@ -4302,7 +4391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="1">
         <v>45420</v>
       </c>
@@ -4313,7 +4402,7 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4321,14 +4410,18 @@
       <c r="F24">
         <v>0</v>
       </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K24">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="1">
         <v>45420</v>
       </c>
@@ -4339,22 +4432,26 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25">
-        <v>1.1200000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F25">
         <v>0.63</v>
       </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>-0.55000000000000004</v>
+      </c>
       <c r="H25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K25">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="1">
         <v>45420</v>
       </c>
@@ -4365,14 +4462,18 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="F26">
         <v>0.49</v>
       </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
       <c r="H26">
         <v>4.4000000000000004</v>
       </c>
@@ -4380,7 +4481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="1">
         <v>45420</v>
       </c>
@@ -4391,22 +4492,26 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>1.07</v>
       </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>-1.07</v>
+      </c>
       <c r="H27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="1">
         <v>45420</v>
       </c>
@@ -4417,22 +4522,26 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E28">
-        <v>0.72</v>
+        <v>0.81</v>
       </c>
       <c r="F28">
         <v>0.69</v>
       </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000011</v>
+      </c>
       <c r="H28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="1">
         <v>45420</v>
       </c>
@@ -4443,14 +4552,18 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>2.5499999999999998</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>1.89</v>
       </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>-0.8899999999999999</v>
+      </c>
       <c r="H29">
         <v>5.8</v>
       </c>
@@ -4458,7 +4571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A30" s="1">
         <v>45420</v>
       </c>
@@ -4469,14 +4582,18 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30">
-        <v>1.1299999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="F30">
         <v>0.65</v>
       </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>-0.40500000000000003</v>
+      </c>
       <c r="H30">
         <v>5</v>
       </c>
@@ -4484,7 +4601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A31" s="1">
         <v>45420</v>
       </c>
@@ -4495,14 +4612,18 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0.93</v>
       </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>-0.93</v>
+      </c>
       <c r="H31">
         <v>4.7699999999999996</v>
       </c>
@@ -4510,7 +4631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A32" s="1">
         <v>45420</v>
       </c>
@@ -4521,14 +4642,18 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32">
-        <v>1.52</v>
+        <v>-0.08</v>
       </c>
       <c r="F32">
         <v>0.69</v>
       </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>-0.76999999999999991</v>
+      </c>
       <c r="H32">
         <v>4.42</v>
       </c>
@@ -4536,7 +4661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A33" s="1">
         <v>45420</v>
       </c>
@@ -4547,14 +4672,18 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33">
-        <v>1.59</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="F33">
         <v>1.34</v>
       </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>-0.99500000000000011</v>
+      </c>
       <c r="H33">
         <v>4.74</v>
       </c>
@@ -4562,7 +4691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A34" s="1">
         <v>45442</v>
       </c>
@@ -4573,22 +4702,26 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>1.06</v>
+        <v>0.2</v>
       </c>
       <c r="F34">
         <v>1.03</v>
       </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>-0.83000000000000007</v>
+      </c>
       <c r="H34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K34">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A35" s="1">
         <v>45442</v>
       </c>
@@ -4599,14 +4732,18 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>1.01</v>
+        <v>0.42</v>
       </c>
       <c r="F35">
         <v>0.77</v>
       </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>-0.35000000000000003</v>
+      </c>
       <c r="H35">
         <v>6.4</v>
       </c>
@@ -4614,7 +4751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A36" s="1">
         <v>45442</v>
       </c>
@@ -4625,14 +4762,18 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>1.04</v>
+        <v>0.755</v>
       </c>
       <c r="F36">
         <v>0.53</v>
       </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
       <c r="H36">
         <v>6.8</v>
       </c>
@@ -4640,7 +4781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A37" s="1">
         <v>45442</v>
       </c>
@@ -4651,14 +4792,18 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37">
-        <v>1.57</v>
+        <v>0.24</v>
       </c>
       <c r="F37">
         <v>1.1000000000000001</v>
       </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>-0.8600000000000001</v>
+      </c>
       <c r="H37">
         <v>6.35</v>
       </c>
@@ -4666,7 +4811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A38" s="1">
         <v>45442</v>
       </c>
@@ -4677,14 +4822,18 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>1.0900000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="F38">
         <v>0.47</v>
       </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
       <c r="H38">
         <v>6.13</v>
       </c>
@@ -4692,7 +4841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A39" s="1">
         <v>45442</v>
       </c>
@@ -4703,14 +4852,18 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39">
-        <v>1.34</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F39">
         <v>1.01</v>
       </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>-0.94</v>
+      </c>
       <c r="H39">
         <v>5.66</v>
       </c>
@@ -4718,7 +4871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A40" s="1">
         <v>45442</v>
       </c>
@@ -4729,22 +4882,26 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E40" t="s">
         <v>15</v>
       </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G40" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
       <c r="H40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K40">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A41" s="1">
         <v>45442</v>
       </c>
@@ -4755,22 +4912,26 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>1.1200000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F41">
         <v>1.109</v>
       </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>-1.0289999999999999</v>
+      </c>
       <c r="H41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K41">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A42" s="1">
         <v>45442</v>
       </c>
@@ -4781,22 +4942,26 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="F42">
         <v>0.72</v>
       </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
       <c r="H42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K42">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A43" s="1">
         <v>45442</v>
       </c>
@@ -4807,22 +4972,26 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>1.33</v>
       </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>-1.33</v>
+      </c>
       <c r="H43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K43">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A44" s="1">
         <v>45442</v>
       </c>
@@ -4833,22 +5002,26 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E44">
-        <v>0.72</v>
+        <v>0.81</v>
       </c>
       <c r="F44">
         <v>0.7</v>
       </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>0.1100000000000001</v>
+      </c>
       <c r="H44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K44">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A45" s="1">
         <v>45442</v>
       </c>
@@ -4859,22 +5032,26 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45">
-        <v>2.56</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>2.16</v>
       </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>-1.1600000000000001</v>
+      </c>
       <c r="H45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K45">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A46" s="1">
         <v>45442</v>
       </c>
@@ -4885,14 +5062,18 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E46">
-        <v>1.1299999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="F46">
         <v>1.01</v>
       </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>-0.76500000000000001</v>
+      </c>
       <c r="H46">
         <v>4.6500000000000004</v>
       </c>
@@ -4900,7 +5081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A47" s="1">
         <v>45442</v>
       </c>
@@ -4911,19 +5092,23 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E47">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>1.24</v>
       </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>-1.24</v>
+      </c>
       <c r="K47">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A48" s="1">
         <v>45442</v>
       </c>
@@ -4934,14 +5119,18 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E48">
-        <v>0.97</v>
+        <v>-0.08</v>
       </c>
       <c r="F48">
         <v>0.88</v>
       </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>-0.96</v>
+      </c>
       <c r="H48">
         <v>4.03</v>
       </c>
@@ -4949,7 +5138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A49" s="1">
         <v>45442</v>
       </c>
@@ -4960,14 +5149,18 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E49">
-        <v>1.59</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="F49">
         <v>1.5</v>
       </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>-1.155</v>
+      </c>
       <c r="H49">
         <v>3.66</v>
       </c>
@@ -4975,7 +5168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A50" s="1">
         <v>45463</v>
       </c>
@@ -4986,16 +5179,20 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50">
-        <v>1.06</v>
+        <v>0.2</v>
       </c>
       <c r="F50">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>-0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A51" s="1">
         <v>45463</v>
       </c>
@@ -5006,16 +5203,20 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>1.01</v>
+        <v>0.42</v>
       </c>
       <c r="F51">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>-1.55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A52" s="1">
         <v>45463</v>
       </c>
@@ -5026,13 +5227,17 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>1.92</v>
+        <v>0.755</v>
       </c>
       <c r="F52">
         <v>1.51</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>-0.755</v>
       </c>
       <c r="H52">
         <v>5.37</v>
@@ -5048,7 +5253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A53" s="1">
         <v>45463</v>
       </c>
@@ -5059,13 +5264,17 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53">
-        <v>1.56</v>
+        <v>0.24</v>
       </c>
       <c r="F53">
         <v>1.49</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>-1.25</v>
       </c>
       <c r="H53">
         <v>4.87</v>
@@ -5081,7 +5290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A54" s="1">
         <v>45463</v>
       </c>
@@ -5092,16 +5301,20 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>1.0900000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="F54">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A55" s="1">
         <v>45463</v>
       </c>
@@ -5112,16 +5325,20 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55">
-        <v>1.34</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F55">
         <v>1.31</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>-1.24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A56" s="1">
         <v>45463</v>
       </c>
@@ -5132,14 +5349,18 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>2.46</v>
       </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>-2.46</v>
+      </c>
       <c r="H56">
         <v>5.05</v>
       </c>
@@ -5147,14 +5368,14 @@
         <v>473</v>
       </c>
       <c r="J56">
-        <f t="shared" ref="J54:J80" si="0">I56*6.33+702.4</f>
+        <f t="shared" ref="J56:J96" si="1">I56*6.33+702.4</f>
         <v>3696.4900000000002</v>
       </c>
       <c r="K56">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A57" s="1">
         <v>45463</v>
       </c>
@@ -5165,14 +5386,18 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57">
-        <v>2.41</v>
+        <v>0.08</v>
       </c>
       <c r="F57">
         <v>1.89</v>
       </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>-1.8099999999999998</v>
+      </c>
       <c r="H57">
         <v>4.8</v>
       </c>
@@ -5180,14 +5405,14 @@
         <v>101</v>
       </c>
       <c r="J57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1341.73</v>
       </c>
       <c r="K57">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A58" s="1">
         <v>45463</v>
       </c>
@@ -5198,14 +5423,18 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58">
-        <v>3.1</v>
+        <v>0.84</v>
       </c>
       <c r="F58">
         <v>2.33</v>
       </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>-1.4900000000000002</v>
+      </c>
       <c r="H58">
         <v>4.7699999999999996</v>
       </c>
@@ -5213,14 +5442,14 @@
         <v>116</v>
       </c>
       <c r="J58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1436.6799999999998</v>
       </c>
       <c r="K58">
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A59" s="1">
         <v>45463</v>
       </c>
@@ -5231,16 +5460,20 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E59">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>2.64</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>-2.64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A60" s="1">
         <v>45463</v>
       </c>
@@ -5251,16 +5484,20 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E60">
-        <v>2.09</v>
+        <v>0.81</v>
       </c>
       <c r="F60">
         <v>1.91</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>-1.0999999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A61" s="1">
         <v>45463</v>
       </c>
@@ -5271,16 +5508,20 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E61">
-        <v>4.25</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>-2.79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A62" s="1">
         <v>45463</v>
       </c>
@@ -5291,16 +5532,20 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E62">
-        <v>1.71</v>
+        <v>0.245</v>
       </c>
       <c r="F62">
         <v>1.71</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>-1.4649999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A63" s="1">
         <v>45463</v>
       </c>
@@ -5311,23 +5556,27 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E63">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>2.1800000000000002</v>
       </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>-2.1800000000000002</v>
+      </c>
       <c r="I63">
         <v>848</v>
       </c>
       <c r="J63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6070.24</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A64" s="1">
         <v>45463</v>
       </c>
@@ -5338,16 +5587,20 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E64">
-        <v>2.1800000000000002</v>
+        <v>-0.08</v>
       </c>
       <c r="F64">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>-2.19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A65" s="1">
         <v>45463</v>
       </c>
@@ -5358,16 +5611,20 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E65">
-        <v>2.35</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="F65">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>-2.0049999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A66" s="1">
         <v>45484</v>
       </c>
@@ -5378,13 +5635,17 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E66">
-        <v>1.06</v>
+        <v>0.2</v>
       </c>
       <c r="F66">
-        <v>1.1000000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="H66">
         <v>5.0999999999999996</v>
@@ -5393,14 +5654,14 @@
         <v>103</v>
       </c>
       <c r="J66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1354.3899999999999</v>
       </c>
       <c r="K66">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A67" s="1">
         <v>45484</v>
       </c>
@@ -5411,13 +5672,17 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67">
-        <v>1.01</v>
+        <v>0.42</v>
       </c>
       <c r="F67">
-        <v>1.05</v>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" ref="G67:G81" si="2">E67-F67</f>
+        <v>0.42</v>
       </c>
       <c r="H67">
         <v>5.47</v>
@@ -5426,14 +5691,14 @@
         <v>92</v>
       </c>
       <c r="J67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1284.76</v>
       </c>
       <c r="K67">
         <v>25.7</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A68" s="1">
         <v>45484</v>
       </c>
@@ -5444,13 +5709,16 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <v>1.92</v>
+        <v>0.755</v>
       </c>
       <c r="F68">
-        <v>1.96</v>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0.3</v>
       </c>
       <c r="H68">
         <v>5.47</v>
@@ -5459,14 +5727,14 @@
         <v>333</v>
       </c>
       <c r="J68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2810.29</v>
       </c>
       <c r="K68">
         <v>24.9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A69" s="1">
         <v>45484</v>
       </c>
@@ -5477,14 +5745,18 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69">
-        <v>1.57</v>
+        <v>0.24</v>
       </c>
       <c r="F69">
         <v>0.47</v>
       </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>-0.22999999999999998</v>
+      </c>
       <c r="H69">
         <v>4.97</v>
       </c>
@@ -5492,14 +5764,14 @@
         <v>649</v>
       </c>
       <c r="J69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4810.57</v>
       </c>
       <c r="K69">
         <v>25.9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A70" s="1">
         <v>45484</v>
       </c>
@@ -5510,13 +5782,16 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70">
-        <v>1.0900000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="F70">
-        <v>1.1299999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0.3</v>
       </c>
       <c r="H70">
         <v>3.8</v>
@@ -5525,14 +5800,14 @@
         <v>348</v>
       </c>
       <c r="J70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2905.2400000000002</v>
       </c>
       <c r="K70">
         <v>25.9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A71" s="1">
         <v>45484</v>
       </c>
@@ -5543,14 +5818,18 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E71">
-        <v>1.34</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F71">
         <v>0.25</v>
       </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>-0.18</v>
+      </c>
       <c r="H71">
         <v>3.87</v>
       </c>
@@ -5558,14 +5837,14 @@
         <v>603</v>
       </c>
       <c r="J71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4519.3900000000003</v>
       </c>
       <c r="K71">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A72" s="1">
         <v>45484</v>
       </c>
@@ -5576,14 +5855,18 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E72">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>3.5</v>
       </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>-3.5</v>
+      </c>
       <c r="H72">
         <v>5.2</v>
       </c>
@@ -5591,14 +5874,14 @@
         <v>103</v>
       </c>
       <c r="J72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1354.3899999999999</v>
       </c>
       <c r="K72">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A73" s="1">
         <v>45484</v>
       </c>
@@ -5609,14 +5892,18 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E73">
-        <v>2.4</v>
+        <v>0.08</v>
       </c>
       <c r="F73">
         <v>1.17</v>
       </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>-1.0899999999999999</v>
+      </c>
       <c r="H73">
         <v>3.72</v>
       </c>
@@ -5624,14 +5911,14 @@
         <v>4425</v>
       </c>
       <c r="J73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28712.65</v>
       </c>
       <c r="K73">
         <v>27.75</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A74" s="1">
         <v>45484</v>
       </c>
@@ -5642,14 +5929,18 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E74">
-        <v>3.12</v>
+        <v>0.84</v>
       </c>
       <c r="F74">
         <v>1.32</v>
       </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>-0.48000000000000009</v>
+      </c>
       <c r="H74">
         <v>3.5</v>
       </c>
@@ -5657,14 +5948,14 @@
         <v>1791</v>
       </c>
       <c r="J74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12039.43</v>
       </c>
       <c r="K74">
         <v>25.89</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A75" s="1">
         <v>45484</v>
       </c>
@@ -5675,14 +5966,18 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E75">
-        <v>2.73</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>1.72</v>
       </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>-1.72</v>
+      </c>
       <c r="H75">
         <v>3.89</v>
       </c>
@@ -5690,14 +5985,14 @@
         <v>3358</v>
       </c>
       <c r="J75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21958.54</v>
       </c>
       <c r="K75">
         <v>26.57</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A76" s="1">
         <v>45484</v>
       </c>
@@ -5708,14 +6003,18 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76">
-        <v>3.6</v>
+        <v>0.81</v>
       </c>
       <c r="F76">
         <v>0.54</v>
       </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
       <c r="H76">
         <v>3.68</v>
       </c>
@@ -5723,14 +6022,14 @@
         <v>3828</v>
       </c>
       <c r="J76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24933.640000000003</v>
       </c>
       <c r="K76">
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A77" s="1">
         <v>45484</v>
       </c>
@@ -5741,16 +6040,26 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E77">
-        <v>4.25</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>-2.14</v>
+      </c>
+      <c r="J77" t="s">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A78" s="1">
         <v>45484</v>
       </c>
@@ -5761,16 +6070,26 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E78">
-        <v>1.1299999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="F78">
         <v>1.1299999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>-0.8849999999999999</v>
+      </c>
+      <c r="J78" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A79" s="1">
         <v>45484</v>
       </c>
@@ -5781,14 +6100,18 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E79">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>1.98</v>
       </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>-1.98</v>
+      </c>
       <c r="H79">
         <v>3.76</v>
       </c>
@@ -5796,14 +6119,14 @@
         <v>3703</v>
       </c>
       <c r="J79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24142.390000000003</v>
       </c>
       <c r="K79">
         <v>28.7</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A80" s="1">
         <v>45484</v>
       </c>
@@ -5814,14 +6137,18 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E80">
-        <v>2.4649999999999999</v>
+        <v>-0.08</v>
       </c>
       <c r="F80">
         <v>2.1</v>
       </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>-2.1800000000000002</v>
+      </c>
       <c r="H80">
         <v>3.63</v>
       </c>
@@ -5829,14 +6156,14 @@
         <v>2916</v>
       </c>
       <c r="J80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19160.68</v>
       </c>
       <c r="K80">
         <v>30.6</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A81" s="1">
         <v>45484</v>
       </c>
@@ -5847,13 +6174,568 @@
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E81">
-        <v>1.59</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="F81">
         <v>1.59</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>-1.2450000000000001</v>
+      </c>
+      <c r="J81" t="s">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A82" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82">
+        <v>0.2</v>
+      </c>
+      <c r="G82">
+        <v>0.04</v>
+      </c>
+      <c r="H82">
+        <v>5.36</v>
+      </c>
+      <c r="I82">
+        <v>515</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="1"/>
+        <v>3962.35</v>
+      </c>
+      <c r="K82">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A83" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83">
+        <v>0.42</v>
+      </c>
+      <c r="G83">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>2950</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="1"/>
+        <v>19375.900000000001</v>
+      </c>
+      <c r="K83">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A84" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B84">
+        <v>5</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>0.755</v>
+      </c>
+      <c r="G84">
+        <v>0.19</v>
+      </c>
+      <c r="H84">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I84">
+        <v>934</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="1"/>
+        <v>6614.62</v>
+      </c>
+      <c r="K84">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A85" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85">
+        <v>0.24</v>
+      </c>
+      <c r="F85">
+        <v>0.64</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ref="G85" si="3">E85-F85</f>
+        <v>-0.4</v>
+      </c>
+      <c r="H85">
+        <v>4.84</v>
+      </c>
+      <c r="I85">
+        <v>1310</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="1"/>
+        <v>8994.6999999999989</v>
+      </c>
+      <c r="K85">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A86" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>0.75</v>
+      </c>
+      <c r="G86">
+        <v>0.36</v>
+      </c>
+      <c r="H86">
+        <v>4.58</v>
+      </c>
+      <c r="I86">
+        <v>1290</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="1"/>
+        <v>8868.1</v>
+      </c>
+      <c r="K86">
+        <v>25.72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A87" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F87">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G87">
+        <f t="shared" ref="G87" si="4">E87-F87</f>
+        <v>-0.10499999999999998</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>530</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="1"/>
+        <v>4057.3</v>
+      </c>
+      <c r="K87">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A88" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>7</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" t="s">
+        <v>14</v>
+      </c>
+      <c r="K88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A89" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89">
+        <v>0.08</v>
+      </c>
+      <c r="F89">
+        <v>0.49</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ref="G89" si="5">E89-F89</f>
+        <v>-0.41</v>
+      </c>
+      <c r="H89">
+        <v>4.5</v>
+      </c>
+      <c r="I89">
+        <v>5453</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="1"/>
+        <v>35219.89</v>
+      </c>
+      <c r="K89">
+        <v>34.33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A90" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B90">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90">
+        <v>0.84</v>
+      </c>
+      <c r="G90">
+        <v>-0.09</v>
+      </c>
+      <c r="H90">
+        <v>4.97</v>
+      </c>
+      <c r="I90">
+        <v>4554</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="1"/>
+        <v>29529.22</v>
+      </c>
+      <c r="K90">
+        <v>32.46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A91" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>-0.06</v>
+      </c>
+      <c r="H91">
+        <v>4.08</v>
+      </c>
+      <c r="I91">
+        <v>909</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="1"/>
+        <v>6456.37</v>
+      </c>
+      <c r="K91">
+        <v>29.26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A92" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="E92">
+        <v>0.81</v>
+      </c>
+      <c r="F92">
+        <v>1.41</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ref="G92:G97" si="6">E92-F92</f>
+        <v>-0.59999999999999987</v>
+      </c>
+      <c r="H92">
+        <v>3.48</v>
+      </c>
+      <c r="I92">
+        <v>1541</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="1"/>
+        <v>10456.93</v>
+      </c>
+      <c r="K92">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A93" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B93">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>2.5</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="6"/>
+        <v>-1.5</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" t="s">
+        <v>14</v>
+      </c>
+      <c r="K93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A94" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B94">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94">
+        <v>0.245</v>
+      </c>
+      <c r="F94">
+        <v>0.54</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="6"/>
+        <v>-0.29500000000000004</v>
+      </c>
+      <c r="H94">
+        <v>3.92</v>
+      </c>
+      <c r="I94">
+        <v>1519</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="1"/>
+        <v>10317.67</v>
+      </c>
+      <c r="K94">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A95" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B95">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0.59</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="6"/>
+        <v>-0.59</v>
+      </c>
+      <c r="H95">
+        <v>3.75</v>
+      </c>
+      <c r="I95">
+        <v>1531</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="1"/>
+        <v>10393.629999999999</v>
+      </c>
+      <c r="K95">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A96" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B96">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96">
+        <v>-0.08</v>
+      </c>
+      <c r="G96">
+        <v>0.77</v>
+      </c>
+      <c r="H96">
+        <v>3.8</v>
+      </c>
+      <c r="I96">
+        <v>3013</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="1"/>
+        <v>19774.690000000002</v>
+      </c>
+      <c r="K96">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A97" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B97">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F97">
+        <v>1.38</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="6"/>
+        <v>-1.0349999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5863,40 +6745,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DED55BC-E84B-4096-92BA-96DACA0090BF}">
-  <dimension ref="A1:K297"/>
+  <dimension ref="A1:H297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="2" max="2" width="10.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -5905,16 +6793,22 @@
         <f>CONVERT(B2,"ft","m")</f>
         <v>4.2671999999999999</v>
       </c>
-      <c r="J2">
+      <c r="D2">
+        <v>1.85</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="G2">
         <v>532.32979999999998</v>
       </c>
-      <c r="K2">
+      <c r="H2">
         <v>79.863910000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -5923,16 +6817,22 @@
         <f t="shared" ref="C3:C17" si="0">CONVERT(B3,"ft","m")</f>
         <v>2.1335999999999999</v>
       </c>
-      <c r="J3">
+      <c r="D3">
+        <v>2.1</v>
+      </c>
+      <c r="E3">
+        <v>0.42</v>
+      </c>
+      <c r="G3">
         <v>547.30619999999999</v>
       </c>
-      <c r="K3">
+      <c r="H3">
         <v>76.943730000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -5941,16 +6841,22 @@
         <f t="shared" si="0"/>
         <v>1.2192000000000001</v>
       </c>
-      <c r="J4">
+      <c r="D4">
+        <v>1.95</v>
+      </c>
+      <c r="E4">
+        <v>0.755</v>
+      </c>
+      <c r="G4">
         <v>547.31349999999998</v>
       </c>
-      <c r="K4">
+      <c r="H4">
         <v>88.202100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5959,16 +6865,22 @@
         <f t="shared" si="0"/>
         <v>0.30480000000000002</v>
       </c>
-      <c r="J5">
+      <c r="D5">
+        <v>2.25</v>
+      </c>
+      <c r="E5">
+        <v>0.24</v>
+      </c>
+      <c r="G5">
         <v>577.80020000000002</v>
       </c>
-      <c r="K5">
+      <c r="H5">
         <v>76.922430000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -5977,16 +6889,22 @@
         <f t="shared" si="0"/>
         <v>4.8768000000000002</v>
       </c>
-      <c r="J6">
+      <c r="D6">
+        <v>1.34</v>
+      </c>
+      <c r="E6">
+        <v>0.75</v>
+      </c>
+      <c r="G6">
         <v>623.08079999999995</v>
       </c>
-      <c r="K6">
+      <c r="H6">
         <v>92.059330000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -5995,16 +6913,22 @@
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-      <c r="J7">
+      <c r="D7">
+        <v>2.02</v>
+      </c>
+      <c r="E7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G7">
         <v>653.02340000000004</v>
       </c>
-      <c r="K7">
+      <c r="H7">
         <v>76.370699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -6013,16 +6937,22 @@
         <f t="shared" si="0"/>
         <v>12.192</v>
       </c>
-      <c r="J8">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>698.30179999999996</v>
       </c>
-      <c r="K8">
+      <c r="H8">
         <v>93.197450000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6031,16 +6961,22 @@
         <f t="shared" si="0"/>
         <v>0.30480000000000002</v>
       </c>
-      <c r="J9">
+      <c r="D9">
+        <v>1.91</v>
+      </c>
+      <c r="E9">
+        <v>0.08</v>
+      </c>
+      <c r="G9">
         <v>698.75670000000002</v>
       </c>
-      <c r="K9">
+      <c r="H9">
         <v>76.815430000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -6049,16 +6985,22 @@
         <f t="shared" si="0"/>
         <v>2.4384000000000001</v>
       </c>
-      <c r="J10">
+      <c r="D10">
+        <v>1.47</v>
+      </c>
+      <c r="E10">
+        <v>0.84</v>
+      </c>
+      <c r="G10">
         <v>744.30139999999994</v>
       </c>
-      <c r="K10">
+      <c r="H10">
         <v>76.590829999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>26</v>
@@ -6067,16 +7009,22 @@
         <f t="shared" si="0"/>
         <v>7.9248000000000003</v>
       </c>
-      <c r="J11">
+      <c r="D11">
+        <v>2.75</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>728.80870000000004</v>
       </c>
-      <c r="K11">
+      <c r="H11">
         <v>76.606219999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -6085,16 +7033,22 @@
         <f t="shared" si="0"/>
         <v>1.524</v>
       </c>
-      <c r="J12">
+      <c r="D12">
+        <v>0.73</v>
+      </c>
+      <c r="E12">
+        <v>0.81</v>
+      </c>
+      <c r="G12">
         <v>728.81809999999996</v>
       </c>
-      <c r="K12">
+      <c r="H12">
         <v>76.513019999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>25</v>
@@ -6103,16 +7057,22 @@
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-      <c r="J13">
+      <c r="D13">
+        <v>3.38</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>728.81179999999995</v>
       </c>
-      <c r="K13">
+      <c r="H13">
         <v>76.622630000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6121,16 +7081,22 @@
         <f t="shared" si="0"/>
         <v>0.30480000000000002</v>
       </c>
-      <c r="J14">
+      <c r="D14">
+        <v>1.85</v>
+      </c>
+      <c r="E14">
+        <v>0.245</v>
+      </c>
+      <c r="G14">
         <v>759.42010000000005</v>
       </c>
-      <c r="K14">
+      <c r="H14">
         <v>66.857730000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -6139,16 +7105,22 @@
         <f t="shared" si="0"/>
         <v>1.524</v>
       </c>
-      <c r="J15">
+      <c r="D15">
+        <v>2.1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>744.24469999999997</v>
       </c>
-      <c r="K15">
+      <c r="H15">
         <v>67.045649999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -6157,2265 +7129,2277 @@
         <f t="shared" si="0"/>
         <v>4.2671999999999999</v>
       </c>
-      <c r="J16">
+      <c r="D16">
+        <v>1.95</v>
+      </c>
+      <c r="E16">
+        <v>-0.08</v>
+      </c>
+      <c r="G16">
         <v>698.35050000000001</v>
       </c>
-      <c r="K16">
+      <c r="H16">
         <v>67.109120000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="D17">
+        <v>2.25</v>
+      </c>
+      <c r="E17">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G17">
         <v>667.92629999999997</v>
       </c>
-      <c r="K17">
+      <c r="H17">
         <v>66.502930000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G18">
         <v>652.93119999999999</v>
       </c>
-      <c r="K18">
+      <c r="H18">
         <v>66.842190000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G19">
         <v>653.20910000000003</v>
       </c>
-      <c r="K19">
+      <c r="H19">
         <v>66.69511</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G20">
         <v>607.95830000000001</v>
       </c>
-      <c r="K20">
+      <c r="H20">
         <v>67.072839999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G21">
         <v>607.56110000000001</v>
       </c>
-      <c r="K21">
+      <c r="H21">
         <v>66.492159999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G22">
         <v>638.08180000000004</v>
       </c>
-      <c r="K22">
+      <c r="H22">
         <v>66.821780000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G23">
         <v>638.25340000000006</v>
       </c>
-      <c r="K23">
+      <c r="H23">
         <v>66.970429999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G24">
         <v>623.13530000000003</v>
       </c>
-      <c r="K24">
+      <c r="H24">
         <v>66.743210000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G25">
         <v>607.76750000000004</v>
       </c>
-      <c r="K25">
+      <c r="H25">
         <v>66.741129999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G26">
         <v>592.50710000000004</v>
       </c>
-      <c r="K26">
+      <c r="H26">
         <v>66.642009999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G27">
         <v>577.47490000000005</v>
       </c>
-      <c r="K27">
+      <c r="H27">
         <v>66.604929999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G28">
         <v>562.39620000000002</v>
       </c>
-      <c r="K28">
+      <c r="H28">
         <v>66.727909999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G29">
         <v>562.76610000000005</v>
       </c>
-      <c r="K29">
+      <c r="H29">
         <v>66.755129999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G30">
         <v>562.50009999999997</v>
       </c>
-      <c r="K30">
+      <c r="H30">
         <v>66.565960000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G31">
         <v>562.36329999999998</v>
       </c>
-      <c r="K31">
+      <c r="H31">
         <v>66.708879999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.75">
+      <c r="G32">
         <v>577.42870000000005</v>
       </c>
-      <c r="K32">
+      <c r="H32">
         <v>66.438630000000003</v>
       </c>
     </row>
-    <row r="33" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J33">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G33">
         <v>577.51340000000005</v>
       </c>
-      <c r="K33">
+      <c r="H33">
         <v>66.721999999999994</v>
       </c>
     </row>
-    <row r="34" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J34">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G34">
         <v>622.80349999999999</v>
       </c>
-      <c r="K34">
+      <c r="H34">
         <v>66.502319999999997</v>
       </c>
     </row>
-    <row r="35" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J35">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G35">
         <v>698.44579999999996</v>
       </c>
-      <c r="K35">
+      <c r="H35">
         <v>66.603359999999995</v>
       </c>
     </row>
-    <row r="36" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J36">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G36">
         <v>728.82050000000004</v>
       </c>
-      <c r="K36">
+      <c r="H36">
         <v>66.735640000000004</v>
       </c>
     </row>
-    <row r="37" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J37">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G37">
         <v>744.46180000000004</v>
       </c>
-      <c r="K37">
+      <c r="H37">
         <v>67.009540000000001</v>
       </c>
     </row>
-    <row r="38" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J38">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G38">
         <v>728.54539999999997</v>
       </c>
-      <c r="K38">
+      <c r="H38">
         <v>66.730959999999996</v>
       </c>
     </row>
-    <row r="39" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J39">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G39">
         <v>728.59079999999994</v>
       </c>
-      <c r="K39">
+      <c r="H39">
         <v>66.700519999999997</v>
       </c>
     </row>
-    <row r="40" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J40">
+    <row r="40" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G40">
         <v>728.52480000000003</v>
       </c>
-      <c r="K40">
+      <c r="H40">
         <v>66.432400000000001</v>
       </c>
     </row>
-    <row r="41" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J41">
+    <row r="41" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G41">
         <v>744.04729999999995</v>
       </c>
-      <c r="K41">
+      <c r="H41">
         <v>66.440209999999993</v>
       </c>
     </row>
-    <row r="42" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J42">
+    <row r="42" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G42">
         <v>744.07650000000001</v>
       </c>
-      <c r="K42">
+      <c r="H42">
         <v>66.810680000000005</v>
       </c>
     </row>
-    <row r="43" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J43">
+    <row r="43" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G43">
         <v>759.36440000000005</v>
       </c>
-      <c r="K43">
+      <c r="H43">
         <v>66.765969999999996</v>
       </c>
     </row>
-    <row r="44" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J44">
+    <row r="44" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G44">
         <v>774.61670000000004</v>
       </c>
-      <c r="K44">
+      <c r="H44">
         <v>66.688059999999993</v>
       </c>
     </row>
-    <row r="45" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J45">
+    <row r="45" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G45">
         <v>774.67240000000004</v>
       </c>
-      <c r="K45">
+      <c r="H45">
         <v>66.708640000000003</v>
       </c>
     </row>
-    <row r="46" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J46">
+    <row r="46" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G46">
         <v>789.6807</v>
       </c>
-      <c r="K46">
+      <c r="H46">
         <v>66.707120000000003</v>
       </c>
     </row>
-    <row r="47" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J47">
+    <row r="47" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G47">
         <v>834.55520000000001</v>
       </c>
-      <c r="K47">
+      <c r="H47">
         <v>66.699510000000004</v>
       </c>
     </row>
-    <row r="48" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J48">
+    <row r="48" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G48">
         <v>834.96130000000005</v>
       </c>
-      <c r="K48">
+      <c r="H48">
         <v>67.011229999999998</v>
       </c>
     </row>
-    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J49">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G49">
         <v>850.197</v>
       </c>
-      <c r="K49">
+      <c r="H49">
         <v>66.578879999999998</v>
       </c>
     </row>
-    <row r="50" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J50">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G50">
         <v>865.02120000000002</v>
       </c>
-      <c r="K50">
+      <c r="H50">
         <v>66.439570000000003</v>
       </c>
     </row>
-    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J51">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G51">
         <v>865.25400000000002</v>
       </c>
-      <c r="K51">
+      <c r="H51">
         <v>66.421679999999995</v>
       </c>
     </row>
-    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J52">
+    <row r="52" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G52">
         <v>880.46839999999997</v>
       </c>
-      <c r="K52">
+      <c r="H52">
         <v>66.699039999999997</v>
       </c>
     </row>
-    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J53">
+    <row r="53" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G53">
         <v>895.39089999999999</v>
       </c>
-      <c r="K53">
+      <c r="H53">
         <v>66.41798</v>
       </c>
     </row>
-    <row r="54" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J54">
+    <row r="54" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G54">
         <v>895.33799999999997</v>
       </c>
-      <c r="K54">
+      <c r="H54">
         <v>66.555769999999995</v>
       </c>
     </row>
-    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J55">
+    <row r="55" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G55">
         <v>910.66690000000006</v>
       </c>
-      <c r="K55">
+      <c r="H55">
         <v>66.713909999999998</v>
       </c>
     </row>
-    <row r="56" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J56">
+    <row r="56" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G56">
         <v>925.98109999999997</v>
       </c>
-      <c r="K56">
+      <c r="H56">
         <v>66.679460000000006</v>
       </c>
     </row>
-    <row r="57" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J57">
+    <row r="57" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G57">
         <v>940.77919999999995</v>
       </c>
-      <c r="K57">
+      <c r="H57">
         <v>66.716350000000006</v>
       </c>
     </row>
-    <row r="58" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J58">
+    <row r="58" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G58">
         <v>955.72770000000003</v>
       </c>
-      <c r="K58">
+      <c r="H58">
         <v>66.600700000000003</v>
       </c>
     </row>
-    <row r="59" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J59">
+    <row r="59" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G59">
         <v>970.87699999999995</v>
       </c>
-      <c r="K59">
+      <c r="H59">
         <v>67.232489999999999</v>
       </c>
     </row>
-    <row r="60" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J60">
+    <row r="60" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G60">
         <v>986.60170000000005</v>
       </c>
-      <c r="K60">
+      <c r="H60">
         <v>66.475719999999995</v>
       </c>
     </row>
-    <row r="61" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J61">
+    <row r="61" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G61">
         <v>1001.513</v>
       </c>
-      <c r="K61">
+      <c r="H61">
         <v>69.48903</v>
       </c>
     </row>
-    <row r="62" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J62">
+    <row r="62" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G62">
         <v>1016.558</v>
       </c>
-      <c r="K62">
+      <c r="H62">
         <v>66.661689999999993</v>
       </c>
     </row>
-    <row r="63" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J63">
+    <row r="63" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G63">
         <v>1031.5419999999999</v>
       </c>
-      <c r="K63">
+      <c r="H63">
         <v>77.511840000000007</v>
       </c>
     </row>
-    <row r="64" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J64">
+    <row r="64" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G64">
         <v>1047.2439999999999</v>
       </c>
-      <c r="K64">
+      <c r="H64">
         <v>66.713200000000001</v>
       </c>
     </row>
-    <row r="65" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J65">
+    <row r="65" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G65">
         <v>1061.7260000000001</v>
       </c>
-      <c r="K65">
+      <c r="H65">
         <v>80.544539999999998</v>
       </c>
     </row>
-    <row r="66" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J66">
+    <row r="66" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G66">
         <v>1077.3230000000001</v>
       </c>
-      <c r="K66">
+      <c r="H66">
         <v>66.882890000000003</v>
       </c>
     </row>
-    <row r="67" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J67">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G67">
         <v>1107.306</v>
       </c>
-      <c r="K67">
+      <c r="H67">
         <v>82.613020000000006</v>
       </c>
     </row>
-    <row r="68" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J68">
+    <row r="68" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G68">
         <v>1122.7550000000001</v>
       </c>
-      <c r="K68">
+      <c r="H68">
         <v>66.875720000000001</v>
       </c>
     </row>
-    <row r="69" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J69">
+    <row r="69" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G69">
         <v>1167.7729999999999</v>
       </c>
-      <c r="K69">
+      <c r="H69">
         <v>81.679119999999998</v>
       </c>
     </row>
-    <row r="70" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J70">
+    <row r="70" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G70">
         <v>1183.0219999999999</v>
       </c>
-      <c r="K70">
+      <c r="H70">
         <v>76.520039999999995</v>
       </c>
     </row>
-    <row r="71" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J71">
+    <row r="71" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G71">
         <v>1183.3119999999999</v>
       </c>
-      <c r="K71">
+      <c r="H71">
         <v>76.523030000000006</v>
       </c>
     </row>
-    <row r="72" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J72">
+    <row r="72" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G72">
         <v>1198.4190000000001</v>
       </c>
-      <c r="K72">
+      <c r="H72">
         <v>76.558539999999994</v>
       </c>
     </row>
-    <row r="73" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J73">
+    <row r="73" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G73">
         <v>1213.2</v>
       </c>
-      <c r="K73">
+      <c r="H73">
         <v>76.322270000000003</v>
       </c>
     </row>
-    <row r="74" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J74">
+    <row r="74" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G74">
         <v>1213.443</v>
       </c>
-      <c r="K74">
+      <c r="H74">
         <v>76.840400000000002</v>
       </c>
     </row>
-    <row r="75" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J75">
+    <row r="75" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G75">
         <v>1228.8979999999999</v>
       </c>
-      <c r="K75">
+      <c r="H75">
         <v>76.866280000000003</v>
       </c>
     </row>
-    <row r="76" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J76">
+    <row r="76" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G76">
         <v>1244.1220000000001</v>
       </c>
-      <c r="K76">
+      <c r="H76">
         <v>76.297600000000003</v>
       </c>
     </row>
-    <row r="77" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J77">
+    <row r="77" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G77">
         <v>1259.123</v>
       </c>
-      <c r="K77">
+      <c r="H77">
         <v>76.881839999999997</v>
       </c>
     </row>
-    <row r="78" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J78">
+    <row r="78" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G78">
         <v>1258.752</v>
       </c>
-      <c r="K78">
+      <c r="H78">
         <v>76.468999999999994</v>
       </c>
     </row>
-    <row r="79" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J79">
+    <row r="79" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G79">
         <v>1304.1369999999999</v>
       </c>
-      <c r="K79">
+      <c r="H79">
         <v>76.618129999999994</v>
       </c>
     </row>
-    <row r="80" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J80">
+    <row r="80" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G80">
         <v>1349.9849999999999</v>
       </c>
-      <c r="K80">
+      <c r="H80">
         <v>76.480620000000002</v>
       </c>
     </row>
-    <row r="81" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J81">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G81">
         <v>1350.0229999999999</v>
       </c>
-      <c r="K81">
+      <c r="H81">
         <v>76.648570000000007</v>
       </c>
     </row>
-    <row r="82" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J82">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G82">
         <v>1364.8150000000001</v>
       </c>
-      <c r="K82">
+      <c r="H82">
         <v>76.311499999999995</v>
       </c>
     </row>
-    <row r="83" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J83">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G83">
         <v>1380.152</v>
       </c>
-      <c r="K83">
+      <c r="H83">
         <v>76.679150000000007</v>
       </c>
     </row>
-    <row r="84" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J84">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G84">
         <v>1380.086</v>
       </c>
-      <c r="K84">
+      <c r="H84">
         <v>76.621639999999999</v>
       </c>
     </row>
-    <row r="85" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J85">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G85">
         <v>1379.7149999999999</v>
       </c>
-      <c r="K85">
+      <c r="H85">
         <v>76.371279999999999</v>
       </c>
     </row>
-    <row r="86" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J86">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G86">
         <v>1394.9970000000001</v>
       </c>
-      <c r="K86">
+      <c r="H86">
         <v>76.636949999999999</v>
       </c>
     </row>
-    <row r="87" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J87">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G87">
         <v>1410.3409999999999</v>
       </c>
-      <c r="K87">
+      <c r="H87">
         <v>76.882059999999996</v>
       </c>
     </row>
-    <row r="88" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J88">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G88">
         <v>1425.6030000000001</v>
       </c>
-      <c r="K88">
+      <c r="H88">
         <v>76.91395</v>
       </c>
     </row>
-    <row r="89" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J89">
+    <row r="89" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G89">
         <v>1409.979</v>
       </c>
-      <c r="K89">
+      <c r="H89">
         <v>76.394909999999996</v>
       </c>
     </row>
-    <row r="90" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J90">
+    <row r="90" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G90">
         <v>1410.248</v>
       </c>
-      <c r="K90">
+      <c r="H90">
         <v>76.664580000000001</v>
       </c>
     </row>
-    <row r="91" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J91">
+    <row r="91" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G91">
         <v>1455.58</v>
       </c>
-      <c r="K91">
+      <c r="H91">
         <v>76.792010000000005</v>
       </c>
     </row>
-    <row r="92" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J92">
+    <row r="92" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G92">
         <v>1486.2159999999999</v>
       </c>
-      <c r="K92">
+      <c r="H92">
         <v>86.622889999999998</v>
       </c>
     </row>
-    <row r="93" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J93">
+    <row r="93" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G93">
         <v>1485.806</v>
       </c>
-      <c r="K93">
+      <c r="H93">
         <v>86.426929999999999</v>
       </c>
     </row>
-    <row r="94" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J94">
+    <row r="94" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G94">
         <v>1516.0709999999999</v>
       </c>
-      <c r="K94">
+      <c r="H94">
         <v>86.291049999999998</v>
       </c>
     </row>
-    <row r="95" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J95">
+    <row r="95" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G95">
         <v>1515.9280000000001</v>
       </c>
-      <c r="K95">
+      <c r="H95">
         <v>86.616039999999998</v>
       </c>
     </row>
-    <row r="96" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J96">
+    <row r="96" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G96">
         <v>1516.348</v>
       </c>
-      <c r="K96">
+      <c r="H96">
         <v>86.725769999999997</v>
       </c>
     </row>
-    <row r="97" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J97">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G97">
         <v>1531.32</v>
       </c>
-      <c r="K97">
+      <c r="H97">
         <v>86.364840000000001</v>
       </c>
     </row>
-    <row r="98" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J98">
+    <row r="98" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G98">
         <v>1531.4570000000001</v>
       </c>
-      <c r="K98">
+      <c r="H98">
         <v>86.454610000000002</v>
       </c>
     </row>
-    <row r="99" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J99">
+    <row r="99" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G99">
         <v>1531.6220000000001</v>
       </c>
-      <c r="K99">
+      <c r="H99">
         <v>86.403989999999993</v>
       </c>
     </row>
-    <row r="100" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J100">
+    <row r="100" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G100">
         <v>1531.232</v>
       </c>
-      <c r="K100">
+      <c r="H100">
         <v>86.471239999999995</v>
       </c>
     </row>
-    <row r="101" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J101">
+    <row r="101" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G101">
         <v>1531.4369999999999</v>
       </c>
-      <c r="K101">
+      <c r="H101">
         <v>86.733379999999997</v>
       </c>
     </row>
-    <row r="102" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J102">
+    <row r="102" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G102">
         <v>1531.0519999999999</v>
       </c>
-      <c r="K102">
+      <c r="H102">
         <v>86.402079999999998</v>
       </c>
     </row>
-    <row r="103" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J103">
+    <row r="103" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G103">
         <v>1531.268</v>
       </c>
-      <c r="K103">
+      <c r="H103">
         <v>86.439710000000005</v>
       </c>
     </row>
-    <row r="104" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J104">
+    <row r="104" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G104">
         <v>1546.579</v>
       </c>
-      <c r="K104">
+      <c r="H104">
         <v>86.730919999999998</v>
       </c>
     </row>
-    <row r="105" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J105">
+    <row r="105" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G105">
         <v>1546.319</v>
       </c>
-      <c r="K105">
+      <c r="H105">
         <v>86.136409999999998</v>
       </c>
     </row>
-    <row r="106" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J106">
+    <row r="106" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G106">
         <v>1576.8009999999999</v>
       </c>
-      <c r="K106">
+      <c r="H106">
         <v>86.486429999999999</v>
       </c>
     </row>
-    <row r="107" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J107">
+    <row r="107" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G107">
         <v>1591.886</v>
       </c>
-      <c r="K107">
+      <c r="H107">
         <v>86.408940000000001</v>
       </c>
     </row>
-    <row r="108" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J108">
+    <row r="108" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G108">
         <v>1607.3309999999999</v>
       </c>
-      <c r="K108">
+      <c r="H108">
         <v>86.266360000000006</v>
       </c>
     </row>
-    <row r="109" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J109">
+    <row r="109" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G109">
         <v>1607.1669999999999</v>
       </c>
-      <c r="K109">
+      <c r="H109">
         <v>96.321259999999995</v>
       </c>
     </row>
-    <row r="110" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J110">
+    <row r="110" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G110">
         <v>1622.027</v>
       </c>
-      <c r="K110">
+      <c r="H110">
         <v>95.994619999999998</v>
       </c>
     </row>
-    <row r="111" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J111">
+    <row r="111" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G111">
         <v>1622.26</v>
       </c>
-      <c r="K111">
+      <c r="H111">
         <v>96.47484</v>
       </c>
     </row>
-    <row r="112" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J112">
+    <row r="112" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G112">
         <v>1637.01</v>
       </c>
-      <c r="K112">
+      <c r="H112">
         <v>96.487459999999999</v>
       </c>
     </row>
-    <row r="113" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J113">
+    <row r="113" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G113">
         <v>1637.1120000000001</v>
       </c>
-      <c r="K113">
+      <c r="H113">
         <v>95.942539999999994</v>
       </c>
     </row>
-    <row r="114" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J114">
+    <row r="114" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G114">
         <v>1652.441</v>
       </c>
-      <c r="K114">
+      <c r="H114">
         <v>96.212249999999997</v>
       </c>
     </row>
-    <row r="115" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J115">
+    <row r="115" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G115">
         <v>1652.6880000000001</v>
       </c>
-      <c r="K115">
+      <c r="H115">
         <v>96.16</v>
       </c>
     </row>
-    <row r="116" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J116">
+    <row r="116" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G116">
         <v>1652.4690000000001</v>
       </c>
-      <c r="K116">
+      <c r="H116">
         <v>96.532060000000001</v>
       </c>
     </row>
-    <row r="117" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J117">
+    <row r="117" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G117">
         <v>1667.163</v>
       </c>
-      <c r="K117">
+      <c r="H117">
         <v>96.261859999999999</v>
       </c>
     </row>
-    <row r="118" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J118">
+    <row r="118" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G118">
         <v>1682.24</v>
       </c>
-      <c r="K118">
+      <c r="H118">
         <v>96.204570000000004</v>
       </c>
     </row>
-    <row r="119" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J119">
+    <row r="119" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G119">
         <v>1682.7049999999999</v>
       </c>
-      <c r="K119">
+      <c r="H119">
         <v>95.947130000000001</v>
       </c>
     </row>
-    <row r="120" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J120">
+    <row r="120" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G120">
         <v>1697.7449999999999</v>
       </c>
-      <c r="K120">
+      <c r="H120">
         <v>102.5564</v>
       </c>
     </row>
-    <row r="121" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J121">
+    <row r="121" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G121">
         <v>1697.4570000000001</v>
       </c>
-      <c r="K121">
+      <c r="H121">
         <v>96.26979</v>
       </c>
     </row>
-    <row r="122" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J122">
+    <row r="122" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G122">
         <v>1697.8979999999999</v>
       </c>
-      <c r="K122">
+      <c r="H122">
         <v>107.5222</v>
       </c>
     </row>
-    <row r="123" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J123">
+    <row r="123" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G123">
         <v>1713.067</v>
       </c>
-      <c r="K123">
+      <c r="H123">
         <v>96.174220000000005</v>
       </c>
     </row>
-    <row r="124" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J124">
+    <row r="124" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G124">
         <v>1713.4069999999999</v>
       </c>
-      <c r="K124">
+      <c r="H124">
         <v>111.3181</v>
       </c>
     </row>
-    <row r="125" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J125">
+    <row r="125" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G125">
         <v>1713.269</v>
       </c>
-      <c r="K125">
+      <c r="H125">
         <v>96.214839999999995</v>
       </c>
     </row>
-    <row r="126" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J126">
+    <row r="126" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G126">
         <v>1742.9939999999999</v>
       </c>
-      <c r="K126">
+      <c r="H126">
         <v>122.13800000000001</v>
       </c>
     </row>
-    <row r="127" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J127">
+    <row r="127" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G127">
         <v>1773.7049999999999</v>
       </c>
-      <c r="K127">
+      <c r="H127">
         <v>105.7696</v>
       </c>
     </row>
-    <row r="128" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J128">
+    <row r="128" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G128">
         <v>1788.712</v>
       </c>
-      <c r="K128">
+      <c r="H128">
         <v>106.3018</v>
       </c>
     </row>
-    <row r="129" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J129">
+    <row r="129" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G129">
         <v>1803.973</v>
       </c>
-      <c r="K129">
+      <c r="H129">
         <v>106.0164</v>
       </c>
     </row>
-    <row r="130" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J130">
+    <row r="130" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G130">
         <v>1803.799</v>
       </c>
-      <c r="K130">
+      <c r="H130">
         <v>106.0008</v>
       </c>
     </row>
-    <row r="131" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J131">
+    <row r="131" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G131">
         <v>1788.7460000000001</v>
       </c>
-      <c r="K131">
+      <c r="H131">
         <v>106.2757</v>
       </c>
     </row>
-    <row r="132" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J132">
+    <row r="132" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G132">
         <v>1803.846</v>
       </c>
-      <c r="K132">
+      <c r="H132">
         <v>105.7705</v>
       </c>
     </row>
-    <row r="133" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J133">
+    <row r="133" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G133">
         <v>1788.356</v>
       </c>
-      <c r="K133">
+      <c r="H133">
         <v>106.0813</v>
       </c>
     </row>
-    <row r="134" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J134">
+    <row r="134" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G134">
         <v>1773.8130000000001</v>
       </c>
-      <c r="K134">
+      <c r="H134">
         <v>106.3004</v>
       </c>
     </row>
-    <row r="135" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J135">
+    <row r="135" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G135">
         <v>1773.46</v>
       </c>
-      <c r="K135">
+      <c r="H135">
         <v>105.8387</v>
       </c>
     </row>
-    <row r="136" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J136">
+    <row r="136" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G136">
         <v>1773.855</v>
       </c>
-      <c r="K136">
+      <c r="H136">
         <v>106.3312</v>
       </c>
     </row>
-    <row r="137" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J137">
+    <row r="137" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G137">
         <v>1758.252</v>
       </c>
-      <c r="K137">
+      <c r="H137">
         <v>105.94289999999999</v>
       </c>
     </row>
-    <row r="138" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J138">
+    <row r="138" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G138">
         <v>1758.42</v>
       </c>
-      <c r="K138">
+      <c r="H138">
         <v>105.88379999999999</v>
       </c>
     </row>
-    <row r="139" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J139">
+    <row r="139" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G139">
         <v>1743.6389999999999</v>
       </c>
-      <c r="K139">
+      <c r="H139">
         <v>105.9689</v>
       </c>
     </row>
-    <row r="140" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J140">
+    <row r="140" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G140">
         <v>1743.116</v>
       </c>
-      <c r="K140">
+      <c r="H140">
         <v>106.07550000000001</v>
       </c>
     </row>
-    <row r="141" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J141">
+    <row r="141" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G141">
         <v>1743.41</v>
       </c>
-      <c r="K141">
+      <c r="H141">
         <v>105.9944</v>
       </c>
     </row>
-    <row r="142" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J142">
+    <row r="142" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G142">
         <v>1758.229</v>
       </c>
-      <c r="K142">
+      <c r="H142">
         <v>105.9682</v>
       </c>
     </row>
-    <row r="143" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J143">
+    <row r="143" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G143">
         <v>1758.6110000000001</v>
       </c>
-      <c r="K143">
+      <c r="H143">
         <v>106.0844</v>
       </c>
     </row>
-    <row r="144" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J144">
+    <row r="144" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G144">
         <v>1758.502</v>
       </c>
-      <c r="K144">
+      <c r="H144">
         <v>106.253</v>
       </c>
     </row>
-    <row r="145" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J145">
+    <row r="145" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G145">
         <v>1758.336</v>
       </c>
-      <c r="K145">
+      <c r="H145">
         <v>105.9712</v>
       </c>
     </row>
-    <row r="146" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J146">
+    <row r="146" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G146">
         <v>1743.46</v>
       </c>
-      <c r="K146">
+      <c r="H146">
         <v>105.7208</v>
       </c>
     </row>
-    <row r="147" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J147">
+    <row r="147" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G147">
         <v>1743.7249999999999</v>
       </c>
-      <c r="K147">
+      <c r="H147">
         <v>106.00369999999999</v>
       </c>
     </row>
-    <row r="148" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J148">
+    <row r="148" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G148">
         <v>1743.2550000000001</v>
       </c>
-      <c r="K148">
+      <c r="H148">
         <v>105.74850000000001</v>
       </c>
     </row>
-    <row r="149" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J149">
+    <row r="149" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G149">
         <v>1743.2</v>
       </c>
-      <c r="K149">
+      <c r="H149">
         <v>105.6892</v>
       </c>
     </row>
-    <row r="150" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J150">
+    <row r="150" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G150">
         <v>1743.645</v>
       </c>
-      <c r="K150">
+      <c r="H150">
         <v>115.9367</v>
       </c>
     </row>
-    <row r="151" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J151">
+    <row r="151" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G151">
         <v>1743.6010000000001</v>
       </c>
-      <c r="K151">
+      <c r="H151">
         <v>115.7723</v>
       </c>
     </row>
-    <row r="152" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J152">
+    <row r="152" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G152">
         <v>1743.2650000000001</v>
       </c>
-      <c r="K152">
+      <c r="H152">
         <v>115.5065</v>
       </c>
     </row>
-    <row r="153" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J153">
+    <row r="153" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G153">
         <v>1743.1210000000001</v>
       </c>
-      <c r="K153">
+      <c r="H153">
         <v>116.05670000000001</v>
       </c>
     </row>
-    <row r="154" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J154">
+    <row r="154" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G154">
         <v>1743.5830000000001</v>
       </c>
-      <c r="K154">
+      <c r="H154">
         <v>115.9269</v>
       </c>
     </row>
-    <row r="155" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J155">
+    <row r="155" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G155">
         <v>1743.1949999999999</v>
       </c>
-      <c r="K155">
+      <c r="H155">
         <v>115.9965</v>
       </c>
     </row>
-    <row r="156" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J156">
+    <row r="156" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G156">
         <v>1758.404</v>
       </c>
-      <c r="K156">
+      <c r="H156">
         <v>115.4991</v>
       </c>
     </row>
-    <row r="157" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J157">
+    <row r="157" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G157">
         <v>1743.6780000000001</v>
       </c>
-      <c r="K157">
+      <c r="H157">
         <v>115.5228</v>
       </c>
     </row>
-    <row r="158" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J158">
+    <row r="158" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G158">
         <v>1743.75</v>
       </c>
-      <c r="K158">
+      <c r="H158">
         <v>115.83710000000001</v>
       </c>
     </row>
-    <row r="159" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J159">
+    <row r="159" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G159">
         <v>1743.4010000000001</v>
       </c>
-      <c r="K159">
+      <c r="H159">
         <v>115.67700000000001</v>
       </c>
     </row>
-    <row r="160" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J160">
+    <row r="160" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G160">
         <v>1758.3130000000001</v>
       </c>
-      <c r="K160">
+      <c r="H160">
         <v>115.5472</v>
       </c>
     </row>
-    <row r="161" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J161">
+    <row r="161" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G161">
         <v>1758.4659999999999</v>
       </c>
-      <c r="K161">
+      <c r="H161">
         <v>116.02809999999999</v>
       </c>
     </row>
-    <row r="162" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J162">
+    <row r="162" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G162">
         <v>1758.309</v>
       </c>
-      <c r="K162">
+      <c r="H162">
         <v>115.7191</v>
       </c>
     </row>
-    <row r="163" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J163">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G163">
         <v>1758.383</v>
       </c>
-      <c r="K163">
+      <c r="H163">
         <v>115.8503</v>
       </c>
     </row>
-    <row r="164" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J164">
+    <row r="164" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G164">
         <v>1758.7819999999999</v>
       </c>
-      <c r="K164">
+      <c r="H164">
         <v>116.01349999999999</v>
       </c>
     </row>
-    <row r="165" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J165">
+    <row r="165" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G165">
         <v>1788.462</v>
       </c>
-      <c r="K165">
+      <c r="H165">
         <v>116.0718</v>
       </c>
     </row>
-    <row r="166" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J166">
+    <row r="166" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G166">
         <v>1804.0540000000001</v>
       </c>
-      <c r="K166">
+      <c r="H166">
         <v>115.88200000000001</v>
       </c>
     </row>
-    <row r="167" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J167">
+    <row r="167" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G167">
         <v>1804.001</v>
       </c>
-      <c r="K167">
+      <c r="H167">
         <v>115.82640000000001</v>
       </c>
     </row>
-    <row r="168" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J168">
+    <row r="168" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G168">
         <v>1818.5730000000001</v>
       </c>
-      <c r="K168">
+      <c r="H168">
         <v>116.0414</v>
       </c>
     </row>
-    <row r="169" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J169">
+    <row r="169" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G169">
         <v>1818.624</v>
       </c>
-      <c r="K169">
+      <c r="H169">
         <v>115.7786</v>
       </c>
     </row>
-    <row r="170" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J170">
+    <row r="170" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G170">
         <v>1818.7860000000001</v>
       </c>
-      <c r="K170">
+      <c r="H170">
         <v>115.92440000000001</v>
       </c>
     </row>
-    <row r="171" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J171">
+    <row r="171" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G171">
         <v>1834.075</v>
       </c>
-      <c r="K171">
+      <c r="H171">
         <v>116.0988</v>
       </c>
     </row>
-    <row r="172" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J172">
+    <row r="172" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G172">
         <v>1834.6020000000001</v>
       </c>
-      <c r="K172">
+      <c r="H172">
         <v>115.9281</v>
       </c>
     </row>
-    <row r="173" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J173">
+    <row r="173" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G173">
         <v>1834.0730000000001</v>
       </c>
-      <c r="K173">
+      <c r="H173">
         <v>115.8377</v>
       </c>
     </row>
-    <row r="174" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J174">
+    <row r="174" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G174">
         <v>1834.4480000000001</v>
       </c>
-      <c r="K174">
+      <c r="H174">
         <v>116.0936</v>
       </c>
     </row>
-    <row r="175" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J175">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G175">
         <v>1834.4960000000001</v>
       </c>
-      <c r="K175">
+      <c r="H175">
         <v>115.8402</v>
       </c>
     </row>
-    <row r="176" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J176">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G176">
         <v>1849.4380000000001</v>
       </c>
-      <c r="K176">
+      <c r="H176">
         <v>116.17019999999999</v>
       </c>
     </row>
-    <row r="177" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J177">
+    <row r="177" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G177">
         <v>1864.201</v>
       </c>
-      <c r="K177">
+      <c r="H177">
         <v>115.6253</v>
       </c>
     </row>
-    <row r="178" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J178">
+    <row r="178" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G178">
         <v>1864.7149999999999</v>
       </c>
-      <c r="K178">
+      <c r="H178">
         <v>116.0719</v>
       </c>
     </row>
-    <row r="179" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J179">
+    <row r="179" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G179">
         <v>1879.3689999999999</v>
       </c>
-      <c r="K179">
+      <c r="H179">
         <v>116.3058</v>
       </c>
     </row>
-    <row r="180" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J180">
+    <row r="180" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G180">
         <v>1894.5129999999999</v>
       </c>
-      <c r="K180">
+      <c r="H180">
         <v>115.8853</v>
       </c>
     </row>
-    <row r="181" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J181">
+    <row r="181" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G181">
         <v>1894.61</v>
       </c>
-      <c r="K181">
+      <c r="H181">
         <v>116.38339999999999</v>
       </c>
     </row>
-    <row r="182" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J182">
+    <row r="182" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G182">
         <v>1895.0039999999999</v>
       </c>
-      <c r="K182">
+      <c r="H182">
         <v>116.1009</v>
       </c>
     </row>
-    <row r="183" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J183">
+    <row r="183" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G183">
         <v>1909.9960000000001</v>
       </c>
-      <c r="K183">
+      <c r="H183">
         <v>126.40130000000001</v>
       </c>
     </row>
-    <row r="184" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J184">
+    <row r="184" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G184">
         <v>1909.953</v>
       </c>
-      <c r="K184">
+      <c r="H184">
         <v>115.6763</v>
       </c>
     </row>
-    <row r="185" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J185">
+    <row r="185" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G185">
         <v>1909.9480000000001</v>
       </c>
-      <c r="K185">
+      <c r="H185">
         <v>128.953</v>
       </c>
     </row>
-    <row r="186" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J186">
+    <row r="186" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G186">
         <v>1925.124</v>
       </c>
-      <c r="K186">
+      <c r="H186">
         <v>115.9194</v>
       </c>
     </row>
-    <row r="187" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J187">
+    <row r="187" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G187">
         <v>1924.905</v>
       </c>
-      <c r="K187">
+      <c r="H187">
         <v>131.6455</v>
       </c>
     </row>
-    <row r="188" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J188">
+    <row r="188" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G188">
         <v>1939.692</v>
       </c>
-      <c r="K188">
+      <c r="H188">
         <v>115.86109999999999</v>
       </c>
     </row>
-    <row r="189" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J189">
+    <row r="189" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G189">
         <v>1939.9169999999999</v>
       </c>
-      <c r="K189">
+      <c r="H189">
         <v>115.68819999999999</v>
       </c>
     </row>
-    <row r="190" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J190">
+    <row r="190" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G190">
         <v>1955.596</v>
       </c>
-      <c r="K190">
+      <c r="H190">
         <v>116.19329999999999</v>
       </c>
     </row>
-    <row r="191" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J191">
+    <row r="191" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G191">
         <v>1970.683</v>
       </c>
-      <c r="K191">
+      <c r="H191">
         <v>116.134</v>
       </c>
     </row>
-    <row r="192" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J192">
+    <row r="192" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G192">
         <v>1970.617</v>
       </c>
-      <c r="K192">
+      <c r="H192">
         <v>116.1763</v>
       </c>
     </row>
-    <row r="193" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J193">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G193">
         <v>1970.1420000000001</v>
       </c>
-      <c r="K193">
+      <c r="H193">
         <v>116.0438</v>
       </c>
     </row>
-    <row r="194" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J194">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G194">
         <v>1985.317</v>
       </c>
-      <c r="K194">
+      <c r="H194">
         <v>115.9259</v>
       </c>
     </row>
-    <row r="195" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J195">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G195">
         <v>1985.1020000000001</v>
       </c>
-      <c r="K195">
+      <c r="H195">
         <v>116.0008</v>
       </c>
     </row>
-    <row r="196" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J196">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G196">
         <v>2000.7739999999999</v>
       </c>
-      <c r="K196">
+      <c r="H196">
         <v>116.0121</v>
       </c>
     </row>
-    <row r="197" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J197">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G197">
         <v>2000.3019999999999</v>
       </c>
-      <c r="K197">
+      <c r="H197">
         <v>115.7264</v>
       </c>
     </row>
-    <row r="198" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J198">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G198">
         <v>2015.693</v>
       </c>
-      <c r="K198">
+      <c r="H198">
         <v>115.9374</v>
       </c>
     </row>
-    <row r="199" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J199">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G199">
         <v>2030.57</v>
       </c>
-      <c r="K199">
+      <c r="H199">
         <v>115.91459999999999</v>
       </c>
     </row>
-    <row r="200" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J200">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G200">
         <v>2046.1120000000001</v>
       </c>
-      <c r="K200">
+      <c r="H200">
         <v>115.63939999999999</v>
       </c>
     </row>
-    <row r="201" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J201">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G201">
         <v>2076.0819999999999</v>
       </c>
-      <c r="K201">
+      <c r="H201">
         <v>116.1581</v>
       </c>
     </row>
-    <row r="202" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J202">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G202">
         <v>2091.7159999999999</v>
       </c>
-      <c r="K202">
+      <c r="H202">
         <v>115.8416</v>
       </c>
     </row>
-    <row r="203" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J203">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G203">
         <v>2106.19</v>
       </c>
-      <c r="K203">
+      <c r="H203">
         <v>115.8566</v>
       </c>
     </row>
-    <row r="204" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J204">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G204">
         <v>2106.2840000000001</v>
       </c>
-      <c r="K204">
+      <c r="H204">
         <v>115.8509</v>
       </c>
     </row>
-    <row r="205" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J205">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G205">
         <v>2121.7220000000002</v>
       </c>
-      <c r="K205">
+      <c r="H205">
         <v>115.8514</v>
       </c>
     </row>
-    <row r="206" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J206">
+    <row r="206" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G206">
         <v>2136.712</v>
       </c>
-      <c r="K206">
+      <c r="H206">
         <v>125.86709999999999</v>
       </c>
     </row>
-    <row r="207" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J207">
+    <row r="207" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G207">
         <v>2136.752</v>
       </c>
-      <c r="K207">
+      <c r="H207">
         <v>125.4483</v>
       </c>
     </row>
-    <row r="208" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J208">
+    <row r="208" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G208">
         <v>2136.913</v>
       </c>
-      <c r="K208">
+      <c r="H208">
         <v>125.4024</v>
       </c>
     </row>
-    <row r="209" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J209">
+    <row r="209" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G209">
         <v>2167.261</v>
       </c>
-      <c r="K209">
+      <c r="H209">
         <v>125.7238</v>
       </c>
     </row>
-    <row r="210" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J210">
+    <row r="210" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G210">
         <v>2181.7249999999999</v>
       </c>
-      <c r="K210">
+      <c r="H210">
         <v>125.682</v>
       </c>
     </row>
-    <row r="211" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J211">
+    <row r="211" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G211">
         <v>2182.0329999999999</v>
       </c>
-      <c r="K211">
+      <c r="H211">
         <v>125.6857</v>
       </c>
     </row>
-    <row r="212" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J212">
+    <row r="212" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G212">
         <v>2197.1640000000002</v>
       </c>
-      <c r="K212">
+      <c r="H212">
         <v>125.4738</v>
       </c>
     </row>
-    <row r="213" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J213">
+    <row r="213" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G213">
         <v>2212.6770000000001</v>
       </c>
-      <c r="K213">
+      <c r="H213">
         <v>125.9331</v>
       </c>
     </row>
-    <row r="214" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J214">
+    <row r="214" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G214">
         <v>2227.3980000000001</v>
       </c>
-      <c r="K214">
+      <c r="H214">
         <v>125.37139999999999</v>
       </c>
     </row>
-    <row r="215" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J215">
+    <row r="215" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G215">
         <v>2242.422</v>
       </c>
-      <c r="K215">
+      <c r="H215">
         <v>125.9153</v>
       </c>
     </row>
-    <row r="216" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J216">
+    <row r="216" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G216">
         <v>2257.8890000000001</v>
       </c>
-      <c r="K216">
+      <c r="H216">
         <v>125.6576</v>
       </c>
     </row>
-    <row r="217" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J217">
+    <row r="217" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G217">
         <v>2272.59</v>
       </c>
-      <c r="K217">
+      <c r="H217">
         <v>125.5729</v>
       </c>
     </row>
-    <row r="218" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J218">
+    <row r="218" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G218">
         <v>2288.2159999999999</v>
       </c>
-      <c r="K218">
+      <c r="H218">
         <v>125.9589</v>
       </c>
     </row>
-    <row r="219" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J219">
+    <row r="219" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G219">
         <v>2302.7950000000001</v>
       </c>
-      <c r="K219">
+      <c r="H219">
         <v>135.2037</v>
       </c>
     </row>
-    <row r="220" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J220">
+    <row r="220" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G220">
         <v>2318.6460000000002</v>
       </c>
-      <c r="K220">
+      <c r="H220">
         <v>135.52789999999999</v>
       </c>
     </row>
-    <row r="221" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J221">
+    <row r="221" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G221">
         <v>2333.2890000000002</v>
       </c>
-      <c r="K221">
+      <c r="H221">
         <v>135.4736</v>
       </c>
     </row>
-    <row r="222" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J222">
+    <row r="222" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G222">
         <v>2348.8989999999999</v>
       </c>
-      <c r="K222">
+      <c r="H222">
         <v>135.52209999999999</v>
       </c>
     </row>
-    <row r="223" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J223">
+    <row r="223" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G223">
         <v>2363.453</v>
       </c>
-      <c r="K223">
+      <c r="H223">
         <v>135.203</v>
       </c>
     </row>
-    <row r="224" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J224">
+    <row r="224" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G224">
         <v>2379.2429999999999</v>
       </c>
-      <c r="K224">
+      <c r="H224">
         <v>135.62870000000001</v>
       </c>
     </row>
-    <row r="225" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J225">
+    <row r="225" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G225">
         <v>2378.7959999999998</v>
       </c>
-      <c r="K225">
+      <c r="H225">
         <v>135.7516</v>
       </c>
     </row>
-    <row r="226" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J226">
+    <row r="226" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G226">
         <v>2379.1619999999998</v>
       </c>
-      <c r="K226">
+      <c r="H226">
         <v>135.196</v>
       </c>
     </row>
-    <row r="227" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J227">
+    <row r="227" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G227">
         <v>2363.471</v>
       </c>
-      <c r="K227">
+      <c r="H227">
         <v>135.72149999999999</v>
       </c>
     </row>
-    <row r="228" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J228">
+    <row r="228" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G228">
         <v>2318.3110000000001</v>
       </c>
-      <c r="K228">
+      <c r="H228">
         <v>135.15219999999999</v>
       </c>
     </row>
-    <row r="229" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J229">
+    <row r="229" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G229">
         <v>2303.3679999999999</v>
       </c>
-      <c r="K229">
+      <c r="H229">
         <v>135.52850000000001</v>
       </c>
     </row>
-    <row r="230" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J230">
+    <row r="230" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G230">
         <v>2303.4119999999998</v>
       </c>
-      <c r="K230">
+      <c r="H230">
         <v>135.50040000000001</v>
       </c>
     </row>
-    <row r="231" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J231">
+    <row r="231" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G231">
         <v>2272.797</v>
       </c>
-      <c r="K231">
+      <c r="H231">
         <v>135.14279999999999</v>
       </c>
     </row>
-    <row r="232" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J232">
+    <row r="232" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G232">
         <v>2257.855</v>
       </c>
-      <c r="K232">
+      <c r="H232">
         <v>135.7586</v>
       </c>
     </row>
-    <row r="233" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J233">
+    <row r="233" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G233">
         <v>2257.732</v>
       </c>
-      <c r="K233">
+      <c r="H233">
         <v>135.2062</v>
       </c>
     </row>
-    <row r="234" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J234">
+    <row r="234" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G234">
         <v>2243.0100000000002</v>
       </c>
-      <c r="K234">
+      <c r="H234">
         <v>135.19049999999999</v>
       </c>
     </row>
-    <row r="235" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J235">
+    <row r="235" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G235">
         <v>2227.8380000000002</v>
       </c>
-      <c r="K235">
+      <c r="H235">
         <v>135.5018</v>
       </c>
     </row>
-    <row r="236" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J236">
+    <row r="236" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G236">
         <v>2227.8609999999999</v>
       </c>
-      <c r="K236">
+      <c r="H236">
         <v>135.70230000000001</v>
       </c>
     </row>
-    <row r="237" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J237">
+    <row r="237" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G237">
         <v>2227.7280000000001</v>
       </c>
-      <c r="K237">
+      <c r="H237">
         <v>135.14320000000001</v>
       </c>
     </row>
-    <row r="238" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J238">
+    <row r="238" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G238">
         <v>2212.5929999999998</v>
       </c>
-      <c r="K238">
+      <c r="H238">
         <v>135.9186</v>
       </c>
     </row>
-    <row r="239" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J239">
+    <row r="239" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G239">
         <v>2212.4630000000002</v>
       </c>
-      <c r="K239">
+      <c r="H239">
         <v>135.1687</v>
       </c>
     </row>
-    <row r="240" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J240">
+    <row r="240" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G240">
         <v>2197.69</v>
       </c>
-      <c r="K240">
+      <c r="H240">
         <v>136.13910000000001</v>
       </c>
     </row>
-    <row r="241" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J241">
+    <row r="241" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G241">
         <v>2197.442</v>
       </c>
-      <c r="K241">
+      <c r="H241">
         <v>135.43340000000001</v>
       </c>
     </row>
-    <row r="242" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J242">
+    <row r="242" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G242">
         <v>2197.8220000000001</v>
       </c>
-      <c r="K242">
+      <c r="H242">
         <v>146.0427</v>
       </c>
     </row>
-    <row r="243" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J243">
+    <row r="243" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G243">
         <v>2181.6410000000001</v>
       </c>
-      <c r="K243">
+      <c r="H243">
         <v>135.41380000000001</v>
       </c>
     </row>
-    <row r="244" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J244">
+    <row r="244" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G244">
         <v>2181.77</v>
       </c>
-      <c r="K244">
+      <c r="H244">
         <v>148.27549999999999</v>
       </c>
     </row>
-    <row r="245" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J245">
+    <row r="245" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G245">
         <v>2182.2109999999998</v>
       </c>
-      <c r="K245">
+      <c r="H245">
         <v>135.7269</v>
       </c>
     </row>
-    <row r="246" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J246">
+    <row r="246" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G246">
         <v>2166.9209999999998</v>
       </c>
-      <c r="K246">
+      <c r="H246">
         <v>150.4016</v>
       </c>
     </row>
-    <row r="247" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J247">
+    <row r="247" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G247">
         <v>2167.4630000000002</v>
       </c>
-      <c r="K247">
+      <c r="H247">
         <v>135.68629999999999</v>
       </c>
     </row>
-    <row r="248" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J248">
+    <row r="248" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G248">
         <v>2166.9349999999999</v>
       </c>
-      <c r="K248">
+      <c r="H248">
         <v>149.3246</v>
       </c>
     </row>
-    <row r="249" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J249">
+    <row r="249" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G249">
         <v>2152.0659999999998</v>
       </c>
-      <c r="K249">
+      <c r="H249">
         <v>135.16829999999999</v>
       </c>
     </row>
-    <row r="250" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J250">
+    <row r="250" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G250">
         <v>2151.8969999999999</v>
       </c>
-      <c r="K250">
+      <c r="H250">
         <v>135.63730000000001</v>
       </c>
     </row>
-    <row r="251" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J251">
+    <row r="251" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G251">
         <v>2151.701</v>
       </c>
-      <c r="K251">
+      <c r="H251">
         <v>135.42089999999999</v>
       </c>
     </row>
-    <row r="252" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J252">
+    <row r="252" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G252">
         <v>2152.1179999999999</v>
       </c>
-      <c r="K252">
+      <c r="H252">
         <v>135.44110000000001</v>
       </c>
     </row>
-    <row r="253" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J253">
+    <row r="253" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G253">
         <v>2137.1120000000001</v>
       </c>
-      <c r="K253">
+      <c r="H253">
         <v>135.73140000000001</v>
       </c>
     </row>
-    <row r="254" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J254">
+    <row r="254" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G254">
         <v>2152.1480000000001</v>
       </c>
-      <c r="K254">
+      <c r="H254">
         <v>135.52979999999999</v>
       </c>
     </row>
-    <row r="255" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J255">
+    <row r="255" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G255">
         <v>2136.7139999999999</v>
       </c>
-      <c r="K255">
+      <c r="H255">
         <v>135.16589999999999</v>
       </c>
     </row>
-    <row r="256" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J256">
+    <row r="256" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G256">
         <v>2136.7220000000002</v>
       </c>
-      <c r="K256">
+      <c r="H256">
         <v>135.43109999999999</v>
       </c>
     </row>
-    <row r="257" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J257">
+    <row r="257" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G257">
         <v>2137.1190000000001</v>
       </c>
-      <c r="K257">
+      <c r="H257">
         <v>135.6944</v>
       </c>
     </row>
-    <row r="258" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J258">
+    <row r="258" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G258">
         <v>2137.2060000000001</v>
       </c>
-      <c r="K258">
+      <c r="H258">
         <v>135.5111</v>
       </c>
     </row>
-    <row r="259" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J259">
+    <row r="259" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G259">
         <v>2137.136</v>
       </c>
-      <c r="K259">
+      <c r="H259">
         <v>135.74529999999999</v>
       </c>
     </row>
-    <row r="260" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J260">
+    <row r="260" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G260">
         <v>2136.998</v>
       </c>
-      <c r="K260">
+      <c r="H260">
         <v>135.589</v>
       </c>
     </row>
-    <row r="261" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J261">
+    <row r="261" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G261">
         <v>2137.0430000000001</v>
       </c>
-      <c r="K261">
+      <c r="H261">
         <v>135.4787</v>
       </c>
     </row>
-    <row r="262" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J262">
+    <row r="262" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G262">
         <v>2136.9940000000001</v>
       </c>
-      <c r="K262">
+      <c r="H262">
         <v>135.501</v>
       </c>
     </row>
-    <row r="263" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J263">
+    <row r="263" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G263">
         <v>2151.7600000000002</v>
       </c>
-      <c r="K263">
+      <c r="H263">
         <v>135.68340000000001</v>
       </c>
     </row>
-    <row r="264" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J264">
+    <row r="264" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G264">
         <v>2136.674</v>
       </c>
-      <c r="K264">
+      <c r="H264">
         <v>135.40479999999999</v>
       </c>
     </row>
-    <row r="265" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J265">
+    <row r="265" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G265">
         <v>2151.973</v>
       </c>
-      <c r="K265">
+      <c r="H265">
         <v>135.34440000000001</v>
       </c>
     </row>
-    <row r="266" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J266">
+    <row r="266" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G266">
         <v>2151.9319999999998</v>
       </c>
-      <c r="K266">
+      <c r="H266">
         <v>135.4581</v>
       </c>
     </row>
-    <row r="267" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J267">
+    <row r="267" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G267">
         <v>2151.9209999999998</v>
       </c>
-      <c r="K267">
+      <c r="H267">
         <v>135.1977</v>
       </c>
     </row>
-    <row r="268" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J268">
+    <row r="268" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G268">
         <v>2151.9989999999998</v>
       </c>
-      <c r="K268">
+      <c r="H268">
         <v>135.34399999999999</v>
       </c>
     </row>
-    <row r="269" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J269">
+    <row r="269" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G269">
         <v>2166.6460000000002</v>
       </c>
-      <c r="K269">
+      <c r="H269">
         <v>135.76349999999999</v>
       </c>
     </row>
-    <row r="270" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J270">
+    <row r="270" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G270">
         <v>2152.134</v>
       </c>
-      <c r="K270">
+      <c r="H270">
         <v>135.49199999999999</v>
       </c>
     </row>
-    <row r="271" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J271">
+    <row r="271" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G271">
         <v>2167.125</v>
       </c>
-      <c r="K271">
+      <c r="H271">
         <v>135.47919999999999</v>
       </c>
     </row>
-    <row r="272" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J272">
+    <row r="272" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G272">
         <v>2166.8739999999998</v>
       </c>
-      <c r="K272">
+      <c r="H272">
         <v>135.7834</v>
       </c>
     </row>
-    <row r="273" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J273">
+    <row r="273" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G273">
         <v>2182.17</v>
       </c>
-      <c r="K273">
+      <c r="H273">
         <v>135.50450000000001</v>
       </c>
     </row>
-    <row r="274" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J274">
+    <row r="274" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G274">
         <v>2182.067</v>
       </c>
-      <c r="K274">
+      <c r="H274">
         <v>135.22200000000001</v>
       </c>
     </row>
-    <row r="275" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J275">
+    <row r="275" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G275">
         <v>2197.5309999999999</v>
       </c>
-      <c r="K275">
+      <c r="H275">
         <v>135.49209999999999</v>
       </c>
     </row>
-    <row r="276" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J276">
+    <row r="276" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G276">
         <v>2197.299</v>
       </c>
-      <c r="K276">
+      <c r="H276">
         <v>135.19800000000001</v>
       </c>
     </row>
-    <row r="277" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J277">
+    <row r="277" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G277">
         <v>2212.5549999999998</v>
       </c>
-      <c r="K277">
+      <c r="H277">
         <v>135.47669999999999</v>
       </c>
     </row>
-    <row r="278" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J278">
+    <row r="278" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G278">
         <v>2227.5909999999999</v>
       </c>
-      <c r="K278">
+      <c r="H278">
         <v>135.24359999999999</v>
       </c>
     </row>
-    <row r="279" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J279">
+    <row r="279" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G279">
         <v>2242.674</v>
       </c>
-      <c r="K279">
+      <c r="H279">
         <v>135.78200000000001</v>
       </c>
     </row>
-    <row r="280" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J280">
+    <row r="280" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G280">
         <v>2242.6320000000001</v>
       </c>
-      <c r="K280">
+      <c r="H280">
         <v>135.61869999999999</v>
       </c>
     </row>
-    <row r="281" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J281">
+    <row r="281" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G281">
         <v>2257.8119999999999</v>
       </c>
-      <c r="K281">
+      <c r="H281">
         <v>135.5112</v>
       </c>
     </row>
-    <row r="282" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J282">
+    <row r="282" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G282">
         <v>2257.9879999999998</v>
       </c>
-      <c r="K282">
+      <c r="H282">
         <v>135.25960000000001</v>
       </c>
     </row>
-    <row r="283" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J283">
+    <row r="283" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G283">
         <v>2273.31</v>
       </c>
-      <c r="K283">
+      <c r="H283">
         <v>135.57429999999999</v>
       </c>
     </row>
-    <row r="284" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J284">
+    <row r="284" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G284">
         <v>2272.7620000000002</v>
       </c>
-      <c r="K284">
+      <c r="H284">
         <v>135.48140000000001</v>
       </c>
     </row>
-    <row r="285" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J285">
+    <row r="285" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G285">
         <v>2272.7910000000002</v>
       </c>
-      <c r="K285">
+      <c r="H285">
         <v>135.24860000000001</v>
       </c>
     </row>
-    <row r="286" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J286">
+    <row r="286" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G286">
         <v>2303.0889999999999</v>
       </c>
-      <c r="K286">
+      <c r="H286">
         <v>135.2543</v>
       </c>
     </row>
-    <row r="287" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J287">
+    <row r="287" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G287">
         <v>2318.8209999999999</v>
       </c>
-      <c r="K287">
+      <c r="H287">
         <v>135.78460000000001</v>
       </c>
     </row>
-    <row r="288" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J288">
+    <row r="288" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G288">
         <v>2334.0030000000002</v>
       </c>
-      <c r="K288">
+      <c r="H288">
         <v>135.56190000000001</v>
       </c>
     </row>
-    <row r="289" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J289">
+    <row r="289" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G289">
         <v>2348.922</v>
       </c>
-      <c r="K289">
+      <c r="H289">
         <v>135.61609999999999</v>
       </c>
     </row>
-    <row r="290" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J290">
+    <row r="290" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G290">
         <v>2348.8249999999998</v>
       </c>
-      <c r="K290">
+      <c r="H290">
         <v>135.52010000000001</v>
       </c>
     </row>
-    <row r="291" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J291">
+    <row r="291" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G291">
         <v>2348.7159999999999</v>
       </c>
-      <c r="K291">
+      <c r="H291">
         <v>135.76300000000001</v>
       </c>
     </row>
-    <row r="292" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J292">
+    <row r="292" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G292">
         <v>2363.6129999999998</v>
       </c>
-      <c r="K292">
+      <c r="H292">
         <v>135.53290000000001</v>
       </c>
     </row>
-    <row r="293" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J293">
+    <row r="293" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G293">
         <v>2378.8510000000001</v>
       </c>
-      <c r="K293">
+      <c r="H293">
         <v>135.28210000000001</v>
       </c>
     </row>
-    <row r="294" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J294">
+    <row r="294" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G294">
         <v>2379.19</v>
       </c>
-      <c r="K294">
+      <c r="H294">
         <v>135.48609999999999</v>
       </c>
     </row>
-    <row r="295" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J295">
+    <row r="295" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G295">
         <v>2394.2730000000001</v>
       </c>
-      <c r="K295">
+      <c r="H295">
         <v>135.55950000000001</v>
       </c>
     </row>
-    <row r="296" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J296">
+    <row r="296" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G296">
         <v>2393.9299999999998</v>
       </c>
-      <c r="K296">
+      <c r="H296">
         <v>135.2533</v>
       </c>
     </row>
-    <row r="297" spans="10:11" x14ac:dyDescent="0.25">
-      <c r="J297">
+    <row r="297" spans="7:8" x14ac:dyDescent="0.75">
+      <c r="G297">
         <v>2394.2550000000001</v>
       </c>
-      <c r="K297">
+      <c r="H297">
         <v>135.85169999999999</v>
       </c>
     </row>
@@ -8434,15 +9418,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100205AA101E2883C419D53A6EAA58BE6E4" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0732453c88b6c24a50b901808cd2a95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0ed78115-f4df-42b0-9376-ad3306022cc8" xmlns:ns4="94b7f148-c09a-42e6-baca-973a9a7cd962" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c3ce456d5e9a668ce7bebc57d13ab49" ns3:_="" ns4:_="">
     <xsd:import namespace="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
@@ -8695,6 +9670,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
   <ds:schemaRefs>
@@ -8713,14 +9697,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88B5DFD5-AF32-4053-8117-B9F97580063E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8737,4 +9713,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF8CBCA-D112-4C8F-93DA-CFC2F9178B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F448DC-2539-4B78-B8C8-DAFF8735B261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>K30</t>
   </si>
   <si>
-    <t>CO2 (mv)</t>
-  </si>
-  <si>
     <t>CO2_ppm</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>surface_height</t>
+  </si>
+  <si>
+    <t>CO2_mv</t>
   </si>
 </sst>
 </file>
@@ -3688,18 +3688,18 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X70" sqref="X70"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.40625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -3725,16 +3725,16 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45400</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45400</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45400</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45400</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45400</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45400</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45400</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45400</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45400</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45400</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45400</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45400</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45400</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45400</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45400</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45400</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45420</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45420</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45420</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45420</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45420</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45420</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45420</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45420</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45420</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45420</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45420</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45420</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45420</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45420</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45420</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45420</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45442</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45442</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45442</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45442</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45442</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45442</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45442</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45442</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45442</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45442</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45442</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45442</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45442</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45442</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45442</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45442</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45463</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>-0.85000000000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45463</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>-1.55</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45463</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45463</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45463</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45463</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>-1.24</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45463</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45463</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45463</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45463</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45463</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>-1.0999999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45463</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>-2.79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45463</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>-1.4649999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45463</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>6070.24</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45463</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45463</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>-2.0049999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45484</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45484</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45484</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45484</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45484</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45484</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45484</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45484</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45484</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45484</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>26.57</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45484</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45484</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45484</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45484</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45484</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45484</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45502</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45502</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45502</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45502</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45502</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>25.72</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45502</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45502</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45502</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45502</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45502</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45502</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45502</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45502</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45502</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45502</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45502</v>
       </c>
@@ -6751,15 +6751,15 @@
       <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.40625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6767,13 +6767,13 @@
         <v>25</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>26</v>
@@ -6782,7 +6782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v>79.863910000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>76.943730000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>88.202100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>76.922430000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>92.059330000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>76.370699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>93.197450000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6974,7 +6974,7 @@
         <v>76.815430000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>76.590829999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>76.606219999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>76.513019999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>76.622630000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>66.857730000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>67.045649999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>67.109120000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>66.502930000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>652.93119999999999</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>66.842190000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>653.20910000000003</v>
       </c>
@@ -7179,7 +7179,7 @@
         <v>66.69511</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>607.95830000000001</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>67.072839999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>607.56110000000001</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>66.492159999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>638.08180000000004</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>66.821780000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>638.25340000000006</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>66.970429999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>623.13530000000003</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>66.743210000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>607.76750000000004</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>66.741129999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>592.50710000000004</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>66.642009999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>577.47490000000005</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>66.604929999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>562.39620000000002</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>66.727909999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>562.76610000000005</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>66.755129999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>562.50009999999997</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>66.565960000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>562.36329999999998</v>
       </c>
@@ -7275,7 +7275,7 @@
         <v>66.708879999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>577.42870000000005</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>66.438630000000003</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>577.51340000000005</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>66.721999999999994</v>
       </c>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>622.80349999999999</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>66.502319999999997</v>
       </c>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>698.44579999999996</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>66.603359999999995</v>
       </c>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>728.82050000000004</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>66.735640000000004</v>
       </c>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>744.46180000000004</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>67.009540000000001</v>
       </c>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>728.54539999999997</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>66.730959999999996</v>
       </c>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>728.59079999999994</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>66.700519999999997</v>
       </c>
     </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>728.52480000000003</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>66.432400000000001</v>
       </c>
     </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>744.04729999999995</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>66.440209999999993</v>
       </c>
     </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>744.07650000000001</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>66.810680000000005</v>
       </c>
     </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>759.36440000000005</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>66.765969999999996</v>
       </c>
     </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>774.61670000000004</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>66.688059999999993</v>
       </c>
     </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>774.67240000000004</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>66.708640000000003</v>
       </c>
     </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>789.6807</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>66.707120000000003</v>
       </c>
     </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>834.55520000000001</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>66.699510000000004</v>
       </c>
     </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>834.96130000000005</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>67.011229999999998</v>
       </c>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>850.197</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>66.578879999999998</v>
       </c>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>865.02120000000002</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>66.439570000000003</v>
       </c>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>865.25400000000002</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>66.421679999999995</v>
       </c>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>880.46839999999997</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>66.699039999999997</v>
       </c>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>895.39089999999999</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>66.41798</v>
       </c>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>895.33799999999997</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>66.555769999999995</v>
       </c>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>910.66690000000006</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>66.713909999999998</v>
       </c>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G56">
         <v>925.98109999999997</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>66.679460000000006</v>
       </c>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>940.77919999999995</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>66.716350000000006</v>
       </c>
     </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G58">
         <v>955.72770000000003</v>
       </c>
@@ -7491,7 +7491,7 @@
         <v>66.600700000000003</v>
       </c>
     </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G59">
         <v>970.87699999999995</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>67.232489999999999</v>
       </c>
     </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G60">
         <v>986.60170000000005</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>66.475719999999995</v>
       </c>
     </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>1001.513</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>69.48903</v>
       </c>
     </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G62">
         <v>1016.558</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>66.661689999999993</v>
       </c>
     </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G63">
         <v>1031.5419999999999</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>77.511840000000007</v>
       </c>
     </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G64">
         <v>1047.2439999999999</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>66.713200000000001</v>
       </c>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G65">
         <v>1061.7260000000001</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>80.544539999999998</v>
       </c>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G66">
         <v>1077.3230000000001</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>66.882890000000003</v>
       </c>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G67">
         <v>1107.306</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>82.613020000000006</v>
       </c>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G68">
         <v>1122.7550000000001</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>66.875720000000001</v>
       </c>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G69">
         <v>1167.7729999999999</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>81.679119999999998</v>
       </c>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G70">
         <v>1183.0219999999999</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>76.520039999999995</v>
       </c>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G71">
         <v>1183.3119999999999</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>76.523030000000006</v>
       </c>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G72">
         <v>1198.4190000000001</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>76.558539999999994</v>
       </c>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G73">
         <v>1213.2</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>76.322270000000003</v>
       </c>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G74">
         <v>1213.443</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>76.840400000000002</v>
       </c>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G75">
         <v>1228.8979999999999</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>76.866280000000003</v>
       </c>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G76">
         <v>1244.1220000000001</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>76.297600000000003</v>
       </c>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G77">
         <v>1259.123</v>
       </c>
@@ -7643,7 +7643,7 @@
         <v>76.881839999999997</v>
       </c>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G78">
         <v>1258.752</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>76.468999999999994</v>
       </c>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G79">
         <v>1304.1369999999999</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>76.618129999999994</v>
       </c>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G80">
         <v>1349.9849999999999</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>76.480620000000002</v>
       </c>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G81">
         <v>1350.0229999999999</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>76.648570000000007</v>
       </c>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G82">
         <v>1364.8150000000001</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>76.311499999999995</v>
       </c>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G83">
         <v>1380.152</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>76.679150000000007</v>
       </c>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G84">
         <v>1380.086</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>76.621639999999999</v>
       </c>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G85">
         <v>1379.7149999999999</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>76.371279999999999</v>
       </c>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G86">
         <v>1394.9970000000001</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>76.636949999999999</v>
       </c>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G87">
         <v>1410.3409999999999</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>76.882059999999996</v>
       </c>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G88">
         <v>1425.6030000000001</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>76.91395</v>
       </c>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G89">
         <v>1409.979</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>76.394909999999996</v>
       </c>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G90">
         <v>1410.248</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>76.664580000000001</v>
       </c>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G91">
         <v>1455.58</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>76.792010000000005</v>
       </c>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G92">
         <v>1486.2159999999999</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>86.622889999999998</v>
       </c>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G93">
         <v>1485.806</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>86.426929999999999</v>
       </c>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G94">
         <v>1516.0709999999999</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>86.291049999999998</v>
       </c>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G95">
         <v>1515.9280000000001</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>86.616039999999998</v>
       </c>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G96">
         <v>1516.348</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>86.725769999999997</v>
       </c>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G97">
         <v>1531.32</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>86.364840000000001</v>
       </c>
     </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G98">
         <v>1531.4570000000001</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>86.454610000000002</v>
       </c>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G99">
         <v>1531.6220000000001</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>86.403989999999993</v>
       </c>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G100">
         <v>1531.232</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>86.471239999999995</v>
       </c>
     </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G101">
         <v>1531.4369999999999</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>86.733379999999997</v>
       </c>
     </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G102">
         <v>1531.0519999999999</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>86.402079999999998</v>
       </c>
     </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G103">
         <v>1531.268</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>86.439710000000005</v>
       </c>
     </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G104">
         <v>1546.579</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>86.730919999999998</v>
       </c>
     </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G105">
         <v>1546.319</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>86.136409999999998</v>
       </c>
     </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G106">
         <v>1576.8009999999999</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>86.486429999999999</v>
       </c>
     </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G107">
         <v>1591.886</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>86.408940000000001</v>
       </c>
     </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G108">
         <v>1607.3309999999999</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>86.266360000000006</v>
       </c>
     </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G109">
         <v>1607.1669999999999</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>96.321259999999995</v>
       </c>
     </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G110">
         <v>1622.027</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>95.994619999999998</v>
       </c>
     </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G111">
         <v>1622.26</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>96.47484</v>
       </c>
     </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G112">
         <v>1637.01</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>96.487459999999999</v>
       </c>
     </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G113">
         <v>1637.1120000000001</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>95.942539999999994</v>
       </c>
     </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G114">
         <v>1652.441</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>96.212249999999997</v>
       </c>
     </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G115">
         <v>1652.6880000000001</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>96.16</v>
       </c>
     </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G116">
         <v>1652.4690000000001</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>96.532060000000001</v>
       </c>
     </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G117">
         <v>1667.163</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>96.261859999999999</v>
       </c>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G118">
         <v>1682.24</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>96.204570000000004</v>
       </c>
     </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G119">
         <v>1682.7049999999999</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>95.947130000000001</v>
       </c>
     </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G120">
         <v>1697.7449999999999</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>102.5564</v>
       </c>
     </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G121">
         <v>1697.4570000000001</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>96.26979</v>
       </c>
     </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G122">
         <v>1697.8979999999999</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>107.5222</v>
       </c>
     </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G123">
         <v>1713.067</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>96.174220000000005</v>
       </c>
     </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G124">
         <v>1713.4069999999999</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>111.3181</v>
       </c>
     </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G125">
         <v>1713.269</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>96.214839999999995</v>
       </c>
     </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G126">
         <v>1742.9939999999999</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>122.13800000000001</v>
       </c>
     </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G127">
         <v>1773.7049999999999</v>
       </c>
@@ -8043,7 +8043,7 @@
         <v>105.7696</v>
       </c>
     </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G128">
         <v>1788.712</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>106.3018</v>
       </c>
     </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G129">
         <v>1803.973</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>106.0164</v>
       </c>
     </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G130">
         <v>1803.799</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>106.0008</v>
       </c>
     </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G131">
         <v>1788.7460000000001</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>106.2757</v>
       </c>
     </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G132">
         <v>1803.846</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>105.7705</v>
       </c>
     </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G133">
         <v>1788.356</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>106.0813</v>
       </c>
     </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G134">
         <v>1773.8130000000001</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>106.3004</v>
       </c>
     </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="135" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G135">
         <v>1773.46</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>105.8387</v>
       </c>
     </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="136" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G136">
         <v>1773.855</v>
       </c>
@@ -8115,7 +8115,7 @@
         <v>106.3312</v>
       </c>
     </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="137" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G137">
         <v>1758.252</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>105.94289999999999</v>
       </c>
     </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="138" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G138">
         <v>1758.42</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>105.88379999999999</v>
       </c>
     </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="139" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G139">
         <v>1743.6389999999999</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>105.9689</v>
       </c>
     </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="140" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G140">
         <v>1743.116</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>106.07550000000001</v>
       </c>
     </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="141" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G141">
         <v>1743.41</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>105.9944</v>
       </c>
     </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="142" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G142">
         <v>1758.229</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>105.9682</v>
       </c>
     </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="143" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G143">
         <v>1758.6110000000001</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>106.0844</v>
       </c>
     </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="144" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G144">
         <v>1758.502</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>106.253</v>
       </c>
     </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G145">
         <v>1758.336</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>105.9712</v>
       </c>
     </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="146" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G146">
         <v>1743.46</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>105.7208</v>
       </c>
     </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="147" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G147">
         <v>1743.7249999999999</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>106.00369999999999</v>
       </c>
     </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="148" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G148">
         <v>1743.2550000000001</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>105.74850000000001</v>
       </c>
     </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="149" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G149">
         <v>1743.2</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>105.6892</v>
       </c>
     </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="150" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G150">
         <v>1743.645</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>115.9367</v>
       </c>
     </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="151" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G151">
         <v>1743.6010000000001</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>115.7723</v>
       </c>
     </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="152" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G152">
         <v>1743.2650000000001</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>115.5065</v>
       </c>
     </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="153" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G153">
         <v>1743.1210000000001</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>116.05670000000001</v>
       </c>
     </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="154" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G154">
         <v>1743.5830000000001</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>115.9269</v>
       </c>
     </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="155" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G155">
         <v>1743.1949999999999</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>115.9965</v>
       </c>
     </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="156" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G156">
         <v>1758.404</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v>115.4991</v>
       </c>
     </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="157" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G157">
         <v>1743.6780000000001</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>115.5228</v>
       </c>
     </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="158" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G158">
         <v>1743.75</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>115.83710000000001</v>
       </c>
     </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="159" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G159">
         <v>1743.4010000000001</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>115.67700000000001</v>
       </c>
     </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="160" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G160">
         <v>1758.3130000000001</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>115.5472</v>
       </c>
     </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="161" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G161">
         <v>1758.4659999999999</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>116.02809999999999</v>
       </c>
     </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="162" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G162">
         <v>1758.309</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>115.7191</v>
       </c>
     </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G163">
         <v>1758.383</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>115.8503</v>
       </c>
     </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="164" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G164">
         <v>1758.7819999999999</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>116.01349999999999</v>
       </c>
     </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="165" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G165">
         <v>1788.462</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>116.0718</v>
       </c>
     </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="166" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G166">
         <v>1804.0540000000001</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>115.88200000000001</v>
       </c>
     </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="167" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G167">
         <v>1804.001</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>115.82640000000001</v>
       </c>
     </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="168" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G168">
         <v>1818.5730000000001</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>116.0414</v>
       </c>
     </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="169" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G169">
         <v>1818.624</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>115.7786</v>
       </c>
     </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="170" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G170">
         <v>1818.7860000000001</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>115.92440000000001</v>
       </c>
     </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="171" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G171">
         <v>1834.075</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>116.0988</v>
       </c>
     </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="172" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G172">
         <v>1834.6020000000001</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>115.9281</v>
       </c>
     </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="173" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G173">
         <v>1834.0730000000001</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>115.8377</v>
       </c>
     </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="174" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G174">
         <v>1834.4480000000001</v>
       </c>
@@ -8419,7 +8419,7 @@
         <v>116.0936</v>
       </c>
     </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G175">
         <v>1834.4960000000001</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>115.8402</v>
       </c>
     </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G176">
         <v>1849.4380000000001</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>116.17019999999999</v>
       </c>
     </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="177" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G177">
         <v>1864.201</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>115.6253</v>
       </c>
     </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="178" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G178">
         <v>1864.7149999999999</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>116.0719</v>
       </c>
     </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="179" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G179">
         <v>1879.3689999999999</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>116.3058</v>
       </c>
     </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="180" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G180">
         <v>1894.5129999999999</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>115.8853</v>
       </c>
     </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="181" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G181">
         <v>1894.61</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>116.38339999999999</v>
       </c>
     </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="182" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G182">
         <v>1895.0039999999999</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>116.1009</v>
       </c>
     </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="183" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G183">
         <v>1909.9960000000001</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>126.40130000000001</v>
       </c>
     </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="184" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G184">
         <v>1909.953</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>115.6763</v>
       </c>
     </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="185" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G185">
         <v>1909.9480000000001</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>128.953</v>
       </c>
     </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="186" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G186">
         <v>1925.124</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>115.9194</v>
       </c>
     </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="187" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G187">
         <v>1924.905</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>131.6455</v>
       </c>
     </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="188" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G188">
         <v>1939.692</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>115.86109999999999</v>
       </c>
     </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="189" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G189">
         <v>1939.9169999999999</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>115.68819999999999</v>
       </c>
     </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="190" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G190">
         <v>1955.596</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>116.19329999999999</v>
       </c>
     </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="191" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G191">
         <v>1970.683</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>116.134</v>
       </c>
     </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="192" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G192">
         <v>1970.617</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>116.1763</v>
       </c>
     </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G193">
         <v>1970.1420000000001</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>116.0438</v>
       </c>
     </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G194">
         <v>1985.317</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>115.9259</v>
       </c>
     </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G195">
         <v>1985.1020000000001</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>116.0008</v>
       </c>
     </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G196">
         <v>2000.7739999999999</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>116.0121</v>
       </c>
     </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G197">
         <v>2000.3019999999999</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>115.7264</v>
       </c>
     </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G198">
         <v>2015.693</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>115.9374</v>
       </c>
     </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G199">
         <v>2030.57</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>115.91459999999999</v>
       </c>
     </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G200">
         <v>2046.1120000000001</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>115.63939999999999</v>
       </c>
     </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G201">
         <v>2076.0819999999999</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>116.1581</v>
       </c>
     </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G202">
         <v>2091.7159999999999</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>115.8416</v>
       </c>
     </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G203">
         <v>2106.19</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>115.8566</v>
       </c>
     </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G204">
         <v>2106.2840000000001</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>115.8509</v>
       </c>
     </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G205">
         <v>2121.7220000000002</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>115.8514</v>
       </c>
     </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="206" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G206">
         <v>2136.712</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>125.86709999999999</v>
       </c>
     </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="207" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G207">
         <v>2136.752</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>125.4483</v>
       </c>
     </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="208" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G208">
         <v>2136.913</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>125.4024</v>
       </c>
     </row>
-    <row r="209" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="209" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G209">
         <v>2167.261</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>125.7238</v>
       </c>
     </row>
-    <row r="210" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="210" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G210">
         <v>2181.7249999999999</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>125.682</v>
       </c>
     </row>
-    <row r="211" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="211" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G211">
         <v>2182.0329999999999</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>125.6857</v>
       </c>
     </row>
-    <row r="212" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="212" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G212">
         <v>2197.1640000000002</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>125.4738</v>
       </c>
     </row>
-    <row r="213" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="213" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G213">
         <v>2212.6770000000001</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>125.9331</v>
       </c>
     </row>
-    <row r="214" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="214" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G214">
         <v>2227.3980000000001</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>125.37139999999999</v>
       </c>
     </row>
-    <row r="215" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="215" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G215">
         <v>2242.422</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>125.9153</v>
       </c>
     </row>
-    <row r="216" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="216" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G216">
         <v>2257.8890000000001</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>125.6576</v>
       </c>
     </row>
-    <row r="217" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="217" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G217">
         <v>2272.59</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>125.5729</v>
       </c>
     </row>
-    <row r="218" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="218" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G218">
         <v>2288.2159999999999</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>125.9589</v>
       </c>
     </row>
-    <row r="219" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="219" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G219">
         <v>2302.7950000000001</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>135.2037</v>
       </c>
     </row>
-    <row r="220" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="220" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G220">
         <v>2318.6460000000002</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>135.52789999999999</v>
       </c>
     </row>
-    <row r="221" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="221" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G221">
         <v>2333.2890000000002</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>135.4736</v>
       </c>
     </row>
-    <row r="222" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="222" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G222">
         <v>2348.8989999999999</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>135.52209999999999</v>
       </c>
     </row>
-    <row r="223" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="223" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G223">
         <v>2363.453</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>135.203</v>
       </c>
     </row>
-    <row r="224" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="224" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G224">
         <v>2379.2429999999999</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>135.62870000000001</v>
       </c>
     </row>
-    <row r="225" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="225" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G225">
         <v>2378.7959999999998</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>135.7516</v>
       </c>
     </row>
-    <row r="226" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="226" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G226">
         <v>2379.1619999999998</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>135.196</v>
       </c>
     </row>
-    <row r="227" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="227" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G227">
         <v>2363.471</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>135.72149999999999</v>
       </c>
     </row>
-    <row r="228" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="228" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G228">
         <v>2318.3110000000001</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>135.15219999999999</v>
       </c>
     </row>
-    <row r="229" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="229" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G229">
         <v>2303.3679999999999</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>135.52850000000001</v>
       </c>
     </row>
-    <row r="230" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="230" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G230">
         <v>2303.4119999999998</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>135.50040000000001</v>
       </c>
     </row>
-    <row r="231" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="231" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G231">
         <v>2272.797</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>135.14279999999999</v>
       </c>
     </row>
-    <row r="232" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="232" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G232">
         <v>2257.855</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>135.7586</v>
       </c>
     </row>
-    <row r="233" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="233" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G233">
         <v>2257.732</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>135.2062</v>
       </c>
     </row>
-    <row r="234" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="234" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G234">
         <v>2243.0100000000002</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>135.19049999999999</v>
       </c>
     </row>
-    <row r="235" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="235" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G235">
         <v>2227.8380000000002</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>135.5018</v>
       </c>
     </row>
-    <row r="236" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="236" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G236">
         <v>2227.8609999999999</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>135.70230000000001</v>
       </c>
     </row>
-    <row r="237" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="237" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G237">
         <v>2227.7280000000001</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>135.14320000000001</v>
       </c>
     </row>
-    <row r="238" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="238" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G238">
         <v>2212.5929999999998</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>135.9186</v>
       </c>
     </row>
-    <row r="239" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="239" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G239">
         <v>2212.4630000000002</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>135.1687</v>
       </c>
     </row>
-    <row r="240" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="240" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G240">
         <v>2197.69</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>136.13910000000001</v>
       </c>
     </row>
-    <row r="241" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="241" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G241">
         <v>2197.442</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>135.43340000000001</v>
       </c>
     </row>
-    <row r="242" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="242" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G242">
         <v>2197.8220000000001</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>146.0427</v>
       </c>
     </row>
-    <row r="243" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="243" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G243">
         <v>2181.6410000000001</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>135.41380000000001</v>
       </c>
     </row>
-    <row r="244" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="244" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G244">
         <v>2181.77</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>148.27549999999999</v>
       </c>
     </row>
-    <row r="245" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="245" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G245">
         <v>2182.2109999999998</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>135.7269</v>
       </c>
     </row>
-    <row r="246" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="246" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G246">
         <v>2166.9209999999998</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>150.4016</v>
       </c>
     </row>
-    <row r="247" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="247" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G247">
         <v>2167.4630000000002</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>135.68629999999999</v>
       </c>
     </row>
-    <row r="248" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="248" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G248">
         <v>2166.9349999999999</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>149.3246</v>
       </c>
     </row>
-    <row r="249" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="249" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G249">
         <v>2152.0659999999998</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>135.16829999999999</v>
       </c>
     </row>
-    <row r="250" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="250" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G250">
         <v>2151.8969999999999</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>135.63730000000001</v>
       </c>
     </row>
-    <row r="251" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="251" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G251">
         <v>2151.701</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>135.42089999999999</v>
       </c>
     </row>
-    <row r="252" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="252" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G252">
         <v>2152.1179999999999</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>135.44110000000001</v>
       </c>
     </row>
-    <row r="253" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="253" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G253">
         <v>2137.1120000000001</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>135.73140000000001</v>
       </c>
     </row>
-    <row r="254" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="254" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G254">
         <v>2152.1480000000001</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>135.52979999999999</v>
       </c>
     </row>
-    <row r="255" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="255" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G255">
         <v>2136.7139999999999</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>135.16589999999999</v>
       </c>
     </row>
-    <row r="256" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="256" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G256">
         <v>2136.7220000000002</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>135.43109999999999</v>
       </c>
     </row>
-    <row r="257" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="257" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G257">
         <v>2137.1190000000001</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>135.6944</v>
       </c>
     </row>
-    <row r="258" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="258" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G258">
         <v>2137.2060000000001</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>135.5111</v>
       </c>
     </row>
-    <row r="259" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="259" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G259">
         <v>2137.136</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>135.74529999999999</v>
       </c>
     </row>
-    <row r="260" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="260" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G260">
         <v>2136.998</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>135.589</v>
       </c>
     </row>
-    <row r="261" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="261" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G261">
         <v>2137.0430000000001</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>135.4787</v>
       </c>
     </row>
-    <row r="262" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="262" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G262">
         <v>2136.9940000000001</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>135.501</v>
       </c>
     </row>
-    <row r="263" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="263" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G263">
         <v>2151.7600000000002</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>135.68340000000001</v>
       </c>
     </row>
-    <row r="264" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="264" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G264">
         <v>2136.674</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>135.40479999999999</v>
       </c>
     </row>
-    <row r="265" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="265" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G265">
         <v>2151.973</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>135.34440000000001</v>
       </c>
     </row>
-    <row r="266" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="266" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G266">
         <v>2151.9319999999998</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>135.4581</v>
       </c>
     </row>
-    <row r="267" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="267" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G267">
         <v>2151.9209999999998</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>135.1977</v>
       </c>
     </row>
-    <row r="268" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="268" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G268">
         <v>2151.9989999999998</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>135.34399999999999</v>
       </c>
     </row>
-    <row r="269" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="269" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G269">
         <v>2166.6460000000002</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>135.76349999999999</v>
       </c>
     </row>
-    <row r="270" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="270" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G270">
         <v>2152.134</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>135.49199999999999</v>
       </c>
     </row>
-    <row r="271" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="271" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G271">
         <v>2167.125</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>135.47919999999999</v>
       </c>
     </row>
-    <row r="272" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="272" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G272">
         <v>2166.8739999999998</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>135.7834</v>
       </c>
     </row>
-    <row r="273" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="273" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G273">
         <v>2182.17</v>
       </c>
@@ -9211,7 +9211,7 @@
         <v>135.50450000000001</v>
       </c>
     </row>
-    <row r="274" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="274" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G274">
         <v>2182.067</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>135.22200000000001</v>
       </c>
     </row>
-    <row r="275" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="275" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G275">
         <v>2197.5309999999999</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>135.49209999999999</v>
       </c>
     </row>
-    <row r="276" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="276" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G276">
         <v>2197.299</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>135.19800000000001</v>
       </c>
     </row>
-    <row r="277" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="277" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G277">
         <v>2212.5549999999998</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>135.47669999999999</v>
       </c>
     </row>
-    <row r="278" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="278" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G278">
         <v>2227.5909999999999</v>
       </c>
@@ -9251,7 +9251,7 @@
         <v>135.24359999999999</v>
       </c>
     </row>
-    <row r="279" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="279" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G279">
         <v>2242.674</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>135.78200000000001</v>
       </c>
     </row>
-    <row r="280" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="280" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G280">
         <v>2242.6320000000001</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>135.61869999999999</v>
       </c>
     </row>
-    <row r="281" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="281" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G281">
         <v>2257.8119999999999</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>135.5112</v>
       </c>
     </row>
-    <row r="282" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="282" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G282">
         <v>2257.9879999999998</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>135.25960000000001</v>
       </c>
     </row>
-    <row r="283" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="283" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G283">
         <v>2273.31</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>135.57429999999999</v>
       </c>
     </row>
-    <row r="284" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="284" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G284">
         <v>2272.7620000000002</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>135.48140000000001</v>
       </c>
     </row>
-    <row r="285" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="285" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G285">
         <v>2272.7910000000002</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>135.24860000000001</v>
       </c>
     </row>
-    <row r="286" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="286" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G286">
         <v>2303.0889999999999</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>135.2543</v>
       </c>
     </row>
-    <row r="287" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="287" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G287">
         <v>2318.8209999999999</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>135.78460000000001</v>
       </c>
     </row>
-    <row r="288" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="288" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G288">
         <v>2334.0030000000002</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>135.56190000000001</v>
       </c>
     </row>
-    <row r="289" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="289" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G289">
         <v>2348.922</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>135.61609999999999</v>
       </c>
     </row>
-    <row r="290" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="290" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G290">
         <v>2348.8249999999998</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>135.52010000000001</v>
       </c>
     </row>
-    <row r="291" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="291" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G291">
         <v>2348.7159999999999</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>135.76300000000001</v>
       </c>
     </row>
-    <row r="292" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="292" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G292">
         <v>2363.6129999999998</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>135.53290000000001</v>
       </c>
     </row>
-    <row r="293" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="293" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G293">
         <v>2378.8510000000001</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>135.28210000000001</v>
       </c>
     </row>
-    <row r="294" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="294" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G294">
         <v>2379.19</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>135.48609999999999</v>
       </c>
     </row>
-    <row r="295" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="295" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G295">
         <v>2394.2730000000001</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>135.55950000000001</v>
       </c>
     </row>
-    <row r="296" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="296" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G296">
         <v>2393.9299999999998</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>135.2533</v>
       </c>
     </row>
-    <row r="297" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="297" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G297">
         <v>2394.2550000000001</v>
       </c>
@@ -9410,11 +9410,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9671,27 +9672,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="94b7f148-c09a-42e6-baca-973a9a7cd962"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9716,9 +9707,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="94b7f148-c09a-42e6-baca-973a9a7cd962"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F448DC-2539-4B78-B8C8-DAFF8735B261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59D8DCE-C860-4E09-8A36-BE178A97DF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -46,12 +46,6 @@
   </si>
   <si>
     <t>Site</t>
-  </si>
-  <si>
-    <t>WT to Well</t>
-  </si>
-  <si>
-    <t>WTdepth</t>
   </si>
   <si>
     <t>pH</t>
@@ -136,6 +130,12 @@
   </si>
   <si>
     <t>CO2_mv</t>
+  </si>
+  <si>
+    <t>WT to Well (m)</t>
+  </si>
+  <si>
+    <t>Wtdepth (m)</t>
   </si>
 </sst>
 </file>
@@ -3685,17 +3685,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E7760-F87C-4D84-A63F-D473D279D553}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G103" sqref="G103:G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3713,25 +3714,25 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3745,16 +3746,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>0.2</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>1.54</v>
       </c>
       <c r="G2">
-        <f>E2-F2</f>
+        <f>Sheet1!E2-'RC log'!F2</f>
         <v>-1.34</v>
       </c>
       <c r="H2">
@@ -3775,16 +3773,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0.42</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>1.47</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">E3-F3</f>
+        <f>Sheet1!E3-'RC log'!F3</f>
         <v>-1.05</v>
       </c>
       <c r="H3">
@@ -3805,16 +3800,13 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>0.755</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>1.25</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f>Sheet1!E4-'RC log'!F4</f>
         <v>-0.495</v>
       </c>
       <c r="H4">
@@ -3835,16 +3827,13 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0.24</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>1.63</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f>Sheet1!E5-'RC log'!F5</f>
         <v>-1.39</v>
       </c>
       <c r="H5">
@@ -3865,16 +3854,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>0.75</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>0.86</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f>Sheet1!E6-'RC log'!F6</f>
         <v>-0.10999999999999999</v>
       </c>
       <c r="H6">
@@ -3895,20 +3881,17 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>7.0000000000000007E-2</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>1.33</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f>Sheet1!E7-'RC log'!F7</f>
         <v>-1.26</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K7">
         <v>26</v>
@@ -3925,20 +3908,17 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f>Sheet1!E8-'RC log'!F8</f>
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K8">
         <v>26</v>
@@ -3955,16 +3935,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>0.08</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>1.1299999999999999</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f>Sheet1!E9-'RC log'!F9</f>
         <v>-1.0499999999999998</v>
       </c>
       <c r="H9">
@@ -3985,16 +3962,13 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>0.84</v>
+        <v>15</v>
       </c>
       <c r="F10">
         <v>0.82</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f>Sheet1!E10-'RC log'!F10</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="H10">
@@ -4015,16 +3989,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>1.42</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>Sheet1!E11-'RC log'!F11</f>
         <v>-1.42</v>
       </c>
       <c r="H11">
@@ -4045,16 +4016,13 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>0.81</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>0.45</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f>Sheet1!E12-'RC log'!F12</f>
         <v>0.36000000000000004</v>
       </c>
       <c r="H12">
@@ -4075,16 +4043,13 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F13">
         <v>2.17</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f>Sheet1!E13-'RC log'!F13</f>
         <v>-1.17</v>
       </c>
       <c r="K13">
@@ -4102,16 +4067,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>0.245</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <v>0.55000000000000004</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>Sheet1!E14-'RC log'!F14</f>
         <v>-0.30500000000000005</v>
       </c>
       <c r="H14">
@@ -4132,16 +4094,13 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F15">
         <v>0.83</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f>Sheet1!E15-'RC log'!F15</f>
         <v>-0.83</v>
       </c>
       <c r="H15">
@@ -4162,16 +4121,13 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>-0.08</v>
+        <v>21</v>
       </c>
       <c r="F16">
         <v>1.33</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>Sheet1!E16-'RC log'!F16</f>
         <v>-1.4100000000000001</v>
       </c>
       <c r="H16">
@@ -4192,16 +4148,13 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>0.34499999999999997</v>
+        <v>22</v>
       </c>
       <c r="F17">
         <v>1.1599999999999999</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f>Sheet1!E17-'RC log'!F17</f>
         <v>-0.81499999999999995</v>
       </c>
       <c r="H17">
@@ -4222,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>0.2</v>
@@ -4231,11 +4184,11 @@
         <v>1.03</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>-0.83000000000000007</v>
+        <f>Sheet1!E18-'RC log'!F18</f>
+        <v>-1.03</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K18">
         <v>26</v>
@@ -4252,7 +4205,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>0.42</v>
@@ -4261,7 +4214,7 @@
         <v>0.71</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G19:G50" si="0">E19-F19</f>
         <v>-0.28999999999999998</v>
       </c>
       <c r="H19">
@@ -4282,7 +4235,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>0.755</v>
@@ -4312,7 +4265,7 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0.24</v>
@@ -4342,7 +4295,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>0.75</v>
@@ -4372,7 +4325,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>7.0000000000000007E-2</v>
@@ -4402,7 +4355,7 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4415,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K24">
         <v>26</v>
@@ -4432,7 +4385,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0.08</v>
@@ -4445,7 +4398,7 @@
         <v>-0.55000000000000004</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K25">
         <v>26</v>
@@ -4462,7 +4415,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0.84</v>
@@ -4492,7 +4445,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4505,7 +4458,7 @@
         <v>-1.07</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K27">
         <v>26</v>
@@ -4522,7 +4475,7 @@
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>0.81</v>
@@ -4535,7 +4488,7 @@
         <v>0.12000000000000011</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K28">
         <v>26</v>
@@ -4552,7 +4505,7 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -4582,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>0.245</v>
@@ -4612,7 +4565,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4642,7 +4595,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>-0.08</v>
@@ -4672,7 +4625,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0.34499999999999997</v>
@@ -4702,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0.2</v>
@@ -4715,7 +4668,7 @@
         <v>-0.83000000000000007</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K34">
         <v>26</v>
@@ -4732,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>0.42</v>
@@ -4762,7 +4715,7 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>0.755</v>
@@ -4792,7 +4745,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E37">
         <v>0.24</v>
@@ -4822,7 +4775,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>0.75</v>
@@ -4852,7 +4805,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39">
         <v>7.0000000000000007E-2</v>
@@ -4882,20 +4835,20 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G40" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K40">
         <v>26</v>
@@ -4912,7 +4865,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>0.08</v>
@@ -4925,7 +4878,7 @@
         <v>-1.0289999999999999</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K41">
         <v>26</v>
@@ -4942,7 +4895,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0.84</v>
@@ -4955,7 +4908,7 @@
         <v>0.12</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K42">
         <v>26</v>
@@ -4972,7 +4925,7 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -4985,7 +4938,7 @@
         <v>-1.33</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K43">
         <v>26</v>
@@ -5002,7 +4955,7 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>0.81</v>
@@ -5015,7 +4968,7 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K44">
         <v>26</v>
@@ -5032,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -5045,7 +4998,7 @@
         <v>-1.1600000000000001</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K45">
         <v>26</v>
@@ -5062,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <v>0.245</v>
@@ -5092,7 +5045,7 @@
         <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5119,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E48">
         <v>-0.08</v>
@@ -5149,7 +5102,7 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E49">
         <v>0.34499999999999997</v>
@@ -5179,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <v>0.2</v>
@@ -5203,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E51">
         <v>0.42</v>
@@ -5212,7 +5165,7 @@
         <v>1.97</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G51:G82" si="1">E51-F51</f>
         <v>-1.55</v>
       </c>
     </row>
@@ -5227,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>0.755</v>
@@ -5236,7 +5189,7 @@
         <v>1.51</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.755</v>
       </c>
       <c r="H52">
@@ -5244,10 +5197,6 @@
       </c>
       <c r="I52">
         <v>708</v>
-      </c>
-      <c r="J52">
-        <f>I52*6.33+702.4</f>
-        <v>5184.04</v>
       </c>
       <c r="K52">
         <v>27</v>
@@ -5264,7 +5213,7 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E53">
         <v>0.24</v>
@@ -5273,7 +5222,7 @@
         <v>1.49</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.25</v>
       </c>
       <c r="H53">
@@ -5281,10 +5230,6 @@
       </c>
       <c r="I53">
         <v>246</v>
-      </c>
-      <c r="J53">
-        <f>I53*6.33+702.4</f>
-        <v>2259.58</v>
       </c>
       <c r="K53">
         <v>27</v>
@@ -5301,7 +5246,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E54">
         <v>0.75</v>
@@ -5310,7 +5255,7 @@
         <v>0.87</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.12</v>
       </c>
     </row>
@@ -5325,7 +5270,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E55">
         <v>7.0000000000000007E-2</v>
@@ -5334,7 +5279,7 @@
         <v>1.31</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.24</v>
       </c>
     </row>
@@ -5349,7 +5294,7 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -5358,7 +5303,7 @@
         <v>2.46</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.46</v>
       </c>
       <c r="H56">
@@ -5366,10 +5311,6 @@
       </c>
       <c r="I56">
         <v>473</v>
-      </c>
-      <c r="J56">
-        <f t="shared" ref="J56:J96" si="1">I56*6.33+702.4</f>
-        <v>3696.4900000000002</v>
       </c>
       <c r="K56">
         <v>26</v>
@@ -5386,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>0.08</v>
@@ -5395,7 +5336,7 @@
         <v>1.89</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.8099999999999998</v>
       </c>
       <c r="H57">
@@ -5403,10 +5344,6 @@
       </c>
       <c r="I57">
         <v>101</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="1"/>
-        <v>1341.73</v>
       </c>
       <c r="K57">
         <v>26</v>
@@ -5423,7 +5360,7 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>0.84</v>
@@ -5432,7 +5369,7 @@
         <v>2.33</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.4900000000000002</v>
       </c>
       <c r="H58">
@@ -5440,10 +5377,6 @@
       </c>
       <c r="I58">
         <v>116</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="1"/>
-        <v>1436.6799999999998</v>
       </c>
       <c r="K58">
         <v>26</v>
@@ -5460,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -5469,7 +5402,7 @@
         <v>2.64</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.64</v>
       </c>
     </row>
@@ -5484,7 +5417,7 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>0.81</v>
@@ -5493,7 +5426,7 @@
         <v>1.91</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0999999999999999</v>
       </c>
     </row>
@@ -5508,7 +5441,7 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -5517,7 +5450,7 @@
         <v>3.79</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.79</v>
       </c>
     </row>
@@ -5532,7 +5465,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>0.245</v>
@@ -5541,7 +5474,7 @@
         <v>1.71</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.4649999999999999</v>
       </c>
     </row>
@@ -5556,7 +5489,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -5565,15 +5498,11 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.1800000000000002</v>
       </c>
       <c r="I63">
         <v>848</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="1"/>
-        <v>6070.24</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -5587,7 +5516,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E64">
         <v>-0.08</v>
@@ -5596,7 +5525,7 @@
         <v>2.11</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.19</v>
       </c>
     </row>
@@ -5611,7 +5540,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E65">
         <v>0.34499999999999997</v>
@@ -5620,7 +5549,7 @@
         <v>2.35</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.0049999999999999</v>
       </c>
     </row>
@@ -5635,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E66">
         <v>0.2</v>
@@ -5644,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="H66">
@@ -5652,10 +5581,6 @@
       </c>
       <c r="I66">
         <v>103</v>
-      </c>
-      <c r="J66">
-        <f t="shared" si="1"/>
-        <v>1354.3899999999999</v>
       </c>
       <c r="K66">
         <v>26</v>
@@ -5672,7 +5597,7 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E67">
         <v>0.42</v>
@@ -5681,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G81" si="2">E67-F67</f>
+        <f t="shared" si="1"/>
         <v>0.42</v>
       </c>
       <c r="H67">
@@ -5689,10 +5614,6 @@
       </c>
       <c r="I67">
         <v>92</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="1"/>
-        <v>1284.76</v>
       </c>
       <c r="K67">
         <v>25.7</v>
@@ -5709,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E68">
         <v>0.755</v>
@@ -5725,10 +5646,6 @@
       </c>
       <c r="I68">
         <v>333</v>
-      </c>
-      <c r="J68">
-        <f t="shared" si="1"/>
-        <v>2810.29</v>
       </c>
       <c r="K68">
         <v>24.9</v>
@@ -5745,7 +5662,7 @@
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E69">
         <v>0.24</v>
@@ -5754,7 +5671,7 @@
         <v>0.47</v>
       </c>
       <c r="G69">
-        <f t="shared" si="2"/>
+        <f>E69-F69</f>
         <v>-0.22999999999999998</v>
       </c>
       <c r="H69">
@@ -5762,10 +5679,6 @@
       </c>
       <c r="I69">
         <v>649</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="1"/>
-        <v>4810.57</v>
       </c>
       <c r="K69">
         <v>25.9</v>
@@ -5782,7 +5695,7 @@
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E70">
         <v>0.75</v>
@@ -5798,10 +5711,6 @@
       </c>
       <c r="I70">
         <v>348</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="1"/>
-        <v>2905.2400000000002</v>
       </c>
       <c r="K70">
         <v>25.9</v>
@@ -5818,7 +5727,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E71">
         <v>7.0000000000000007E-2</v>
@@ -5827,7 +5736,7 @@
         <v>0.25</v>
       </c>
       <c r="G71">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G71:G81" si="2">E71-F71</f>
         <v>-0.18</v>
       </c>
       <c r="H71">
@@ -5835,10 +5744,6 @@
       </c>
       <c r="I71">
         <v>603</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="1"/>
-        <v>4519.3900000000003</v>
       </c>
       <c r="K71">
         <v>27</v>
@@ -5855,7 +5760,7 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -5873,10 +5778,6 @@
       <c r="I72">
         <v>103</v>
       </c>
-      <c r="J72">
-        <f t="shared" si="1"/>
-        <v>1354.3899999999999</v>
-      </c>
       <c r="K72">
         <v>23</v>
       </c>
@@ -5892,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E73">
         <v>0.08</v>
@@ -5910,10 +5811,6 @@
       <c r="I73">
         <v>4425</v>
       </c>
-      <c r="J73">
-        <f t="shared" si="1"/>
-        <v>28712.65</v>
-      </c>
       <c r="K73">
         <v>27.75</v>
       </c>
@@ -5929,7 +5826,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>0.84</v>
@@ -5947,10 +5844,6 @@
       <c r="I74">
         <v>1791</v>
       </c>
-      <c r="J74">
-        <f t="shared" si="1"/>
-        <v>12039.43</v>
-      </c>
       <c r="K74">
         <v>25.89</v>
       </c>
@@ -5966,7 +5859,7 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -5984,10 +5877,6 @@
       <c r="I75">
         <v>3358</v>
       </c>
-      <c r="J75">
-        <f t="shared" si="1"/>
-        <v>21958.54</v>
-      </c>
       <c r="K75">
         <v>26.57</v>
       </c>
@@ -6003,7 +5892,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E76">
         <v>0.81</v>
@@ -6021,10 +5910,6 @@
       <c r="I76">
         <v>3828</v>
       </c>
-      <c r="J76">
-        <f t="shared" si="1"/>
-        <v>24933.640000000003</v>
-      </c>
       <c r="K76">
         <v>28</v>
       </c>
@@ -6040,7 +5925,7 @@
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -6052,11 +5937,8 @@
         <f t="shared" si="2"/>
         <v>-2.14</v>
       </c>
-      <c r="J77" t="s">
-        <v>14</v>
-      </c>
       <c r="K77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -6070,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <v>0.245</v>
@@ -6082,11 +5964,8 @@
         <f t="shared" si="2"/>
         <v>-0.8849999999999999</v>
       </c>
-      <c r="J78" t="s">
-        <v>14</v>
-      </c>
       <c r="K78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -6100,7 +5979,7 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -6118,10 +5997,6 @@
       <c r="I79">
         <v>3703</v>
       </c>
-      <c r="J79">
-        <f t="shared" si="1"/>
-        <v>24142.390000000003</v>
-      </c>
       <c r="K79">
         <v>28.7</v>
       </c>
@@ -6137,7 +6012,7 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E80">
         <v>-0.08</v>
@@ -6155,10 +6030,6 @@
       <c r="I80">
         <v>2916</v>
       </c>
-      <c r="J80">
-        <f t="shared" si="1"/>
-        <v>19160.68</v>
-      </c>
       <c r="K80">
         <v>30.6</v>
       </c>
@@ -6174,7 +6045,7 @@
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E81">
         <v>0.34499999999999997</v>
@@ -6186,11 +6057,8 @@
         <f t="shared" si="2"/>
         <v>-1.2450000000000001</v>
       </c>
-      <c r="J81" t="s">
-        <v>14</v>
-      </c>
       <c r="K81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -6204,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E82">
         <v>0.2</v>
@@ -6217,10 +6085,6 @@
       </c>
       <c r="I82">
         <v>515</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="1"/>
-        <v>3962.35</v>
       </c>
       <c r="K82">
         <v>25.8</v>
@@ -6237,7 +6101,7 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E83">
         <v>0.42</v>
@@ -6250,10 +6114,6 @@
       </c>
       <c r="I83">
         <v>2950</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="1"/>
-        <v>19375.900000000001</v>
       </c>
       <c r="K83">
         <v>26</v>
@@ -6270,7 +6130,7 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E84">
         <v>0.755</v>
@@ -6283,10 +6143,6 @@
       </c>
       <c r="I84">
         <v>934</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="1"/>
-        <v>6614.62</v>
       </c>
       <c r="K84">
         <v>24</v>
@@ -6303,7 +6159,7 @@
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E85">
         <v>0.24</v>
@@ -6312,7 +6168,7 @@
         <v>0.64</v>
       </c>
       <c r="G85">
-        <f t="shared" ref="G85" si="3">E85-F85</f>
+        <f>E85-F85</f>
         <v>-0.4</v>
       </c>
       <c r="H85">
@@ -6320,10 +6176,6 @@
       </c>
       <c r="I85">
         <v>1310</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="1"/>
-        <v>8994.6999999999989</v>
       </c>
       <c r="K85">
         <v>26</v>
@@ -6340,7 +6192,7 @@
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E86">
         <v>0.75</v>
@@ -6353,10 +6205,6 @@
       </c>
       <c r="I86">
         <v>1290</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="1"/>
-        <v>8868.1</v>
       </c>
       <c r="K86">
         <v>25.72</v>
@@ -6373,7 +6221,7 @@
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E87">
         <v>7.0000000000000007E-2</v>
@@ -6382,7 +6230,7 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="G87">
-        <f t="shared" ref="G87" si="4">E87-F87</f>
+        <f>E87-F87</f>
         <v>-0.10499999999999998</v>
       </c>
       <c r="H87">
@@ -6390,10 +6238,6 @@
       </c>
       <c r="I87">
         <v>530</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="1"/>
-        <v>4057.3</v>
       </c>
       <c r="K87">
         <v>24</v>
@@ -6410,7 +6254,7 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -6422,13 +6266,10 @@
         <v>5</v>
       </c>
       <c r="I88" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -6442,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E89">
         <v>0.08</v>
@@ -6451,7 +6292,7 @@
         <v>0.49</v>
       </c>
       <c r="G89">
-        <f t="shared" ref="G89" si="5">E89-F89</f>
+        <f>E89-F89</f>
         <v>-0.41</v>
       </c>
       <c r="H89">
@@ -6459,10 +6300,6 @@
       </c>
       <c r="I89">
         <v>5453</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="1"/>
-        <v>35219.89</v>
       </c>
       <c r="K89">
         <v>34.33</v>
@@ -6479,7 +6316,7 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E90">
         <v>0.84</v>
@@ -6492,10 +6329,6 @@
       </c>
       <c r="I90">
         <v>4554</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="1"/>
-        <v>29529.22</v>
       </c>
       <c r="K90">
         <v>32.46</v>
@@ -6512,7 +6345,7 @@
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6525,10 +6358,6 @@
       </c>
       <c r="I91">
         <v>909</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="1"/>
-        <v>6456.37</v>
       </c>
       <c r="K91">
         <v>29.26</v>
@@ -6545,7 +6374,7 @@
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E92">
         <v>0.81</v>
@@ -6554,7 +6383,7 @@
         <v>1.41</v>
       </c>
       <c r="G92">
-        <f t="shared" ref="G92:G97" si="6">E92-F92</f>
+        <f>E92-F92</f>
         <v>-0.59999999999999987</v>
       </c>
       <c r="H92">
@@ -6562,10 +6391,6 @@
       </c>
       <c r="I92">
         <v>1541</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="1"/>
-        <v>10456.93</v>
       </c>
       <c r="K92">
         <v>28</v>
@@ -6582,7 +6407,7 @@
         <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -6591,20 +6416,17 @@
         <v>2.5</v>
       </c>
       <c r="G93">
-        <f t="shared" si="6"/>
+        <f>E93-F93</f>
         <v>-1.5</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I93" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -6618,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E94">
         <v>0.245</v>
@@ -6627,7 +6449,7 @@
         <v>0.54</v>
       </c>
       <c r="G94">
-        <f t="shared" si="6"/>
+        <f>E94-F94</f>
         <v>-0.29500000000000004</v>
       </c>
       <c r="H94">
@@ -6635,10 +6457,6 @@
       </c>
       <c r="I94">
         <v>1519</v>
-      </c>
-      <c r="J94">
-        <f t="shared" si="1"/>
-        <v>10317.67</v>
       </c>
       <c r="K94">
         <v>28</v>
@@ -6655,7 +6473,7 @@
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -6664,7 +6482,7 @@
         <v>0.59</v>
       </c>
       <c r="G95">
-        <f t="shared" si="6"/>
+        <f>E95-F95</f>
         <v>-0.59</v>
       </c>
       <c r="H95">
@@ -6672,10 +6490,6 @@
       </c>
       <c r="I95">
         <v>1531</v>
-      </c>
-      <c r="J95">
-        <f t="shared" si="1"/>
-        <v>10393.629999999999</v>
       </c>
       <c r="K95">
         <v>28</v>
@@ -6692,7 +6506,7 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E96">
         <v>-0.08</v>
@@ -6706,15 +6520,11 @@
       <c r="I96">
         <v>3013</v>
       </c>
-      <c r="J96">
-        <f t="shared" si="1"/>
-        <v>19774.690000000002</v>
-      </c>
       <c r="K96">
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45502</v>
       </c>
@@ -6725,7 +6535,7 @@
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E97">
         <v>0.34499999999999997</v>
@@ -6734,8 +6544,468 @@
         <v>1.38</v>
       </c>
       <c r="G97">
-        <f t="shared" si="6"/>
+        <f>E97-F97</f>
         <v>-1.0349999999999999</v>
+      </c>
+      <c r="H97">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B98">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98">
+        <v>0.2</v>
+      </c>
+      <c r="G98">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H98">
+        <v>5.41</v>
+      </c>
+      <c r="I98">
+        <v>1280</v>
+      </c>
+      <c r="K98">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99">
+        <v>0.42</v>
+      </c>
+      <c r="G99">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H99">
+        <v>5.34</v>
+      </c>
+      <c r="I99">
+        <v>1776</v>
+      </c>
+      <c r="K99">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100">
+        <v>0.755</v>
+      </c>
+      <c r="F100">
+        <f>0.83-0.72</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="G100">
+        <f>F100-E100</f>
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="H100">
+        <v>5.37</v>
+      </c>
+      <c r="I100">
+        <v>647.4</v>
+      </c>
+      <c r="K100">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101">
+        <v>0.24</v>
+      </c>
+      <c r="F101">
+        <f>1.68-0.9</f>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="G101">
+        <f t="shared" ref="G101:G102" si="3">F101-E101</f>
+        <v>0.53999999999999992</v>
+      </c>
+      <c r="H101">
+        <v>5.16</v>
+      </c>
+      <c r="I101">
+        <v>1738</v>
+      </c>
+      <c r="K101">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102">
+        <v>0.75</v>
+      </c>
+      <c r="F102">
+        <f>0.82-0.76</f>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="3"/>
+        <v>-0.69000000000000006</v>
+      </c>
+      <c r="H102">
+        <v>4.45</v>
+      </c>
+      <c r="I102">
+        <v>1572</v>
+      </c>
+      <c r="K102">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="I103">
+        <v>1488</v>
+      </c>
+      <c r="K103">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B105">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105">
+        <v>0.08</v>
+      </c>
+      <c r="G105">
+        <v>-0.19</v>
+      </c>
+      <c r="H105">
+        <v>4.22</v>
+      </c>
+      <c r="I105">
+        <v>1330</v>
+      </c>
+      <c r="K105">
+        <v>27.11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B106">
+        <v>6</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106">
+        <v>0.84</v>
+      </c>
+      <c r="G106">
+        <v>0.06</v>
+      </c>
+      <c r="H106">
+        <v>4.37</v>
+      </c>
+      <c r="I106">
+        <v>4850</v>
+      </c>
+      <c r="K106">
+        <v>26.01</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>-0.51</v>
+      </c>
+      <c r="H107">
+        <v>4.71</v>
+      </c>
+      <c r="I107">
+        <v>830</v>
+      </c>
+      <c r="K107">
+        <v>26.23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B108">
+        <v>6</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>0.81</v>
+      </c>
+      <c r="G108">
+        <v>-0.04</v>
+      </c>
+      <c r="H108">
+        <v>4.41</v>
+      </c>
+      <c r="I108">
+        <v>500</v>
+      </c>
+      <c r="K108">
+        <v>26.62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B109">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <f>0.99-1.97</f>
+        <v>-0.98</v>
+      </c>
+      <c r="H109">
+        <v>4.34</v>
+      </c>
+      <c r="I109">
+        <v>1144</v>
+      </c>
+      <c r="K109">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B110">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110">
+        <v>0.245</v>
+      </c>
+      <c r="G110">
+        <f>0.24-0.4</f>
+        <v>-0.16000000000000003</v>
+      </c>
+      <c r="H110">
+        <v>3.83</v>
+      </c>
+      <c r="I110">
+        <v>2900</v>
+      </c>
+      <c r="K110">
+        <v>29.07</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B111">
+        <v>9</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>-0.4</v>
+      </c>
+      <c r="H111">
+        <v>3.97</v>
+      </c>
+      <c r="I111">
+        <v>3560</v>
+      </c>
+      <c r="K111">
+        <v>28.69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112">
+        <v>-0.08</v>
+      </c>
+      <c r="G112">
+        <v>-0.39</v>
+      </c>
+      <c r="H112">
+        <v>3.85</v>
+      </c>
+      <c r="I112">
+        <v>3732</v>
+      </c>
+      <c r="K112">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B113">
+        <v>9</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113">
+        <v>0.34499999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -6764,27 +7034,27 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -6808,7 +7078,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -6832,7 +7102,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -6856,7 +7126,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6880,7 +7150,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>16</v>
@@ -6904,7 +7174,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -6928,7 +7198,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>40</v>
@@ -6952,7 +7222,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6976,7 +7246,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -7000,7 +7270,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>26</v>
@@ -7024,7 +7294,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -7048,7 +7318,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>25</v>
@@ -7072,7 +7342,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7096,7 +7366,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -7120,7 +7390,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -7144,7 +7414,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>

--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59D8DCE-C860-4E09-8A36-BE178A97DF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BFE4F-EDC3-4DEA-9D7F-8ECF606B9554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7455" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -3688,19 +3688,19 @@
   <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G103" sqref="G103:G112"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.40625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>45400</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>45400</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>45400</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>45400</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>45400</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45400</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>45400</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>45400</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>45400</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>45400</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>45400</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>45400</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="1">
         <v>45400</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>45400</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="1">
         <v>45400</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>45400</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="1">
         <v>45420</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>45420</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="1">
         <v>45420</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="1">
         <v>45420</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="1">
         <v>45420</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="1">
         <v>45420</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="1">
         <v>45420</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="1">
         <v>45420</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="1">
         <v>45420</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="1">
         <v>45420</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="1">
         <v>45420</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="1">
         <v>45420</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A30" s="1">
         <v>45420</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A31" s="1">
         <v>45420</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A32" s="1">
         <v>45420</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A33" s="1">
         <v>45420</v>
       </c>
@@ -4644,7 +4644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A34" s="1">
         <v>45442</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A35" s="1">
         <v>45442</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A36" s="1">
         <v>45442</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A37" s="1">
         <v>45442</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A38" s="1">
         <v>45442</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A39" s="1">
         <v>45442</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A40" s="1">
         <v>45442</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A41" s="1">
         <v>45442</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A42" s="1">
         <v>45442</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A43" s="1">
         <v>45442</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A44" s="1">
         <v>45442</v>
       </c>
@@ -4974,7 +4974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A45" s="1">
         <v>45442</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A46" s="1">
         <v>45442</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A47" s="1">
         <v>45442</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A48" s="1">
         <v>45442</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A49" s="1">
         <v>45442</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A50" s="1">
         <v>45463</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>-0.85000000000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A51" s="1">
         <v>45463</v>
       </c>
@@ -5165,11 +5165,11 @@
         <v>1.97</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G51:G82" si="1">E51-F51</f>
+        <f t="shared" ref="G51:G67" si="1">E51-F51</f>
         <v>-1.55</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A52" s="1">
         <v>45463</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A53" s="1">
         <v>45463</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A54" s="1">
         <v>45463</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A55" s="1">
         <v>45463</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>-1.24</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A56" s="1">
         <v>45463</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A57" s="1">
         <v>45463</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A58" s="1">
         <v>45463</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A59" s="1">
         <v>45463</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A60" s="1">
         <v>45463</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>-1.0999999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A61" s="1">
         <v>45463</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>-2.79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A62" s="1">
         <v>45463</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>-1.4649999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A63" s="1">
         <v>45463</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A64" s="1">
         <v>45463</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A65" s="1">
         <v>45463</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>-2.0049999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A66" s="1">
         <v>45484</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A67" s="1">
         <v>45484</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A68" s="1">
         <v>45484</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A69" s="1">
         <v>45484</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A70" s="1">
         <v>45484</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A71" s="1">
         <v>45484</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A72" s="1">
         <v>45484</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A73" s="1">
         <v>45484</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A74" s="1">
         <v>45484</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A75" s="1">
         <v>45484</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>26.57</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A76" s="1">
         <v>45484</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A77" s="1">
         <v>45484</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A78" s="1">
         <v>45484</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A79" s="1">
         <v>45484</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A80" s="1">
         <v>45484</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A81" s="1">
         <v>45484</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A82" s="1">
         <v>45502</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A83" s="1">
         <v>45502</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A84" s="1">
         <v>45502</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A85" s="1">
         <v>45502</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A86" s="1">
         <v>45502</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>25.72</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A87" s="1">
         <v>45502</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A88" s="1">
         <v>45502</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A89" s="1">
         <v>45502</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A90" s="1">
         <v>45502</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A91" s="1">
         <v>45502</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A92" s="1">
         <v>45502</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A93" s="1">
         <v>45502</v>
       </c>
@@ -6419,17 +6419,8 @@
         <f>E93-F93</f>
         <v>-1.5</v>
       </c>
-      <c r="H93" t="s">
-        <v>12</v>
-      </c>
-      <c r="I93" t="s">
-        <v>12</v>
-      </c>
-      <c r="K93" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A94" s="1">
         <v>45502</v>
       </c>
@@ -6462,7 +6453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A95" s="1">
         <v>45502</v>
       </c>
@@ -6495,7 +6486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A96" s="1">
         <v>45502</v>
       </c>
@@ -6524,7 +6515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A97" s="1">
         <v>45502</v>
       </c>
@@ -6551,7 +6542,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A98" s="1">
         <v>45534</v>
       </c>
@@ -6580,7 +6571,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A99" s="1">
         <v>45534</v>
       </c>
@@ -6609,7 +6600,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A100" s="1">
         <v>45534</v>
       </c>
@@ -6643,7 +6634,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A101" s="1">
         <v>45534</v>
       </c>
@@ -6677,7 +6668,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A102" s="1">
         <v>45534</v>
       </c>
@@ -6711,7 +6702,7 @@
         <v>26.43</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A103" s="1">
         <v>45534</v>
       </c>
@@ -6740,7 +6731,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A104" s="1">
         <v>45534</v>
       </c>
@@ -6757,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A105" s="1">
         <v>45534</v>
       </c>
@@ -6786,7 +6777,7 @@
         <v>27.11</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A106" s="1">
         <v>45534</v>
       </c>
@@ -6815,7 +6806,7 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A107" s="1">
         <v>45534</v>
       </c>
@@ -6844,7 +6835,7 @@
         <v>26.23</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A108" s="1">
         <v>45534</v>
       </c>
@@ -6873,7 +6864,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A109" s="1">
         <v>45534</v>
       </c>
@@ -6903,7 +6894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A110" s="1">
         <v>45534</v>
       </c>
@@ -6933,7 +6924,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A111" s="1">
         <v>45534</v>
       </c>
@@ -6962,7 +6953,7 @@
         <v>28.69</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A112" s="1">
         <v>45534</v>
       </c>
@@ -6991,7 +6982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A113" s="1">
         <v>45534</v>
       </c>
@@ -7021,15 +7012,15 @@
       <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7052,7 +7043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7076,7 +7067,7 @@
         <v>79.863910000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -7100,7 +7091,7 @@
         <v>76.943730000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -7124,7 +7115,7 @@
         <v>88.202100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -7148,7 +7139,7 @@
         <v>76.922430000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -7172,7 +7163,7 @@
         <v>92.059330000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7196,7 +7187,7 @@
         <v>76.370699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7220,7 +7211,7 @@
         <v>93.197450000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7244,7 +7235,7 @@
         <v>76.815430000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7268,7 +7259,7 @@
         <v>76.590829999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -7292,7 +7283,7 @@
         <v>76.606219999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -7316,7 +7307,7 @@
         <v>76.513019999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -7340,7 +7331,7 @@
         <v>76.622630000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -7364,7 +7355,7 @@
         <v>66.857730000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -7388,7 +7379,7 @@
         <v>67.045649999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -7412,7 +7403,7 @@
         <v>67.109120000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -7433,7 +7424,7 @@
         <v>66.502930000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G18">
         <v>652.93119999999999</v>
       </c>
@@ -7441,7 +7432,7 @@
         <v>66.842190000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G19">
         <v>653.20910000000003</v>
       </c>
@@ -7449,7 +7440,7 @@
         <v>66.69511</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G20">
         <v>607.95830000000001</v>
       </c>
@@ -7457,7 +7448,7 @@
         <v>67.072839999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G21">
         <v>607.56110000000001</v>
       </c>
@@ -7465,7 +7456,7 @@
         <v>66.492159999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G22">
         <v>638.08180000000004</v>
       </c>
@@ -7473,7 +7464,7 @@
         <v>66.821780000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G23">
         <v>638.25340000000006</v>
       </c>
@@ -7481,7 +7472,7 @@
         <v>66.970429999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G24">
         <v>623.13530000000003</v>
       </c>
@@ -7489,7 +7480,7 @@
         <v>66.743210000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G25">
         <v>607.76750000000004</v>
       </c>
@@ -7497,7 +7488,7 @@
         <v>66.741129999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G26">
         <v>592.50710000000004</v>
       </c>
@@ -7505,7 +7496,7 @@
         <v>66.642009999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G27">
         <v>577.47490000000005</v>
       </c>
@@ -7513,7 +7504,7 @@
         <v>66.604929999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G28">
         <v>562.39620000000002</v>
       </c>
@@ -7521,7 +7512,7 @@
         <v>66.727909999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G29">
         <v>562.76610000000005</v>
       </c>
@@ -7529,7 +7520,7 @@
         <v>66.755129999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G30">
         <v>562.50009999999997</v>
       </c>
@@ -7537,7 +7528,7 @@
         <v>66.565960000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G31">
         <v>562.36329999999998</v>
       </c>
@@ -7545,7 +7536,7 @@
         <v>66.708879999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.75">
       <c r="G32">
         <v>577.42870000000005</v>
       </c>
@@ -7553,7 +7544,7 @@
         <v>66.438630000000003</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G33">
         <v>577.51340000000005</v>
       </c>
@@ -7561,7 +7552,7 @@
         <v>66.721999999999994</v>
       </c>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G34">
         <v>622.80349999999999</v>
       </c>
@@ -7569,7 +7560,7 @@
         <v>66.502319999999997</v>
       </c>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G35">
         <v>698.44579999999996</v>
       </c>
@@ -7577,7 +7568,7 @@
         <v>66.603359999999995</v>
       </c>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G36">
         <v>728.82050000000004</v>
       </c>
@@ -7585,7 +7576,7 @@
         <v>66.735640000000004</v>
       </c>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G37">
         <v>744.46180000000004</v>
       </c>
@@ -7593,7 +7584,7 @@
         <v>67.009540000000001</v>
       </c>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G38">
         <v>728.54539999999997</v>
       </c>
@@ -7601,7 +7592,7 @@
         <v>66.730959999999996</v>
       </c>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G39">
         <v>728.59079999999994</v>
       </c>
@@ -7609,7 +7600,7 @@
         <v>66.700519999999997</v>
       </c>
     </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G40">
         <v>728.52480000000003</v>
       </c>
@@ -7617,7 +7608,7 @@
         <v>66.432400000000001</v>
       </c>
     </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G41">
         <v>744.04729999999995</v>
       </c>
@@ -7625,7 +7616,7 @@
         <v>66.440209999999993</v>
       </c>
     </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G42">
         <v>744.07650000000001</v>
       </c>
@@ -7633,7 +7624,7 @@
         <v>66.810680000000005</v>
       </c>
     </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G43">
         <v>759.36440000000005</v>
       </c>
@@ -7641,7 +7632,7 @@
         <v>66.765969999999996</v>
       </c>
     </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G44">
         <v>774.61670000000004</v>
       </c>
@@ -7649,7 +7640,7 @@
         <v>66.688059999999993</v>
       </c>
     </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G45">
         <v>774.67240000000004</v>
       </c>
@@ -7657,7 +7648,7 @@
         <v>66.708640000000003</v>
       </c>
     </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G46">
         <v>789.6807</v>
       </c>
@@ -7665,7 +7656,7 @@
         <v>66.707120000000003</v>
       </c>
     </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G47">
         <v>834.55520000000001</v>
       </c>
@@ -7673,7 +7664,7 @@
         <v>66.699510000000004</v>
       </c>
     </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G48">
         <v>834.96130000000005</v>
       </c>
@@ -7681,7 +7672,7 @@
         <v>67.011229999999998</v>
       </c>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G49">
         <v>850.197</v>
       </c>
@@ -7689,7 +7680,7 @@
         <v>66.578879999999998</v>
       </c>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G50">
         <v>865.02120000000002</v>
       </c>
@@ -7697,7 +7688,7 @@
         <v>66.439570000000003</v>
       </c>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G51">
         <v>865.25400000000002</v>
       </c>
@@ -7705,7 +7696,7 @@
         <v>66.421679999999995</v>
       </c>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G52">
         <v>880.46839999999997</v>
       </c>
@@ -7713,7 +7704,7 @@
         <v>66.699039999999997</v>
       </c>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G53">
         <v>895.39089999999999</v>
       </c>
@@ -7721,7 +7712,7 @@
         <v>66.41798</v>
       </c>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G54">
         <v>895.33799999999997</v>
       </c>
@@ -7729,7 +7720,7 @@
         <v>66.555769999999995</v>
       </c>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G55">
         <v>910.66690000000006</v>
       </c>
@@ -7737,7 +7728,7 @@
         <v>66.713909999999998</v>
       </c>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G56">
         <v>925.98109999999997</v>
       </c>
@@ -7745,7 +7736,7 @@
         <v>66.679460000000006</v>
       </c>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G57">
         <v>940.77919999999995</v>
       </c>
@@ -7753,7 +7744,7 @@
         <v>66.716350000000006</v>
       </c>
     </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G58">
         <v>955.72770000000003</v>
       </c>
@@ -7761,7 +7752,7 @@
         <v>66.600700000000003</v>
       </c>
     </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G59">
         <v>970.87699999999995</v>
       </c>
@@ -7769,7 +7760,7 @@
         <v>67.232489999999999</v>
       </c>
     </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G60">
         <v>986.60170000000005</v>
       </c>
@@ -7777,7 +7768,7 @@
         <v>66.475719999999995</v>
       </c>
     </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G61">
         <v>1001.513</v>
       </c>
@@ -7785,7 +7776,7 @@
         <v>69.48903</v>
       </c>
     </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G62">
         <v>1016.558</v>
       </c>
@@ -7793,7 +7784,7 @@
         <v>66.661689999999993</v>
       </c>
     </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G63">
         <v>1031.5419999999999</v>
       </c>
@@ -7801,7 +7792,7 @@
         <v>77.511840000000007</v>
       </c>
     </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G64">
         <v>1047.2439999999999</v>
       </c>
@@ -7809,7 +7800,7 @@
         <v>66.713200000000001</v>
       </c>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G65">
         <v>1061.7260000000001</v>
       </c>
@@ -7817,7 +7808,7 @@
         <v>80.544539999999998</v>
       </c>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G66">
         <v>1077.3230000000001</v>
       </c>
@@ -7825,7 +7816,7 @@
         <v>66.882890000000003</v>
       </c>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G67">
         <v>1107.306</v>
       </c>
@@ -7833,7 +7824,7 @@
         <v>82.613020000000006</v>
       </c>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G68">
         <v>1122.7550000000001</v>
       </c>
@@ -7841,7 +7832,7 @@
         <v>66.875720000000001</v>
       </c>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G69">
         <v>1167.7729999999999</v>
       </c>
@@ -7849,7 +7840,7 @@
         <v>81.679119999999998</v>
       </c>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G70">
         <v>1183.0219999999999</v>
       </c>
@@ -7857,7 +7848,7 @@
         <v>76.520039999999995</v>
       </c>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G71">
         <v>1183.3119999999999</v>
       </c>
@@ -7865,7 +7856,7 @@
         <v>76.523030000000006</v>
       </c>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G72">
         <v>1198.4190000000001</v>
       </c>
@@ -7873,7 +7864,7 @@
         <v>76.558539999999994</v>
       </c>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G73">
         <v>1213.2</v>
       </c>
@@ -7881,7 +7872,7 @@
         <v>76.322270000000003</v>
       </c>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G74">
         <v>1213.443</v>
       </c>
@@ -7889,7 +7880,7 @@
         <v>76.840400000000002</v>
       </c>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G75">
         <v>1228.8979999999999</v>
       </c>
@@ -7897,7 +7888,7 @@
         <v>76.866280000000003</v>
       </c>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G76">
         <v>1244.1220000000001</v>
       </c>
@@ -7905,7 +7896,7 @@
         <v>76.297600000000003</v>
       </c>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G77">
         <v>1259.123</v>
       </c>
@@ -7913,7 +7904,7 @@
         <v>76.881839999999997</v>
       </c>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G78">
         <v>1258.752</v>
       </c>
@@ -7921,7 +7912,7 @@
         <v>76.468999999999994</v>
       </c>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G79">
         <v>1304.1369999999999</v>
       </c>
@@ -7929,7 +7920,7 @@
         <v>76.618129999999994</v>
       </c>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G80">
         <v>1349.9849999999999</v>
       </c>
@@ -7937,7 +7928,7 @@
         <v>76.480620000000002</v>
       </c>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G81">
         <v>1350.0229999999999</v>
       </c>
@@ -7945,7 +7936,7 @@
         <v>76.648570000000007</v>
       </c>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G82">
         <v>1364.8150000000001</v>
       </c>
@@ -7953,7 +7944,7 @@
         <v>76.311499999999995</v>
       </c>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G83">
         <v>1380.152</v>
       </c>
@@ -7961,7 +7952,7 @@
         <v>76.679150000000007</v>
       </c>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G84">
         <v>1380.086</v>
       </c>
@@ -7969,7 +7960,7 @@
         <v>76.621639999999999</v>
       </c>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G85">
         <v>1379.7149999999999</v>
       </c>
@@ -7977,7 +7968,7 @@
         <v>76.371279999999999</v>
       </c>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G86">
         <v>1394.9970000000001</v>
       </c>
@@ -7985,7 +7976,7 @@
         <v>76.636949999999999</v>
       </c>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G87">
         <v>1410.3409999999999</v>
       </c>
@@ -7993,7 +7984,7 @@
         <v>76.882059999999996</v>
       </c>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G88">
         <v>1425.6030000000001</v>
       </c>
@@ -8001,7 +7992,7 @@
         <v>76.91395</v>
       </c>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G89">
         <v>1409.979</v>
       </c>
@@ -8009,7 +8000,7 @@
         <v>76.394909999999996</v>
       </c>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G90">
         <v>1410.248</v>
       </c>
@@ -8017,7 +8008,7 @@
         <v>76.664580000000001</v>
       </c>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G91">
         <v>1455.58</v>
       </c>
@@ -8025,7 +8016,7 @@
         <v>76.792010000000005</v>
       </c>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G92">
         <v>1486.2159999999999</v>
       </c>
@@ -8033,7 +8024,7 @@
         <v>86.622889999999998</v>
       </c>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G93">
         <v>1485.806</v>
       </c>
@@ -8041,7 +8032,7 @@
         <v>86.426929999999999</v>
       </c>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G94">
         <v>1516.0709999999999</v>
       </c>
@@ -8049,7 +8040,7 @@
         <v>86.291049999999998</v>
       </c>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G95">
         <v>1515.9280000000001</v>
       </c>
@@ -8057,7 +8048,7 @@
         <v>86.616039999999998</v>
       </c>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G96">
         <v>1516.348</v>
       </c>
@@ -8065,7 +8056,7 @@
         <v>86.725769999999997</v>
       </c>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G97">
         <v>1531.32</v>
       </c>
@@ -8073,7 +8064,7 @@
         <v>86.364840000000001</v>
       </c>
     </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G98">
         <v>1531.4570000000001</v>
       </c>
@@ -8081,7 +8072,7 @@
         <v>86.454610000000002</v>
       </c>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G99">
         <v>1531.6220000000001</v>
       </c>
@@ -8089,7 +8080,7 @@
         <v>86.403989999999993</v>
       </c>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G100">
         <v>1531.232</v>
       </c>
@@ -8097,7 +8088,7 @@
         <v>86.471239999999995</v>
       </c>
     </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G101">
         <v>1531.4369999999999</v>
       </c>
@@ -8105,7 +8096,7 @@
         <v>86.733379999999997</v>
       </c>
     </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G102">
         <v>1531.0519999999999</v>
       </c>
@@ -8113,7 +8104,7 @@
         <v>86.402079999999998</v>
       </c>
     </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G103">
         <v>1531.268</v>
       </c>
@@ -8121,7 +8112,7 @@
         <v>86.439710000000005</v>
       </c>
     </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G104">
         <v>1546.579</v>
       </c>
@@ -8129,7 +8120,7 @@
         <v>86.730919999999998</v>
       </c>
     </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G105">
         <v>1546.319</v>
       </c>
@@ -8137,7 +8128,7 @@
         <v>86.136409999999998</v>
       </c>
     </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G106">
         <v>1576.8009999999999</v>
       </c>
@@ -8145,7 +8136,7 @@
         <v>86.486429999999999</v>
       </c>
     </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G107">
         <v>1591.886</v>
       </c>
@@ -8153,7 +8144,7 @@
         <v>86.408940000000001</v>
       </c>
     </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G108">
         <v>1607.3309999999999</v>
       </c>
@@ -8161,7 +8152,7 @@
         <v>86.266360000000006</v>
       </c>
     </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G109">
         <v>1607.1669999999999</v>
       </c>
@@ -8169,7 +8160,7 @@
         <v>96.321259999999995</v>
       </c>
     </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G110">
         <v>1622.027</v>
       </c>
@@ -8177,7 +8168,7 @@
         <v>95.994619999999998</v>
       </c>
     </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G111">
         <v>1622.26</v>
       </c>
@@ -8185,7 +8176,7 @@
         <v>96.47484</v>
       </c>
     </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G112">
         <v>1637.01</v>
       </c>
@@ -8193,7 +8184,7 @@
         <v>96.487459999999999</v>
       </c>
     </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G113">
         <v>1637.1120000000001</v>
       </c>
@@ -8201,7 +8192,7 @@
         <v>95.942539999999994</v>
       </c>
     </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G114">
         <v>1652.441</v>
       </c>
@@ -8209,7 +8200,7 @@
         <v>96.212249999999997</v>
       </c>
     </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G115">
         <v>1652.6880000000001</v>
       </c>
@@ -8217,7 +8208,7 @@
         <v>96.16</v>
       </c>
     </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G116">
         <v>1652.4690000000001</v>
       </c>
@@ -8225,7 +8216,7 @@
         <v>96.532060000000001</v>
       </c>
     </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G117">
         <v>1667.163</v>
       </c>
@@ -8233,7 +8224,7 @@
         <v>96.261859999999999</v>
       </c>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G118">
         <v>1682.24</v>
       </c>
@@ -8241,7 +8232,7 @@
         <v>96.204570000000004</v>
       </c>
     </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G119">
         <v>1682.7049999999999</v>
       </c>
@@ -8249,7 +8240,7 @@
         <v>95.947130000000001</v>
       </c>
     </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G120">
         <v>1697.7449999999999</v>
       </c>
@@ -8257,7 +8248,7 @@
         <v>102.5564</v>
       </c>
     </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G121">
         <v>1697.4570000000001</v>
       </c>
@@ -8265,7 +8256,7 @@
         <v>96.26979</v>
       </c>
     </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G122">
         <v>1697.8979999999999</v>
       </c>
@@ -8273,7 +8264,7 @@
         <v>107.5222</v>
       </c>
     </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G123">
         <v>1713.067</v>
       </c>
@@ -8281,7 +8272,7 @@
         <v>96.174220000000005</v>
       </c>
     </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G124">
         <v>1713.4069999999999</v>
       </c>
@@ -8289,7 +8280,7 @@
         <v>111.3181</v>
       </c>
     </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G125">
         <v>1713.269</v>
       </c>
@@ -8297,7 +8288,7 @@
         <v>96.214839999999995</v>
       </c>
     </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G126">
         <v>1742.9939999999999</v>
       </c>
@@ -8305,7 +8296,7 @@
         <v>122.13800000000001</v>
       </c>
     </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G127">
         <v>1773.7049999999999</v>
       </c>
@@ -8313,7 +8304,7 @@
         <v>105.7696</v>
       </c>
     </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G128">
         <v>1788.712</v>
       </c>
@@ -8321,7 +8312,7 @@
         <v>106.3018</v>
       </c>
     </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G129">
         <v>1803.973</v>
       </c>
@@ -8329,7 +8320,7 @@
         <v>106.0164</v>
       </c>
     </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G130">
         <v>1803.799</v>
       </c>
@@ -8337,7 +8328,7 @@
         <v>106.0008</v>
       </c>
     </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G131">
         <v>1788.7460000000001</v>
       </c>
@@ -8345,7 +8336,7 @@
         <v>106.2757</v>
       </c>
     </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G132">
         <v>1803.846</v>
       </c>
@@ -8353,7 +8344,7 @@
         <v>105.7705</v>
       </c>
     </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G133">
         <v>1788.356</v>
       </c>
@@ -8361,7 +8352,7 @@
         <v>106.0813</v>
       </c>
     </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G134">
         <v>1773.8130000000001</v>
       </c>
@@ -8369,7 +8360,7 @@
         <v>106.3004</v>
       </c>
     </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G135">
         <v>1773.46</v>
       </c>
@@ -8377,7 +8368,7 @@
         <v>105.8387</v>
       </c>
     </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G136">
         <v>1773.855</v>
       </c>
@@ -8385,7 +8376,7 @@
         <v>106.3312</v>
       </c>
     </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G137">
         <v>1758.252</v>
       </c>
@@ -8393,7 +8384,7 @@
         <v>105.94289999999999</v>
       </c>
     </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G138">
         <v>1758.42</v>
       </c>
@@ -8401,7 +8392,7 @@
         <v>105.88379999999999</v>
       </c>
     </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G139">
         <v>1743.6389999999999</v>
       </c>
@@ -8409,7 +8400,7 @@
         <v>105.9689</v>
       </c>
     </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G140">
         <v>1743.116</v>
       </c>
@@ -8417,7 +8408,7 @@
         <v>106.07550000000001</v>
       </c>
     </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G141">
         <v>1743.41</v>
       </c>
@@ -8425,7 +8416,7 @@
         <v>105.9944</v>
       </c>
     </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G142">
         <v>1758.229</v>
       </c>
@@ -8433,7 +8424,7 @@
         <v>105.9682</v>
       </c>
     </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G143">
         <v>1758.6110000000001</v>
       </c>
@@ -8441,7 +8432,7 @@
         <v>106.0844</v>
       </c>
     </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G144">
         <v>1758.502</v>
       </c>
@@ -8449,7 +8440,7 @@
         <v>106.253</v>
       </c>
     </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G145">
         <v>1758.336</v>
       </c>
@@ -8457,7 +8448,7 @@
         <v>105.9712</v>
       </c>
     </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G146">
         <v>1743.46</v>
       </c>
@@ -8465,7 +8456,7 @@
         <v>105.7208</v>
       </c>
     </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G147">
         <v>1743.7249999999999</v>
       </c>
@@ -8473,7 +8464,7 @@
         <v>106.00369999999999</v>
       </c>
     </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G148">
         <v>1743.2550000000001</v>
       </c>
@@ -8481,7 +8472,7 @@
         <v>105.74850000000001</v>
       </c>
     </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G149">
         <v>1743.2</v>
       </c>
@@ -8489,7 +8480,7 @@
         <v>105.6892</v>
       </c>
     </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G150">
         <v>1743.645</v>
       </c>
@@ -8497,7 +8488,7 @@
         <v>115.9367</v>
       </c>
     </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G151">
         <v>1743.6010000000001</v>
       </c>
@@ -8505,7 +8496,7 @@
         <v>115.7723</v>
       </c>
     </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G152">
         <v>1743.2650000000001</v>
       </c>
@@ -8513,7 +8504,7 @@
         <v>115.5065</v>
       </c>
     </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G153">
         <v>1743.1210000000001</v>
       </c>
@@ -8521,7 +8512,7 @@
         <v>116.05670000000001</v>
       </c>
     </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G154">
         <v>1743.5830000000001</v>
       </c>
@@ -8529,7 +8520,7 @@
         <v>115.9269</v>
       </c>
     </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G155">
         <v>1743.1949999999999</v>
       </c>
@@ -8537,7 +8528,7 @@
         <v>115.9965</v>
       </c>
     </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G156">
         <v>1758.404</v>
       </c>
@@ -8545,7 +8536,7 @@
         <v>115.4991</v>
       </c>
     </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G157">
         <v>1743.6780000000001</v>
       </c>
@@ -8553,7 +8544,7 @@
         <v>115.5228</v>
       </c>
     </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G158">
         <v>1743.75</v>
       </c>
@@ -8561,7 +8552,7 @@
         <v>115.83710000000001</v>
       </c>
     </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G159">
         <v>1743.4010000000001</v>
       </c>
@@ -8569,7 +8560,7 @@
         <v>115.67700000000001</v>
       </c>
     </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G160">
         <v>1758.3130000000001</v>
       </c>
@@ -8577,7 +8568,7 @@
         <v>115.5472</v>
       </c>
     </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G161">
         <v>1758.4659999999999</v>
       </c>
@@ -8585,7 +8576,7 @@
         <v>116.02809999999999</v>
       </c>
     </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G162">
         <v>1758.309</v>
       </c>
@@ -8593,7 +8584,7 @@
         <v>115.7191</v>
       </c>
     </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G163">
         <v>1758.383</v>
       </c>
@@ -8601,7 +8592,7 @@
         <v>115.8503</v>
       </c>
     </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G164">
         <v>1758.7819999999999</v>
       </c>
@@ -8609,7 +8600,7 @@
         <v>116.01349999999999</v>
       </c>
     </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G165">
         <v>1788.462</v>
       </c>
@@ -8617,7 +8608,7 @@
         <v>116.0718</v>
       </c>
     </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G166">
         <v>1804.0540000000001</v>
       </c>
@@ -8625,7 +8616,7 @@
         <v>115.88200000000001</v>
       </c>
     </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G167">
         <v>1804.001</v>
       </c>
@@ -8633,7 +8624,7 @@
         <v>115.82640000000001</v>
       </c>
     </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G168">
         <v>1818.5730000000001</v>
       </c>
@@ -8641,7 +8632,7 @@
         <v>116.0414</v>
       </c>
     </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G169">
         <v>1818.624</v>
       </c>
@@ -8649,7 +8640,7 @@
         <v>115.7786</v>
       </c>
     </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G170">
         <v>1818.7860000000001</v>
       </c>
@@ -8657,7 +8648,7 @@
         <v>115.92440000000001</v>
       </c>
     </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G171">
         <v>1834.075</v>
       </c>
@@ -8665,7 +8656,7 @@
         <v>116.0988</v>
       </c>
     </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G172">
         <v>1834.6020000000001</v>
       </c>
@@ -8673,7 +8664,7 @@
         <v>115.9281</v>
       </c>
     </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G173">
         <v>1834.0730000000001</v>
       </c>
@@ -8681,7 +8672,7 @@
         <v>115.8377</v>
       </c>
     </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G174">
         <v>1834.4480000000001</v>
       </c>
@@ -8689,7 +8680,7 @@
         <v>116.0936</v>
       </c>
     </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G175">
         <v>1834.4960000000001</v>
       </c>
@@ -8697,7 +8688,7 @@
         <v>115.8402</v>
       </c>
     </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G176">
         <v>1849.4380000000001</v>
       </c>
@@ -8705,7 +8696,7 @@
         <v>116.17019999999999</v>
       </c>
     </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G177">
         <v>1864.201</v>
       </c>
@@ -8713,7 +8704,7 @@
         <v>115.6253</v>
       </c>
     </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G178">
         <v>1864.7149999999999</v>
       </c>
@@ -8721,7 +8712,7 @@
         <v>116.0719</v>
       </c>
     </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G179">
         <v>1879.3689999999999</v>
       </c>
@@ -8729,7 +8720,7 @@
         <v>116.3058</v>
       </c>
     </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G180">
         <v>1894.5129999999999</v>
       </c>
@@ -8737,7 +8728,7 @@
         <v>115.8853</v>
       </c>
     </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G181">
         <v>1894.61</v>
       </c>
@@ -8745,7 +8736,7 @@
         <v>116.38339999999999</v>
       </c>
     </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G182">
         <v>1895.0039999999999</v>
       </c>
@@ -8753,7 +8744,7 @@
         <v>116.1009</v>
       </c>
     </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G183">
         <v>1909.9960000000001</v>
       </c>
@@ -8761,7 +8752,7 @@
         <v>126.40130000000001</v>
       </c>
     </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G184">
         <v>1909.953</v>
       </c>
@@ -8769,7 +8760,7 @@
         <v>115.6763</v>
       </c>
     </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G185">
         <v>1909.9480000000001</v>
       </c>
@@ -8777,7 +8768,7 @@
         <v>128.953</v>
       </c>
     </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G186">
         <v>1925.124</v>
       </c>
@@ -8785,7 +8776,7 @@
         <v>115.9194</v>
       </c>
     </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G187">
         <v>1924.905</v>
       </c>
@@ -8793,7 +8784,7 @@
         <v>131.6455</v>
       </c>
     </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G188">
         <v>1939.692</v>
       </c>
@@ -8801,7 +8792,7 @@
         <v>115.86109999999999</v>
       </c>
     </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G189">
         <v>1939.9169999999999</v>
       </c>
@@ -8809,7 +8800,7 @@
         <v>115.68819999999999</v>
       </c>
     </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G190">
         <v>1955.596</v>
       </c>
@@ -8817,7 +8808,7 @@
         <v>116.19329999999999</v>
       </c>
     </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G191">
         <v>1970.683</v>
       </c>
@@ -8825,7 +8816,7 @@
         <v>116.134</v>
       </c>
     </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G192">
         <v>1970.617</v>
       </c>
@@ -8833,7 +8824,7 @@
         <v>116.1763</v>
       </c>
     </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G193">
         <v>1970.1420000000001</v>
       </c>
@@ -8841,7 +8832,7 @@
         <v>116.0438</v>
       </c>
     </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G194">
         <v>1985.317</v>
       </c>
@@ -8849,7 +8840,7 @@
         <v>115.9259</v>
       </c>
     </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G195">
         <v>1985.1020000000001</v>
       </c>
@@ -8857,7 +8848,7 @@
         <v>116.0008</v>
       </c>
     </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G196">
         <v>2000.7739999999999</v>
       </c>
@@ -8865,7 +8856,7 @@
         <v>116.0121</v>
       </c>
     </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G197">
         <v>2000.3019999999999</v>
       </c>
@@ -8873,7 +8864,7 @@
         <v>115.7264</v>
       </c>
     </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G198">
         <v>2015.693</v>
       </c>
@@ -8881,7 +8872,7 @@
         <v>115.9374</v>
       </c>
     </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G199">
         <v>2030.57</v>
       </c>
@@ -8889,7 +8880,7 @@
         <v>115.91459999999999</v>
       </c>
     </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G200">
         <v>2046.1120000000001</v>
       </c>
@@ -8897,7 +8888,7 @@
         <v>115.63939999999999</v>
       </c>
     </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G201">
         <v>2076.0819999999999</v>
       </c>
@@ -8905,7 +8896,7 @@
         <v>116.1581</v>
       </c>
     </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G202">
         <v>2091.7159999999999</v>
       </c>
@@ -8913,7 +8904,7 @@
         <v>115.8416</v>
       </c>
     </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G203">
         <v>2106.19</v>
       </c>
@@ -8921,7 +8912,7 @@
         <v>115.8566</v>
       </c>
     </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G204">
         <v>2106.2840000000001</v>
       </c>
@@ -8929,7 +8920,7 @@
         <v>115.8509</v>
       </c>
     </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G205">
         <v>2121.7220000000002</v>
       </c>
@@ -8937,7 +8928,7 @@
         <v>115.8514</v>
       </c>
     </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G206">
         <v>2136.712</v>
       </c>
@@ -8945,7 +8936,7 @@
         <v>125.86709999999999</v>
       </c>
     </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G207">
         <v>2136.752</v>
       </c>
@@ -8953,7 +8944,7 @@
         <v>125.4483</v>
       </c>
     </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G208">
         <v>2136.913</v>
       </c>
@@ -8961,7 +8952,7 @@
         <v>125.4024</v>
       </c>
     </row>
-    <row r="209" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G209">
         <v>2167.261</v>
       </c>
@@ -8969,7 +8960,7 @@
         <v>125.7238</v>
       </c>
     </row>
-    <row r="210" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G210">
         <v>2181.7249999999999</v>
       </c>
@@ -8977,7 +8968,7 @@
         <v>125.682</v>
       </c>
     </row>
-    <row r="211" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G211">
         <v>2182.0329999999999</v>
       </c>
@@ -8985,7 +8976,7 @@
         <v>125.6857</v>
       </c>
     </row>
-    <row r="212" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G212">
         <v>2197.1640000000002</v>
       </c>
@@ -8993,7 +8984,7 @@
         <v>125.4738</v>
       </c>
     </row>
-    <row r="213" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G213">
         <v>2212.6770000000001</v>
       </c>
@@ -9001,7 +8992,7 @@
         <v>125.9331</v>
       </c>
     </row>
-    <row r="214" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G214">
         <v>2227.3980000000001</v>
       </c>
@@ -9009,7 +9000,7 @@
         <v>125.37139999999999</v>
       </c>
     </row>
-    <row r="215" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G215">
         <v>2242.422</v>
       </c>
@@ -9017,7 +9008,7 @@
         <v>125.9153</v>
       </c>
     </row>
-    <row r="216" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G216">
         <v>2257.8890000000001</v>
       </c>
@@ -9025,7 +9016,7 @@
         <v>125.6576</v>
       </c>
     </row>
-    <row r="217" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G217">
         <v>2272.59</v>
       </c>
@@ -9033,7 +9024,7 @@
         <v>125.5729</v>
       </c>
     </row>
-    <row r="218" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G218">
         <v>2288.2159999999999</v>
       </c>
@@ -9041,7 +9032,7 @@
         <v>125.9589</v>
       </c>
     </row>
-    <row r="219" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G219">
         <v>2302.7950000000001</v>
       </c>
@@ -9049,7 +9040,7 @@
         <v>135.2037</v>
       </c>
     </row>
-    <row r="220" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G220">
         <v>2318.6460000000002</v>
       </c>
@@ -9057,7 +9048,7 @@
         <v>135.52789999999999</v>
       </c>
     </row>
-    <row r="221" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G221">
         <v>2333.2890000000002</v>
       </c>
@@ -9065,7 +9056,7 @@
         <v>135.4736</v>
       </c>
     </row>
-    <row r="222" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G222">
         <v>2348.8989999999999</v>
       </c>
@@ -9073,7 +9064,7 @@
         <v>135.52209999999999</v>
       </c>
     </row>
-    <row r="223" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G223">
         <v>2363.453</v>
       </c>
@@ -9081,7 +9072,7 @@
         <v>135.203</v>
       </c>
     </row>
-    <row r="224" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G224">
         <v>2379.2429999999999</v>
       </c>
@@ -9089,7 +9080,7 @@
         <v>135.62870000000001</v>
       </c>
     </row>
-    <row r="225" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G225">
         <v>2378.7959999999998</v>
       </c>
@@ -9097,7 +9088,7 @@
         <v>135.7516</v>
       </c>
     </row>
-    <row r="226" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G226">
         <v>2379.1619999999998</v>
       </c>
@@ -9105,7 +9096,7 @@
         <v>135.196</v>
       </c>
     </row>
-    <row r="227" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G227">
         <v>2363.471</v>
       </c>
@@ -9113,7 +9104,7 @@
         <v>135.72149999999999</v>
       </c>
     </row>
-    <row r="228" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G228">
         <v>2318.3110000000001</v>
       </c>
@@ -9121,7 +9112,7 @@
         <v>135.15219999999999</v>
       </c>
     </row>
-    <row r="229" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G229">
         <v>2303.3679999999999</v>
       </c>
@@ -9129,7 +9120,7 @@
         <v>135.52850000000001</v>
       </c>
     </row>
-    <row r="230" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G230">
         <v>2303.4119999999998</v>
       </c>
@@ -9137,7 +9128,7 @@
         <v>135.50040000000001</v>
       </c>
     </row>
-    <row r="231" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G231">
         <v>2272.797</v>
       </c>
@@ -9145,7 +9136,7 @@
         <v>135.14279999999999</v>
       </c>
     </row>
-    <row r="232" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G232">
         <v>2257.855</v>
       </c>
@@ -9153,7 +9144,7 @@
         <v>135.7586</v>
       </c>
     </row>
-    <row r="233" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G233">
         <v>2257.732</v>
       </c>
@@ -9161,7 +9152,7 @@
         <v>135.2062</v>
       </c>
     </row>
-    <row r="234" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G234">
         <v>2243.0100000000002</v>
       </c>
@@ -9169,7 +9160,7 @@
         <v>135.19049999999999</v>
       </c>
     </row>
-    <row r="235" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G235">
         <v>2227.8380000000002</v>
       </c>
@@ -9177,7 +9168,7 @@
         <v>135.5018</v>
       </c>
     </row>
-    <row r="236" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G236">
         <v>2227.8609999999999</v>
       </c>
@@ -9185,7 +9176,7 @@
         <v>135.70230000000001</v>
       </c>
     </row>
-    <row r="237" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G237">
         <v>2227.7280000000001</v>
       </c>
@@ -9193,7 +9184,7 @@
         <v>135.14320000000001</v>
       </c>
     </row>
-    <row r="238" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G238">
         <v>2212.5929999999998</v>
       </c>
@@ -9201,7 +9192,7 @@
         <v>135.9186</v>
       </c>
     </row>
-    <row r="239" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G239">
         <v>2212.4630000000002</v>
       </c>
@@ -9209,7 +9200,7 @@
         <v>135.1687</v>
       </c>
     </row>
-    <row r="240" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G240">
         <v>2197.69</v>
       </c>
@@ -9217,7 +9208,7 @@
         <v>136.13910000000001</v>
       </c>
     </row>
-    <row r="241" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G241">
         <v>2197.442</v>
       </c>
@@ -9225,7 +9216,7 @@
         <v>135.43340000000001</v>
       </c>
     </row>
-    <row r="242" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G242">
         <v>2197.8220000000001</v>
       </c>
@@ -9233,7 +9224,7 @@
         <v>146.0427</v>
       </c>
     </row>
-    <row r="243" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G243">
         <v>2181.6410000000001</v>
       </c>
@@ -9241,7 +9232,7 @@
         <v>135.41380000000001</v>
       </c>
     </row>
-    <row r="244" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G244">
         <v>2181.77</v>
       </c>
@@ -9249,7 +9240,7 @@
         <v>148.27549999999999</v>
       </c>
     </row>
-    <row r="245" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G245">
         <v>2182.2109999999998</v>
       </c>
@@ -9257,7 +9248,7 @@
         <v>135.7269</v>
       </c>
     </row>
-    <row r="246" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G246">
         <v>2166.9209999999998</v>
       </c>
@@ -9265,7 +9256,7 @@
         <v>150.4016</v>
       </c>
     </row>
-    <row r="247" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G247">
         <v>2167.4630000000002</v>
       </c>
@@ -9273,7 +9264,7 @@
         <v>135.68629999999999</v>
       </c>
     </row>
-    <row r="248" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G248">
         <v>2166.9349999999999</v>
       </c>
@@ -9281,7 +9272,7 @@
         <v>149.3246</v>
       </c>
     </row>
-    <row r="249" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G249">
         <v>2152.0659999999998</v>
       </c>
@@ -9289,7 +9280,7 @@
         <v>135.16829999999999</v>
       </c>
     </row>
-    <row r="250" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G250">
         <v>2151.8969999999999</v>
       </c>
@@ -9297,7 +9288,7 @@
         <v>135.63730000000001</v>
       </c>
     </row>
-    <row r="251" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G251">
         <v>2151.701</v>
       </c>
@@ -9305,7 +9296,7 @@
         <v>135.42089999999999</v>
       </c>
     </row>
-    <row r="252" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G252">
         <v>2152.1179999999999</v>
       </c>
@@ -9313,7 +9304,7 @@
         <v>135.44110000000001</v>
       </c>
     </row>
-    <row r="253" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G253">
         <v>2137.1120000000001</v>
       </c>
@@ -9321,7 +9312,7 @@
         <v>135.73140000000001</v>
       </c>
     </row>
-    <row r="254" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G254">
         <v>2152.1480000000001</v>
       </c>
@@ -9329,7 +9320,7 @@
         <v>135.52979999999999</v>
       </c>
     </row>
-    <row r="255" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G255">
         <v>2136.7139999999999</v>
       </c>
@@ -9337,7 +9328,7 @@
         <v>135.16589999999999</v>
       </c>
     </row>
-    <row r="256" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G256">
         <v>2136.7220000000002</v>
       </c>
@@ -9345,7 +9336,7 @@
         <v>135.43109999999999</v>
       </c>
     </row>
-    <row r="257" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G257">
         <v>2137.1190000000001</v>
       </c>
@@ -9353,7 +9344,7 @@
         <v>135.6944</v>
       </c>
     </row>
-    <row r="258" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G258">
         <v>2137.2060000000001</v>
       </c>
@@ -9361,7 +9352,7 @@
         <v>135.5111</v>
       </c>
     </row>
-    <row r="259" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G259">
         <v>2137.136</v>
       </c>
@@ -9369,7 +9360,7 @@
         <v>135.74529999999999</v>
       </c>
     </row>
-    <row r="260" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G260">
         <v>2136.998</v>
       </c>
@@ -9377,7 +9368,7 @@
         <v>135.589</v>
       </c>
     </row>
-    <row r="261" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G261">
         <v>2137.0430000000001</v>
       </c>
@@ -9385,7 +9376,7 @@
         <v>135.4787</v>
       </c>
     </row>
-    <row r="262" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G262">
         <v>2136.9940000000001</v>
       </c>
@@ -9393,7 +9384,7 @@
         <v>135.501</v>
       </c>
     </row>
-    <row r="263" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G263">
         <v>2151.7600000000002</v>
       </c>
@@ -9401,7 +9392,7 @@
         <v>135.68340000000001</v>
       </c>
     </row>
-    <row r="264" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G264">
         <v>2136.674</v>
       </c>
@@ -9409,7 +9400,7 @@
         <v>135.40479999999999</v>
       </c>
     </row>
-    <row r="265" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G265">
         <v>2151.973</v>
       </c>
@@ -9417,7 +9408,7 @@
         <v>135.34440000000001</v>
       </c>
     </row>
-    <row r="266" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G266">
         <v>2151.9319999999998</v>
       </c>
@@ -9425,7 +9416,7 @@
         <v>135.4581</v>
       </c>
     </row>
-    <row r="267" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G267">
         <v>2151.9209999999998</v>
       </c>
@@ -9433,7 +9424,7 @@
         <v>135.1977</v>
       </c>
     </row>
-    <row r="268" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G268">
         <v>2151.9989999999998</v>
       </c>
@@ -9441,7 +9432,7 @@
         <v>135.34399999999999</v>
       </c>
     </row>
-    <row r="269" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G269">
         <v>2166.6460000000002</v>
       </c>
@@ -9449,7 +9440,7 @@
         <v>135.76349999999999</v>
       </c>
     </row>
-    <row r="270" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G270">
         <v>2152.134</v>
       </c>
@@ -9457,7 +9448,7 @@
         <v>135.49199999999999</v>
       </c>
     </row>
-    <row r="271" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G271">
         <v>2167.125</v>
       </c>
@@ -9465,7 +9456,7 @@
         <v>135.47919999999999</v>
       </c>
     </row>
-    <row r="272" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G272">
         <v>2166.8739999999998</v>
       </c>
@@ -9473,7 +9464,7 @@
         <v>135.7834</v>
       </c>
     </row>
-    <row r="273" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G273">
         <v>2182.17</v>
       </c>
@@ -9481,7 +9472,7 @@
         <v>135.50450000000001</v>
       </c>
     </row>
-    <row r="274" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G274">
         <v>2182.067</v>
       </c>
@@ -9489,7 +9480,7 @@
         <v>135.22200000000001</v>
       </c>
     </row>
-    <row r="275" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G275">
         <v>2197.5309999999999</v>
       </c>
@@ -9497,7 +9488,7 @@
         <v>135.49209999999999</v>
       </c>
     </row>
-    <row r="276" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G276">
         <v>2197.299</v>
       </c>
@@ -9505,7 +9496,7 @@
         <v>135.19800000000001</v>
       </c>
     </row>
-    <row r="277" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G277">
         <v>2212.5549999999998</v>
       </c>
@@ -9513,7 +9504,7 @@
         <v>135.47669999999999</v>
       </c>
     </row>
-    <row r="278" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G278">
         <v>2227.5909999999999</v>
       </c>
@@ -9521,7 +9512,7 @@
         <v>135.24359999999999</v>
       </c>
     </row>
-    <row r="279" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G279">
         <v>2242.674</v>
       </c>
@@ -9529,7 +9520,7 @@
         <v>135.78200000000001</v>
       </c>
     </row>
-    <row r="280" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G280">
         <v>2242.6320000000001</v>
       </c>
@@ -9537,7 +9528,7 @@
         <v>135.61869999999999</v>
       </c>
     </row>
-    <row r="281" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G281">
         <v>2257.8119999999999</v>
       </c>
@@ -9545,7 +9536,7 @@
         <v>135.5112</v>
       </c>
     </row>
-    <row r="282" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G282">
         <v>2257.9879999999998</v>
       </c>
@@ -9553,7 +9544,7 @@
         <v>135.25960000000001</v>
       </c>
     </row>
-    <row r="283" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G283">
         <v>2273.31</v>
       </c>
@@ -9561,7 +9552,7 @@
         <v>135.57429999999999</v>
       </c>
     </row>
-    <row r="284" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G284">
         <v>2272.7620000000002</v>
       </c>
@@ -9569,7 +9560,7 @@
         <v>135.48140000000001</v>
       </c>
     </row>
-    <row r="285" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G285">
         <v>2272.7910000000002</v>
       </c>
@@ -9577,7 +9568,7 @@
         <v>135.24860000000001</v>
       </c>
     </row>
-    <row r="286" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G286">
         <v>2303.0889999999999</v>
       </c>
@@ -9585,7 +9576,7 @@
         <v>135.2543</v>
       </c>
     </row>
-    <row r="287" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G287">
         <v>2318.8209999999999</v>
       </c>
@@ -9593,7 +9584,7 @@
         <v>135.78460000000001</v>
       </c>
     </row>
-    <row r="288" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G288">
         <v>2334.0030000000002</v>
       </c>
@@ -9601,7 +9592,7 @@
         <v>135.56190000000001</v>
       </c>
     </row>
-    <row r="289" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G289">
         <v>2348.922</v>
       </c>
@@ -9609,7 +9600,7 @@
         <v>135.61609999999999</v>
       </c>
     </row>
-    <row r="290" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G290">
         <v>2348.8249999999998</v>
       </c>
@@ -9617,7 +9608,7 @@
         <v>135.52010000000001</v>
       </c>
     </row>
-    <row r="291" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G291">
         <v>2348.7159999999999</v>
       </c>
@@ -9625,7 +9616,7 @@
         <v>135.76300000000001</v>
       </c>
     </row>
-    <row r="292" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G292">
         <v>2363.6129999999998</v>
       </c>
@@ -9633,7 +9624,7 @@
         <v>135.53290000000001</v>
       </c>
     </row>
-    <row r="293" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G293">
         <v>2378.8510000000001</v>
       </c>
@@ -9641,7 +9632,7 @@
         <v>135.28210000000001</v>
       </c>
     </row>
-    <row r="294" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G294">
         <v>2379.19</v>
       </c>
@@ -9649,7 +9640,7 @@
         <v>135.48609999999999</v>
       </c>
     </row>
-    <row r="295" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G295">
         <v>2394.2730000000001</v>
       </c>
@@ -9657,7 +9648,7 @@
         <v>135.55950000000001</v>
       </c>
     </row>
-    <row r="296" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G296">
         <v>2393.9299999999998</v>
       </c>
@@ -9665,7 +9656,7 @@
         <v>135.2533</v>
       </c>
     </row>
-    <row r="297" spans="7:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="7:8" x14ac:dyDescent="0.75">
       <c r="G297">
         <v>2394.2550000000001</v>
       </c>
@@ -9689,6 +9680,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100205AA101E2883C419D53A6EAA58BE6E4" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0732453c88b6c24a50b901808cd2a95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0ed78115-f4df-42b0-9376-ad3306022cc8" xmlns:ns4="94b7f148-c09a-42e6-baca-973a9a7cd962" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c3ce456d5e9a668ce7bebc57d13ab49" ns3:_="" ns4:_="">
     <xsd:import namespace="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
@@ -9941,14 +9940,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
   <ds:schemaRefs>
@@ -9958,6 +9949,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="94b7f148-c09a-42e6-baca-973a9a7cd962"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88B5DFD5-AF32-4053-8117-B9F97580063E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9974,21 +9982,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="94b7f148-c09a-42e6-baca-973a9a7cd962"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BFE4F-EDC3-4DEA-9D7F-8ECF606B9554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00961939-E364-4510-A848-19A92ABBFF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7455" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -278,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +458,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -619,12 +625,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3685,22 +3693,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E7760-F87C-4D84-A63F-D473D279D553}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L120" sqref="L120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45400</v>
       </c>
@@ -3762,7 +3771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45400</v>
       </c>
@@ -3789,7 +3798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45400</v>
       </c>
@@ -3816,7 +3825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45400</v>
       </c>
@@ -3843,7 +3852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45400</v>
       </c>
@@ -3870,7 +3879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45400</v>
       </c>
@@ -3897,7 +3906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45400</v>
       </c>
@@ -3924,7 +3933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45400</v>
       </c>
@@ -3951,7 +3960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45400</v>
       </c>
@@ -3978,7 +3987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45400</v>
       </c>
@@ -4005,7 +4014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45400</v>
       </c>
@@ -4032,7 +4041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45400</v>
       </c>
@@ -4056,7 +4065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45400</v>
       </c>
@@ -4083,7 +4092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45400</v>
       </c>
@@ -4110,7 +4119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45400</v>
       </c>
@@ -4137,7 +4146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45400</v>
       </c>
@@ -4164,7 +4173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45420</v>
       </c>
@@ -4194,7 +4203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45420</v>
       </c>
@@ -4224,7 +4233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45420</v>
       </c>
@@ -4254,7 +4263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45420</v>
       </c>
@@ -4284,7 +4293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45420</v>
       </c>
@@ -4314,7 +4323,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45420</v>
       </c>
@@ -4344,7 +4353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45420</v>
       </c>
@@ -4374,7 +4383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45420</v>
       </c>
@@ -4404,7 +4413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45420</v>
       </c>
@@ -4434,7 +4443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45420</v>
       </c>
@@ -4464,7 +4473,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45420</v>
       </c>
@@ -4494,7 +4503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45420</v>
       </c>
@@ -4524,7 +4533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45420</v>
       </c>
@@ -4554,7 +4563,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45420</v>
       </c>
@@ -4584,7 +4593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45420</v>
       </c>
@@ -4614,7 +4623,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45420</v>
       </c>
@@ -4644,7 +4653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45442</v>
       </c>
@@ -4674,7 +4683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45442</v>
       </c>
@@ -4704,7 +4713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45442</v>
       </c>
@@ -4734,7 +4743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45442</v>
       </c>
@@ -4764,7 +4773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45442</v>
       </c>
@@ -4794,7 +4803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45442</v>
       </c>
@@ -4824,7 +4833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45442</v>
       </c>
@@ -4854,7 +4863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45442</v>
       </c>
@@ -4884,7 +4893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45442</v>
       </c>
@@ -4914,7 +4923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45442</v>
       </c>
@@ -4944,7 +4953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45442</v>
       </c>
@@ -4974,7 +4983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45442</v>
       </c>
@@ -5004,7 +5013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45442</v>
       </c>
@@ -5034,7 +5043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45442</v>
       </c>
@@ -5061,7 +5070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45442</v>
       </c>
@@ -5091,7 +5100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45442</v>
       </c>
@@ -5121,7 +5130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45463</v>
       </c>
@@ -5145,7 +5154,7 @@
         <v>-0.85000000000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45463</v>
       </c>
@@ -5169,7 +5178,7 @@
         <v>-1.55</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45463</v>
       </c>
@@ -5202,7 +5211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45463</v>
       </c>
@@ -5235,7 +5244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45463</v>
       </c>
@@ -5259,7 +5268,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45463</v>
       </c>
@@ -5283,7 +5292,7 @@
         <v>-1.24</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45463</v>
       </c>
@@ -5316,7 +5325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45463</v>
       </c>
@@ -5349,7 +5358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45463</v>
       </c>
@@ -5382,7 +5391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45463</v>
       </c>
@@ -5406,7 +5415,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45463</v>
       </c>
@@ -5430,7 +5439,7 @@
         <v>-1.0999999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45463</v>
       </c>
@@ -5454,7 +5463,7 @@
         <v>-2.79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45463</v>
       </c>
@@ -5478,7 +5487,7 @@
         <v>-1.4649999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45463</v>
       </c>
@@ -5505,7 +5514,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45463</v>
       </c>
@@ -5529,7 +5538,7 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45463</v>
       </c>
@@ -5553,7 +5562,7 @@
         <v>-2.0049999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45484</v>
       </c>
@@ -5586,7 +5595,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45484</v>
       </c>
@@ -5619,7 +5628,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45484</v>
       </c>
@@ -5651,7 +5660,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45484</v>
       </c>
@@ -5684,7 +5693,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45484</v>
       </c>
@@ -5716,7 +5725,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45484</v>
       </c>
@@ -5749,7 +5758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45484</v>
       </c>
@@ -5782,7 +5791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45484</v>
       </c>
@@ -5815,7 +5824,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45484</v>
       </c>
@@ -5848,7 +5857,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45484</v>
       </c>
@@ -5881,7 +5890,7 @@
         <v>26.57</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45484</v>
       </c>
@@ -5914,7 +5923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45484</v>
       </c>
@@ -5941,7 +5950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45484</v>
       </c>
@@ -5968,7 +5977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45484</v>
       </c>
@@ -6001,7 +6010,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45484</v>
       </c>
@@ -6034,7 +6043,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45484</v>
       </c>
@@ -6061,7 +6070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45502</v>
       </c>
@@ -6090,7 +6099,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45502</v>
       </c>
@@ -6119,7 +6128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45502</v>
       </c>
@@ -6148,7 +6157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45502</v>
       </c>
@@ -6181,7 +6190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45502</v>
       </c>
@@ -6210,7 +6219,7 @@
         <v>25.72</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45502</v>
       </c>
@@ -6243,7 +6252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45502</v>
       </c>
@@ -6272,7 +6281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45502</v>
       </c>
@@ -6305,7 +6314,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45502</v>
       </c>
@@ -6334,7 +6343,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45502</v>
       </c>
@@ -6363,7 +6372,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45502</v>
       </c>
@@ -6396,7 +6405,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45502</v>
       </c>
@@ -6420,7 +6429,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45502</v>
       </c>
@@ -6453,7 +6462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45502</v>
       </c>
@@ -6486,7 +6495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45502</v>
       </c>
@@ -6515,7 +6524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45502</v>
       </c>
@@ -6542,7 +6551,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45534</v>
       </c>
@@ -6571,7 +6580,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45534</v>
       </c>
@@ -6600,7 +6609,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45534</v>
       </c>
@@ -6634,7 +6643,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45534</v>
       </c>
@@ -6668,7 +6677,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45534</v>
       </c>
@@ -6702,7 +6711,7 @@
         <v>26.43</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45534</v>
       </c>
@@ -6731,7 +6740,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45534</v>
       </c>
@@ -6748,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45534</v>
       </c>
@@ -6777,7 +6786,7 @@
         <v>27.11</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45534</v>
       </c>
@@ -6806,7 +6815,7 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45534</v>
       </c>
@@ -6835,7 +6844,7 @@
         <v>26.23</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45534</v>
       </c>
@@ -6864,7 +6873,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45534</v>
       </c>
@@ -6894,7 +6903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45534</v>
       </c>
@@ -6924,7 +6933,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45534</v>
       </c>
@@ -6953,7 +6962,7 @@
         <v>28.69</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45534</v>
       </c>
@@ -6982,7 +6991,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45534</v>
       </c>
@@ -6997,6 +7006,471 @@
       </c>
       <c r="E113">
         <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>0.2</v>
+      </c>
+      <c r="G114">
+        <f>6.5/100</f>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H114">
+        <v>6.6</v>
+      </c>
+      <c r="I114">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115">
+        <v>0.42</v>
+      </c>
+      <c r="G115">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H115">
+        <v>5.97</v>
+      </c>
+      <c r="I115">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116">
+        <v>0.755</v>
+      </c>
+      <c r="F116">
+        <v>0.85</v>
+      </c>
+      <c r="G116">
+        <f>E116-F116</f>
+        <v>-9.4999999999999973E-2</v>
+      </c>
+      <c r="H116">
+        <v>5.82</v>
+      </c>
+      <c r="I116">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>0.24</v>
+      </c>
+      <c r="F117">
+        <v>1.62</v>
+      </c>
+      <c r="G117">
+        <f t="shared" ref="G117:G121" si="4">E117-F117</f>
+        <v>-1.3800000000000001</v>
+      </c>
+      <c r="H117">
+        <v>5.19</v>
+      </c>
+      <c r="I117">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118">
+        <v>0.75</v>
+      </c>
+      <c r="F118">
+        <v>0.79</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="4"/>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="H118">
+        <v>4.2</v>
+      </c>
+      <c r="I118">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F119">
+        <v>1.23</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="4"/>
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="H119">
+        <v>4.42</v>
+      </c>
+      <c r="I119">
+        <v>4203</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0.875</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="4"/>
+        <v>-0.875</v>
+      </c>
+      <c r="H120">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B121">
+        <v>6</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121">
+        <v>0.08</v>
+      </c>
+      <c r="F121">
+        <v>0.375</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="4"/>
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="H121">
+        <v>3.94</v>
+      </c>
+      <c r="I121">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B122">
+        <v>6</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122">
+        <v>0.84</v>
+      </c>
+      <c r="G122">
+        <v>0.03</v>
+      </c>
+      <c r="H122">
+        <v>4.01</v>
+      </c>
+      <c r="I122">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B123">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1.345</v>
+      </c>
+      <c r="G123">
+        <f>E123-F123</f>
+        <v>-1.345</v>
+      </c>
+      <c r="H123">
+        <v>6.45</v>
+      </c>
+      <c r="I123">
+        <v>1373.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>45569</v>
+      </c>
+      <c r="B124" s="4">
+        <v>6</v>
+      </c>
+      <c r="C124" s="4">
+        <v>4</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="F124" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="G124" s="4">
+        <v>0</v>
+      </c>
+      <c r="H124" s="4">
+        <v>4.29</v>
+      </c>
+      <c r="I124">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B125">
+        <v>6</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>1.4</v>
+      </c>
+      <c r="G125">
+        <f t="shared" ref="G124:G129" si="5">E125-F125</f>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="H125">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="I125" s="4">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B126">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126">
+        <v>0.245</v>
+      </c>
+      <c r="F126">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="5"/>
+        <v>-0.78999999999999992</v>
+      </c>
+      <c r="H126">
+        <v>3.79</v>
+      </c>
+      <c r="I126">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B127">
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>20</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1.17</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="5"/>
+        <v>-1.17</v>
+      </c>
+      <c r="H127">
+        <v>3.93</v>
+      </c>
+      <c r="I127">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B128">
+        <v>9</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128" t="s">
+        <v>21</v>
+      </c>
+      <c r="E128">
+        <v>-0.08</v>
+      </c>
+      <c r="F128">
+        <v>1.21</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="5"/>
+        <v>-1.29</v>
+      </c>
+      <c r="H128">
+        <v>3.88</v>
+      </c>
+      <c r="I128">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>4</v>
+      </c>
+      <c r="D129" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F129">
+        <v>1.8</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="5"/>
+        <v>-1.4550000000000001</v>
+      </c>
+      <c r="H129">
+        <v>4.34</v>
+      </c>
+      <c r="I129">
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
@@ -7012,15 +7486,15 @@
       <selection activeCell="E2" sqref="E2:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.40625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7043,7 +7517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7067,7 +7541,7 @@
         <v>79.863910000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -7091,7 +7565,7 @@
         <v>76.943730000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -7115,7 +7589,7 @@
         <v>88.202100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -7139,7 +7613,7 @@
         <v>76.922430000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -7163,7 +7637,7 @@
         <v>92.059330000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7187,7 +7661,7 @@
         <v>76.370699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7211,7 +7685,7 @@
         <v>93.197450000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7235,7 +7709,7 @@
         <v>76.815430000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7259,7 +7733,7 @@
         <v>76.590829999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -7283,7 +7757,7 @@
         <v>76.606219999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -7307,7 +7781,7 @@
         <v>76.513019999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -7331,7 +7805,7 @@
         <v>76.622630000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -7355,7 +7829,7 @@
         <v>66.857730000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -7379,7 +7853,7 @@
         <v>67.045649999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -7403,7 +7877,7 @@
         <v>67.109120000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -7424,7 +7898,7 @@
         <v>66.502930000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>652.93119999999999</v>
       </c>
@@ -7432,7 +7906,7 @@
         <v>66.842190000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G19">
         <v>653.20910000000003</v>
       </c>
@@ -7440,7 +7914,7 @@
         <v>66.69511</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>607.95830000000001</v>
       </c>
@@ -7448,7 +7922,7 @@
         <v>67.072839999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G21">
         <v>607.56110000000001</v>
       </c>
@@ -7456,7 +7930,7 @@
         <v>66.492159999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G22">
         <v>638.08180000000004</v>
       </c>
@@ -7464,7 +7938,7 @@
         <v>66.821780000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G23">
         <v>638.25340000000006</v>
       </c>
@@ -7472,7 +7946,7 @@
         <v>66.970429999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G24">
         <v>623.13530000000003</v>
       </c>
@@ -7480,7 +7954,7 @@
         <v>66.743210000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G25">
         <v>607.76750000000004</v>
       </c>
@@ -7488,7 +7962,7 @@
         <v>66.741129999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G26">
         <v>592.50710000000004</v>
       </c>
@@ -7496,7 +7970,7 @@
         <v>66.642009999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G27">
         <v>577.47490000000005</v>
       </c>
@@ -7504,7 +7978,7 @@
         <v>66.604929999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G28">
         <v>562.39620000000002</v>
       </c>
@@ -7512,7 +7986,7 @@
         <v>66.727909999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G29">
         <v>562.76610000000005</v>
       </c>
@@ -7520,7 +7994,7 @@
         <v>66.755129999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G30">
         <v>562.50009999999997</v>
       </c>
@@ -7528,7 +8002,7 @@
         <v>66.565960000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G31">
         <v>562.36329999999998</v>
       </c>
@@ -7536,7 +8010,7 @@
         <v>66.708879999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G32">
         <v>577.42870000000005</v>
       </c>
@@ -7544,7 +8018,7 @@
         <v>66.438630000000003</v>
       </c>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G33">
         <v>577.51340000000005</v>
       </c>
@@ -7552,7 +8026,7 @@
         <v>66.721999999999994</v>
       </c>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>622.80349999999999</v>
       </c>
@@ -7560,7 +8034,7 @@
         <v>66.502319999999997</v>
       </c>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>698.44579999999996</v>
       </c>
@@ -7568,7 +8042,7 @@
         <v>66.603359999999995</v>
       </c>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>728.82050000000004</v>
       </c>
@@ -7576,7 +8050,7 @@
         <v>66.735640000000004</v>
       </c>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>744.46180000000004</v>
       </c>
@@ -7584,7 +8058,7 @@
         <v>67.009540000000001</v>
       </c>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>728.54539999999997</v>
       </c>
@@ -7592,7 +8066,7 @@
         <v>66.730959999999996</v>
       </c>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>728.59079999999994</v>
       </c>
@@ -7600,7 +8074,7 @@
         <v>66.700519999999997</v>
       </c>
     </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="40" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>728.52480000000003</v>
       </c>
@@ -7608,7 +8082,7 @@
         <v>66.432400000000001</v>
       </c>
     </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="41" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>744.04729999999995</v>
       </c>
@@ -7616,7 +8090,7 @@
         <v>66.440209999999993</v>
       </c>
     </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="42" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>744.07650000000001</v>
       </c>
@@ -7624,7 +8098,7 @@
         <v>66.810680000000005</v>
       </c>
     </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="43" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>759.36440000000005</v>
       </c>
@@ -7632,7 +8106,7 @@
         <v>66.765969999999996</v>
       </c>
     </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="44" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>774.61670000000004</v>
       </c>
@@ -7640,7 +8114,7 @@
         <v>66.688059999999993</v>
       </c>
     </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="45" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>774.67240000000004</v>
       </c>
@@ -7648,7 +8122,7 @@
         <v>66.708640000000003</v>
       </c>
     </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="46" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>789.6807</v>
       </c>
@@ -7656,7 +8130,7 @@
         <v>66.707120000000003</v>
       </c>
     </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="47" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>834.55520000000001</v>
       </c>
@@ -7664,7 +8138,7 @@
         <v>66.699510000000004</v>
       </c>
     </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="48" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>834.96130000000005</v>
       </c>
@@ -7672,7 +8146,7 @@
         <v>67.011229999999998</v>
       </c>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>850.197</v>
       </c>
@@ -7680,7 +8154,7 @@
         <v>66.578879999999998</v>
       </c>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>865.02120000000002</v>
       </c>
@@ -7688,7 +8162,7 @@
         <v>66.439570000000003</v>
       </c>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>865.25400000000002</v>
       </c>
@@ -7696,7 +8170,7 @@
         <v>66.421679999999995</v>
       </c>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="52" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>880.46839999999997</v>
       </c>
@@ -7704,7 +8178,7 @@
         <v>66.699039999999997</v>
       </c>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="53" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>895.39089999999999</v>
       </c>
@@ -7712,7 +8186,7 @@
         <v>66.41798</v>
       </c>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="54" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>895.33799999999997</v>
       </c>
@@ -7720,7 +8194,7 @@
         <v>66.555769999999995</v>
       </c>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="55" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>910.66690000000006</v>
       </c>
@@ -7728,7 +8202,7 @@
         <v>66.713909999999998</v>
       </c>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="56" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G56">
         <v>925.98109999999997</v>
       </c>
@@ -7736,7 +8210,7 @@
         <v>66.679460000000006</v>
       </c>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="57" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>940.77919999999995</v>
       </c>
@@ -7744,7 +8218,7 @@
         <v>66.716350000000006</v>
       </c>
     </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="58" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G58">
         <v>955.72770000000003</v>
       </c>
@@ -7752,7 +8226,7 @@
         <v>66.600700000000003</v>
       </c>
     </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="59" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G59">
         <v>970.87699999999995</v>
       </c>
@@ -7760,7 +8234,7 @@
         <v>67.232489999999999</v>
       </c>
     </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="60" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G60">
         <v>986.60170000000005</v>
       </c>
@@ -7768,7 +8242,7 @@
         <v>66.475719999999995</v>
       </c>
     </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="61" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>1001.513</v>
       </c>
@@ -7776,7 +8250,7 @@
         <v>69.48903</v>
       </c>
     </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="62" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G62">
         <v>1016.558</v>
       </c>
@@ -7784,7 +8258,7 @@
         <v>66.661689999999993</v>
       </c>
     </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="63" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G63">
         <v>1031.5419999999999</v>
       </c>
@@ -7792,7 +8266,7 @@
         <v>77.511840000000007</v>
       </c>
     </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="64" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G64">
         <v>1047.2439999999999</v>
       </c>
@@ -7800,7 +8274,7 @@
         <v>66.713200000000001</v>
       </c>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G65">
         <v>1061.7260000000001</v>
       </c>
@@ -7808,7 +8282,7 @@
         <v>80.544539999999998</v>
       </c>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G66">
         <v>1077.3230000000001</v>
       </c>
@@ -7816,7 +8290,7 @@
         <v>66.882890000000003</v>
       </c>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G67">
         <v>1107.306</v>
       </c>
@@ -7824,7 +8298,7 @@
         <v>82.613020000000006</v>
       </c>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G68">
         <v>1122.7550000000001</v>
       </c>
@@ -7832,7 +8306,7 @@
         <v>66.875720000000001</v>
       </c>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G69">
         <v>1167.7729999999999</v>
       </c>
@@ -7840,7 +8314,7 @@
         <v>81.679119999999998</v>
       </c>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G70">
         <v>1183.0219999999999</v>
       </c>
@@ -7848,7 +8322,7 @@
         <v>76.520039999999995</v>
       </c>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G71">
         <v>1183.3119999999999</v>
       </c>
@@ -7856,7 +8330,7 @@
         <v>76.523030000000006</v>
       </c>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G72">
         <v>1198.4190000000001</v>
       </c>
@@ -7864,7 +8338,7 @@
         <v>76.558539999999994</v>
       </c>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G73">
         <v>1213.2</v>
       </c>
@@ -7872,7 +8346,7 @@
         <v>76.322270000000003</v>
       </c>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G74">
         <v>1213.443</v>
       </c>
@@ -7880,7 +8354,7 @@
         <v>76.840400000000002</v>
       </c>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G75">
         <v>1228.8979999999999</v>
       </c>
@@ -7888,7 +8362,7 @@
         <v>76.866280000000003</v>
       </c>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G76">
         <v>1244.1220000000001</v>
       </c>
@@ -7896,7 +8370,7 @@
         <v>76.297600000000003</v>
       </c>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G77">
         <v>1259.123</v>
       </c>
@@ -7904,7 +8378,7 @@
         <v>76.881839999999997</v>
       </c>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G78">
         <v>1258.752</v>
       </c>
@@ -7912,7 +8386,7 @@
         <v>76.468999999999994</v>
       </c>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G79">
         <v>1304.1369999999999</v>
       </c>
@@ -7920,7 +8394,7 @@
         <v>76.618129999999994</v>
       </c>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G80">
         <v>1349.9849999999999</v>
       </c>
@@ -7928,7 +8402,7 @@
         <v>76.480620000000002</v>
       </c>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G81">
         <v>1350.0229999999999</v>
       </c>
@@ -7936,7 +8410,7 @@
         <v>76.648570000000007</v>
       </c>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G82">
         <v>1364.8150000000001</v>
       </c>
@@ -7944,7 +8418,7 @@
         <v>76.311499999999995</v>
       </c>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G83">
         <v>1380.152</v>
       </c>
@@ -7952,7 +8426,7 @@
         <v>76.679150000000007</v>
       </c>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G84">
         <v>1380.086</v>
       </c>
@@ -7960,7 +8434,7 @@
         <v>76.621639999999999</v>
       </c>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G85">
         <v>1379.7149999999999</v>
       </c>
@@ -7968,7 +8442,7 @@
         <v>76.371279999999999</v>
       </c>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G86">
         <v>1394.9970000000001</v>
       </c>
@@ -7976,7 +8450,7 @@
         <v>76.636949999999999</v>
       </c>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G87">
         <v>1410.3409999999999</v>
       </c>
@@ -7984,7 +8458,7 @@
         <v>76.882059999999996</v>
       </c>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G88">
         <v>1425.6030000000001</v>
       </c>
@@ -7992,7 +8466,7 @@
         <v>76.91395</v>
       </c>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G89">
         <v>1409.979</v>
       </c>
@@ -8000,7 +8474,7 @@
         <v>76.394909999999996</v>
       </c>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G90">
         <v>1410.248</v>
       </c>
@@ -8008,7 +8482,7 @@
         <v>76.664580000000001</v>
       </c>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G91">
         <v>1455.58</v>
       </c>
@@ -8016,7 +8490,7 @@
         <v>76.792010000000005</v>
       </c>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G92">
         <v>1486.2159999999999</v>
       </c>
@@ -8024,7 +8498,7 @@
         <v>86.622889999999998</v>
       </c>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G93">
         <v>1485.806</v>
       </c>
@@ -8032,7 +8506,7 @@
         <v>86.426929999999999</v>
       </c>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G94">
         <v>1516.0709999999999</v>
       </c>
@@ -8040,7 +8514,7 @@
         <v>86.291049999999998</v>
       </c>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G95">
         <v>1515.9280000000001</v>
       </c>
@@ -8048,7 +8522,7 @@
         <v>86.616039999999998</v>
       </c>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G96">
         <v>1516.348</v>
       </c>
@@ -8056,7 +8530,7 @@
         <v>86.725769999999997</v>
       </c>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G97">
         <v>1531.32</v>
       </c>
@@ -8064,7 +8538,7 @@
         <v>86.364840000000001</v>
       </c>
     </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G98">
         <v>1531.4570000000001</v>
       </c>
@@ -8072,7 +8546,7 @@
         <v>86.454610000000002</v>
       </c>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G99">
         <v>1531.6220000000001</v>
       </c>
@@ -8080,7 +8554,7 @@
         <v>86.403989999999993</v>
       </c>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G100">
         <v>1531.232</v>
       </c>
@@ -8088,7 +8562,7 @@
         <v>86.471239999999995</v>
       </c>
     </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G101">
         <v>1531.4369999999999</v>
       </c>
@@ -8096,7 +8570,7 @@
         <v>86.733379999999997</v>
       </c>
     </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G102">
         <v>1531.0519999999999</v>
       </c>
@@ -8104,7 +8578,7 @@
         <v>86.402079999999998</v>
       </c>
     </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G103">
         <v>1531.268</v>
       </c>
@@ -8112,7 +8586,7 @@
         <v>86.439710000000005</v>
       </c>
     </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G104">
         <v>1546.579</v>
       </c>
@@ -8120,7 +8594,7 @@
         <v>86.730919999999998</v>
       </c>
     </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G105">
         <v>1546.319</v>
       </c>
@@ -8128,7 +8602,7 @@
         <v>86.136409999999998</v>
       </c>
     </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G106">
         <v>1576.8009999999999</v>
       </c>
@@ -8136,7 +8610,7 @@
         <v>86.486429999999999</v>
       </c>
     </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G107">
         <v>1591.886</v>
       </c>
@@ -8144,7 +8618,7 @@
         <v>86.408940000000001</v>
       </c>
     </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G108">
         <v>1607.3309999999999</v>
       </c>
@@ -8152,7 +8626,7 @@
         <v>86.266360000000006</v>
       </c>
     </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G109">
         <v>1607.1669999999999</v>
       </c>
@@ -8160,7 +8634,7 @@
         <v>96.321259999999995</v>
       </c>
     </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G110">
         <v>1622.027</v>
       </c>
@@ -8168,7 +8642,7 @@
         <v>95.994619999999998</v>
       </c>
     </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G111">
         <v>1622.26</v>
       </c>
@@ -8176,7 +8650,7 @@
         <v>96.47484</v>
       </c>
     </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G112">
         <v>1637.01</v>
       </c>
@@ -8184,7 +8658,7 @@
         <v>96.487459999999999</v>
       </c>
     </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G113">
         <v>1637.1120000000001</v>
       </c>
@@ -8192,7 +8666,7 @@
         <v>95.942539999999994</v>
       </c>
     </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G114">
         <v>1652.441</v>
       </c>
@@ -8200,7 +8674,7 @@
         <v>96.212249999999997</v>
       </c>
     </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G115">
         <v>1652.6880000000001</v>
       </c>
@@ -8208,7 +8682,7 @@
         <v>96.16</v>
       </c>
     </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G116">
         <v>1652.4690000000001</v>
       </c>
@@ -8216,7 +8690,7 @@
         <v>96.532060000000001</v>
       </c>
     </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G117">
         <v>1667.163</v>
       </c>
@@ -8224,7 +8698,7 @@
         <v>96.261859999999999</v>
       </c>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G118">
         <v>1682.24</v>
       </c>
@@ -8232,7 +8706,7 @@
         <v>96.204570000000004</v>
       </c>
     </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G119">
         <v>1682.7049999999999</v>
       </c>
@@ -8240,7 +8714,7 @@
         <v>95.947130000000001</v>
       </c>
     </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G120">
         <v>1697.7449999999999</v>
       </c>
@@ -8248,7 +8722,7 @@
         <v>102.5564</v>
       </c>
     </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G121">
         <v>1697.4570000000001</v>
       </c>
@@ -8256,7 +8730,7 @@
         <v>96.26979</v>
       </c>
     </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G122">
         <v>1697.8979999999999</v>
       </c>
@@ -8264,7 +8738,7 @@
         <v>107.5222</v>
       </c>
     </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G123">
         <v>1713.067</v>
       </c>
@@ -8272,7 +8746,7 @@
         <v>96.174220000000005</v>
       </c>
     </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G124">
         <v>1713.4069999999999</v>
       </c>
@@ -8280,7 +8754,7 @@
         <v>111.3181</v>
       </c>
     </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G125">
         <v>1713.269</v>
       </c>
@@ -8288,7 +8762,7 @@
         <v>96.214839999999995</v>
       </c>
     </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G126">
         <v>1742.9939999999999</v>
       </c>
@@ -8296,7 +8770,7 @@
         <v>122.13800000000001</v>
       </c>
     </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G127">
         <v>1773.7049999999999</v>
       </c>
@@ -8304,7 +8778,7 @@
         <v>105.7696</v>
       </c>
     </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G128">
         <v>1788.712</v>
       </c>
@@ -8312,7 +8786,7 @@
         <v>106.3018</v>
       </c>
     </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G129">
         <v>1803.973</v>
       </c>
@@ -8320,7 +8794,7 @@
         <v>106.0164</v>
       </c>
     </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G130">
         <v>1803.799</v>
       </c>
@@ -8328,7 +8802,7 @@
         <v>106.0008</v>
       </c>
     </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G131">
         <v>1788.7460000000001</v>
       </c>
@@ -8336,7 +8810,7 @@
         <v>106.2757</v>
       </c>
     </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G132">
         <v>1803.846</v>
       </c>
@@ -8344,7 +8818,7 @@
         <v>105.7705</v>
       </c>
     </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G133">
         <v>1788.356</v>
       </c>
@@ -8352,7 +8826,7 @@
         <v>106.0813</v>
       </c>
     </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G134">
         <v>1773.8130000000001</v>
       </c>
@@ -8360,7 +8834,7 @@
         <v>106.3004</v>
       </c>
     </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="135" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G135">
         <v>1773.46</v>
       </c>
@@ -8368,7 +8842,7 @@
         <v>105.8387</v>
       </c>
     </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="136" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G136">
         <v>1773.855</v>
       </c>
@@ -8376,7 +8850,7 @@
         <v>106.3312</v>
       </c>
     </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="137" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G137">
         <v>1758.252</v>
       </c>
@@ -8384,7 +8858,7 @@
         <v>105.94289999999999</v>
       </c>
     </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="138" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G138">
         <v>1758.42</v>
       </c>
@@ -8392,7 +8866,7 @@
         <v>105.88379999999999</v>
       </c>
     </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="139" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G139">
         <v>1743.6389999999999</v>
       </c>
@@ -8400,7 +8874,7 @@
         <v>105.9689</v>
       </c>
     </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="140" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G140">
         <v>1743.116</v>
       </c>
@@ -8408,7 +8882,7 @@
         <v>106.07550000000001</v>
       </c>
     </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="141" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G141">
         <v>1743.41</v>
       </c>
@@ -8416,7 +8890,7 @@
         <v>105.9944</v>
       </c>
     </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="142" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G142">
         <v>1758.229</v>
       </c>
@@ -8424,7 +8898,7 @@
         <v>105.9682</v>
       </c>
     </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="143" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G143">
         <v>1758.6110000000001</v>
       </c>
@@ -8432,7 +8906,7 @@
         <v>106.0844</v>
       </c>
     </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="144" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G144">
         <v>1758.502</v>
       </c>
@@ -8440,7 +8914,7 @@
         <v>106.253</v>
       </c>
     </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="145" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G145">
         <v>1758.336</v>
       </c>
@@ -8448,7 +8922,7 @@
         <v>105.9712</v>
       </c>
     </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="146" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G146">
         <v>1743.46</v>
       </c>
@@ -8456,7 +8930,7 @@
         <v>105.7208</v>
       </c>
     </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="147" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G147">
         <v>1743.7249999999999</v>
       </c>
@@ -8464,7 +8938,7 @@
         <v>106.00369999999999</v>
       </c>
     </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="148" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G148">
         <v>1743.2550000000001</v>
       </c>
@@ -8472,7 +8946,7 @@
         <v>105.74850000000001</v>
       </c>
     </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="149" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G149">
         <v>1743.2</v>
       </c>
@@ -8480,7 +8954,7 @@
         <v>105.6892</v>
       </c>
     </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="150" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G150">
         <v>1743.645</v>
       </c>
@@ -8488,7 +8962,7 @@
         <v>115.9367</v>
       </c>
     </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="151" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G151">
         <v>1743.6010000000001</v>
       </c>
@@ -8496,7 +8970,7 @@
         <v>115.7723</v>
       </c>
     </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="152" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G152">
         <v>1743.2650000000001</v>
       </c>
@@ -8504,7 +8978,7 @@
         <v>115.5065</v>
       </c>
     </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="153" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G153">
         <v>1743.1210000000001</v>
       </c>
@@ -8512,7 +8986,7 @@
         <v>116.05670000000001</v>
       </c>
     </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="154" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G154">
         <v>1743.5830000000001</v>
       </c>
@@ -8520,7 +8994,7 @@
         <v>115.9269</v>
       </c>
     </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="155" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G155">
         <v>1743.1949999999999</v>
       </c>
@@ -8528,7 +9002,7 @@
         <v>115.9965</v>
       </c>
     </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="156" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G156">
         <v>1758.404</v>
       </c>
@@ -8536,7 +9010,7 @@
         <v>115.4991</v>
       </c>
     </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="157" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G157">
         <v>1743.6780000000001</v>
       </c>
@@ -8544,7 +9018,7 @@
         <v>115.5228</v>
       </c>
     </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="158" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G158">
         <v>1743.75</v>
       </c>
@@ -8552,7 +9026,7 @@
         <v>115.83710000000001</v>
       </c>
     </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="159" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G159">
         <v>1743.4010000000001</v>
       </c>
@@ -8560,7 +9034,7 @@
         <v>115.67700000000001</v>
       </c>
     </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="160" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G160">
         <v>1758.3130000000001</v>
       </c>
@@ -8568,7 +9042,7 @@
         <v>115.5472</v>
       </c>
     </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="161" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G161">
         <v>1758.4659999999999</v>
       </c>
@@ -8576,7 +9050,7 @@
         <v>116.02809999999999</v>
       </c>
     </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="162" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G162">
         <v>1758.309</v>
       </c>
@@ -8584,7 +9058,7 @@
         <v>115.7191</v>
       </c>
     </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G163">
         <v>1758.383</v>
       </c>
@@ -8592,7 +9066,7 @@
         <v>115.8503</v>
       </c>
     </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="164" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G164">
         <v>1758.7819999999999</v>
       </c>
@@ -8600,7 +9074,7 @@
         <v>116.01349999999999</v>
       </c>
     </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="165" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G165">
         <v>1788.462</v>
       </c>
@@ -8608,7 +9082,7 @@
         <v>116.0718</v>
       </c>
     </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="166" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G166">
         <v>1804.0540000000001</v>
       </c>
@@ -8616,7 +9090,7 @@
         <v>115.88200000000001</v>
       </c>
     </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="167" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G167">
         <v>1804.001</v>
       </c>
@@ -8624,7 +9098,7 @@
         <v>115.82640000000001</v>
       </c>
     </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="168" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G168">
         <v>1818.5730000000001</v>
       </c>
@@ -8632,7 +9106,7 @@
         <v>116.0414</v>
       </c>
     </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="169" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G169">
         <v>1818.624</v>
       </c>
@@ -8640,7 +9114,7 @@
         <v>115.7786</v>
       </c>
     </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="170" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G170">
         <v>1818.7860000000001</v>
       </c>
@@ -8648,7 +9122,7 @@
         <v>115.92440000000001</v>
       </c>
     </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="171" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G171">
         <v>1834.075</v>
       </c>
@@ -8656,7 +9130,7 @@
         <v>116.0988</v>
       </c>
     </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="172" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G172">
         <v>1834.6020000000001</v>
       </c>
@@ -8664,7 +9138,7 @@
         <v>115.9281</v>
       </c>
     </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="173" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G173">
         <v>1834.0730000000001</v>
       </c>
@@ -8672,7 +9146,7 @@
         <v>115.8377</v>
       </c>
     </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="174" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G174">
         <v>1834.4480000000001</v>
       </c>
@@ -8680,7 +9154,7 @@
         <v>116.0936</v>
       </c>
     </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G175">
         <v>1834.4960000000001</v>
       </c>
@@ -8688,7 +9162,7 @@
         <v>115.8402</v>
       </c>
     </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G176">
         <v>1849.4380000000001</v>
       </c>
@@ -8696,7 +9170,7 @@
         <v>116.17019999999999</v>
       </c>
     </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="177" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G177">
         <v>1864.201</v>
       </c>
@@ -8704,7 +9178,7 @@
         <v>115.6253</v>
       </c>
     </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="178" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G178">
         <v>1864.7149999999999</v>
       </c>
@@ -8712,7 +9186,7 @@
         <v>116.0719</v>
       </c>
     </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="179" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G179">
         <v>1879.3689999999999</v>
       </c>
@@ -8720,7 +9194,7 @@
         <v>116.3058</v>
       </c>
     </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="180" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G180">
         <v>1894.5129999999999</v>
       </c>
@@ -8728,7 +9202,7 @@
         <v>115.8853</v>
       </c>
     </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="181" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G181">
         <v>1894.61</v>
       </c>
@@ -8736,7 +9210,7 @@
         <v>116.38339999999999</v>
       </c>
     </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="182" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G182">
         <v>1895.0039999999999</v>
       </c>
@@ -8744,7 +9218,7 @@
         <v>116.1009</v>
       </c>
     </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="183" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G183">
         <v>1909.9960000000001</v>
       </c>
@@ -8752,7 +9226,7 @@
         <v>126.40130000000001</v>
       </c>
     </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="184" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G184">
         <v>1909.953</v>
       </c>
@@ -8760,7 +9234,7 @@
         <v>115.6763</v>
       </c>
     </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="185" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G185">
         <v>1909.9480000000001</v>
       </c>
@@ -8768,7 +9242,7 @@
         <v>128.953</v>
       </c>
     </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="186" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G186">
         <v>1925.124</v>
       </c>
@@ -8776,7 +9250,7 @@
         <v>115.9194</v>
       </c>
     </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="187" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G187">
         <v>1924.905</v>
       </c>
@@ -8784,7 +9258,7 @@
         <v>131.6455</v>
       </c>
     </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="188" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G188">
         <v>1939.692</v>
       </c>
@@ -8792,7 +9266,7 @@
         <v>115.86109999999999</v>
       </c>
     </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="189" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G189">
         <v>1939.9169999999999</v>
       </c>
@@ -8800,7 +9274,7 @@
         <v>115.68819999999999</v>
       </c>
     </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="190" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G190">
         <v>1955.596</v>
       </c>
@@ -8808,7 +9282,7 @@
         <v>116.19329999999999</v>
       </c>
     </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="191" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G191">
         <v>1970.683</v>
       </c>
@@ -8816,7 +9290,7 @@
         <v>116.134</v>
       </c>
     </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="192" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G192">
         <v>1970.617</v>
       </c>
@@ -8824,7 +9298,7 @@
         <v>116.1763</v>
       </c>
     </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G193">
         <v>1970.1420000000001</v>
       </c>
@@ -8832,7 +9306,7 @@
         <v>116.0438</v>
       </c>
     </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G194">
         <v>1985.317</v>
       </c>
@@ -8840,7 +9314,7 @@
         <v>115.9259</v>
       </c>
     </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G195">
         <v>1985.1020000000001</v>
       </c>
@@ -8848,7 +9322,7 @@
         <v>116.0008</v>
       </c>
     </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G196">
         <v>2000.7739999999999</v>
       </c>
@@ -8856,7 +9330,7 @@
         <v>116.0121</v>
       </c>
     </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G197">
         <v>2000.3019999999999</v>
       </c>
@@ -8864,7 +9338,7 @@
         <v>115.7264</v>
       </c>
     </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G198">
         <v>2015.693</v>
       </c>
@@ -8872,7 +9346,7 @@
         <v>115.9374</v>
       </c>
     </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G199">
         <v>2030.57</v>
       </c>
@@ -8880,7 +9354,7 @@
         <v>115.91459999999999</v>
       </c>
     </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G200">
         <v>2046.1120000000001</v>
       </c>
@@ -8888,7 +9362,7 @@
         <v>115.63939999999999</v>
       </c>
     </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G201">
         <v>2076.0819999999999</v>
       </c>
@@ -8896,7 +9370,7 @@
         <v>116.1581</v>
       </c>
     </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G202">
         <v>2091.7159999999999</v>
       </c>
@@ -8904,7 +9378,7 @@
         <v>115.8416</v>
       </c>
     </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G203">
         <v>2106.19</v>
       </c>
@@ -8912,7 +9386,7 @@
         <v>115.8566</v>
       </c>
     </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G204">
         <v>2106.2840000000001</v>
       </c>
@@ -8920,7 +9394,7 @@
         <v>115.8509</v>
       </c>
     </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G205">
         <v>2121.7220000000002</v>
       </c>
@@ -8928,7 +9402,7 @@
         <v>115.8514</v>
       </c>
     </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="206" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G206">
         <v>2136.712</v>
       </c>
@@ -8936,7 +9410,7 @@
         <v>125.86709999999999</v>
       </c>
     </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="207" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G207">
         <v>2136.752</v>
       </c>
@@ -8944,7 +9418,7 @@
         <v>125.4483</v>
       </c>
     </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="208" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G208">
         <v>2136.913</v>
       </c>
@@ -8952,7 +9426,7 @@
         <v>125.4024</v>
       </c>
     </row>
-    <row r="209" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="209" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G209">
         <v>2167.261</v>
       </c>
@@ -8960,7 +9434,7 @@
         <v>125.7238</v>
       </c>
     </row>
-    <row r="210" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="210" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G210">
         <v>2181.7249999999999</v>
       </c>
@@ -8968,7 +9442,7 @@
         <v>125.682</v>
       </c>
     </row>
-    <row r="211" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="211" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G211">
         <v>2182.0329999999999</v>
       </c>
@@ -8976,7 +9450,7 @@
         <v>125.6857</v>
       </c>
     </row>
-    <row r="212" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="212" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G212">
         <v>2197.1640000000002</v>
       </c>
@@ -8984,7 +9458,7 @@
         <v>125.4738</v>
       </c>
     </row>
-    <row r="213" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="213" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G213">
         <v>2212.6770000000001</v>
       </c>
@@ -8992,7 +9466,7 @@
         <v>125.9331</v>
       </c>
     </row>
-    <row r="214" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="214" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G214">
         <v>2227.3980000000001</v>
       </c>
@@ -9000,7 +9474,7 @@
         <v>125.37139999999999</v>
       </c>
     </row>
-    <row r="215" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="215" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G215">
         <v>2242.422</v>
       </c>
@@ -9008,7 +9482,7 @@
         <v>125.9153</v>
       </c>
     </row>
-    <row r="216" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="216" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G216">
         <v>2257.8890000000001</v>
       </c>
@@ -9016,7 +9490,7 @@
         <v>125.6576</v>
       </c>
     </row>
-    <row r="217" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="217" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G217">
         <v>2272.59</v>
       </c>
@@ -9024,7 +9498,7 @@
         <v>125.5729</v>
       </c>
     </row>
-    <row r="218" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="218" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G218">
         <v>2288.2159999999999</v>
       </c>
@@ -9032,7 +9506,7 @@
         <v>125.9589</v>
       </c>
     </row>
-    <row r="219" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="219" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G219">
         <v>2302.7950000000001</v>
       </c>
@@ -9040,7 +9514,7 @@
         <v>135.2037</v>
       </c>
     </row>
-    <row r="220" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="220" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G220">
         <v>2318.6460000000002</v>
       </c>
@@ -9048,7 +9522,7 @@
         <v>135.52789999999999</v>
       </c>
     </row>
-    <row r="221" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="221" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G221">
         <v>2333.2890000000002</v>
       </c>
@@ -9056,7 +9530,7 @@
         <v>135.4736</v>
       </c>
     </row>
-    <row r="222" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="222" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G222">
         <v>2348.8989999999999</v>
       </c>
@@ -9064,7 +9538,7 @@
         <v>135.52209999999999</v>
       </c>
     </row>
-    <row r="223" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="223" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G223">
         <v>2363.453</v>
       </c>
@@ -9072,7 +9546,7 @@
         <v>135.203</v>
       </c>
     </row>
-    <row r="224" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="224" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G224">
         <v>2379.2429999999999</v>
       </c>
@@ -9080,7 +9554,7 @@
         <v>135.62870000000001</v>
       </c>
     </row>
-    <row r="225" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="225" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G225">
         <v>2378.7959999999998</v>
       </c>
@@ -9088,7 +9562,7 @@
         <v>135.7516</v>
       </c>
     </row>
-    <row r="226" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="226" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G226">
         <v>2379.1619999999998</v>
       </c>
@@ -9096,7 +9570,7 @@
         <v>135.196</v>
       </c>
     </row>
-    <row r="227" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="227" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G227">
         <v>2363.471</v>
       </c>
@@ -9104,7 +9578,7 @@
         <v>135.72149999999999</v>
       </c>
     </row>
-    <row r="228" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="228" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G228">
         <v>2318.3110000000001</v>
       </c>
@@ -9112,7 +9586,7 @@
         <v>135.15219999999999</v>
       </c>
     </row>
-    <row r="229" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="229" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G229">
         <v>2303.3679999999999</v>
       </c>
@@ -9120,7 +9594,7 @@
         <v>135.52850000000001</v>
       </c>
     </row>
-    <row r="230" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="230" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G230">
         <v>2303.4119999999998</v>
       </c>
@@ -9128,7 +9602,7 @@
         <v>135.50040000000001</v>
       </c>
     </row>
-    <row r="231" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="231" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G231">
         <v>2272.797</v>
       </c>
@@ -9136,7 +9610,7 @@
         <v>135.14279999999999</v>
       </c>
     </row>
-    <row r="232" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="232" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G232">
         <v>2257.855</v>
       </c>
@@ -9144,7 +9618,7 @@
         <v>135.7586</v>
       </c>
     </row>
-    <row r="233" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="233" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G233">
         <v>2257.732</v>
       </c>
@@ -9152,7 +9626,7 @@
         <v>135.2062</v>
       </c>
     </row>
-    <row r="234" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="234" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G234">
         <v>2243.0100000000002</v>
       </c>
@@ -9160,7 +9634,7 @@
         <v>135.19049999999999</v>
       </c>
     </row>
-    <row r="235" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="235" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G235">
         <v>2227.8380000000002</v>
       </c>
@@ -9168,7 +9642,7 @@
         <v>135.5018</v>
       </c>
     </row>
-    <row r="236" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="236" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G236">
         <v>2227.8609999999999</v>
       </c>
@@ -9176,7 +9650,7 @@
         <v>135.70230000000001</v>
       </c>
     </row>
-    <row r="237" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="237" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G237">
         <v>2227.7280000000001</v>
       </c>
@@ -9184,7 +9658,7 @@
         <v>135.14320000000001</v>
       </c>
     </row>
-    <row r="238" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="238" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G238">
         <v>2212.5929999999998</v>
       </c>
@@ -9192,7 +9666,7 @@
         <v>135.9186</v>
       </c>
     </row>
-    <row r="239" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="239" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G239">
         <v>2212.4630000000002</v>
       </c>
@@ -9200,7 +9674,7 @@
         <v>135.1687</v>
       </c>
     </row>
-    <row r="240" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="240" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G240">
         <v>2197.69</v>
       </c>
@@ -9208,7 +9682,7 @@
         <v>136.13910000000001</v>
       </c>
     </row>
-    <row r="241" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="241" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G241">
         <v>2197.442</v>
       </c>
@@ -9216,7 +9690,7 @@
         <v>135.43340000000001</v>
       </c>
     </row>
-    <row r="242" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="242" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G242">
         <v>2197.8220000000001</v>
       </c>
@@ -9224,7 +9698,7 @@
         <v>146.0427</v>
       </c>
     </row>
-    <row r="243" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="243" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G243">
         <v>2181.6410000000001</v>
       </c>
@@ -9232,7 +9706,7 @@
         <v>135.41380000000001</v>
       </c>
     </row>
-    <row r="244" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="244" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G244">
         <v>2181.77</v>
       </c>
@@ -9240,7 +9714,7 @@
         <v>148.27549999999999</v>
       </c>
     </row>
-    <row r="245" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="245" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G245">
         <v>2182.2109999999998</v>
       </c>
@@ -9248,7 +9722,7 @@
         <v>135.7269</v>
       </c>
     </row>
-    <row r="246" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="246" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G246">
         <v>2166.9209999999998</v>
       </c>
@@ -9256,7 +9730,7 @@
         <v>150.4016</v>
       </c>
     </row>
-    <row r="247" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="247" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G247">
         <v>2167.4630000000002</v>
       </c>
@@ -9264,7 +9738,7 @@
         <v>135.68629999999999</v>
       </c>
     </row>
-    <row r="248" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="248" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G248">
         <v>2166.9349999999999</v>
       </c>
@@ -9272,7 +9746,7 @@
         <v>149.3246</v>
       </c>
     </row>
-    <row r="249" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="249" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G249">
         <v>2152.0659999999998</v>
       </c>
@@ -9280,7 +9754,7 @@
         <v>135.16829999999999</v>
       </c>
     </row>
-    <row r="250" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="250" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G250">
         <v>2151.8969999999999</v>
       </c>
@@ -9288,7 +9762,7 @@
         <v>135.63730000000001</v>
       </c>
     </row>
-    <row r="251" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="251" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G251">
         <v>2151.701</v>
       </c>
@@ -9296,7 +9770,7 @@
         <v>135.42089999999999</v>
       </c>
     </row>
-    <row r="252" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="252" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G252">
         <v>2152.1179999999999</v>
       </c>
@@ -9304,7 +9778,7 @@
         <v>135.44110000000001</v>
       </c>
     </row>
-    <row r="253" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="253" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G253">
         <v>2137.1120000000001</v>
       </c>
@@ -9312,7 +9786,7 @@
         <v>135.73140000000001</v>
       </c>
     </row>
-    <row r="254" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="254" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G254">
         <v>2152.1480000000001</v>
       </c>
@@ -9320,7 +9794,7 @@
         <v>135.52979999999999</v>
       </c>
     </row>
-    <row r="255" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="255" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G255">
         <v>2136.7139999999999</v>
       </c>
@@ -9328,7 +9802,7 @@
         <v>135.16589999999999</v>
       </c>
     </row>
-    <row r="256" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="256" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G256">
         <v>2136.7220000000002</v>
       </c>
@@ -9336,7 +9810,7 @@
         <v>135.43109999999999</v>
       </c>
     </row>
-    <row r="257" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="257" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G257">
         <v>2137.1190000000001</v>
       </c>
@@ -9344,7 +9818,7 @@
         <v>135.6944</v>
       </c>
     </row>
-    <row r="258" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="258" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G258">
         <v>2137.2060000000001</v>
       </c>
@@ -9352,7 +9826,7 @@
         <v>135.5111</v>
       </c>
     </row>
-    <row r="259" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="259" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G259">
         <v>2137.136</v>
       </c>
@@ -9360,7 +9834,7 @@
         <v>135.74529999999999</v>
       </c>
     </row>
-    <row r="260" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="260" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G260">
         <v>2136.998</v>
       </c>
@@ -9368,7 +9842,7 @@
         <v>135.589</v>
       </c>
     </row>
-    <row r="261" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="261" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G261">
         <v>2137.0430000000001</v>
       </c>
@@ -9376,7 +9850,7 @@
         <v>135.4787</v>
       </c>
     </row>
-    <row r="262" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="262" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G262">
         <v>2136.9940000000001</v>
       </c>
@@ -9384,7 +9858,7 @@
         <v>135.501</v>
       </c>
     </row>
-    <row r="263" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="263" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G263">
         <v>2151.7600000000002</v>
       </c>
@@ -9392,7 +9866,7 @@
         <v>135.68340000000001</v>
       </c>
     </row>
-    <row r="264" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="264" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G264">
         <v>2136.674</v>
       </c>
@@ -9400,7 +9874,7 @@
         <v>135.40479999999999</v>
       </c>
     </row>
-    <row r="265" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="265" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G265">
         <v>2151.973</v>
       </c>
@@ -9408,7 +9882,7 @@
         <v>135.34440000000001</v>
       </c>
     </row>
-    <row r="266" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="266" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G266">
         <v>2151.9319999999998</v>
       </c>
@@ -9416,7 +9890,7 @@
         <v>135.4581</v>
       </c>
     </row>
-    <row r="267" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="267" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G267">
         <v>2151.9209999999998</v>
       </c>
@@ -9424,7 +9898,7 @@
         <v>135.1977</v>
       </c>
     </row>
-    <row r="268" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="268" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G268">
         <v>2151.9989999999998</v>
       </c>
@@ -9432,7 +9906,7 @@
         <v>135.34399999999999</v>
       </c>
     </row>
-    <row r="269" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="269" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G269">
         <v>2166.6460000000002</v>
       </c>
@@ -9440,7 +9914,7 @@
         <v>135.76349999999999</v>
       </c>
     </row>
-    <row r="270" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="270" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G270">
         <v>2152.134</v>
       </c>
@@ -9448,7 +9922,7 @@
         <v>135.49199999999999</v>
       </c>
     </row>
-    <row r="271" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="271" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G271">
         <v>2167.125</v>
       </c>
@@ -9456,7 +9930,7 @@
         <v>135.47919999999999</v>
       </c>
     </row>
-    <row r="272" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="272" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G272">
         <v>2166.8739999999998</v>
       </c>
@@ -9464,7 +9938,7 @@
         <v>135.7834</v>
       </c>
     </row>
-    <row r="273" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="273" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G273">
         <v>2182.17</v>
       </c>
@@ -9472,7 +9946,7 @@
         <v>135.50450000000001</v>
       </c>
     </row>
-    <row r="274" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="274" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G274">
         <v>2182.067</v>
       </c>
@@ -9480,7 +9954,7 @@
         <v>135.22200000000001</v>
       </c>
     </row>
-    <row r="275" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="275" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G275">
         <v>2197.5309999999999</v>
       </c>
@@ -9488,7 +9962,7 @@
         <v>135.49209999999999</v>
       </c>
     </row>
-    <row r="276" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="276" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G276">
         <v>2197.299</v>
       </c>
@@ -9496,7 +9970,7 @@
         <v>135.19800000000001</v>
       </c>
     </row>
-    <row r="277" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="277" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G277">
         <v>2212.5549999999998</v>
       </c>
@@ -9504,7 +9978,7 @@
         <v>135.47669999999999</v>
       </c>
     </row>
-    <row r="278" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="278" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G278">
         <v>2227.5909999999999</v>
       </c>
@@ -9512,7 +9986,7 @@
         <v>135.24359999999999</v>
       </c>
     </row>
-    <row r="279" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="279" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G279">
         <v>2242.674</v>
       </c>
@@ -9520,7 +9994,7 @@
         <v>135.78200000000001</v>
       </c>
     </row>
-    <row r="280" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="280" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G280">
         <v>2242.6320000000001</v>
       </c>
@@ -9528,7 +10002,7 @@
         <v>135.61869999999999</v>
       </c>
     </row>
-    <row r="281" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="281" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G281">
         <v>2257.8119999999999</v>
       </c>
@@ -9536,7 +10010,7 @@
         <v>135.5112</v>
       </c>
     </row>
-    <row r="282" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="282" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G282">
         <v>2257.9879999999998</v>
       </c>
@@ -9544,7 +10018,7 @@
         <v>135.25960000000001</v>
       </c>
     </row>
-    <row r="283" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="283" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G283">
         <v>2273.31</v>
       </c>
@@ -9552,7 +10026,7 @@
         <v>135.57429999999999</v>
       </c>
     </row>
-    <row r="284" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="284" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G284">
         <v>2272.7620000000002</v>
       </c>
@@ -9560,7 +10034,7 @@
         <v>135.48140000000001</v>
       </c>
     </row>
-    <row r="285" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="285" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G285">
         <v>2272.7910000000002</v>
       </c>
@@ -9568,7 +10042,7 @@
         <v>135.24860000000001</v>
       </c>
     </row>
-    <row r="286" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="286" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G286">
         <v>2303.0889999999999</v>
       </c>
@@ -9576,7 +10050,7 @@
         <v>135.2543</v>
       </c>
     </row>
-    <row r="287" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="287" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G287">
         <v>2318.8209999999999</v>
       </c>
@@ -9584,7 +10058,7 @@
         <v>135.78460000000001</v>
       </c>
     </row>
-    <row r="288" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="288" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G288">
         <v>2334.0030000000002</v>
       </c>
@@ -9592,7 +10066,7 @@
         <v>135.56190000000001</v>
       </c>
     </row>
-    <row r="289" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="289" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G289">
         <v>2348.922</v>
       </c>
@@ -9600,7 +10074,7 @@
         <v>135.61609999999999</v>
       </c>
     </row>
-    <row r="290" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="290" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G290">
         <v>2348.8249999999998</v>
       </c>
@@ -9608,7 +10082,7 @@
         <v>135.52010000000001</v>
       </c>
     </row>
-    <row r="291" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="291" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G291">
         <v>2348.7159999999999</v>
       </c>
@@ -9616,7 +10090,7 @@
         <v>135.76300000000001</v>
       </c>
     </row>
-    <row r="292" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="292" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G292">
         <v>2363.6129999999998</v>
       </c>
@@ -9624,7 +10098,7 @@
         <v>135.53290000000001</v>
       </c>
     </row>
-    <row r="293" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="293" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G293">
         <v>2378.8510000000001</v>
       </c>
@@ -9632,7 +10106,7 @@
         <v>135.28210000000001</v>
       </c>
     </row>
-    <row r="294" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="294" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G294">
         <v>2379.19</v>
       </c>
@@ -9640,7 +10114,7 @@
         <v>135.48609999999999</v>
       </c>
     </row>
-    <row r="295" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="295" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G295">
         <v>2394.2730000000001</v>
       </c>
@@ -9648,7 +10122,7 @@
         <v>135.55950000000001</v>
       </c>
     </row>
-    <row r="296" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="296" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G296">
         <v>2393.9299999999998</v>
       </c>
@@ -9656,7 +10130,7 @@
         <v>135.2533</v>
       </c>
     </row>
-    <row r="297" spans="7:8" x14ac:dyDescent="0.75">
+    <row r="297" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G297">
         <v>2394.2550000000001</v>
       </c>
@@ -9680,14 +10154,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100205AA101E2883C419D53A6EAA58BE6E4" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0732453c88b6c24a50b901808cd2a95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0ed78115-f4df-42b0-9376-ad3306022cc8" xmlns:ns4="94b7f148-c09a-42e6-baca-973a9a7cd962" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c3ce456d5e9a668ce7bebc57d13ab49" ns3:_="" ns4:_="">
     <xsd:import namespace="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
@@ -9940,6 +10406,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
   <ds:schemaRefs>
@@ -9949,23 +10423,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="94b7f148-c09a-42e6-baca-973a9a7cd962"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88B5DFD5-AF32-4053-8117-B9F97580063E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9982,4 +10439,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="94b7f148-c09a-42e6-baca-973a9a7cd962"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F6CB90-B1A4-4EEE-A0A0-A480471F8098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C55D803-6040-4900-BF10-9B88E0A9FB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10155" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -117,13 +117,7 @@
     <t>CO2_ppm</t>
   </si>
   <si>
-    <t>Well hieght</t>
-  </si>
-  <si>
     <t>Distance_m</t>
-  </si>
-  <si>
-    <t>surface_hieght</t>
   </si>
   <si>
     <t>surface_height</t>
@@ -139,6 +133,18 @@
   </si>
   <si>
     <t xml:space="preserve">Well depth </t>
+  </si>
+  <si>
+    <t>Well hiegh(short)</t>
+  </si>
+  <si>
+    <t>Well hieght (long)</t>
+  </si>
+  <si>
+    <t>surface_hieght (short)</t>
+  </si>
+  <si>
+    <t>surface_height (long)</t>
   </si>
 </sst>
 </file>
@@ -628,7 +634,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -636,6 +642,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -791,7 +798,7 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$H:$H</c:f>
+              <c:f>Sheet1!$J:$J</c:f>
               <c:strCache>
                 <c:ptCount val="297"/>
                 <c:pt idx="0">
@@ -1690,7 +1697,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G:$G</c:f>
+              <c:f>Sheet1!$I:$I</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
@@ -3342,13 +3349,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
@@ -3696,23 +3703,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E7760-F87C-4D84-A63F-D473D279D553}">
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L120" sqref="L120"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.40625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3726,19 +3733,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>26</v>
@@ -3747,7 +3754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>45400</v>
       </c>
@@ -3764,7 +3771,7 @@
         <v>1.54</v>
       </c>
       <c r="G2">
-        <f>Sheet1!E2-'RC log'!F2</f>
+        <f>Sheet1!F2-'RC log'!F2</f>
         <v>-1.34</v>
       </c>
       <c r="H2">
@@ -3774,7 +3781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>45400</v>
       </c>
@@ -3791,7 +3798,7 @@
         <v>1.47</v>
       </c>
       <c r="G3">
-        <f>Sheet1!E3-'RC log'!F3</f>
+        <f>Sheet1!F3-'RC log'!F3</f>
         <v>-1.05</v>
       </c>
       <c r="H3">
@@ -3801,7 +3808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>45400</v>
       </c>
@@ -3818,7 +3825,7 @@
         <v>1.25</v>
       </c>
       <c r="G4">
-        <f>Sheet1!E4-'RC log'!F4</f>
+        <f>Sheet1!F4-'RC log'!F4</f>
         <v>-0.495</v>
       </c>
       <c r="H4">
@@ -3828,7 +3835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>45400</v>
       </c>
@@ -3845,7 +3852,7 @@
         <v>1.63</v>
       </c>
       <c r="G5">
-        <f>Sheet1!E5-'RC log'!F5</f>
+        <f>Sheet1!F5-'RC log'!F5</f>
         <v>-1.39</v>
       </c>
       <c r="H5">
@@ -3855,7 +3862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>45400</v>
       </c>
@@ -3872,7 +3879,7 @@
         <v>0.86</v>
       </c>
       <c r="G6">
-        <f>Sheet1!E6-'RC log'!F6</f>
+        <f>Sheet1!F6-'RC log'!F6</f>
         <v>-0.10999999999999999</v>
       </c>
       <c r="H6">
@@ -3882,7 +3889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45400</v>
       </c>
@@ -3899,7 +3906,7 @@
         <v>1.33</v>
       </c>
       <c r="G7">
-        <f>Sheet1!E7-'RC log'!F7</f>
+        <f>Sheet1!F7-'RC log'!F7</f>
         <v>-1.26</v>
       </c>
       <c r="H7" t="s">
@@ -3909,7 +3916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>45400</v>
       </c>
@@ -3926,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <f>Sheet1!E8-'RC log'!F8</f>
+        <f>Sheet1!F8-'RC log'!F8</f>
         <v>0</v>
       </c>
       <c r="H8" t="s">
@@ -3936,7 +3943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>45400</v>
       </c>
@@ -3953,7 +3960,7 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="G9">
-        <f>Sheet1!E9-'RC log'!F9</f>
+        <f>Sheet1!F9-'RC log'!F9</f>
         <v>-1.0499999999999998</v>
       </c>
       <c r="H9">
@@ -3963,7 +3970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>45400</v>
       </c>
@@ -3980,7 +3987,7 @@
         <v>0.82</v>
       </c>
       <c r="G10">
-        <f>Sheet1!E10-'RC log'!F10</f>
+        <f>Sheet1!F10-'RC log'!F10</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="H10">
@@ -3990,7 +3997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>45400</v>
       </c>
@@ -4007,7 +4014,7 @@
         <v>1.42</v>
       </c>
       <c r="G11">
-        <f>Sheet1!E11-'RC log'!F11</f>
+        <f>Sheet1!F11-'RC log'!F11</f>
         <v>-1.42</v>
       </c>
       <c r="H11">
@@ -4017,7 +4024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>45400</v>
       </c>
@@ -4034,7 +4041,7 @@
         <v>0.45</v>
       </c>
       <c r="G12">
-        <f>Sheet1!E12-'RC log'!F12</f>
+        <f>Sheet1!F12-'RC log'!F12</f>
         <v>0.36000000000000004</v>
       </c>
       <c r="H12">
@@ -4044,7 +4051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>45400</v>
       </c>
@@ -4061,14 +4068,14 @@
         <v>2.17</v>
       </c>
       <c r="G13">
-        <f>Sheet1!E13-'RC log'!F13</f>
+        <f>Sheet1!F13-'RC log'!F13</f>
         <v>-1.17</v>
       </c>
       <c r="K13">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="1">
         <v>45400</v>
       </c>
@@ -4085,7 +4092,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G14">
-        <f>Sheet1!E14-'RC log'!F14</f>
+        <f>Sheet1!F14-'RC log'!F14</f>
         <v>-0.30500000000000005</v>
       </c>
       <c r="H14">
@@ -4095,7 +4102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>45400</v>
       </c>
@@ -4112,7 +4119,7 @@
         <v>0.83</v>
       </c>
       <c r="G15">
-        <f>Sheet1!E15-'RC log'!F15</f>
+        <f>Sheet1!F15-'RC log'!F15</f>
         <v>-0.83</v>
       </c>
       <c r="H15">
@@ -4122,7 +4129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="1">
         <v>45400</v>
       </c>
@@ -4139,7 +4146,7 @@
         <v>1.33</v>
       </c>
       <c r="G16">
-        <f>Sheet1!E16-'RC log'!F16</f>
+        <f>Sheet1!F16-'RC log'!F16</f>
         <v>-1.4100000000000001</v>
       </c>
       <c r="H16">
@@ -4149,7 +4156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>45400</v>
       </c>
@@ -4166,7 +4173,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="G17">
-        <f>Sheet1!E17-'RC log'!F17</f>
+        <f>Sheet1!F17-'RC log'!F17</f>
         <v>-0.81499999999999995</v>
       </c>
       <c r="H17">
@@ -4176,7 +4183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="1">
         <v>45420</v>
       </c>
@@ -4196,7 +4203,7 @@
         <v>1.03</v>
       </c>
       <c r="G18">
-        <f>Sheet1!E18-'RC log'!F18</f>
+        <f>Sheet1!F18-'RC log'!F18</f>
         <v>-1.03</v>
       </c>
       <c r="H18" t="s">
@@ -4206,7 +4213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>45420</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="1">
         <v>45420</v>
       </c>
@@ -4266,7 +4273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="1">
         <v>45420</v>
       </c>
@@ -4296,7 +4303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="1">
         <v>45420</v>
       </c>
@@ -4326,7 +4333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="1">
         <v>45420</v>
       </c>
@@ -4356,7 +4363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="1">
         <v>45420</v>
       </c>
@@ -4386,7 +4393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="1">
         <v>45420</v>
       </c>
@@ -4416,7 +4423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="1">
         <v>45420</v>
       </c>
@@ -4446,7 +4453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="1">
         <v>45420</v>
       </c>
@@ -4476,7 +4483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="1">
         <v>45420</v>
       </c>
@@ -4506,7 +4513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="1">
         <v>45420</v>
       </c>
@@ -4536,7 +4543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A30" s="1">
         <v>45420</v>
       </c>
@@ -4566,7 +4573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A31" s="1">
         <v>45420</v>
       </c>
@@ -4596,7 +4603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A32" s="1">
         <v>45420</v>
       </c>
@@ -4626,7 +4633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A33" s="1">
         <v>45420</v>
       </c>
@@ -4656,7 +4663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A34" s="1">
         <v>45442</v>
       </c>
@@ -4686,7 +4693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A35" s="1">
         <v>45442</v>
       </c>
@@ -4716,7 +4723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A36" s="1">
         <v>45442</v>
       </c>
@@ -4746,7 +4753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A37" s="1">
         <v>45442</v>
       </c>
@@ -4776,7 +4783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A38" s="1">
         <v>45442</v>
       </c>
@@ -4806,7 +4813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A39" s="1">
         <v>45442</v>
       </c>
@@ -4836,7 +4843,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A40" s="1">
         <v>45442</v>
       </c>
@@ -4866,7 +4873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A41" s="1">
         <v>45442</v>
       </c>
@@ -4896,7 +4903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A42" s="1">
         <v>45442</v>
       </c>
@@ -4926,7 +4933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A43" s="1">
         <v>45442</v>
       </c>
@@ -4956,7 +4963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A44" s="1">
         <v>45442</v>
       </c>
@@ -4986,7 +4993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A45" s="1">
         <v>45442</v>
       </c>
@@ -5016,7 +5023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A46" s="1">
         <v>45442</v>
       </c>
@@ -5046,7 +5053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A47" s="1">
         <v>45442</v>
       </c>
@@ -5073,7 +5080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A48" s="1">
         <v>45442</v>
       </c>
@@ -5103,7 +5110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A49" s="1">
         <v>45442</v>
       </c>
@@ -5133,7 +5140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A50" s="1">
         <v>45463</v>
       </c>
@@ -5157,7 +5164,7 @@
         <v>-0.85000000000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A51" s="1">
         <v>45463</v>
       </c>
@@ -5181,7 +5188,7 @@
         <v>-1.55</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A52" s="1">
         <v>45463</v>
       </c>
@@ -5214,7 +5221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A53" s="1">
         <v>45463</v>
       </c>
@@ -5247,7 +5254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A54" s="1">
         <v>45463</v>
       </c>
@@ -5271,7 +5278,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A55" s="1">
         <v>45463</v>
       </c>
@@ -5295,7 +5302,7 @@
         <v>-1.24</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A56" s="1">
         <v>45463</v>
       </c>
@@ -5328,7 +5335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A57" s="1">
         <v>45463</v>
       </c>
@@ -5361,7 +5368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A58" s="1">
         <v>45463</v>
       </c>
@@ -5394,7 +5401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A59" s="1">
         <v>45463</v>
       </c>
@@ -5418,7 +5425,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A60" s="1">
         <v>45463</v>
       </c>
@@ -5442,7 +5449,7 @@
         <v>-1.0999999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A61" s="1">
         <v>45463</v>
       </c>
@@ -5466,7 +5473,7 @@
         <v>-2.79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A62" s="1">
         <v>45463</v>
       </c>
@@ -5490,7 +5497,7 @@
         <v>-1.4649999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A63" s="1">
         <v>45463</v>
       </c>
@@ -5517,7 +5524,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A64" s="1">
         <v>45463</v>
       </c>
@@ -5541,7 +5548,7 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A65" s="1">
         <v>45463</v>
       </c>
@@ -5565,7 +5572,7 @@
         <v>-2.0049999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A66" s="1">
         <v>45484</v>
       </c>
@@ -5598,7 +5605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A67" s="1">
         <v>45484</v>
       </c>
@@ -5631,7 +5638,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A68" s="1">
         <v>45484</v>
       </c>
@@ -5663,7 +5670,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A69" s="1">
         <v>45484</v>
       </c>
@@ -5696,7 +5703,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A70" s="1">
         <v>45484</v>
       </c>
@@ -5728,7 +5735,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A71" s="1">
         <v>45484</v>
       </c>
@@ -5761,7 +5768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A72" s="1">
         <v>45484</v>
       </c>
@@ -5794,7 +5801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A73" s="1">
         <v>45484</v>
       </c>
@@ -5827,7 +5834,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A74" s="1">
         <v>45484</v>
       </c>
@@ -5860,7 +5867,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A75" s="1">
         <v>45484</v>
       </c>
@@ -5893,7 +5900,7 @@
         <v>26.57</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A76" s="1">
         <v>45484</v>
       </c>
@@ -5926,7 +5933,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A77" s="1">
         <v>45484</v>
       </c>
@@ -5953,7 +5960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A78" s="1">
         <v>45484</v>
       </c>
@@ -5980,7 +5987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A79" s="1">
         <v>45484</v>
       </c>
@@ -6013,7 +6020,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A80" s="1">
         <v>45484</v>
       </c>
@@ -6046,7 +6053,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A81" s="1">
         <v>45484</v>
       </c>
@@ -6073,7 +6080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A82" s="1">
         <v>45502</v>
       </c>
@@ -6102,7 +6109,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A83" s="1">
         <v>45502</v>
       </c>
@@ -6131,7 +6138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A84" s="1">
         <v>45502</v>
       </c>
@@ -6160,7 +6167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A85" s="1">
         <v>45502</v>
       </c>
@@ -6193,7 +6200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A86" s="1">
         <v>45502</v>
       </c>
@@ -6222,7 +6229,7 @@
         <v>25.72</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A87" s="1">
         <v>45502</v>
       </c>
@@ -6255,7 +6262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A88" s="1">
         <v>45502</v>
       </c>
@@ -6284,7 +6291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A89" s="1">
         <v>45502</v>
       </c>
@@ -6317,7 +6324,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A90" s="1">
         <v>45502</v>
       </c>
@@ -6346,7 +6353,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A91" s="1">
         <v>45502</v>
       </c>
@@ -6375,7 +6382,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A92" s="1">
         <v>45502</v>
       </c>
@@ -6408,7 +6415,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A93" s="1">
         <v>45502</v>
       </c>
@@ -6432,7 +6439,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A94" s="1">
         <v>45502</v>
       </c>
@@ -6465,7 +6472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A95" s="1">
         <v>45502</v>
       </c>
@@ -6498,7 +6505,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A96" s="1">
         <v>45502</v>
       </c>
@@ -6527,7 +6534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A97" s="1">
         <v>45502</v>
       </c>
@@ -6554,7 +6561,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A98" s="1">
         <v>45534</v>
       </c>
@@ -6583,7 +6590,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A99" s="1">
         <v>45534</v>
       </c>
@@ -6612,7 +6619,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A100" s="1">
         <v>45534</v>
       </c>
@@ -6646,7 +6653,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A101" s="1">
         <v>45534</v>
       </c>
@@ -6680,7 +6687,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A102" s="1">
         <v>45534</v>
       </c>
@@ -6714,7 +6721,7 @@
         <v>26.43</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A103" s="1">
         <v>45534</v>
       </c>
@@ -6743,7 +6750,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A104" s="1">
         <v>45534</v>
       </c>
@@ -6760,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A105" s="1">
         <v>45534</v>
       </c>
@@ -6789,7 +6796,7 @@
         <v>27.11</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A106" s="1">
         <v>45534</v>
       </c>
@@ -6818,7 +6825,7 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A107" s="1">
         <v>45534</v>
       </c>
@@ -6847,7 +6854,7 @@
         <v>26.23</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A108" s="1">
         <v>45534</v>
       </c>
@@ -6876,7 +6883,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A109" s="1">
         <v>45534</v>
       </c>
@@ -6906,7 +6913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A110" s="1">
         <v>45534</v>
       </c>
@@ -6936,7 +6943,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A111" s="1">
         <v>45534</v>
       </c>
@@ -6965,7 +6972,7 @@
         <v>28.69</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A112" s="1">
         <v>45534</v>
       </c>
@@ -6994,7 +7001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A113" s="1">
         <v>45534</v>
       </c>
@@ -7011,7 +7018,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A114" s="1">
         <v>45569</v>
       </c>
@@ -7038,7 +7045,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A115" s="1">
         <v>45569</v>
       </c>
@@ -7064,7 +7071,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A116" s="1">
         <v>45569</v>
       </c>
@@ -7094,7 +7101,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A117" s="1">
         <v>45569</v>
       </c>
@@ -7124,7 +7131,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A118" s="1">
         <v>45569</v>
       </c>
@@ -7154,7 +7161,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A119" s="1">
         <v>45569</v>
       </c>
@@ -7184,7 +7191,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A120" s="1">
         <v>45569</v>
       </c>
@@ -7211,7 +7218,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A121" s="1">
         <v>45569</v>
       </c>
@@ -7241,7 +7248,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A122" s="1">
         <v>45569</v>
       </c>
@@ -7267,7 +7274,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A123" s="1">
         <v>45569</v>
       </c>
@@ -7297,7 +7304,7 @@
         <v>1373.6</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A124" s="3">
         <v>45569</v>
       </c>
@@ -7326,7 +7333,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A125" s="1">
         <v>45569</v>
       </c>
@@ -7346,7 +7353,7 @@
         <v>1.4</v>
       </c>
       <c r="G125">
-        <f t="shared" ref="G125:G129" si="5">E125-F125</f>
+        <f t="shared" ref="G125:G133" si="5">E125-F125</f>
         <v>-0.39999999999999991</v>
       </c>
       <c r="H125">
@@ -7356,7 +7363,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A126" s="1">
         <v>45569</v>
       </c>
@@ -7386,7 +7393,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A127" s="1">
         <v>45569</v>
       </c>
@@ -7416,7 +7423,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A128" s="1">
         <v>45569</v>
       </c>
@@ -7446,7 +7453,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A129" s="1">
         <v>45569</v>
       </c>
@@ -7474,6 +7481,520 @@
       </c>
       <c r="I129">
         <v>1012</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A130" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130">
+        <v>0.2</v>
+      </c>
+      <c r="F130">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="5"/>
+        <v>-0.79200000000000004</v>
+      </c>
+      <c r="H130">
+        <v>6.48</v>
+      </c>
+      <c r="K130">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A131" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131">
+        <v>0.42</v>
+      </c>
+      <c r="F131">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="5"/>
+        <v>-0.28499999999999998</v>
+      </c>
+      <c r="H131">
+        <v>6.22</v>
+      </c>
+      <c r="I131">
+        <f>AVERAGE(937,959,948)</f>
+        <v>948</v>
+      </c>
+      <c r="K131">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A132" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132">
+        <v>0.755</v>
+      </c>
+      <c r="F132" s="5"/>
+      <c r="G132">
+        <f t="shared" si="5"/>
+        <v>0.755</v>
+      </c>
+      <c r="H132">
+        <v>7.24</v>
+      </c>
+      <c r="I132">
+        <f>AVERAGE(740.5,797.3, 831)</f>
+        <v>789.6</v>
+      </c>
+      <c r="K132">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A133" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133">
+        <v>0.24</v>
+      </c>
+      <c r="F133" s="5"/>
+      <c r="G133">
+        <f t="shared" si="5"/>
+        <v>0.24</v>
+      </c>
+      <c r="H133">
+        <v>5.24</v>
+      </c>
+      <c r="I133">
+        <v>1342</v>
+      </c>
+      <c r="K133">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A134" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134">
+        <v>0.75</v>
+      </c>
+      <c r="H134">
+        <v>4.34</v>
+      </c>
+      <c r="I134">
+        <f>AVERAGE(2828,2617,2734)</f>
+        <v>2726.3333333333335</v>
+      </c>
+      <c r="K134">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A135" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H135">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="K135">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A136" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>7</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0.183</v>
+      </c>
+      <c r="H136">
+        <v>5.97</v>
+      </c>
+      <c r="I136">
+        <f>AVERAGE(572.7,570,549)</f>
+        <v>563.9</v>
+      </c>
+      <c r="K136">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A137" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137">
+        <v>0.08</v>
+      </c>
+      <c r="F137">
+        <v>0.5</v>
+      </c>
+      <c r="G137">
+        <f t="shared" ref="G137:G145" si="6">E137-F137</f>
+        <v>-0.42</v>
+      </c>
+      <c r="H137">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I137">
+        <f>AVERAGE(2584,2605,2558)</f>
+        <v>2582.3333333333335</v>
+      </c>
+      <c r="K137">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A138" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B138">
+        <v>6</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138">
+        <v>0.84</v>
+      </c>
+      <c r="F138">
+        <v>0.9</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="6"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="H138">
+        <v>4.42</v>
+      </c>
+      <c r="I138">
+        <f>AVERAGE(1359,1304,1317)</f>
+        <v>1326.6666666666667</v>
+      </c>
+      <c r="K138">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A139" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B139">
+        <v>6</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <f>1.5-0.815</f>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="6"/>
+        <v>-0.68500000000000005</v>
+      </c>
+      <c r="H139">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I139">
+        <f>AVERAGE(2273,2284,2224)</f>
+        <v>2260.3333333333335</v>
+      </c>
+      <c r="K139">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A140" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B140">
+        <v>6</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="F140">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="6"/>
+        <v>0.35400000000000004</v>
+      </c>
+      <c r="H140">
+        <v>4.84</v>
+      </c>
+      <c r="I140">
+        <f>AVERAGE(1749,1772,1799)</f>
+        <v>1773.3333333333333</v>
+      </c>
+      <c r="K140">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A141" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B141">
+        <v>6</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="6"/>
+        <v>-1.3199999999999998</v>
+      </c>
+      <c r="H141">
+        <v>4.92</v>
+      </c>
+      <c r="I141">
+        <f>AVERAGE(3721,3982,4086,3979)</f>
+        <v>3942</v>
+      </c>
+      <c r="K141">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A142" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B142">
+        <v>9</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142">
+        <v>0.245</v>
+      </c>
+      <c r="F142">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="6"/>
+        <v>-0.29300000000000004</v>
+      </c>
+      <c r="H142">
+        <v>3.89</v>
+      </c>
+      <c r="I142">
+        <f>AVERAGE(2060,2073,2041,2280)</f>
+        <v>2113.5</v>
+      </c>
+      <c r="K142">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A143" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B143">
+        <v>9</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="6"/>
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="H143">
+        <v>4.05</v>
+      </c>
+      <c r="I143">
+        <f>AVERAGE(2259,2255,2260)</f>
+        <v>2258</v>
+      </c>
+      <c r="K143">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A144" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B144">
+        <v>9</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144">
+        <v>-0.08</v>
+      </c>
+      <c r="F144">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="6"/>
+        <v>-0.64</v>
+      </c>
+      <c r="H144">
+        <v>3.98</v>
+      </c>
+      <c r="I144">
+        <f>AVERAGE(3300,3261,3241)</f>
+        <v>3267.3333333333335</v>
+      </c>
+      <c r="K144">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A145" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B145">
+        <v>9</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145" t="s">
+        <v>22</v>
+      </c>
+      <c r="E145">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="F145">
+        <v>1.18</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="6"/>
+        <v>-0.83499999999999996</v>
+      </c>
+      <c r="H145">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="I145">
+        <f>AVERAGE(2396,2381,2362)</f>
+        <v>2379.6666666666665</v>
+      </c>
+      <c r="K145">
+        <v>22.8</v>
       </c>
     </row>
   </sheetData>
@@ -7483,21 +8004,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DED55BC-E84B-4096-92BA-96DACA0090BF}">
-  <dimension ref="A1:H297"/>
+  <dimension ref="A1:J297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.31640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -7505,25 +8028,31 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -7537,21 +8066,21 @@
       <c r="D2">
         <v>1.85</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.2</v>
       </c>
-      <c r="F2">
-        <f>D2-E2</f>
+      <c r="H2">
+        <f>D2-F2</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>532.32979999999998</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>79.863910000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -7565,21 +8094,21 @@
       <c r="D3">
         <v>2.1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.42</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="1">D3-E3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="1">D3-F3</f>
         <v>1.6800000000000002</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>547.30619999999999</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>76.943730000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -7593,21 +8122,21 @@
       <c r="D4">
         <v>1.95</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.755</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <f t="shared" si="1"/>
         <v>1.1949999999999998</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>547.31349999999998</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>88.202100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -7621,21 +8150,21 @@
       <c r="D5">
         <v>2.25</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.24</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <f t="shared" si="1"/>
         <v>2.0099999999999998</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>577.80020000000002</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>76.922430000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -7649,21 +8178,21 @@
       <c r="D6">
         <v>1.34</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.75</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <f t="shared" si="1"/>
         <v>0.59000000000000008</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>623.08079999999995</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>92.059330000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7677,21 +8206,21 @@
       <c r="D7">
         <v>2.02</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>1.95</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>653.02340000000004</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>76.370699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7702,21 +8231,21 @@
         <f t="shared" si="0"/>
         <v>12.192</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>698.30179999999996</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>93.197450000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -7730,21 +8259,21 @@
       <c r="D9">
         <v>1.91</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.08</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <f t="shared" si="1"/>
         <v>1.8299999999999998</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>698.75670000000002</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>76.815430000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -7758,21 +8287,21 @@
       <c r="D10">
         <v>1.47</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.84</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>0.63</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>744.30139999999994</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>76.590829999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -7786,21 +8315,21 @@
       <c r="D11">
         <v>2.75</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>728.80870000000004</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>76.606219999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -7814,21 +8343,21 @@
       <c r="D12">
         <v>0.73</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.81</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <f t="shared" si="1"/>
         <v>-8.0000000000000071E-2</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>728.81809999999996</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>76.513019999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -7842,21 +8371,21 @@
       <c r="D13">
         <v>3.38</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>2.38</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>728.81179999999995</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>76.622630000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -7870,21 +8399,21 @@
       <c r="D14">
         <v>1.85</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.245</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <f t="shared" si="1"/>
         <v>1.605</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>759.42010000000005</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>66.857730000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -7898,21 +8427,21 @@
       <c r="D15">
         <v>2.1</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>744.24469999999997</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>67.045649999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -7926,21 +8455,21 @@
       <c r="D16">
         <v>1.95</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-0.08</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>2.0299999999999998</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>698.35050000000001</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>67.109120000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -7951,3377 +8480,3377 @@
       <c r="D17">
         <v>2.25</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.34499999999999997</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>1.905</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>667.92629999999997</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>66.502930000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>652.93119999999999</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>66.842190000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>653.20910000000003</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>66.69511</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>607.95830000000001</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>67.072839999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>607.56110000000001</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>66.492159999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>638.08180000000004</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>66.821780000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>638.25340000000006</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>66.970429999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>623.13530000000003</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>66.743210000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>607.76750000000004</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>66.741129999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>592.50710000000004</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>66.642009999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>577.47490000000005</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>66.604929999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>562.39620000000002</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>66.727909999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>562.76610000000005</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>66.755129999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F30">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>562.50009999999997</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>66.565960000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>562.36329999999998</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>66.708879999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>577.42870000000005</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>66.438630000000003</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>577.51340000000005</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>66.721999999999994</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F34">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>622.80349999999999</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>66.502319999999997</v>
       </c>
     </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F35">
+    <row r="35" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>698.44579999999996</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>66.603359999999995</v>
       </c>
     </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F36">
+    <row r="36" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>728.82050000000004</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>66.735640000000004</v>
       </c>
     </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F37">
+    <row r="37" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>744.46180000000004</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>67.009540000000001</v>
       </c>
     </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F38">
+    <row r="38" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>728.54539999999997</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>66.730959999999996</v>
       </c>
     </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F39">
+    <row r="39" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>728.59079999999994</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>66.700519999999997</v>
       </c>
     </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F40">
+    <row r="40" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>728.52480000000003</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>66.432400000000001</v>
       </c>
     </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F41">
+    <row r="41" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>744.04729999999995</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>66.440209999999993</v>
       </c>
     </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F42">
+    <row r="42" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>744.07650000000001</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>66.810680000000005</v>
       </c>
     </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F43">
+    <row r="43" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>759.36440000000005</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>66.765969999999996</v>
       </c>
     </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F44">
+    <row r="44" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>774.61670000000004</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>66.688059999999993</v>
       </c>
     </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F45">
+    <row r="45" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>774.67240000000004</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>66.708640000000003</v>
       </c>
     </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F46">
+    <row r="46" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>789.6807</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>66.707120000000003</v>
       </c>
     </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F47">
+    <row r="47" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>834.55520000000001</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>66.699510000000004</v>
       </c>
     </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F48">
+    <row r="48" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>834.96130000000005</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>67.011229999999998</v>
       </c>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F49">
+    <row r="49" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>850.197</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>66.578879999999998</v>
       </c>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F50">
+    <row r="50" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>865.02120000000002</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>66.439570000000003</v>
       </c>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F51">
+    <row r="51" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>865.25400000000002</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>66.421679999999995</v>
       </c>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F52">
+    <row r="52" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>880.46839999999997</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>66.699039999999997</v>
       </c>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F53">
+    <row r="53" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>895.39089999999999</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>66.41798</v>
       </c>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F54">
+    <row r="54" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>895.33799999999997</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>66.555769999999995</v>
       </c>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F55">
+    <row r="55" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>910.66690000000006</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>66.713909999999998</v>
       </c>
     </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F56">
+    <row r="56" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>925.98109999999997</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>66.679460000000006</v>
       </c>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F57">
+    <row r="57" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>940.77919999999995</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>66.716350000000006</v>
       </c>
     </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F58">
+    <row r="58" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>955.72770000000003</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>66.600700000000003</v>
       </c>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F59">
+    <row r="59" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>970.87699999999995</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>67.232489999999999</v>
       </c>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F60">
+    <row r="60" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>986.60170000000005</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>66.475719999999995</v>
       </c>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F61">
+    <row r="61" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>1001.513</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>69.48903</v>
       </c>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F62">
+    <row r="62" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>1016.558</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>66.661689999999993</v>
       </c>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F63">
+    <row r="63" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>1031.5419999999999</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>77.511840000000007</v>
       </c>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F64">
+    <row r="64" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>1047.2439999999999</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>66.713200000000001</v>
       </c>
     </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F65">
+    <row r="65" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>1061.7260000000001</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>80.544539999999998</v>
       </c>
     </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F66">
+    <row r="66" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>1077.3230000000001</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>66.882890000000003</v>
       </c>
     </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F67">
-        <f t="shared" ref="F67:F130" si="2">D67-E67</f>
-        <v>0</v>
-      </c>
-      <c r="G67">
+    <row r="67" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H67">
+        <f t="shared" ref="H67:H130" si="2">D67-F67</f>
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>1107.306</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>82.613020000000006</v>
       </c>
     </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F68">
+    <row r="68" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>1122.7550000000001</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>66.875720000000001</v>
       </c>
     </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F69">
+    <row r="69" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>1167.7729999999999</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>81.679119999999998</v>
       </c>
     </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F70">
+    <row r="70" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H70">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>1183.0219999999999</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>76.520039999999995</v>
       </c>
     </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F71">
+    <row r="71" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>1183.3119999999999</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>76.523030000000006</v>
       </c>
     </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F72">
+    <row r="72" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>1198.4190000000001</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>76.558539999999994</v>
       </c>
     </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F73">
+    <row r="73" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>1213.2</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>76.322270000000003</v>
       </c>
     </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F74">
+    <row r="74" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>1213.443</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>76.840400000000002</v>
       </c>
     </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F75">
+    <row r="75" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>1228.8979999999999</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>76.866280000000003</v>
       </c>
     </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F76">
+    <row r="76" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>1244.1220000000001</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>76.297600000000003</v>
       </c>
     </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F77">
+    <row r="77" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>1259.123</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>76.881839999999997</v>
       </c>
     </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F78">
+    <row r="78" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>1258.752</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>76.468999999999994</v>
       </c>
     </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F79">
+    <row r="79" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H79">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>1304.1369999999999</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>76.618129999999994</v>
       </c>
     </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F80">
+    <row r="80" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>1349.9849999999999</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>76.480620000000002</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F81">
+    <row r="81" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>1350.0229999999999</v>
       </c>
-      <c r="H81">
+      <c r="J81">
         <v>76.648570000000007</v>
       </c>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F82">
+    <row r="82" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G82">
+      <c r="I82">
         <v>1364.8150000000001</v>
       </c>
-      <c r="H82">
+      <c r="J82">
         <v>76.311499999999995</v>
       </c>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F83">
+    <row r="83" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G83">
+      <c r="I83">
         <v>1380.152</v>
       </c>
-      <c r="H83">
+      <c r="J83">
         <v>76.679150000000007</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F84">
+    <row r="84" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G84">
+      <c r="I84">
         <v>1380.086</v>
       </c>
-      <c r="H84">
+      <c r="J84">
         <v>76.621639999999999</v>
       </c>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F85">
+    <row r="85" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G85">
+      <c r="I85">
         <v>1379.7149999999999</v>
       </c>
-      <c r="H85">
+      <c r="J85">
         <v>76.371279999999999</v>
       </c>
     </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F86">
+    <row r="86" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G86">
+      <c r="I86">
         <v>1394.9970000000001</v>
       </c>
-      <c r="H86">
+      <c r="J86">
         <v>76.636949999999999</v>
       </c>
     </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F87">
+    <row r="87" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G87">
+      <c r="I87">
         <v>1410.3409999999999</v>
       </c>
-      <c r="H87">
+      <c r="J87">
         <v>76.882059999999996</v>
       </c>
     </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F88">
+    <row r="88" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G88">
+      <c r="I88">
         <v>1425.6030000000001</v>
       </c>
-      <c r="H88">
+      <c r="J88">
         <v>76.91395</v>
       </c>
     </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F89">
+    <row r="89" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H89">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G89">
+      <c r="I89">
         <v>1409.979</v>
       </c>
-      <c r="H89">
+      <c r="J89">
         <v>76.394909999999996</v>
       </c>
     </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F90">
+    <row r="90" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G90">
+      <c r="I90">
         <v>1410.248</v>
       </c>
-      <c r="H90">
+      <c r="J90">
         <v>76.664580000000001</v>
       </c>
     </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F91">
+    <row r="91" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H91">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G91">
+      <c r="I91">
         <v>1455.58</v>
       </c>
-      <c r="H91">
+      <c r="J91">
         <v>76.792010000000005</v>
       </c>
     </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F92">
+    <row r="92" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G92">
+      <c r="I92">
         <v>1486.2159999999999</v>
       </c>
-      <c r="H92">
+      <c r="J92">
         <v>86.622889999999998</v>
       </c>
     </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F93">
+    <row r="93" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G93">
+      <c r="I93">
         <v>1485.806</v>
       </c>
-      <c r="H93">
+      <c r="J93">
         <v>86.426929999999999</v>
       </c>
     </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F94">
+    <row r="94" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G94">
+      <c r="I94">
         <v>1516.0709999999999</v>
       </c>
-      <c r="H94">
+      <c r="J94">
         <v>86.291049999999998</v>
       </c>
     </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F95">
+    <row r="95" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G95">
+      <c r="I95">
         <v>1515.9280000000001</v>
       </c>
-      <c r="H95">
+      <c r="J95">
         <v>86.616039999999998</v>
       </c>
     </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F96">
+    <row r="96" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H96">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G96">
+      <c r="I96">
         <v>1516.348</v>
       </c>
-      <c r="H96">
+      <c r="J96">
         <v>86.725769999999997</v>
       </c>
     </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F97">
+    <row r="97" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H97">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G97">
+      <c r="I97">
         <v>1531.32</v>
       </c>
-      <c r="H97">
+      <c r="J97">
         <v>86.364840000000001</v>
       </c>
     </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F98">
+    <row r="98" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G98">
+      <c r="I98">
         <v>1531.4570000000001</v>
       </c>
-      <c r="H98">
+      <c r="J98">
         <v>86.454610000000002</v>
       </c>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F99">
+    <row r="99" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H99">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G99">
+      <c r="I99">
         <v>1531.6220000000001</v>
       </c>
-      <c r="H99">
+      <c r="J99">
         <v>86.403989999999993</v>
       </c>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F100">
+    <row r="100" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H100">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G100">
+      <c r="I100">
         <v>1531.232</v>
       </c>
-      <c r="H100">
+      <c r="J100">
         <v>86.471239999999995</v>
       </c>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F101">
+    <row r="101" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G101">
+      <c r="I101">
         <v>1531.4369999999999</v>
       </c>
-      <c r="H101">
+      <c r="J101">
         <v>86.733379999999997</v>
       </c>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F102">
+    <row r="102" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G102">
+      <c r="I102">
         <v>1531.0519999999999</v>
       </c>
-      <c r="H102">
+      <c r="J102">
         <v>86.402079999999998</v>
       </c>
     </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F103">
+    <row r="103" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G103">
+      <c r="I103">
         <v>1531.268</v>
       </c>
-      <c r="H103">
+      <c r="J103">
         <v>86.439710000000005</v>
       </c>
     </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F104">
+    <row r="104" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G104">
+      <c r="I104">
         <v>1546.579</v>
       </c>
-      <c r="H104">
+      <c r="J104">
         <v>86.730919999999998</v>
       </c>
     </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F105">
+    <row r="105" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H105">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G105">
+      <c r="I105">
         <v>1546.319</v>
       </c>
-      <c r="H105">
+      <c r="J105">
         <v>86.136409999999998</v>
       </c>
     </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F106">
+    <row r="106" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G106">
+      <c r="I106">
         <v>1576.8009999999999</v>
       </c>
-      <c r="H106">
+      <c r="J106">
         <v>86.486429999999999</v>
       </c>
     </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F107">
+    <row r="107" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G107">
+      <c r="I107">
         <v>1591.886</v>
       </c>
-      <c r="H107">
+      <c r="J107">
         <v>86.408940000000001</v>
       </c>
     </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F108">
+    <row r="108" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G108">
+      <c r="I108">
         <v>1607.3309999999999</v>
       </c>
-      <c r="H108">
+      <c r="J108">
         <v>86.266360000000006</v>
       </c>
     </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F109">
+    <row r="109" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H109">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G109">
+      <c r="I109">
         <v>1607.1669999999999</v>
       </c>
-      <c r="H109">
+      <c r="J109">
         <v>96.321259999999995</v>
       </c>
     </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F110">
+    <row r="110" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H110">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G110">
+      <c r="I110">
         <v>1622.027</v>
       </c>
-      <c r="H110">
+      <c r="J110">
         <v>95.994619999999998</v>
       </c>
     </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F111">
+    <row r="111" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G111">
+      <c r="I111">
         <v>1622.26</v>
       </c>
-      <c r="H111">
+      <c r="J111">
         <v>96.47484</v>
       </c>
     </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F112">
+    <row r="112" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H112">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G112">
+      <c r="I112">
         <v>1637.01</v>
       </c>
-      <c r="H112">
+      <c r="J112">
         <v>96.487459999999999</v>
       </c>
     </row>
-    <row r="113" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F113">
+    <row r="113" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G113">
+      <c r="I113">
         <v>1637.1120000000001</v>
       </c>
-      <c r="H113">
+      <c r="J113">
         <v>95.942539999999994</v>
       </c>
     </row>
-    <row r="114" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F114">
+    <row r="114" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G114">
+      <c r="I114">
         <v>1652.441</v>
       </c>
-      <c r="H114">
+      <c r="J114">
         <v>96.212249999999997</v>
       </c>
     </row>
-    <row r="115" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F115">
+    <row r="115" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G115">
+      <c r="I115">
         <v>1652.6880000000001</v>
       </c>
-      <c r="H115">
+      <c r="J115">
         <v>96.16</v>
       </c>
     </row>
-    <row r="116" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F116">
+    <row r="116" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H116">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G116">
+      <c r="I116">
         <v>1652.4690000000001</v>
       </c>
-      <c r="H116">
+      <c r="J116">
         <v>96.532060000000001</v>
       </c>
     </row>
-    <row r="117" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F117">
+    <row r="117" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G117">
+      <c r="I117">
         <v>1667.163</v>
       </c>
-      <c r="H117">
+      <c r="J117">
         <v>96.261859999999999</v>
       </c>
     </row>
-    <row r="118" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F118">
+    <row r="118" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G118">
+      <c r="I118">
         <v>1682.24</v>
       </c>
-      <c r="H118">
+      <c r="J118">
         <v>96.204570000000004</v>
       </c>
     </row>
-    <row r="119" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F119">
+    <row r="119" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H119">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G119">
+      <c r="I119">
         <v>1682.7049999999999</v>
       </c>
-      <c r="H119">
+      <c r="J119">
         <v>95.947130000000001</v>
       </c>
     </row>
-    <row r="120" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F120">
+    <row r="120" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G120">
+      <c r="I120">
         <v>1697.7449999999999</v>
       </c>
-      <c r="H120">
+      <c r="J120">
         <v>102.5564</v>
       </c>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F121">
+    <row r="121" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G121">
+      <c r="I121">
         <v>1697.4570000000001</v>
       </c>
-      <c r="H121">
+      <c r="J121">
         <v>96.26979</v>
       </c>
     </row>
-    <row r="122" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F122">
+    <row r="122" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G122">
+      <c r="I122">
         <v>1697.8979999999999</v>
       </c>
-      <c r="H122">
+      <c r="J122">
         <v>107.5222</v>
       </c>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F123">
+    <row r="123" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G123">
+      <c r="I123">
         <v>1713.067</v>
       </c>
-      <c r="H123">
+      <c r="J123">
         <v>96.174220000000005</v>
       </c>
     </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F124">
+    <row r="124" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H124">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G124">
+      <c r="I124">
         <v>1713.4069999999999</v>
       </c>
-      <c r="H124">
+      <c r="J124">
         <v>111.3181</v>
       </c>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F125">
+    <row r="125" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H125">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G125">
+      <c r="I125">
         <v>1713.269</v>
       </c>
-      <c r="H125">
+      <c r="J125">
         <v>96.214839999999995</v>
       </c>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F126">
+    <row r="126" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G126">
+      <c r="I126">
         <v>1742.9939999999999</v>
       </c>
-      <c r="H126">
+      <c r="J126">
         <v>122.13800000000001</v>
       </c>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F127">
+    <row r="127" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G127">
+      <c r="I127">
         <v>1773.7049999999999</v>
       </c>
-      <c r="H127">
+      <c r="J127">
         <v>105.7696</v>
       </c>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F128">
+    <row r="128" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H128">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G128">
+      <c r="I128">
         <v>1788.712</v>
       </c>
-      <c r="H128">
+      <c r="J128">
         <v>106.3018</v>
       </c>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F129">
+    <row r="129" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G129">
+      <c r="I129">
         <v>1803.973</v>
       </c>
-      <c r="H129">
+      <c r="J129">
         <v>106.0164</v>
       </c>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F130">
+    <row r="130" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H130">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G130">
+      <c r="I130">
         <v>1803.799</v>
       </c>
-      <c r="H130">
+      <c r="J130">
         <v>106.0008</v>
       </c>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F131">
-        <f t="shared" ref="F131:F194" si="3">D131-E131</f>
-        <v>0</v>
-      </c>
-      <c r="G131">
+    <row r="131" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H131">
+        <f t="shared" ref="H131:H194" si="3">D131-F131</f>
+        <v>0</v>
+      </c>
+      <c r="I131">
         <v>1788.7460000000001</v>
       </c>
-      <c r="H131">
+      <c r="J131">
         <v>106.2757</v>
       </c>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F132">
+    <row r="132" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G132">
+      <c r="I132">
         <v>1803.846</v>
       </c>
-      <c r="H132">
+      <c r="J132">
         <v>105.7705</v>
       </c>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F133">
+    <row r="133" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G133">
+      <c r="I133">
         <v>1788.356</v>
       </c>
-      <c r="H133">
+      <c r="J133">
         <v>106.0813</v>
       </c>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F134">
+    <row r="134" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G134">
+      <c r="I134">
         <v>1773.8130000000001</v>
       </c>
-      <c r="H134">
+      <c r="J134">
         <v>106.3004</v>
       </c>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F135">
+    <row r="135" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H135">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G135">
+      <c r="I135">
         <v>1773.46</v>
       </c>
-      <c r="H135">
+      <c r="J135">
         <v>105.8387</v>
       </c>
     </row>
-    <row r="136" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F136">
+    <row r="136" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G136">
+      <c r="I136">
         <v>1773.855</v>
       </c>
-      <c r="H136">
+      <c r="J136">
         <v>106.3312</v>
       </c>
     </row>
-    <row r="137" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F137">
+    <row r="137" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G137">
+      <c r="I137">
         <v>1758.252</v>
       </c>
-      <c r="H137">
+      <c r="J137">
         <v>105.94289999999999</v>
       </c>
     </row>
-    <row r="138" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F138">
+    <row r="138" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G138">
+      <c r="I138">
         <v>1758.42</v>
       </c>
-      <c r="H138">
+      <c r="J138">
         <v>105.88379999999999</v>
       </c>
     </row>
-    <row r="139" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F139">
+    <row r="139" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H139">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G139">
+      <c r="I139">
         <v>1743.6389999999999</v>
       </c>
-      <c r="H139">
+      <c r="J139">
         <v>105.9689</v>
       </c>
     </row>
-    <row r="140" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F140">
+    <row r="140" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H140">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G140">
+      <c r="I140">
         <v>1743.116</v>
       </c>
-      <c r="H140">
+      <c r="J140">
         <v>106.07550000000001</v>
       </c>
     </row>
-    <row r="141" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F141">
+    <row r="141" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H141">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G141">
+      <c r="I141">
         <v>1743.41</v>
       </c>
-      <c r="H141">
+      <c r="J141">
         <v>105.9944</v>
       </c>
     </row>
-    <row r="142" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F142">
+    <row r="142" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H142">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G142">
+      <c r="I142">
         <v>1758.229</v>
       </c>
-      <c r="H142">
+      <c r="J142">
         <v>105.9682</v>
       </c>
     </row>
-    <row r="143" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F143">
+    <row r="143" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H143">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G143">
+      <c r="I143">
         <v>1758.6110000000001</v>
       </c>
-      <c r="H143">
+      <c r="J143">
         <v>106.0844</v>
       </c>
     </row>
-    <row r="144" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F144">
+    <row r="144" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H144">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G144">
+      <c r="I144">
         <v>1758.502</v>
       </c>
-      <c r="H144">
+      <c r="J144">
         <v>106.253</v>
       </c>
     </row>
-    <row r="145" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F145">
+    <row r="145" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H145">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G145">
+      <c r="I145">
         <v>1758.336</v>
       </c>
-      <c r="H145">
+      <c r="J145">
         <v>105.9712</v>
       </c>
     </row>
-    <row r="146" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F146">
+    <row r="146" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H146">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G146">
+      <c r="I146">
         <v>1743.46</v>
       </c>
-      <c r="H146">
+      <c r="J146">
         <v>105.7208</v>
       </c>
     </row>
-    <row r="147" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F147">
+    <row r="147" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H147">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G147">
+      <c r="I147">
         <v>1743.7249999999999</v>
       </c>
-      <c r="H147">
+      <c r="J147">
         <v>106.00369999999999</v>
       </c>
     </row>
-    <row r="148" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F148">
+    <row r="148" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H148">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G148">
+      <c r="I148">
         <v>1743.2550000000001</v>
       </c>
-      <c r="H148">
+      <c r="J148">
         <v>105.74850000000001</v>
       </c>
     </row>
-    <row r="149" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F149">
+    <row r="149" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H149">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G149">
+      <c r="I149">
         <v>1743.2</v>
       </c>
-      <c r="H149">
+      <c r="J149">
         <v>105.6892</v>
       </c>
     </row>
-    <row r="150" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F150">
+    <row r="150" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H150">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G150">
+      <c r="I150">
         <v>1743.645</v>
       </c>
-      <c r="H150">
+      <c r="J150">
         <v>115.9367</v>
       </c>
     </row>
-    <row r="151" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F151">
+    <row r="151" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H151">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G151">
+      <c r="I151">
         <v>1743.6010000000001</v>
       </c>
-      <c r="H151">
+      <c r="J151">
         <v>115.7723</v>
       </c>
     </row>
-    <row r="152" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F152">
+    <row r="152" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H152">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G152">
+      <c r="I152">
         <v>1743.2650000000001</v>
       </c>
-      <c r="H152">
+      <c r="J152">
         <v>115.5065</v>
       </c>
     </row>
-    <row r="153" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F153">
+    <row r="153" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H153">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G153">
+      <c r="I153">
         <v>1743.1210000000001</v>
       </c>
-      <c r="H153">
+      <c r="J153">
         <v>116.05670000000001</v>
       </c>
     </row>
-    <row r="154" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F154">
+    <row r="154" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H154">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G154">
+      <c r="I154">
         <v>1743.5830000000001</v>
       </c>
-      <c r="H154">
+      <c r="J154">
         <v>115.9269</v>
       </c>
     </row>
-    <row r="155" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F155">
+    <row r="155" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G155">
+      <c r="I155">
         <v>1743.1949999999999</v>
       </c>
-      <c r="H155">
+      <c r="J155">
         <v>115.9965</v>
       </c>
     </row>
-    <row r="156" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F156">
+    <row r="156" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H156">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G156">
+      <c r="I156">
         <v>1758.404</v>
       </c>
-      <c r="H156">
+      <c r="J156">
         <v>115.4991</v>
       </c>
     </row>
-    <row r="157" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F157">
+    <row r="157" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H157">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G157">
+      <c r="I157">
         <v>1743.6780000000001</v>
       </c>
-      <c r="H157">
+      <c r="J157">
         <v>115.5228</v>
       </c>
     </row>
-    <row r="158" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F158">
+    <row r="158" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G158">
+      <c r="I158">
         <v>1743.75</v>
       </c>
-      <c r="H158">
+      <c r="J158">
         <v>115.83710000000001</v>
       </c>
     </row>
-    <row r="159" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F159">
+    <row r="159" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H159">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G159">
+      <c r="I159">
         <v>1743.4010000000001</v>
       </c>
-      <c r="H159">
+      <c r="J159">
         <v>115.67700000000001</v>
       </c>
     </row>
-    <row r="160" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F160">
+    <row r="160" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H160">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G160">
+      <c r="I160">
         <v>1758.3130000000001</v>
       </c>
-      <c r="H160">
+      <c r="J160">
         <v>115.5472</v>
       </c>
     </row>
-    <row r="161" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F161">
+    <row r="161" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H161">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G161">
+      <c r="I161">
         <v>1758.4659999999999</v>
       </c>
-      <c r="H161">
+      <c r="J161">
         <v>116.02809999999999</v>
       </c>
     </row>
-    <row r="162" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F162">
+    <row r="162" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G162">
+      <c r="I162">
         <v>1758.309</v>
       </c>
-      <c r="H162">
+      <c r="J162">
         <v>115.7191</v>
       </c>
     </row>
-    <row r="163" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F163">
+    <row r="163" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G163">
+      <c r="I163">
         <v>1758.383</v>
       </c>
-      <c r="H163">
+      <c r="J163">
         <v>115.8503</v>
       </c>
     </row>
-    <row r="164" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F164">
+    <row r="164" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H164">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G164">
+      <c r="I164">
         <v>1758.7819999999999</v>
       </c>
-      <c r="H164">
+      <c r="J164">
         <v>116.01349999999999</v>
       </c>
     </row>
-    <row r="165" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F165">
+    <row r="165" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H165">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G165">
+      <c r="I165">
         <v>1788.462</v>
       </c>
-      <c r="H165">
+      <c r="J165">
         <v>116.0718</v>
       </c>
     </row>
-    <row r="166" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F166">
+    <row r="166" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H166">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G166">
+      <c r="I166">
         <v>1804.0540000000001</v>
       </c>
-      <c r="H166">
+      <c r="J166">
         <v>115.88200000000001</v>
       </c>
     </row>
-    <row r="167" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F167">
+    <row r="167" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H167">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G167">
+      <c r="I167">
         <v>1804.001</v>
       </c>
-      <c r="H167">
+      <c r="J167">
         <v>115.82640000000001</v>
       </c>
     </row>
-    <row r="168" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F168">
+    <row r="168" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H168">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G168">
+      <c r="I168">
         <v>1818.5730000000001</v>
       </c>
-      <c r="H168">
+      <c r="J168">
         <v>116.0414</v>
       </c>
     </row>
-    <row r="169" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F169">
+    <row r="169" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H169">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G169">
+      <c r="I169">
         <v>1818.624</v>
       </c>
-      <c r="H169">
+      <c r="J169">
         <v>115.7786</v>
       </c>
     </row>
-    <row r="170" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F170">
+    <row r="170" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H170">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G170">
+      <c r="I170">
         <v>1818.7860000000001</v>
       </c>
-      <c r="H170">
+      <c r="J170">
         <v>115.92440000000001</v>
       </c>
     </row>
-    <row r="171" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F171">
+    <row r="171" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H171">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G171">
+      <c r="I171">
         <v>1834.075</v>
       </c>
-      <c r="H171">
+      <c r="J171">
         <v>116.0988</v>
       </c>
     </row>
-    <row r="172" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F172">
+    <row r="172" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H172">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G172">
+      <c r="I172">
         <v>1834.6020000000001</v>
       </c>
-      <c r="H172">
+      <c r="J172">
         <v>115.9281</v>
       </c>
     </row>
-    <row r="173" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F173">
+    <row r="173" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G173">
+      <c r="I173">
         <v>1834.0730000000001</v>
       </c>
-      <c r="H173">
+      <c r="J173">
         <v>115.8377</v>
       </c>
     </row>
-    <row r="174" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F174">
+    <row r="174" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H174">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G174">
+      <c r="I174">
         <v>1834.4480000000001</v>
       </c>
-      <c r="H174">
+      <c r="J174">
         <v>116.0936</v>
       </c>
     </row>
-    <row r="175" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F175">
+    <row r="175" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H175">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G175">
+      <c r="I175">
         <v>1834.4960000000001</v>
       </c>
-      <c r="H175">
+      <c r="J175">
         <v>115.8402</v>
       </c>
     </row>
-    <row r="176" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F176">
+    <row r="176" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H176">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G176">
+      <c r="I176">
         <v>1849.4380000000001</v>
       </c>
-      <c r="H176">
+      <c r="J176">
         <v>116.17019999999999</v>
       </c>
     </row>
-    <row r="177" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F177">
+    <row r="177" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H177">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G177">
+      <c r="I177">
         <v>1864.201</v>
       </c>
-      <c r="H177">
+      <c r="J177">
         <v>115.6253</v>
       </c>
     </row>
-    <row r="178" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F178">
+    <row r="178" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G178">
+      <c r="I178">
         <v>1864.7149999999999</v>
       </c>
-      <c r="H178">
+      <c r="J178">
         <v>116.0719</v>
       </c>
     </row>
-    <row r="179" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F179">
+    <row r="179" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H179">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G179">
+      <c r="I179">
         <v>1879.3689999999999</v>
       </c>
-      <c r="H179">
+      <c r="J179">
         <v>116.3058</v>
       </c>
     </row>
-    <row r="180" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F180">
+    <row r="180" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H180">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G180">
+      <c r="I180">
         <v>1894.5129999999999</v>
       </c>
-      <c r="H180">
+      <c r="J180">
         <v>115.8853</v>
       </c>
     </row>
-    <row r="181" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F181">
+    <row r="181" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H181">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G181">
+      <c r="I181">
         <v>1894.61</v>
       </c>
-      <c r="H181">
+      <c r="J181">
         <v>116.38339999999999</v>
       </c>
     </row>
-    <row r="182" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F182">
+    <row r="182" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G182">
+      <c r="I182">
         <v>1895.0039999999999</v>
       </c>
-      <c r="H182">
+      <c r="J182">
         <v>116.1009</v>
       </c>
     </row>
-    <row r="183" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F183">
+    <row r="183" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G183">
+      <c r="I183">
         <v>1909.9960000000001</v>
       </c>
-      <c r="H183">
+      <c r="J183">
         <v>126.40130000000001</v>
       </c>
     </row>
-    <row r="184" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F184">
+    <row r="184" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H184">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G184">
+      <c r="I184">
         <v>1909.953</v>
       </c>
-      <c r="H184">
+      <c r="J184">
         <v>115.6763</v>
       </c>
     </row>
-    <row r="185" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F185">
+    <row r="185" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H185">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G185">
+      <c r="I185">
         <v>1909.9480000000001</v>
       </c>
-      <c r="H185">
+      <c r="J185">
         <v>128.953</v>
       </c>
     </row>
-    <row r="186" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F186">
+    <row r="186" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H186">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G186">
+      <c r="I186">
         <v>1925.124</v>
       </c>
-      <c r="H186">
+      <c r="J186">
         <v>115.9194</v>
       </c>
     </row>
-    <row r="187" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F187">
+    <row r="187" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H187">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G187">
+      <c r="I187">
         <v>1924.905</v>
       </c>
-      <c r="H187">
+      <c r="J187">
         <v>131.6455</v>
       </c>
     </row>
-    <row r="188" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F188">
+    <row r="188" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H188">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G188">
+      <c r="I188">
         <v>1939.692</v>
       </c>
-      <c r="H188">
+      <c r="J188">
         <v>115.86109999999999</v>
       </c>
     </row>
-    <row r="189" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F189">
+    <row r="189" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H189">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G189">
+      <c r="I189">
         <v>1939.9169999999999</v>
       </c>
-      <c r="H189">
+      <c r="J189">
         <v>115.68819999999999</v>
       </c>
     </row>
-    <row r="190" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F190">
+    <row r="190" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H190">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G190">
+      <c r="I190">
         <v>1955.596</v>
       </c>
-      <c r="H190">
+      <c r="J190">
         <v>116.19329999999999</v>
       </c>
     </row>
-    <row r="191" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F191">
+    <row r="191" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H191">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G191">
+      <c r="I191">
         <v>1970.683</v>
       </c>
-      <c r="H191">
+      <c r="J191">
         <v>116.134</v>
       </c>
     </row>
-    <row r="192" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F192">
+    <row r="192" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H192">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G192">
+      <c r="I192">
         <v>1970.617</v>
       </c>
-      <c r="H192">
+      <c r="J192">
         <v>116.1763</v>
       </c>
     </row>
-    <row r="193" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F193">
+    <row r="193" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H193">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G193">
+      <c r="I193">
         <v>1970.1420000000001</v>
       </c>
-      <c r="H193">
+      <c r="J193">
         <v>116.0438</v>
       </c>
     </row>
-    <row r="194" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F194">
+    <row r="194" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H194">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G194">
+      <c r="I194">
         <v>1985.317</v>
       </c>
-      <c r="H194">
+      <c r="J194">
         <v>115.9259</v>
       </c>
     </row>
-    <row r="195" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F195">
-        <f t="shared" ref="F195:F258" si="4">D195-E195</f>
-        <v>0</v>
-      </c>
-      <c r="G195">
+    <row r="195" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H195">
+        <f t="shared" ref="H195:H258" si="4">D195-F195</f>
+        <v>0</v>
+      </c>
+      <c r="I195">
         <v>1985.1020000000001</v>
       </c>
-      <c r="H195">
+      <c r="J195">
         <v>116.0008</v>
       </c>
     </row>
-    <row r="196" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F196">
+    <row r="196" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H196">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G196">
+      <c r="I196">
         <v>2000.7739999999999</v>
       </c>
-      <c r="H196">
+      <c r="J196">
         <v>116.0121</v>
       </c>
     </row>
-    <row r="197" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F197">
+    <row r="197" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H197">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G197">
+      <c r="I197">
         <v>2000.3019999999999</v>
       </c>
-      <c r="H197">
+      <c r="J197">
         <v>115.7264</v>
       </c>
     </row>
-    <row r="198" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F198">
+    <row r="198" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H198">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G198">
+      <c r="I198">
         <v>2015.693</v>
       </c>
-      <c r="H198">
+      <c r="J198">
         <v>115.9374</v>
       </c>
     </row>
-    <row r="199" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F199">
+    <row r="199" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H199">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G199">
+      <c r="I199">
         <v>2030.57</v>
       </c>
-      <c r="H199">
+      <c r="J199">
         <v>115.91459999999999</v>
       </c>
     </row>
-    <row r="200" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F200">
+    <row r="200" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H200">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G200">
+      <c r="I200">
         <v>2046.1120000000001</v>
       </c>
-      <c r="H200">
+      <c r="J200">
         <v>115.63939999999999</v>
       </c>
     </row>
-    <row r="201" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F201">
+    <row r="201" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H201">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G201">
+      <c r="I201">
         <v>2076.0819999999999</v>
       </c>
-      <c r="H201">
+      <c r="J201">
         <v>116.1581</v>
       </c>
     </row>
-    <row r="202" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F202">
+    <row r="202" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H202">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G202">
+      <c r="I202">
         <v>2091.7159999999999</v>
       </c>
-      <c r="H202">
+      <c r="J202">
         <v>115.8416</v>
       </c>
     </row>
-    <row r="203" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F203">
+    <row r="203" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H203">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G203">
+      <c r="I203">
         <v>2106.19</v>
       </c>
-      <c r="H203">
+      <c r="J203">
         <v>115.8566</v>
       </c>
     </row>
-    <row r="204" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F204">
+    <row r="204" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H204">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G204">
+      <c r="I204">
         <v>2106.2840000000001</v>
       </c>
-      <c r="H204">
+      <c r="J204">
         <v>115.8509</v>
       </c>
     </row>
-    <row r="205" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F205">
+    <row r="205" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H205">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G205">
+      <c r="I205">
         <v>2121.7220000000002</v>
       </c>
-      <c r="H205">
+      <c r="J205">
         <v>115.8514</v>
       </c>
     </row>
-    <row r="206" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F206">
+    <row r="206" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G206">
+      <c r="I206">
         <v>2136.712</v>
       </c>
-      <c r="H206">
+      <c r="J206">
         <v>125.86709999999999</v>
       </c>
     </row>
-    <row r="207" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F207">
+    <row r="207" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H207">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G207">
+      <c r="I207">
         <v>2136.752</v>
       </c>
-      <c r="H207">
+      <c r="J207">
         <v>125.4483</v>
       </c>
     </row>
-    <row r="208" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F208">
+    <row r="208" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H208">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G208">
+      <c r="I208">
         <v>2136.913</v>
       </c>
-      <c r="H208">
+      <c r="J208">
         <v>125.4024</v>
       </c>
     </row>
-    <row r="209" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F209">
+    <row r="209" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H209">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G209">
+      <c r="I209">
         <v>2167.261</v>
       </c>
-      <c r="H209">
+      <c r="J209">
         <v>125.7238</v>
       </c>
     </row>
-    <row r="210" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F210">
+    <row r="210" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H210">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G210">
+      <c r="I210">
         <v>2181.7249999999999</v>
       </c>
-      <c r="H210">
+      <c r="J210">
         <v>125.682</v>
       </c>
     </row>
-    <row r="211" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F211">
+    <row r="211" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H211">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G211">
+      <c r="I211">
         <v>2182.0329999999999</v>
       </c>
-      <c r="H211">
+      <c r="J211">
         <v>125.6857</v>
       </c>
     </row>
-    <row r="212" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F212">
+    <row r="212" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H212">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G212">
+      <c r="I212">
         <v>2197.1640000000002</v>
       </c>
-      <c r="H212">
+      <c r="J212">
         <v>125.4738</v>
       </c>
     </row>
-    <row r="213" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F213">
+    <row r="213" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H213">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G213">
+      <c r="I213">
         <v>2212.6770000000001</v>
       </c>
-      <c r="H213">
+      <c r="J213">
         <v>125.9331</v>
       </c>
     </row>
-    <row r="214" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F214">
+    <row r="214" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H214">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G214">
+      <c r="I214">
         <v>2227.3980000000001</v>
       </c>
-      <c r="H214">
+      <c r="J214">
         <v>125.37139999999999</v>
       </c>
     </row>
-    <row r="215" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F215">
+    <row r="215" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H215">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G215">
+      <c r="I215">
         <v>2242.422</v>
       </c>
-      <c r="H215">
+      <c r="J215">
         <v>125.9153</v>
       </c>
     </row>
-    <row r="216" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F216">
+    <row r="216" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H216">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G216">
+      <c r="I216">
         <v>2257.8890000000001</v>
       </c>
-      <c r="H216">
+      <c r="J216">
         <v>125.6576</v>
       </c>
     </row>
-    <row r="217" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F217">
+    <row r="217" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H217">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G217">
+      <c r="I217">
         <v>2272.59</v>
       </c>
-      <c r="H217">
+      <c r="J217">
         <v>125.5729</v>
       </c>
     </row>
-    <row r="218" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F218">
+    <row r="218" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H218">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G218">
+      <c r="I218">
         <v>2288.2159999999999</v>
       </c>
-      <c r="H218">
+      <c r="J218">
         <v>125.9589</v>
       </c>
     </row>
-    <row r="219" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F219">
+    <row r="219" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H219">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G219">
+      <c r="I219">
         <v>2302.7950000000001</v>
       </c>
-      <c r="H219">
+      <c r="J219">
         <v>135.2037</v>
       </c>
     </row>
-    <row r="220" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F220">
+    <row r="220" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H220">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G220">
+      <c r="I220">
         <v>2318.6460000000002</v>
       </c>
-      <c r="H220">
+      <c r="J220">
         <v>135.52789999999999</v>
       </c>
     </row>
-    <row r="221" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F221">
+    <row r="221" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H221">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G221">
+      <c r="I221">
         <v>2333.2890000000002</v>
       </c>
-      <c r="H221">
+      <c r="J221">
         <v>135.4736</v>
       </c>
     </row>
-    <row r="222" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F222">
+    <row r="222" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H222">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G222">
+      <c r="I222">
         <v>2348.8989999999999</v>
       </c>
-      <c r="H222">
+      <c r="J222">
         <v>135.52209999999999</v>
       </c>
     </row>
-    <row r="223" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F223">
+    <row r="223" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H223">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G223">
+      <c r="I223">
         <v>2363.453</v>
       </c>
-      <c r="H223">
+      <c r="J223">
         <v>135.203</v>
       </c>
     </row>
-    <row r="224" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F224">
+    <row r="224" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H224">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G224">
+      <c r="I224">
         <v>2379.2429999999999</v>
       </c>
-      <c r="H224">
+      <c r="J224">
         <v>135.62870000000001</v>
       </c>
     </row>
-    <row r="225" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F225">
+    <row r="225" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H225">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G225">
+      <c r="I225">
         <v>2378.7959999999998</v>
       </c>
-      <c r="H225">
+      <c r="J225">
         <v>135.7516</v>
       </c>
     </row>
-    <row r="226" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F226">
+    <row r="226" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H226">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G226">
+      <c r="I226">
         <v>2379.1619999999998</v>
       </c>
-      <c r="H226">
+      <c r="J226">
         <v>135.196</v>
       </c>
     </row>
-    <row r="227" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F227">
+    <row r="227" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H227">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G227">
+      <c r="I227">
         <v>2363.471</v>
       </c>
-      <c r="H227">
+      <c r="J227">
         <v>135.72149999999999</v>
       </c>
     </row>
-    <row r="228" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F228">
+    <row r="228" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H228">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G228">
+      <c r="I228">
         <v>2318.3110000000001</v>
       </c>
-      <c r="H228">
+      <c r="J228">
         <v>135.15219999999999</v>
       </c>
     </row>
-    <row r="229" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F229">
+    <row r="229" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H229">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G229">
+      <c r="I229">
         <v>2303.3679999999999</v>
       </c>
-      <c r="H229">
+      <c r="J229">
         <v>135.52850000000001</v>
       </c>
     </row>
-    <row r="230" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F230">
+    <row r="230" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H230">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G230">
+      <c r="I230">
         <v>2303.4119999999998</v>
       </c>
-      <c r="H230">
+      <c r="J230">
         <v>135.50040000000001</v>
       </c>
     </row>
-    <row r="231" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F231">
+    <row r="231" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H231">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G231">
+      <c r="I231">
         <v>2272.797</v>
       </c>
-      <c r="H231">
+      <c r="J231">
         <v>135.14279999999999</v>
       </c>
     </row>
-    <row r="232" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F232">
+    <row r="232" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H232">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G232">
+      <c r="I232">
         <v>2257.855</v>
       </c>
-      <c r="H232">
+      <c r="J232">
         <v>135.7586</v>
       </c>
     </row>
-    <row r="233" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F233">
+    <row r="233" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H233">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G233">
+      <c r="I233">
         <v>2257.732</v>
       </c>
-      <c r="H233">
+      <c r="J233">
         <v>135.2062</v>
       </c>
     </row>
-    <row r="234" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F234">
+    <row r="234" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H234">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G234">
+      <c r="I234">
         <v>2243.0100000000002</v>
       </c>
-      <c r="H234">
+      <c r="J234">
         <v>135.19049999999999</v>
       </c>
     </row>
-    <row r="235" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F235">
+    <row r="235" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H235">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G235">
+      <c r="I235">
         <v>2227.8380000000002</v>
       </c>
-      <c r="H235">
+      <c r="J235">
         <v>135.5018</v>
       </c>
     </row>
-    <row r="236" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F236">
+    <row r="236" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H236">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G236">
+      <c r="I236">
         <v>2227.8609999999999</v>
       </c>
-      <c r="H236">
+      <c r="J236">
         <v>135.70230000000001</v>
       </c>
     </row>
-    <row r="237" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F237">
+    <row r="237" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H237">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G237">
+      <c r="I237">
         <v>2227.7280000000001</v>
       </c>
-      <c r="H237">
+      <c r="J237">
         <v>135.14320000000001</v>
       </c>
     </row>
-    <row r="238" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F238">
+    <row r="238" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H238">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G238">
+      <c r="I238">
         <v>2212.5929999999998</v>
       </c>
-      <c r="H238">
+      <c r="J238">
         <v>135.9186</v>
       </c>
     </row>
-    <row r="239" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F239">
+    <row r="239" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H239">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G239">
+      <c r="I239">
         <v>2212.4630000000002</v>
       </c>
-      <c r="H239">
+      <c r="J239">
         <v>135.1687</v>
       </c>
     </row>
-    <row r="240" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F240">
+    <row r="240" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H240">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G240">
+      <c r="I240">
         <v>2197.69</v>
       </c>
-      <c r="H240">
+      <c r="J240">
         <v>136.13910000000001</v>
       </c>
     </row>
-    <row r="241" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F241">
+    <row r="241" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H241">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G241">
+      <c r="I241">
         <v>2197.442</v>
       </c>
-      <c r="H241">
+      <c r="J241">
         <v>135.43340000000001</v>
       </c>
     </row>
-    <row r="242" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F242">
+    <row r="242" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H242">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G242">
+      <c r="I242">
         <v>2197.8220000000001</v>
       </c>
-      <c r="H242">
+      <c r="J242">
         <v>146.0427</v>
       </c>
     </row>
-    <row r="243" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F243">
+    <row r="243" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H243">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G243">
+      <c r="I243">
         <v>2181.6410000000001</v>
       </c>
-      <c r="H243">
+      <c r="J243">
         <v>135.41380000000001</v>
       </c>
     </row>
-    <row r="244" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F244">
+    <row r="244" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H244">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G244">
+      <c r="I244">
         <v>2181.77</v>
       </c>
-      <c r="H244">
+      <c r="J244">
         <v>148.27549999999999</v>
       </c>
     </row>
-    <row r="245" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F245">
+    <row r="245" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H245">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G245">
+      <c r="I245">
         <v>2182.2109999999998</v>
       </c>
-      <c r="H245">
+      <c r="J245">
         <v>135.7269</v>
       </c>
     </row>
-    <row r="246" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F246">
+    <row r="246" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H246">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G246">
+      <c r="I246">
         <v>2166.9209999999998</v>
       </c>
-      <c r="H246">
+      <c r="J246">
         <v>150.4016</v>
       </c>
     </row>
-    <row r="247" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F247">
+    <row r="247" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H247">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G247">
+      <c r="I247">
         <v>2167.4630000000002</v>
       </c>
-      <c r="H247">
+      <c r="J247">
         <v>135.68629999999999</v>
       </c>
     </row>
-    <row r="248" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F248">
+    <row r="248" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H248">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G248">
+      <c r="I248">
         <v>2166.9349999999999</v>
       </c>
-      <c r="H248">
+      <c r="J248">
         <v>149.3246</v>
       </c>
     </row>
-    <row r="249" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F249">
+    <row r="249" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H249">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G249">
+      <c r="I249">
         <v>2152.0659999999998</v>
       </c>
-      <c r="H249">
+      <c r="J249">
         <v>135.16829999999999</v>
       </c>
     </row>
-    <row r="250" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F250">
+    <row r="250" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H250">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G250">
+      <c r="I250">
         <v>2151.8969999999999</v>
       </c>
-      <c r="H250">
+      <c r="J250">
         <v>135.63730000000001</v>
       </c>
     </row>
-    <row r="251" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F251">
+    <row r="251" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H251">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G251">
+      <c r="I251">
         <v>2151.701</v>
       </c>
-      <c r="H251">
+      <c r="J251">
         <v>135.42089999999999</v>
       </c>
     </row>
-    <row r="252" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F252">
+    <row r="252" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H252">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G252">
+      <c r="I252">
         <v>2152.1179999999999</v>
       </c>
-      <c r="H252">
+      <c r="J252">
         <v>135.44110000000001</v>
       </c>
     </row>
-    <row r="253" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F253">
+    <row r="253" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H253">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G253">
+      <c r="I253">
         <v>2137.1120000000001</v>
       </c>
-      <c r="H253">
+      <c r="J253">
         <v>135.73140000000001</v>
       </c>
     </row>
-    <row r="254" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F254">
+    <row r="254" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H254">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G254">
+      <c r="I254">
         <v>2152.1480000000001</v>
       </c>
-      <c r="H254">
+      <c r="J254">
         <v>135.52979999999999</v>
       </c>
     </row>
-    <row r="255" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F255">
+    <row r="255" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H255">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G255">
+      <c r="I255">
         <v>2136.7139999999999</v>
       </c>
-      <c r="H255">
+      <c r="J255">
         <v>135.16589999999999</v>
       </c>
     </row>
-    <row r="256" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F256">
+    <row r="256" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H256">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G256">
+      <c r="I256">
         <v>2136.7220000000002</v>
       </c>
-      <c r="H256">
+      <c r="J256">
         <v>135.43109999999999</v>
       </c>
     </row>
-    <row r="257" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F257">
+    <row r="257" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H257">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G257">
+      <c r="I257">
         <v>2137.1190000000001</v>
       </c>
-      <c r="H257">
+      <c r="J257">
         <v>135.6944</v>
       </c>
     </row>
-    <row r="258" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F258">
+    <row r="258" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H258">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G258">
+      <c r="I258">
         <v>2137.2060000000001</v>
       </c>
-      <c r="H258">
+      <c r="J258">
         <v>135.5111</v>
       </c>
     </row>
-    <row r="259" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F259">
-        <f t="shared" ref="F259:F297" si="5">D259-E259</f>
-        <v>0</v>
-      </c>
-      <c r="G259">
+    <row r="259" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H259">
+        <f t="shared" ref="H259:H297" si="5">D259-F259</f>
+        <v>0</v>
+      </c>
+      <c r="I259">
         <v>2137.136</v>
       </c>
-      <c r="H259">
+      <c r="J259">
         <v>135.74529999999999</v>
       </c>
     </row>
-    <row r="260" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F260">
+    <row r="260" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H260">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G260">
+      <c r="I260">
         <v>2136.998</v>
       </c>
-      <c r="H260">
+      <c r="J260">
         <v>135.589</v>
       </c>
     </row>
-    <row r="261" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F261">
+    <row r="261" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H261">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G261">
+      <c r="I261">
         <v>2137.0430000000001</v>
       </c>
-      <c r="H261">
+      <c r="J261">
         <v>135.4787</v>
       </c>
     </row>
-    <row r="262" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F262">
+    <row r="262" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H262">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G262">
+      <c r="I262">
         <v>2136.9940000000001</v>
       </c>
-      <c r="H262">
+      <c r="J262">
         <v>135.501</v>
       </c>
     </row>
-    <row r="263" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F263">
+    <row r="263" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H263">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G263">
+      <c r="I263">
         <v>2151.7600000000002</v>
       </c>
-      <c r="H263">
+      <c r="J263">
         <v>135.68340000000001</v>
       </c>
     </row>
-    <row r="264" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F264">
+    <row r="264" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H264">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G264">
+      <c r="I264">
         <v>2136.674</v>
       </c>
-      <c r="H264">
+      <c r="J264">
         <v>135.40479999999999</v>
       </c>
     </row>
-    <row r="265" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F265">
+    <row r="265" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H265">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G265">
+      <c r="I265">
         <v>2151.973</v>
       </c>
-      <c r="H265">
+      <c r="J265">
         <v>135.34440000000001</v>
       </c>
     </row>
-    <row r="266" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F266">
+    <row r="266" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H266">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G266">
+      <c r="I266">
         <v>2151.9319999999998</v>
       </c>
-      <c r="H266">
+      <c r="J266">
         <v>135.4581</v>
       </c>
     </row>
-    <row r="267" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F267">
+    <row r="267" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H267">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G267">
+      <c r="I267">
         <v>2151.9209999999998</v>
       </c>
-      <c r="H267">
+      <c r="J267">
         <v>135.1977</v>
       </c>
     </row>
-    <row r="268" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F268">
+    <row r="268" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H268">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G268">
+      <c r="I268">
         <v>2151.9989999999998</v>
       </c>
-      <c r="H268">
+      <c r="J268">
         <v>135.34399999999999</v>
       </c>
     </row>
-    <row r="269" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F269">
+    <row r="269" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H269">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G269">
+      <c r="I269">
         <v>2166.6460000000002</v>
       </c>
-      <c r="H269">
+      <c r="J269">
         <v>135.76349999999999</v>
       </c>
     </row>
-    <row r="270" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F270">
+    <row r="270" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H270">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G270">
+      <c r="I270">
         <v>2152.134</v>
       </c>
-      <c r="H270">
+      <c r="J270">
         <v>135.49199999999999</v>
       </c>
     </row>
-    <row r="271" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F271">
+    <row r="271" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H271">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G271">
+      <c r="I271">
         <v>2167.125</v>
       </c>
-      <c r="H271">
+      <c r="J271">
         <v>135.47919999999999</v>
       </c>
     </row>
-    <row r="272" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F272">
+    <row r="272" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H272">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G272">
+      <c r="I272">
         <v>2166.8739999999998</v>
       </c>
-      <c r="H272">
+      <c r="J272">
         <v>135.7834</v>
       </c>
     </row>
-    <row r="273" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F273">
+    <row r="273" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H273">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G273">
+      <c r="I273">
         <v>2182.17</v>
       </c>
-      <c r="H273">
+      <c r="J273">
         <v>135.50450000000001</v>
       </c>
     </row>
-    <row r="274" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F274">
+    <row r="274" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H274">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G274">
+      <c r="I274">
         <v>2182.067</v>
       </c>
-      <c r="H274">
+      <c r="J274">
         <v>135.22200000000001</v>
       </c>
     </row>
-    <row r="275" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F275">
+    <row r="275" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H275">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G275">
+      <c r="I275">
         <v>2197.5309999999999</v>
       </c>
-      <c r="H275">
+      <c r="J275">
         <v>135.49209999999999</v>
       </c>
     </row>
-    <row r="276" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F276">
+    <row r="276" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H276">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G276">
+      <c r="I276">
         <v>2197.299</v>
       </c>
-      <c r="H276">
+      <c r="J276">
         <v>135.19800000000001</v>
       </c>
     </row>
-    <row r="277" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F277">
+    <row r="277" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H277">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G277">
+      <c r="I277">
         <v>2212.5549999999998</v>
       </c>
-      <c r="H277">
+      <c r="J277">
         <v>135.47669999999999</v>
       </c>
     </row>
-    <row r="278" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F278">
+    <row r="278" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H278">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G278">
+      <c r="I278">
         <v>2227.5909999999999</v>
       </c>
-      <c r="H278">
+      <c r="J278">
         <v>135.24359999999999</v>
       </c>
     </row>
-    <row r="279" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F279">
+    <row r="279" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H279">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G279">
+      <c r="I279">
         <v>2242.674</v>
       </c>
-      <c r="H279">
+      <c r="J279">
         <v>135.78200000000001</v>
       </c>
     </row>
-    <row r="280" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F280">
+    <row r="280" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H280">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G280">
+      <c r="I280">
         <v>2242.6320000000001</v>
       </c>
-      <c r="H280">
+      <c r="J280">
         <v>135.61869999999999</v>
       </c>
     </row>
-    <row r="281" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F281">
+    <row r="281" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H281">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G281">
+      <c r="I281">
         <v>2257.8119999999999</v>
       </c>
-      <c r="H281">
+      <c r="J281">
         <v>135.5112</v>
       </c>
     </row>
-    <row r="282" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F282">
+    <row r="282" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H282">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G282">
+      <c r="I282">
         <v>2257.9879999999998</v>
       </c>
-      <c r="H282">
+      <c r="J282">
         <v>135.25960000000001</v>
       </c>
     </row>
-    <row r="283" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F283">
+    <row r="283" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H283">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G283">
+      <c r="I283">
         <v>2273.31</v>
       </c>
-      <c r="H283">
+      <c r="J283">
         <v>135.57429999999999</v>
       </c>
     </row>
-    <row r="284" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F284">
+    <row r="284" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H284">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G284">
+      <c r="I284">
         <v>2272.7620000000002</v>
       </c>
-      <c r="H284">
+      <c r="J284">
         <v>135.48140000000001</v>
       </c>
     </row>
-    <row r="285" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F285">
+    <row r="285" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H285">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G285">
+      <c r="I285">
         <v>2272.7910000000002</v>
       </c>
-      <c r="H285">
+      <c r="J285">
         <v>135.24860000000001</v>
       </c>
     </row>
-    <row r="286" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F286">
+    <row r="286" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H286">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G286">
+      <c r="I286">
         <v>2303.0889999999999</v>
       </c>
-      <c r="H286">
+      <c r="J286">
         <v>135.2543</v>
       </c>
     </row>
-    <row r="287" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F287">
+    <row r="287" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H287">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G287">
+      <c r="I287">
         <v>2318.8209999999999</v>
       </c>
-      <c r="H287">
+      <c r="J287">
         <v>135.78460000000001</v>
       </c>
     </row>
-    <row r="288" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F288">
+    <row r="288" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H288">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G288">
+      <c r="I288">
         <v>2334.0030000000002</v>
       </c>
-      <c r="H288">
+      <c r="J288">
         <v>135.56190000000001</v>
       </c>
     </row>
-    <row r="289" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F289">
+    <row r="289" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H289">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G289">
+      <c r="I289">
         <v>2348.922</v>
       </c>
-      <c r="H289">
+      <c r="J289">
         <v>135.61609999999999</v>
       </c>
     </row>
-    <row r="290" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F290">
+    <row r="290" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H290">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G290">
+      <c r="I290">
         <v>2348.8249999999998</v>
       </c>
-      <c r="H290">
+      <c r="J290">
         <v>135.52010000000001</v>
       </c>
     </row>
-    <row r="291" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F291">
+    <row r="291" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H291">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G291">
+      <c r="I291">
         <v>2348.7159999999999</v>
       </c>
-      <c r="H291">
+      <c r="J291">
         <v>135.76300000000001</v>
       </c>
     </row>
-    <row r="292" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F292">
+    <row r="292" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H292">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G292">
+      <c r="I292">
         <v>2363.6129999999998</v>
       </c>
-      <c r="H292">
+      <c r="J292">
         <v>135.53290000000001</v>
       </c>
     </row>
-    <row r="293" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F293">
+    <row r="293" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H293">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G293">
+      <c r="I293">
         <v>2378.8510000000001</v>
       </c>
-      <c r="H293">
+      <c r="J293">
         <v>135.28210000000001</v>
       </c>
     </row>
-    <row r="294" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F294">
+    <row r="294" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H294">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G294">
+      <c r="I294">
         <v>2379.19</v>
       </c>
-      <c r="H294">
+      <c r="J294">
         <v>135.48609999999999</v>
       </c>
     </row>
-    <row r="295" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F295">
+    <row r="295" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H295">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G295">
+      <c r="I295">
         <v>2394.2730000000001</v>
       </c>
-      <c r="H295">
+      <c r="J295">
         <v>135.55950000000001</v>
       </c>
     </row>
-    <row r="296" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F296">
+    <row r="296" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H296">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G296">
+      <c r="I296">
         <v>2393.9299999999998</v>
       </c>
-      <c r="H296">
+      <c r="J296">
         <v>135.2533</v>
       </c>
     </row>
-    <row r="297" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F297">
+    <row r="297" spans="8:10" x14ac:dyDescent="0.75">
+      <c r="H297">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G297">
+      <c r="I297">
         <v>2394.2550000000001</v>
       </c>
-      <c r="H297">
+      <c r="J297">
         <v>135.85169999999999</v>
       </c>
     </row>
@@ -11341,14 +11870,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100205AA101E2883C419D53A6EAA58BE6E4" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0732453c88b6c24a50b901808cd2a95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0ed78115-f4df-42b0-9376-ad3306022cc8" xmlns:ns4="94b7f148-c09a-42e6-baca-973a9a7cd962" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c3ce456d5e9a668ce7bebc57d13ab49" ns3:_="" ns4:_="">
     <xsd:import namespace="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
@@ -11601,6 +12122,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
   <ds:schemaRefs>
@@ -11610,23 +12139,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="94b7f148-c09a-42e6-baca-973a9a7cd962"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88B5DFD5-AF32-4053-8117-B9F97580063E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11643,4 +12155,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="94b7f148-c09a-42e6-baca-973a9a7cd962"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C55D803-6040-4900-BF10-9B88E0A9FB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435A66C9-1E26-4E9F-8BB3-E7D1C03548D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10155" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -126,9 +126,6 @@
     <t>CO2_mv</t>
   </si>
   <si>
-    <t>WT to Well (m)</t>
-  </si>
-  <si>
     <t>Wtdepth (m)</t>
   </si>
   <si>
@@ -145,6 +142,15 @@
   </si>
   <si>
     <t>surface_height (long)</t>
+  </si>
+  <si>
+    <t>5GW8</t>
+  </si>
+  <si>
+    <t>9GW5</t>
+  </si>
+  <si>
+    <t>WT to Well Top (m)</t>
   </si>
 </sst>
 </file>
@@ -634,7 +640,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -642,7 +648,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3703,17 +3708,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E7760-F87C-4D84-A63F-D473D279D553}">
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F136" sqref="F136"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K165" sqref="K165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="9.40625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.31640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
@@ -3736,10 +3741,10 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -7563,7 +7568,6 @@
       <c r="E132">
         <v>0.755</v>
       </c>
-      <c r="F132" s="5"/>
       <c r="G132">
         <f t="shared" si="5"/>
         <v>0.755</v>
@@ -7595,7 +7599,6 @@
       <c r="E133">
         <v>0.24</v>
       </c>
-      <c r="F133" s="5"/>
       <c r="G133">
         <f t="shared" si="5"/>
         <v>0.24</v>
@@ -7710,7 +7713,7 @@
         <v>0.5</v>
       </c>
       <c r="G137">
-        <f t="shared" ref="G137:G145" si="6">E137-F137</f>
+        <f t="shared" ref="G137:G163" si="6">E137-F137</f>
         <v>-0.42</v>
       </c>
       <c r="H137">
@@ -7995,6 +7998,546 @@
       </c>
       <c r="K145">
         <v>22.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A146" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146">
+        <v>0.04</v>
+      </c>
+      <c r="F146">
+        <v>1.05</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="6"/>
+        <v>-1.01</v>
+      </c>
+      <c r="H146">
+        <v>6.64</v>
+      </c>
+      <c r="K146">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A147" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147">
+        <v>0.39</v>
+      </c>
+      <c r="F147">
+        <v>0.64</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="6"/>
+        <v>-0.25</v>
+      </c>
+      <c r="H147">
+        <v>6.36</v>
+      </c>
+      <c r="K147">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A148" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148">
+        <v>0.6</v>
+      </c>
+      <c r="F148">
+        <v>1.08</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="6"/>
+        <v>-0.48000000000000009</v>
+      </c>
+      <c r="H148">
+        <v>6.78</v>
+      </c>
+      <c r="K148">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A149" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149">
+        <v>0.24</v>
+      </c>
+      <c r="F149">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="6"/>
+        <v>-0.8600000000000001</v>
+      </c>
+      <c r="H149">
+        <v>5.13</v>
+      </c>
+      <c r="K149">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A150" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150">
+        <v>0.11</v>
+      </c>
+      <c r="F150">
+        <v>0.35</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="6"/>
+        <v>-0.24</v>
+      </c>
+      <c r="H150">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="K150">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A151" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151">
+        <v>0.74</v>
+      </c>
+      <c r="F151">
+        <v>1.63</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="6"/>
+        <v>-0.8899999999999999</v>
+      </c>
+      <c r="H151">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="K151">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A152" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B152">
+        <v>5</v>
+      </c>
+      <c r="C152">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152">
+        <v>1.73</v>
+      </c>
+      <c r="F152">
+        <v>1.94</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="6"/>
+        <v>-0.20999999999999996</v>
+      </c>
+      <c r="H152">
+        <v>5.76</v>
+      </c>
+      <c r="K152">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A153" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B153">
+        <v>5</v>
+      </c>
+      <c r="C153">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153">
+        <v>0.81</v>
+      </c>
+      <c r="F153">
+        <v>1.36</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="6"/>
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="H153">
+        <v>5.89</v>
+      </c>
+      <c r="K153">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A154" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B154">
+        <v>6</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154">
+        <v>0.15</v>
+      </c>
+      <c r="F154">
+        <v>1.19</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="6"/>
+        <v>-1.04</v>
+      </c>
+      <c r="H154">
+        <v>4.13</v>
+      </c>
+      <c r="K154">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A155" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B155">
+        <v>6</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155">
+        <v>0.8</v>
+      </c>
+      <c r="F155">
+        <v>1.6</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="6"/>
+        <v>-0.8</v>
+      </c>
+      <c r="H155">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="K155">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A156" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B156">
+        <v>6</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156">
+        <v>0.02</v>
+      </c>
+      <c r="F156">
+        <v>1.05</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="6"/>
+        <v>-1.03</v>
+      </c>
+      <c r="H156">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="K156">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A157" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="C157">
+        <v>4</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F157">
+        <v>0.66</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="6"/>
+        <v>-0.46</v>
+      </c>
+      <c r="H157">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="K157">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A158" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B158">
+        <v>6</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+      <c r="D158" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>3.08</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="6"/>
+        <v>-2.08</v>
+      </c>
+      <c r="H158">
+        <v>4.51</v>
+      </c>
+      <c r="K158">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A159" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B159">
+        <v>9</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159">
+        <v>0.23</v>
+      </c>
+      <c r="F159">
+        <v>0.61</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="6"/>
+        <v>-0.38</v>
+      </c>
+      <c r="H159">
+        <v>4.45</v>
+      </c>
+      <c r="K159">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A160" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B160">
+        <v>9</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0.65</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="6"/>
+        <v>-0.65</v>
+      </c>
+      <c r="H160">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K160">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A161" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B161">
+        <v>9</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161" t="s">
+        <v>21</v>
+      </c>
+      <c r="E161">
+        <v>0.68</v>
+      </c>
+      <c r="F161">
+        <v>1.46</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="6"/>
+        <v>-0.77999999999999992</v>
+      </c>
+      <c r="H161">
+        <v>3.71</v>
+      </c>
+      <c r="K161">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A162" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B162">
+        <v>9</v>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162">
+        <v>0.4</v>
+      </c>
+      <c r="F162">
+        <v>1.36</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="6"/>
+        <v>-0.96000000000000008</v>
+      </c>
+      <c r="H162">
+        <v>4.04</v>
+      </c>
+      <c r="K162">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A163" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B163">
+        <v>9</v>
+      </c>
+      <c r="C163">
+        <v>5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>37</v>
+      </c>
+      <c r="E163">
+        <v>0.69</v>
+      </c>
+      <c r="F163">
+        <v>1.99</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="6"/>
+        <v>-1.3</v>
+      </c>
+      <c r="H163">
+        <v>4.41</v>
+      </c>
+      <c r="K163">
+        <v>19.2</v>
       </c>
     </row>
   </sheetData>
@@ -8031,19 +8574,19 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>24</v>
@@ -11870,6 +12413,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100205AA101E2883C419D53A6EAA58BE6E4" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0732453c88b6c24a50b901808cd2a95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0ed78115-f4df-42b0-9376-ad3306022cc8" xmlns:ns4="94b7f148-c09a-42e6-baca-973a9a7cd962" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c3ce456d5e9a668ce7bebc57d13ab49" ns3:_="" ns4:_="">
     <xsd:import namespace="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
@@ -12122,14 +12673,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
   <ds:schemaRefs>
@@ -12139,6 +12682,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="94b7f148-c09a-42e6-baca-973a9a7cd962"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88B5DFD5-AF32-4053-8117-B9F97580063E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12155,21 +12715,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="94b7f148-c09a-42e6-baca-973a9a7cd962"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435A66C9-1E26-4E9F-8BB3-E7D1C03548D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0711D6A-DDC6-40FA-B225-2DCAF2780976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10155" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="-28920" yWindow="3405" windowWidth="29040" windowHeight="15720" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -3708,20 +3708,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E7760-F87C-4D84-A63F-D473D279D553}">
-  <dimension ref="A1:K163"/>
+  <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K165" sqref="K165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R174" sqref="R174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="9.40625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.31640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.75">
@@ -3747,16 +3747,16 @@
         <v>30</v>
       </c>
       <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
@@ -3780,10 +3780,10 @@
         <v>-1.34</v>
       </c>
       <c r="H2">
+        <v>26</v>
+      </c>
+      <c r="I2">
         <v>5.41</v>
-      </c>
-      <c r="K2">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.75">
@@ -3807,10 +3807,10 @@
         <v>-1.05</v>
       </c>
       <c r="H3">
+        <v>26</v>
+      </c>
+      <c r="I3">
         <v>5.8</v>
-      </c>
-      <c r="K3">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.75">
@@ -3834,10 +3834,10 @@
         <v>-0.495</v>
       </c>
       <c r="H4">
+        <v>26</v>
+      </c>
+      <c r="I4">
         <v>6.1</v>
-      </c>
-      <c r="K4">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.75">
@@ -3861,10 +3861,10 @@
         <v>-1.39</v>
       </c>
       <c r="H5">
+        <v>26</v>
+      </c>
+      <c r="I5">
         <v>6.67</v>
-      </c>
-      <c r="K5">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.75">
@@ -3888,10 +3888,10 @@
         <v>-0.10999999999999999</v>
       </c>
       <c r="H6">
+        <v>26</v>
+      </c>
+      <c r="I6">
         <v>6.2</v>
-      </c>
-      <c r="K6">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.75">
@@ -3914,11 +3914,11 @@
         <f>Sheet1!F7-'RC log'!F7</f>
         <v>-1.26</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
         <v>12</v>
-      </c>
-      <c r="K7">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.75">
@@ -3941,11 +3941,11 @@
         <f>Sheet1!F8-'RC log'!F8</f>
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
         <v>12</v>
-      </c>
-      <c r="K8">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.75">
@@ -3969,10 +3969,10 @@
         <v>-1.0499999999999998</v>
       </c>
       <c r="H9">
+        <v>26</v>
+      </c>
+      <c r="I9">
         <v>4.76</v>
-      </c>
-      <c r="K9">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.75">
@@ -3996,10 +3996,10 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="H10">
+        <v>26</v>
+      </c>
+      <c r="I10">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="K10">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.75">
@@ -4023,10 +4023,10 @@
         <v>-1.42</v>
       </c>
       <c r="H11">
+        <v>26</v>
+      </c>
+      <c r="I11">
         <v>5.0999999999999996</v>
-      </c>
-      <c r="K11">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.75">
@@ -4050,10 +4050,10 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="H12">
+        <v>26</v>
+      </c>
+      <c r="I12">
         <v>4.7</v>
-      </c>
-      <c r="K12">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.75">
@@ -4076,7 +4076,7 @@
         <f>Sheet1!F13-'RC log'!F13</f>
         <v>-1.17</v>
       </c>
-      <c r="K13">
+      <c r="H13">
         <v>26</v>
       </c>
     </row>
@@ -4101,10 +4101,10 @@
         <v>-0.30500000000000005</v>
       </c>
       <c r="H14">
+        <v>26</v>
+      </c>
+      <c r="I14">
         <v>4.7699999999999996</v>
-      </c>
-      <c r="K14">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.75">
@@ -4128,10 +4128,10 @@
         <v>-0.83</v>
       </c>
       <c r="H15">
+        <v>26</v>
+      </c>
+      <c r="I15">
         <v>4.72</v>
-      </c>
-      <c r="K15">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.75">
@@ -4155,13 +4155,13 @@
         <v>-1.4100000000000001</v>
       </c>
       <c r="H16">
+        <v>26</v>
+      </c>
+      <c r="I16">
         <v>4.84</v>
       </c>
-      <c r="K16">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>45400</v>
       </c>
@@ -4182,13 +4182,13 @@
         <v>-0.81499999999999995</v>
       </c>
       <c r="H17">
+        <v>26</v>
+      </c>
+      <c r="I17">
         <v>5.1870000000000003</v>
       </c>
-      <c r="K17">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A18" s="1">
         <v>45420</v>
       </c>
@@ -4211,14 +4211,14 @@
         <f>Sheet1!F18-'RC log'!F18</f>
         <v>-1.03</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s">
         <v>12</v>
       </c>
-      <c r="K18">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>45420</v>
       </c>
@@ -4242,13 +4242,13 @@
         <v>-0.28999999999999998</v>
       </c>
       <c r="H19">
+        <v>26</v>
+      </c>
+      <c r="I19">
         <v>5.36</v>
       </c>
-      <c r="K19">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A20" s="1">
         <v>45420</v>
       </c>
@@ -4272,13 +4272,13 @@
         <v>0.28500000000000003</v>
       </c>
       <c r="H20">
+        <v>26</v>
+      </c>
+      <c r="I20">
         <v>5.024</v>
       </c>
-      <c r="K20">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A21" s="1">
         <v>45420</v>
       </c>
@@ -4302,13 +4302,13 @@
         <v>-0.82000000000000006</v>
       </c>
       <c r="H21">
+        <v>26</v>
+      </c>
+      <c r="I21">
         <v>6.36</v>
       </c>
-      <c r="K21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A22" s="1">
         <v>45420</v>
       </c>
@@ -4332,13 +4332,13 @@
         <v>0.34</v>
       </c>
       <c r="H22">
+        <v>26</v>
+      </c>
+      <c r="I22">
         <v>4.7</v>
       </c>
-      <c r="K22">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A23" s="1">
         <v>45420</v>
       </c>
@@ -4362,13 +4362,13 @@
         <v>-0.94</v>
       </c>
       <c r="H23">
+        <v>26</v>
+      </c>
+      <c r="I23">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K23">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A24" s="1">
         <v>45420</v>
       </c>
@@ -4391,14 +4391,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s">
         <v>12</v>
       </c>
-      <c r="K24">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A25" s="1">
         <v>45420</v>
       </c>
@@ -4421,14 +4421,14 @@
         <f t="shared" si="0"/>
         <v>-0.55000000000000004</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s">
         <v>12</v>
       </c>
-      <c r="K25">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A26" s="1">
         <v>45420</v>
       </c>
@@ -4452,13 +4452,13 @@
         <v>0.35</v>
       </c>
       <c r="H26">
+        <v>26</v>
+      </c>
+      <c r="I26">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A27" s="1">
         <v>45420</v>
       </c>
@@ -4481,14 +4481,14 @@
         <f t="shared" si="0"/>
         <v>-1.07</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s">
         <v>12</v>
       </c>
-      <c r="K27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A28" s="1">
         <v>45420</v>
       </c>
@@ -4511,14 +4511,14 @@
         <f t="shared" si="0"/>
         <v>0.12000000000000011</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s">
         <v>12</v>
       </c>
-      <c r="K28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A29" s="1">
         <v>45420</v>
       </c>
@@ -4542,13 +4542,13 @@
         <v>-0.8899999999999999</v>
       </c>
       <c r="H29">
+        <v>26</v>
+      </c>
+      <c r="I29">
         <v>5.8</v>
       </c>
-      <c r="K29">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A30" s="1">
         <v>45420</v>
       </c>
@@ -4572,13 +4572,13 @@
         <v>-0.40500000000000003</v>
       </c>
       <c r="H30">
+        <v>26</v>
+      </c>
+      <c r="I30">
         <v>5</v>
       </c>
-      <c r="K30">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A31" s="1">
         <v>45420</v>
       </c>
@@ -4602,13 +4602,13 @@
         <v>-0.93</v>
       </c>
       <c r="H31">
+        <v>26</v>
+      </c>
+      <c r="I31">
         <v>4.7699999999999996</v>
       </c>
-      <c r="K31">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A32" s="1">
         <v>45420</v>
       </c>
@@ -4632,13 +4632,13 @@
         <v>-0.76999999999999991</v>
       </c>
       <c r="H32">
+        <v>26</v>
+      </c>
+      <c r="I32">
         <v>4.42</v>
       </c>
-      <c r="K32">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A33" s="1">
         <v>45420</v>
       </c>
@@ -4662,13 +4662,13 @@
         <v>-0.99500000000000011</v>
       </c>
       <c r="H33">
+        <v>26</v>
+      </c>
+      <c r="I33">
         <v>4.74</v>
       </c>
-      <c r="K33">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A34" s="1">
         <v>45442</v>
       </c>
@@ -4691,14 +4691,14 @@
         <f t="shared" si="0"/>
         <v>-0.83000000000000007</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34">
+        <v>26</v>
+      </c>
+      <c r="I34" t="s">
         <v>12</v>
       </c>
-      <c r="K34">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A35" s="1">
         <v>45442</v>
       </c>
@@ -4722,13 +4722,13 @@
         <v>-0.35000000000000003</v>
       </c>
       <c r="H35">
+        <v>26</v>
+      </c>
+      <c r="I35">
         <v>6.4</v>
       </c>
-      <c r="K35">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A36" s="1">
         <v>45442</v>
       </c>
@@ -4752,13 +4752,13 @@
         <v>0.22499999999999998</v>
       </c>
       <c r="H36">
+        <v>26</v>
+      </c>
+      <c r="I36">
         <v>6.8</v>
       </c>
-      <c r="K36">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A37" s="1">
         <v>45442</v>
       </c>
@@ -4782,13 +4782,13 @@
         <v>-0.8600000000000001</v>
       </c>
       <c r="H37">
+        <v>26</v>
+      </c>
+      <c r="I37">
         <v>6.35</v>
       </c>
-      <c r="K37">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A38" s="1">
         <v>45442</v>
       </c>
@@ -4812,13 +4812,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="H38">
+        <v>26</v>
+      </c>
+      <c r="I38">
         <v>6.13</v>
       </c>
-      <c r="K38">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A39" s="1">
         <v>45442</v>
       </c>
@@ -4842,13 +4842,13 @@
         <v>-0.94</v>
       </c>
       <c r="H39">
+        <v>26</v>
+      </c>
+      <c r="I39">
         <v>5.66</v>
       </c>
-      <c r="K39">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A40" s="1">
         <v>45442</v>
       </c>
@@ -4871,14 +4871,14 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
         <v>12</v>
       </c>
-      <c r="K40">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A41" s="1">
         <v>45442</v>
       </c>
@@ -4901,14 +4901,14 @@
         <f t="shared" si="0"/>
         <v>-1.0289999999999999</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s">
         <v>12</v>
       </c>
-      <c r="K41">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A42" s="1">
         <v>45442</v>
       </c>
@@ -4931,14 +4931,14 @@
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42">
+        <v>26</v>
+      </c>
+      <c r="I42" t="s">
         <v>12</v>
       </c>
-      <c r="K42">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A43" s="1">
         <v>45442</v>
       </c>
@@ -4961,14 +4961,14 @@
         <f t="shared" si="0"/>
         <v>-1.33</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s">
         <v>12</v>
       </c>
-      <c r="K43">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A44" s="1">
         <v>45442</v>
       </c>
@@ -4991,14 +4991,14 @@
         <f t="shared" si="0"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44">
+        <v>26</v>
+      </c>
+      <c r="I44" t="s">
         <v>12</v>
       </c>
-      <c r="K44">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A45" s="1">
         <v>45442</v>
       </c>
@@ -5021,14 +5021,14 @@
         <f t="shared" si="0"/>
         <v>-1.1600000000000001</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s">
         <v>12</v>
       </c>
-      <c r="K45">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A46" s="1">
         <v>45442</v>
       </c>
@@ -5052,13 +5052,13 @@
         <v>-0.76500000000000001</v>
       </c>
       <c r="H46">
+        <v>26</v>
+      </c>
+      <c r="I46">
         <v>4.6500000000000004</v>
       </c>
-      <c r="K46">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A47" s="1">
         <v>45442</v>
       </c>
@@ -5081,11 +5081,11 @@
         <f t="shared" si="0"/>
         <v>-1.24</v>
       </c>
-      <c r="K47">
+      <c r="H47">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A48" s="1">
         <v>45442</v>
       </c>
@@ -5109,13 +5109,13 @@
         <v>-0.96</v>
       </c>
       <c r="H48">
+        <v>26</v>
+      </c>
+      <c r="I48">
         <v>4.03</v>
       </c>
-      <c r="K48">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A49" s="1">
         <v>45442</v>
       </c>
@@ -5139,13 +5139,13 @@
         <v>-1.155</v>
       </c>
       <c r="H49">
+        <v>26</v>
+      </c>
+      <c r="I49">
         <v>3.66</v>
       </c>
-      <c r="K49">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A50" s="1">
         <v>45463</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>-0.85000000000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A51" s="1">
         <v>45463</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>-1.55</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A52" s="1">
         <v>45463</v>
       </c>
@@ -5217,16 +5217,16 @@
         <v>-0.755</v>
       </c>
       <c r="H52">
+        <v>27</v>
+      </c>
+      <c r="I52">
         <v>5.37</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>708</v>
       </c>
-      <c r="K52">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A53" s="1">
         <v>45463</v>
       </c>
@@ -5250,16 +5250,16 @@
         <v>-1.25</v>
       </c>
       <c r="H53">
+        <v>27</v>
+      </c>
+      <c r="I53">
         <v>4.87</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>246</v>
       </c>
-      <c r="K53">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A54" s="1">
         <v>45463</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A55" s="1">
         <v>45463</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>-1.24</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A56" s="1">
         <v>45463</v>
       </c>
@@ -5331,16 +5331,16 @@
         <v>-2.46</v>
       </c>
       <c r="H56">
+        <v>26</v>
+      </c>
+      <c r="I56">
         <v>5.05</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>473</v>
       </c>
-      <c r="K56">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A57" s="1">
         <v>45463</v>
       </c>
@@ -5364,16 +5364,16 @@
         <v>-1.8099999999999998</v>
       </c>
       <c r="H57">
+        <v>26</v>
+      </c>
+      <c r="I57">
         <v>4.8</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>101</v>
       </c>
-      <c r="K57">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A58" s="1">
         <v>45463</v>
       </c>
@@ -5397,16 +5397,16 @@
         <v>-1.4900000000000002</v>
       </c>
       <c r="H58">
+        <v>26</v>
+      </c>
+      <c r="I58">
         <v>4.7699999999999996</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>116</v>
       </c>
-      <c r="K58">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A59" s="1">
         <v>45463</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A60" s="1">
         <v>45463</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>-1.0999999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A61" s="1">
         <v>45463</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>-2.79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A62" s="1">
         <v>45463</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>-1.4649999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A63" s="1">
         <v>45463</v>
       </c>
@@ -5525,11 +5525,11 @@
         <f t="shared" si="1"/>
         <v>-2.1800000000000002</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>848</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A64" s="1">
         <v>45463</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A65" s="1">
         <v>45463</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>-2.0049999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A66" s="1">
         <v>45484</v>
       </c>
@@ -5601,16 +5601,16 @@
         <v>0.2</v>
       </c>
       <c r="H66">
+        <v>26</v>
+      </c>
+      <c r="I66">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>103</v>
       </c>
-      <c r="K66">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A67" s="1">
         <v>45484</v>
       </c>
@@ -5634,16 +5634,16 @@
         <v>0.42</v>
       </c>
       <c r="H67">
+        <v>25.7</v>
+      </c>
+      <c r="I67">
         <v>5.47</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>92</v>
       </c>
-      <c r="K67">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A68" s="1">
         <v>45484</v>
       </c>
@@ -5666,16 +5666,16 @@
         <v>0.3</v>
       </c>
       <c r="H68">
+        <v>24.9</v>
+      </c>
+      <c r="I68">
         <v>5.47</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>333</v>
       </c>
-      <c r="K68">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A69" s="1">
         <v>45484</v>
       </c>
@@ -5699,16 +5699,16 @@
         <v>-0.22999999999999998</v>
       </c>
       <c r="H69">
+        <v>25.9</v>
+      </c>
+      <c r="I69">
         <v>4.97</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>649</v>
       </c>
-      <c r="K69">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A70" s="1">
         <v>45484</v>
       </c>
@@ -5731,16 +5731,16 @@
         <v>0.3</v>
       </c>
       <c r="H70">
+        <v>25.9</v>
+      </c>
+      <c r="I70">
         <v>3.8</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>348</v>
       </c>
-      <c r="K70">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A71" s="1">
         <v>45484</v>
       </c>
@@ -5764,16 +5764,16 @@
         <v>-0.18</v>
       </c>
       <c r="H71">
+        <v>27</v>
+      </c>
+      <c r="I71">
         <v>3.87</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>603</v>
       </c>
-      <c r="K71">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A72" s="1">
         <v>45484</v>
       </c>
@@ -5797,16 +5797,16 @@
         <v>-3.5</v>
       </c>
       <c r="H72">
+        <v>23</v>
+      </c>
+      <c r="I72">
         <v>5.2</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>103</v>
       </c>
-      <c r="K72">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A73" s="1">
         <v>45484</v>
       </c>
@@ -5830,16 +5830,16 @@
         <v>-1.0899999999999999</v>
       </c>
       <c r="H73">
+        <v>27.75</v>
+      </c>
+      <c r="I73">
         <v>3.72</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>4425</v>
       </c>
-      <c r="K73">
-        <v>27.75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A74" s="1">
         <v>45484</v>
       </c>
@@ -5863,16 +5863,16 @@
         <v>-0.48000000000000009</v>
       </c>
       <c r="H74">
+        <v>25.89</v>
+      </c>
+      <c r="I74">
         <v>3.5</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>1791</v>
       </c>
-      <c r="K74">
-        <v>25.89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A75" s="1">
         <v>45484</v>
       </c>
@@ -5896,16 +5896,16 @@
         <v>-1.72</v>
       </c>
       <c r="H75">
+        <v>26.57</v>
+      </c>
+      <c r="I75">
         <v>3.89</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>3358</v>
       </c>
-      <c r="K75">
-        <v>26.57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A76" s="1">
         <v>45484</v>
       </c>
@@ -5929,16 +5929,16 @@
         <v>0.27</v>
       </c>
       <c r="H76">
+        <v>28</v>
+      </c>
+      <c r="I76">
         <v>3.68</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>3828</v>
       </c>
-      <c r="K76">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A77" s="1">
         <v>45484</v>
       </c>
@@ -5961,11 +5961,11 @@
         <f t="shared" si="2"/>
         <v>-2.14</v>
       </c>
-      <c r="K77" t="s">
+      <c r="H77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A78" s="1">
         <v>45484</v>
       </c>
@@ -5988,11 +5988,11 @@
         <f t="shared" si="2"/>
         <v>-0.8849999999999999</v>
       </c>
-      <c r="K78" t="s">
+      <c r="H78" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A79" s="1">
         <v>45484</v>
       </c>
@@ -6016,16 +6016,16 @@
         <v>-1.98</v>
       </c>
       <c r="H79">
+        <v>28.7</v>
+      </c>
+      <c r="I79">
         <v>3.76</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>3703</v>
       </c>
-      <c r="K79">
-        <v>28.7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A80" s="1">
         <v>45484</v>
       </c>
@@ -6049,16 +6049,16 @@
         <v>-2.1800000000000002</v>
       </c>
       <c r="H80">
+        <v>30.6</v>
+      </c>
+      <c r="I80">
         <v>3.63</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>2916</v>
       </c>
-      <c r="K80">
-        <v>30.6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A81" s="1">
         <v>45484</v>
       </c>
@@ -6081,11 +6081,11 @@
         <f t="shared" si="2"/>
         <v>-1.2450000000000001</v>
       </c>
-      <c r="K81" t="s">
+      <c r="H81" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A82" s="1">
         <v>45502</v>
       </c>
@@ -6105,16 +6105,16 @@
         <v>0.04</v>
       </c>
       <c r="H82">
+        <v>25.8</v>
+      </c>
+      <c r="I82">
         <v>5.36</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>515</v>
       </c>
-      <c r="K82">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A83" s="1">
         <v>45502</v>
       </c>
@@ -6134,16 +6134,16 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="H83">
+        <v>26</v>
+      </c>
+      <c r="I83">
         <v>5</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>2950</v>
       </c>
-      <c r="K83">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A84" s="1">
         <v>45502</v>
       </c>
@@ -6163,16 +6163,16 @@
         <v>0.19</v>
       </c>
       <c r="H84">
+        <v>24</v>
+      </c>
+      <c r="I84">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>934</v>
       </c>
-      <c r="K84">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A85" s="1">
         <v>45502</v>
       </c>
@@ -6196,16 +6196,16 @@
         <v>-0.4</v>
       </c>
       <c r="H85">
+        <v>26</v>
+      </c>
+      <c r="I85">
         <v>4.84</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>1310</v>
       </c>
-      <c r="K85">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A86" s="1">
         <v>45502</v>
       </c>
@@ -6225,16 +6225,16 @@
         <v>0.36</v>
       </c>
       <c r="H86">
+        <v>25.72</v>
+      </c>
+      <c r="I86">
         <v>4.58</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>1290</v>
       </c>
-      <c r="K86">
-        <v>25.72</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A87" s="1">
         <v>45502</v>
       </c>
@@ -6258,16 +6258,16 @@
         <v>-0.10499999999999998</v>
       </c>
       <c r="H87">
+        <v>24</v>
+      </c>
+      <c r="I87">
         <v>5</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>530</v>
       </c>
-      <c r="K87">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A88" s="1">
         <v>45502</v>
       </c>
@@ -6286,17 +6286,17 @@
       <c r="G88">
         <v>0.19800000000000001</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88">
         <v>5</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>12</v>
       </c>
-      <c r="K88" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A89" s="1">
         <v>45502</v>
       </c>
@@ -6320,16 +6320,16 @@
         <v>-0.41</v>
       </c>
       <c r="H89">
+        <v>34.33</v>
+      </c>
+      <c r="I89">
         <v>4.5</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>5453</v>
       </c>
-      <c r="K89">
-        <v>34.33</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A90" s="1">
         <v>45502</v>
       </c>
@@ -6349,16 +6349,16 @@
         <v>-0.09</v>
       </c>
       <c r="H90">
+        <v>32.46</v>
+      </c>
+      <c r="I90">
         <v>4.97</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>4554</v>
       </c>
-      <c r="K90">
-        <v>32.46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A91" s="1">
         <v>45502</v>
       </c>
@@ -6378,16 +6378,16 @@
         <v>-0.06</v>
       </c>
       <c r="H91">
+        <v>29.26</v>
+      </c>
+      <c r="I91">
         <v>4.08</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>909</v>
       </c>
-      <c r="K91">
-        <v>29.26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A92" s="1">
         <v>45502</v>
       </c>
@@ -6411,16 +6411,16 @@
         <v>-0.59999999999999987</v>
       </c>
       <c r="H92">
+        <v>28</v>
+      </c>
+      <c r="I92">
         <v>3.48</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>1541</v>
       </c>
-      <c r="K92">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A93" s="1">
         <v>45502</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A94" s="1">
         <v>45502</v>
       </c>
@@ -6468,16 +6468,16 @@
         <v>-0.29500000000000004</v>
       </c>
       <c r="H94">
+        <v>28</v>
+      </c>
+      <c r="I94">
         <v>3.92</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>1519</v>
       </c>
-      <c r="K94">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A95" s="1">
         <v>45502</v>
       </c>
@@ -6501,16 +6501,16 @@
         <v>-0.59</v>
       </c>
       <c r="H95">
+        <v>28</v>
+      </c>
+      <c r="I95">
         <v>3.75</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>1531</v>
       </c>
-      <c r="K95">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A96" s="1">
         <v>45502</v>
       </c>
@@ -6530,16 +6530,16 @@
         <v>0.77</v>
       </c>
       <c r="H96">
+        <v>28</v>
+      </c>
+      <c r="I96">
         <v>3.8</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>3013</v>
       </c>
-      <c r="K96">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A97" s="1">
         <v>45502</v>
       </c>
@@ -6562,11 +6562,11 @@
         <f>E97-F97</f>
         <v>-1.0349999999999999</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>5.41</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A98" s="1">
         <v>45534</v>
       </c>
@@ -6586,16 +6586,16 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="H98">
+        <v>26.04</v>
+      </c>
+      <c r="I98">
         <v>5.41</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>1280</v>
       </c>
-      <c r="K98">
-        <v>26.04</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A99" s="1">
         <v>45534</v>
       </c>
@@ -6615,16 +6615,16 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H99">
+        <v>26.2</v>
+      </c>
+      <c r="I99">
         <v>5.34</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>1776</v>
       </c>
-      <c r="K99">
-        <v>26.2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A100" s="1">
         <v>45534</v>
       </c>
@@ -6649,16 +6649,16 @@
         <v>-0.64500000000000002</v>
       </c>
       <c r="H100">
+        <v>25.9</v>
+      </c>
+      <c r="I100">
         <v>5.37</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>647.4</v>
       </c>
-      <c r="K100">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A101" s="1">
         <v>45534</v>
       </c>
@@ -6683,16 +6683,16 @@
         <v>0.53999999999999992</v>
       </c>
       <c r="H101">
+        <v>25.7</v>
+      </c>
+      <c r="I101">
         <v>5.16</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>1738</v>
       </c>
-      <c r="K101">
-        <v>25.7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A102" s="1">
         <v>45534</v>
       </c>
@@ -6717,16 +6717,16 @@
         <v>-0.69000000000000006</v>
       </c>
       <c r="H102">
+        <v>26.43</v>
+      </c>
+      <c r="I102">
         <v>4.45</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>1572</v>
       </c>
-      <c r="K102">
-        <v>26.43</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A103" s="1">
         <v>45534</v>
       </c>
@@ -6746,16 +6746,16 @@
         <v>0</v>
       </c>
       <c r="H103">
+        <v>26.8</v>
+      </c>
+      <c r="I103">
         <v>4.1900000000000004</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>1488</v>
       </c>
-      <c r="K103">
-        <v>26.8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A104" s="1">
         <v>45534</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A105" s="1">
         <v>45534</v>
       </c>
@@ -6792,16 +6792,16 @@
         <v>-0.19</v>
       </c>
       <c r="H105">
+        <v>27.11</v>
+      </c>
+      <c r="I105">
         <v>4.22</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>1330</v>
       </c>
-      <c r="K105">
-        <v>27.11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A106" s="1">
         <v>45534</v>
       </c>
@@ -6821,16 +6821,16 @@
         <v>0.06</v>
       </c>
       <c r="H106">
+        <v>26.01</v>
+      </c>
+      <c r="I106">
         <v>4.37</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>4850</v>
       </c>
-      <c r="K106">
-        <v>26.01</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A107" s="1">
         <v>45534</v>
       </c>
@@ -6850,16 +6850,16 @@
         <v>-0.51</v>
       </c>
       <c r="H107">
+        <v>26.23</v>
+      </c>
+      <c r="I107">
         <v>4.71</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>830</v>
       </c>
-      <c r="K107">
-        <v>26.23</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A108" s="1">
         <v>45534</v>
       </c>
@@ -6879,16 +6879,16 @@
         <v>-0.04</v>
       </c>
       <c r="H108">
+        <v>26.62</v>
+      </c>
+      <c r="I108">
         <v>4.41</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>500</v>
       </c>
-      <c r="K108">
-        <v>26.62</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A109" s="1">
         <v>45534</v>
       </c>
@@ -6909,16 +6909,16 @@
         <v>-0.98</v>
       </c>
       <c r="H109">
+        <v>29</v>
+      </c>
+      <c r="I109">
         <v>4.34</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>1144</v>
       </c>
-      <c r="K109">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A110" s="1">
         <v>45534</v>
       </c>
@@ -6939,16 +6939,16 @@
         <v>-0.16000000000000003</v>
       </c>
       <c r="H110">
+        <v>29.07</v>
+      </c>
+      <c r="I110">
         <v>3.83</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>2900</v>
       </c>
-      <c r="K110">
-        <v>29.07</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A111" s="1">
         <v>45534</v>
       </c>
@@ -6968,16 +6968,16 @@
         <v>-0.4</v>
       </c>
       <c r="H111">
+        <v>28.69</v>
+      </c>
+      <c r="I111">
         <v>3.97</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>3560</v>
       </c>
-      <c r="K111">
-        <v>28.69</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A112" s="1">
         <v>45534</v>
       </c>
@@ -6997,16 +6997,16 @@
         <v>-0.39</v>
       </c>
       <c r="H112">
+        <v>30</v>
+      </c>
+      <c r="I112">
         <v>3.85</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>3732</v>
       </c>
-      <c r="K112">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.75">
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A113" s="1">
         <v>45534</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A114" s="1">
         <v>45569</v>
       </c>
@@ -7043,14 +7043,14 @@
         <f>6.5/100</f>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>6.6</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>1000</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A115" s="1">
         <v>45569</v>
       </c>
@@ -7069,14 +7069,14 @@
       <c r="G115">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>5.97</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>718</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A116" s="1">
         <v>45569</v>
       </c>
@@ -7099,14 +7099,14 @@
         <f>E116-F116</f>
         <v>-9.4999999999999973E-2</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>5.82</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>2910</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A117" s="1">
         <v>45569</v>
       </c>
@@ -7129,14 +7129,14 @@
         <f t="shared" ref="G117:G121" si="4">E117-F117</f>
         <v>-1.3800000000000001</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>5.19</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>2200</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A118" s="1">
         <v>45569</v>
       </c>
@@ -7159,14 +7159,14 @@
         <f t="shared" si="4"/>
         <v>-4.0000000000000036E-2</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>4.2</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>3400</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A119" s="1">
         <v>45569</v>
       </c>
@@ -7189,14 +7189,14 @@
         <f t="shared" si="4"/>
         <v>-1.1599999999999999</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>4.42</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>4203</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A120" s="1">
         <v>45569</v>
       </c>
@@ -7219,11 +7219,11 @@
         <f t="shared" si="4"/>
         <v>-0.875</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>6.12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A121" s="1">
         <v>45569</v>
       </c>
@@ -7246,14 +7246,14 @@
         <f t="shared" si="4"/>
         <v>-0.29499999999999998</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>3.94</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>1485</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A122" s="1">
         <v>45569</v>
       </c>
@@ -7272,14 +7272,14 @@
       <c r="G122">
         <v>0.03</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>4.01</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>3426</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A123" s="1">
         <v>45569</v>
       </c>
@@ -7302,14 +7302,14 @@
         <f>E123-F123</f>
         <v>-1.345</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>6.45</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>1373.6</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A124" s="3">
         <v>45569</v>
       </c>
@@ -7331,14 +7331,14 @@
       <c r="G124" s="4">
         <v>0</v>
       </c>
-      <c r="H124" s="4">
+      <c r="I124" s="4">
         <v>4.29</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>2755</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A125" s="1">
         <v>45569</v>
       </c>
@@ -7361,14 +7361,14 @@
         <f t="shared" ref="G125:G133" si="5">E125-F125</f>
         <v>-0.39999999999999991</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>4.1900000000000004</v>
       </c>
-      <c r="I125" s="4">
+      <c r="J125" s="4">
         <v>2249</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A126" s="1">
         <v>45569</v>
       </c>
@@ -7391,14 +7391,14 @@
         <f t="shared" si="5"/>
         <v>-0.78999999999999992</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>3.79</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>833</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A127" s="1">
         <v>45569</v>
       </c>
@@ -7421,14 +7421,14 @@
         <f t="shared" si="5"/>
         <v>-1.17</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>3.93</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>3161</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A128" s="1">
         <v>45569</v>
       </c>
@@ -7451,14 +7451,14 @@
         <f t="shared" si="5"/>
         <v>-1.29</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>3.88</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>688</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A129" s="1">
         <v>45569</v>
       </c>
@@ -7481,14 +7481,14 @@
         <f t="shared" si="5"/>
         <v>-1.4550000000000001</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>4.34</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>1012</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A130" s="1">
         <v>45597</v>
       </c>
@@ -7512,13 +7512,13 @@
         <v>-0.79200000000000004</v>
       </c>
       <c r="H130">
+        <v>21</v>
+      </c>
+      <c r="I130">
         <v>6.48</v>
       </c>
-      <c r="K130">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A131" s="1">
         <v>45597</v>
       </c>
@@ -7542,17 +7542,17 @@
         <v>-0.28499999999999998</v>
       </c>
       <c r="H131">
+        <v>21.5</v>
+      </c>
+      <c r="I131">
         <v>6.22</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <f>AVERAGE(937,959,948)</f>
         <v>948</v>
       </c>
-      <c r="K131">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A132" s="1">
         <v>45597</v>
       </c>
@@ -7573,17 +7573,17 @@
         <v>0.755</v>
       </c>
       <c r="H132">
+        <v>21.3</v>
+      </c>
+      <c r="I132">
         <v>7.24</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <f>AVERAGE(740.5,797.3, 831)</f>
         <v>789.6</v>
       </c>
-      <c r="K132">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A133" s="1">
         <v>45597</v>
       </c>
@@ -7604,16 +7604,16 @@
         <v>0.24</v>
       </c>
       <c r="H133">
+        <v>22.3</v>
+      </c>
+      <c r="I133">
         <v>5.24</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>1342</v>
       </c>
-      <c r="K133">
-        <v>22.3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A134" s="1">
         <v>45597</v>
       </c>
@@ -7630,17 +7630,17 @@
         <v>0.75</v>
       </c>
       <c r="H134">
+        <v>21.9</v>
+      </c>
+      <c r="I134">
         <v>4.34</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <f>AVERAGE(2828,2617,2734)</f>
         <v>2726.3333333333335</v>
       </c>
-      <c r="K134">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A135" s="1">
         <v>45597</v>
       </c>
@@ -7657,13 +7657,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H135">
+        <v>22.5</v>
+      </c>
+      <c r="I135">
         <v>4.6399999999999997</v>
       </c>
-      <c r="K135">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A136" s="1">
         <v>45597</v>
       </c>
@@ -7683,17 +7683,17 @@
         <v>0.183</v>
       </c>
       <c r="H136">
+        <v>19.8</v>
+      </c>
+      <c r="I136">
         <v>5.97</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <f>AVERAGE(572.7,570,549)</f>
         <v>563.9</v>
       </c>
-      <c r="K136">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A137" s="1">
         <v>45597</v>
       </c>
@@ -7713,21 +7713,21 @@
         <v>0.5</v>
       </c>
       <c r="G137">
-        <f t="shared" ref="G137:G163" si="6">E137-F137</f>
+        <f t="shared" ref="G137:G180" si="6">E137-F137</f>
         <v>-0.42</v>
       </c>
       <c r="H137">
+        <v>21.6</v>
+      </c>
+      <c r="I137">
         <v>4.2699999999999996</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <f>AVERAGE(2584,2605,2558)</f>
         <v>2582.3333333333335</v>
       </c>
-      <c r="K137">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A138" s="1">
         <v>45597</v>
       </c>
@@ -7751,17 +7751,17 @@
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="H138">
+        <v>21.6</v>
+      </c>
+      <c r="I138">
         <v>4.42</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <f>AVERAGE(1359,1304,1317)</f>
         <v>1326.6666666666667</v>
       </c>
-      <c r="K138">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A139" s="1">
         <v>45597</v>
       </c>
@@ -7786,17 +7786,17 @@
         <v>-0.68500000000000005</v>
       </c>
       <c r="H139">
+        <v>22.2</v>
+      </c>
+      <c r="I139">
         <v>4.4400000000000004</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <f>AVERAGE(2273,2284,2224)</f>
         <v>2260.3333333333335</v>
       </c>
-      <c r="K139">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A140" s="1">
         <v>45597</v>
       </c>
@@ -7820,17 +7820,17 @@
         <v>0.35400000000000004</v>
       </c>
       <c r="H140">
+        <v>21.7</v>
+      </c>
+      <c r="I140">
         <v>4.84</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <f>AVERAGE(1749,1772,1799)</f>
         <v>1773.3333333333333</v>
       </c>
-      <c r="K140">
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A141" s="1">
         <v>45597</v>
       </c>
@@ -7854,17 +7854,17 @@
         <v>-1.3199999999999998</v>
       </c>
       <c r="H141">
+        <v>22.8</v>
+      </c>
+      <c r="I141">
         <v>4.92</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <f>AVERAGE(3721,3982,4086,3979)</f>
         <v>3942</v>
       </c>
-      <c r="K141">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A142" s="1">
         <v>45597</v>
       </c>
@@ -7888,17 +7888,17 @@
         <v>-0.29300000000000004</v>
       </c>
       <c r="H142">
+        <v>21.5</v>
+      </c>
+      <c r="I142">
         <v>3.89</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <f>AVERAGE(2060,2073,2041,2280)</f>
         <v>2113.5</v>
       </c>
-      <c r="K142">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A143" s="1">
         <v>45597</v>
       </c>
@@ -7922,17 +7922,17 @@
         <v>-0.55600000000000005</v>
       </c>
       <c r="H143">
+        <v>23.3</v>
+      </c>
+      <c r="I143">
         <v>4.05</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <f>AVERAGE(2259,2255,2260)</f>
         <v>2258</v>
       </c>
-      <c r="K143">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A144" s="1">
         <v>45597</v>
       </c>
@@ -7956,17 +7956,17 @@
         <v>-0.64</v>
       </c>
       <c r="H144">
+        <v>23.6</v>
+      </c>
+      <c r="I144">
         <v>3.98</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <f>AVERAGE(3300,3261,3241)</f>
         <v>3267.3333333333335</v>
       </c>
-      <c r="K144">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A145" s="1">
         <v>45597</v>
       </c>
@@ -7990,17 +7990,17 @@
         <v>-0.83499999999999996</v>
       </c>
       <c r="H145">
+        <v>22.8</v>
+      </c>
+      <c r="I145">
         <v>4.3600000000000003</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <f>AVERAGE(2396,2381,2362)</f>
         <v>2379.6666666666665</v>
       </c>
-      <c r="K145">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A146" s="1">
         <v>45635</v>
       </c>
@@ -8024,13 +8024,13 @@
         <v>-1.01</v>
       </c>
       <c r="H146">
+        <v>15.9</v>
+      </c>
+      <c r="I146">
         <v>6.64</v>
       </c>
-      <c r="K146">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A147" s="1">
         <v>45635</v>
       </c>
@@ -8054,13 +8054,13 @@
         <v>-0.25</v>
       </c>
       <c r="H147">
+        <v>17</v>
+      </c>
+      <c r="I147">
         <v>6.36</v>
       </c>
-      <c r="K147">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A148" s="1">
         <v>45635</v>
       </c>
@@ -8084,13 +8084,13 @@
         <v>-0.48000000000000009</v>
       </c>
       <c r="H148">
+        <v>15.8</v>
+      </c>
+      <c r="I148">
         <v>6.78</v>
       </c>
-      <c r="K148">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A149" s="1">
         <v>45635</v>
       </c>
@@ -8114,13 +8114,13 @@
         <v>-0.8600000000000001</v>
       </c>
       <c r="H149">
+        <v>17.5</v>
+      </c>
+      <c r="I149">
         <v>5.13</v>
       </c>
-      <c r="K149">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A150" s="1">
         <v>45635</v>
       </c>
@@ -8144,13 +8144,13 @@
         <v>-0.24</v>
       </c>
       <c r="H150">
+        <v>17.8</v>
+      </c>
+      <c r="I150">
         <v>4.2300000000000004</v>
       </c>
-      <c r="K150">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A151" s="1">
         <v>45635</v>
       </c>
@@ -8174,13 +8174,13 @@
         <v>-0.8899999999999999</v>
       </c>
       <c r="H151">
+        <v>18.5</v>
+      </c>
+      <c r="I151">
         <v>4.9800000000000004</v>
       </c>
-      <c r="K151">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A152" s="1">
         <v>45635</v>
       </c>
@@ -8204,13 +8204,13 @@
         <v>-0.20999999999999996</v>
       </c>
       <c r="H152">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I152">
         <v>5.76</v>
       </c>
-      <c r="K152">
-        <v>16.899999999999999</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A153" s="1">
         <v>45635</v>
       </c>
@@ -8234,13 +8234,13 @@
         <v>-0.55000000000000004</v>
       </c>
       <c r="H153">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I153">
         <v>5.89</v>
       </c>
-      <c r="K153">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A154" s="1">
         <v>45635</v>
       </c>
@@ -8264,13 +8264,13 @@
         <v>-1.04</v>
       </c>
       <c r="H154">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I154">
         <v>4.13</v>
       </c>
-      <c r="K154">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A155" s="1">
         <v>45635</v>
       </c>
@@ -8294,13 +8294,13 @@
         <v>-0.8</v>
       </c>
       <c r="H155">
+        <v>18.8</v>
+      </c>
+      <c r="I155">
         <v>4.3600000000000003</v>
       </c>
-      <c r="K155">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A156" s="1">
         <v>45635</v>
       </c>
@@ -8324,13 +8324,13 @@
         <v>-1.03</v>
       </c>
       <c r="H156">
+        <v>20.2</v>
+      </c>
+      <c r="I156">
         <v>4.9400000000000004</v>
       </c>
-      <c r="K156">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A157" s="1">
         <v>45635</v>
       </c>
@@ -8354,13 +8354,13 @@
         <v>-0.46</v>
       </c>
       <c r="H157">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I157">
         <v>4.1100000000000003</v>
       </c>
-      <c r="K157">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A158" s="1">
         <v>45635</v>
       </c>
@@ -8384,13 +8384,13 @@
         <v>-2.08</v>
       </c>
       <c r="H158">
+        <v>21.4</v>
+      </c>
+      <c r="I158">
         <v>4.51</v>
       </c>
-      <c r="K158">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A159" s="1">
         <v>45635</v>
       </c>
@@ -8414,13 +8414,13 @@
         <v>-0.38</v>
       </c>
       <c r="H159">
+        <v>14.8</v>
+      </c>
+      <c r="I159">
         <v>4.45</v>
       </c>
-      <c r="K159">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A160" s="1">
         <v>45635</v>
       </c>
@@ -8444,13 +8444,13 @@
         <v>-0.65</v>
       </c>
       <c r="H160">
+        <v>20</v>
+      </c>
+      <c r="I160">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K160">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A161" s="1">
         <v>45635</v>
       </c>
@@ -8474,13 +8474,13 @@
         <v>-0.77999999999999992</v>
       </c>
       <c r="H161">
+        <v>19.8</v>
+      </c>
+      <c r="I161">
         <v>3.71</v>
       </c>
-      <c r="K161">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A162" s="1">
         <v>45635</v>
       </c>
@@ -8504,13 +8504,13 @@
         <v>-0.96000000000000008</v>
       </c>
       <c r="H162">
+        <v>18.5</v>
+      </c>
+      <c r="I162">
         <v>4.04</v>
       </c>
-      <c r="K162">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.75">
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A163" s="1">
         <v>45635</v>
       </c>
@@ -8534,10 +8534,513 @@
         <v>-1.3</v>
       </c>
       <c r="H163">
+        <v>19.2</v>
+      </c>
+      <c r="I163">
         <v>4.41</v>
       </c>
-      <c r="K163">
-        <v>19.2</v>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A164" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164">
+        <v>0.44</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="6"/>
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="H164">
+        <v>17.8</v>
+      </c>
+      <c r="I164">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A165" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165">
+        <v>0.39</v>
+      </c>
+      <c r="F165">
+        <v>0.78</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="6"/>
+        <v>-0.39</v>
+      </c>
+      <c r="H165">
+        <v>15.2</v>
+      </c>
+      <c r="I165">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A166" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166">
+        <v>0.75</v>
+      </c>
+      <c r="F166">
+        <v>1.04</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="6"/>
+        <v>-0.29000000000000004</v>
+      </c>
+      <c r="H166">
+        <v>17.5</v>
+      </c>
+      <c r="I166">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A167" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167">
+        <v>0.21</v>
+      </c>
+      <c r="F167">
+        <v>1.08</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="6"/>
+        <v>-0.87000000000000011</v>
+      </c>
+      <c r="H167">
+        <v>16.5</v>
+      </c>
+      <c r="I167">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A168" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168">
+        <v>0.09</v>
+      </c>
+      <c r="F168">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="6"/>
+        <v>-0.19999999999999998</v>
+      </c>
+      <c r="H168">
+        <v>15.9</v>
+      </c>
+      <c r="I168">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A169" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169">
+        <v>0.04</v>
+      </c>
+      <c r="F169">
+        <v>0.82</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="6"/>
+        <v>-0.77999999999999992</v>
+      </c>
+      <c r="H169">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I169">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A170" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>11</v>
+      </c>
+      <c r="G170">
+        <v>0.19</v>
+      </c>
+      <c r="H170">
+        <v>13.7</v>
+      </c>
+      <c r="I170">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A171" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>36</v>
+      </c>
+      <c r="E171">
+        <v>0.83</v>
+      </c>
+      <c r="F171">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="6"/>
+        <v>-0.28000000000000014</v>
+      </c>
+      <c r="H171">
+        <v>14.5</v>
+      </c>
+      <c r="I171">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A172" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B172">
+        <v>6</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F172">
+        <v>1.41</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="6"/>
+        <v>-1.27</v>
+      </c>
+      <c r="H172">
+        <v>17.8</v>
+      </c>
+      <c r="I172">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A173" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B173">
+        <v>6</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173">
+        <v>0.79</v>
+      </c>
+      <c r="F173">
+        <v>1.83</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="6"/>
+        <v>-1.04</v>
+      </c>
+      <c r="H173">
+        <v>17.8</v>
+      </c>
+      <c r="I173">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A174" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B174">
+        <v>6</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174">
+        <v>0.02</v>
+      </c>
+      <c r="F174">
+        <v>1.03</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="6"/>
+        <v>-1.01</v>
+      </c>
+      <c r="H174">
+        <v>18.8</v>
+      </c>
+      <c r="I174">
+        <v>5.21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A175" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B175">
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <v>4</v>
+      </c>
+      <c r="D175" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175">
+        <v>0.2</v>
+      </c>
+      <c r="F175">
+        <v>0.66</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="6"/>
+        <v>-0.46</v>
+      </c>
+      <c r="H175">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I175">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A176" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B176">
+        <v>9</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176">
+        <v>0.27</v>
+      </c>
+      <c r="F176">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="6"/>
+        <v>-0.34499999999999997</v>
+      </c>
+      <c r="H176">
+        <v>13</v>
+      </c>
+      <c r="I176">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A177" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B177">
+        <v>9</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0.65</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="6"/>
+        <v>-0.65</v>
+      </c>
+      <c r="H177">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I177">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A178" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B178">
+        <v>9</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178" t="s">
+        <v>21</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0.84</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="6"/>
+        <v>-0.84</v>
+      </c>
+      <c r="H178">
+        <v>18</v>
+      </c>
+      <c r="I178">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A179" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B179">
+        <v>9</v>
+      </c>
+      <c r="C179">
+        <v>4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>22</v>
+      </c>
+      <c r="E179">
+        <v>0.31</v>
+      </c>
+      <c r="F179">
+        <v>1.4</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="6"/>
+        <v>-1.0899999999999999</v>
+      </c>
+      <c r="H179">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I179">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A180" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B180">
+        <v>9</v>
+      </c>
+      <c r="C180">
+        <v>5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>37</v>
+      </c>
+      <c r="E180">
+        <v>0.03</v>
+      </c>
+      <c r="F180">
+        <v>1.47</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="6"/>
+        <v>-1.44</v>
+      </c>
+      <c r="H180">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I180">
+        <v>4.4800000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435A66C9-1E26-4E9F-8BB3-E7D1C03548D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADADDB0-53C6-4F74-AD2A-692C2C13FA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10155" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
@@ -3710,21 +3710,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E7760-F87C-4D84-A63F-D473D279D553}">
   <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K165" sqref="K165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T158" sqref="T158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.40625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.31640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45400</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45400</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45400</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45400</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45400</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45400</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45400</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45400</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45400</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45400</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45400</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45400</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45400</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45400</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45400</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45400</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45420</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45420</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45420</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45420</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45420</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45420</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45420</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45420</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45420</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45420</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45420</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45420</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45420</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45420</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45420</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45420</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45442</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45442</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45442</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45442</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45442</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45442</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45442</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45442</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45442</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45442</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45442</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45442</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45442</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45442</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45442</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45442</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45463</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>-0.85000000000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45463</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>-1.55</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45463</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45463</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45463</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45463</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>-1.24</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45463</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45463</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45463</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45463</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45463</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>-1.0999999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45463</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>-2.79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45463</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>-1.4649999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45463</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45463</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45463</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>-2.0049999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45484</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45484</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45484</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45484</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45484</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45484</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45484</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45484</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45484</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45484</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>26.57</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45484</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45484</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45484</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45484</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45484</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45484</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45502</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45502</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45502</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45502</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45502</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>25.72</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45502</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45502</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45502</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45502</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45502</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45502</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45502</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45502</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45502</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45502</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45502</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45534</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45534</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45534</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45534</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45534</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>26.43</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45534</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45534</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45534</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>27.11</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45534</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45534</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>26.23</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45534</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45534</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45534</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45534</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>28.69</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45534</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45534</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45569</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45569</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45569</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45569</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45569</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45569</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45569</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45569</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45569</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45569</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>1373.6</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>45569</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45569</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45569</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45569</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45569</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45569</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45597</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45597</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45597</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45597</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45597</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45597</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45597</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45597</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45597</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45597</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45597</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45597</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45597</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45597</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45597</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45597</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45635</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45635</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45635</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45635</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>45635</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>45635</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>45635</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>45635</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>45635</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>45635</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>45635</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45635</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>45635</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>45635</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>45635</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>45635</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>45635</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>45635</v>
       </c>
@@ -8553,17 +8553,17 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.40625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.31640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -8623,7 +8623,7 @@
         <v>79.863910000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>76.943730000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>88.202100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>76.922430000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>92.059330000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>76.370699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>93.197450000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>76.815430000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>76.590829999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>76.606219999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>76.513019999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>76.622630000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>66.857730000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -8984,7 +8984,7 @@
         <v>67.045649999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>67.109120000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>66.502930000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9049,7 +9049,7 @@
         <v>66.842190000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9061,7 +9061,7 @@
         <v>66.69511</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H20">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>67.072839999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H21">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9085,7 +9085,7 @@
         <v>66.492159999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>66.821780000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H23">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>66.970429999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H24">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>66.743210000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9133,7 +9133,7 @@
         <v>66.741129999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H26">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9145,7 +9145,7 @@
         <v>66.642009999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9157,7 +9157,7 @@
         <v>66.604929999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H28">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>66.727909999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>66.755129999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H30">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9193,7 +9193,7 @@
         <v>66.565960000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H31">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9205,7 +9205,7 @@
         <v>66.708879999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H32">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9217,7 +9217,7 @@
         <v>66.438630000000003</v>
       </c>
     </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9229,7 +9229,7 @@
         <v>66.721999999999994</v>
       </c>
     </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9241,7 +9241,7 @@
         <v>66.502319999999997</v>
       </c>
     </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9253,7 +9253,7 @@
         <v>66.603359999999995</v>
       </c>
     </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9265,7 +9265,7 @@
         <v>66.735640000000004</v>
       </c>
     </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H37">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9277,7 +9277,7 @@
         <v>67.009540000000001</v>
       </c>
     </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H38">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9289,7 +9289,7 @@
         <v>66.730959999999996</v>
       </c>
     </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9301,7 +9301,7 @@
         <v>66.700519999999997</v>
       </c>
     </row>
-    <row r="40" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="40" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H40">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9313,7 +9313,7 @@
         <v>66.432400000000001</v>
       </c>
     </row>
-    <row r="41" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="41" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H41">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9325,7 +9325,7 @@
         <v>66.440209999999993</v>
       </c>
     </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="42" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9337,7 +9337,7 @@
         <v>66.810680000000005</v>
       </c>
     </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="43" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H43">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9349,7 +9349,7 @@
         <v>66.765969999999996</v>
       </c>
     </row>
-    <row r="44" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="44" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9361,7 +9361,7 @@
         <v>66.688059999999993</v>
       </c>
     </row>
-    <row r="45" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="45" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H45">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9373,7 +9373,7 @@
         <v>66.708640000000003</v>
       </c>
     </row>
-    <row r="46" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="46" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H46">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9385,7 +9385,7 @@
         <v>66.707120000000003</v>
       </c>
     </row>
-    <row r="47" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="47" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H47">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9397,7 +9397,7 @@
         <v>66.699510000000004</v>
       </c>
     </row>
-    <row r="48" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="48" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>67.011229999999998</v>
       </c>
     </row>
-    <row r="49" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="49" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H49">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>66.578879999999998</v>
       </c>
     </row>
-    <row r="50" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>66.439570000000003</v>
       </c>
     </row>
-    <row r="51" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="51" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H51">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9445,7 +9445,7 @@
         <v>66.421679999999995</v>
       </c>
     </row>
-    <row r="52" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="52" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H52">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9457,7 +9457,7 @@
         <v>66.699039999999997</v>
       </c>
     </row>
-    <row r="53" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="53" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H53">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9469,7 +9469,7 @@
         <v>66.41798</v>
       </c>
     </row>
-    <row r="54" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="54" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H54">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9481,7 +9481,7 @@
         <v>66.555769999999995</v>
       </c>
     </row>
-    <row r="55" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="55" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H55">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9493,7 +9493,7 @@
         <v>66.713909999999998</v>
       </c>
     </row>
-    <row r="56" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="56" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H56">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9505,7 +9505,7 @@
         <v>66.679460000000006</v>
       </c>
     </row>
-    <row r="57" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="57" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9517,7 +9517,7 @@
         <v>66.716350000000006</v>
       </c>
     </row>
-    <row r="58" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="58" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H58">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9529,7 +9529,7 @@
         <v>66.600700000000003</v>
       </c>
     </row>
-    <row r="59" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="59" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H59">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9541,7 +9541,7 @@
         <v>67.232489999999999</v>
       </c>
     </row>
-    <row r="60" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="60" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H60">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9553,7 +9553,7 @@
         <v>66.475719999999995</v>
       </c>
     </row>
-    <row r="61" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="61" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H61">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9565,7 +9565,7 @@
         <v>69.48903</v>
       </c>
     </row>
-    <row r="62" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="62" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H62">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9577,7 +9577,7 @@
         <v>66.661689999999993</v>
       </c>
     </row>
-    <row r="63" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="63" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H63">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9589,7 +9589,7 @@
         <v>77.511840000000007</v>
       </c>
     </row>
-    <row r="64" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="64" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H64">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9601,7 +9601,7 @@
         <v>66.713200000000001</v>
       </c>
     </row>
-    <row r="65" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="65" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H65">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9613,7 +9613,7 @@
         <v>80.544539999999998</v>
       </c>
     </row>
-    <row r="66" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="66" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H66">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>66.882890000000003</v>
       </c>
     </row>
-    <row r="67" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="67" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H67">
         <f t="shared" ref="H67:H130" si="2">D67-F67</f>
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>82.613020000000006</v>
       </c>
     </row>
-    <row r="68" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="68" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H68">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>66.875720000000001</v>
       </c>
     </row>
-    <row r="69" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="69" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H69">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>81.679119999999998</v>
       </c>
     </row>
-    <row r="70" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="70" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H70">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9673,7 +9673,7 @@
         <v>76.520039999999995</v>
       </c>
     </row>
-    <row r="71" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="71" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H71">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>76.523030000000006</v>
       </c>
     </row>
-    <row r="72" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="72" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H72">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>76.558539999999994</v>
       </c>
     </row>
-    <row r="73" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="73" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H73">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>76.322270000000003</v>
       </c>
     </row>
-    <row r="74" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="74" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H74">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9721,7 +9721,7 @@
         <v>76.840400000000002</v>
       </c>
     </row>
-    <row r="75" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="75" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H75">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9733,7 +9733,7 @@
         <v>76.866280000000003</v>
       </c>
     </row>
-    <row r="76" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="76" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H76">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9745,7 +9745,7 @@
         <v>76.297600000000003</v>
       </c>
     </row>
-    <row r="77" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="77" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H77">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9757,7 +9757,7 @@
         <v>76.881839999999997</v>
       </c>
     </row>
-    <row r="78" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="78" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H78">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9769,7 +9769,7 @@
         <v>76.468999999999994</v>
       </c>
     </row>
-    <row r="79" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="79" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H79">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9781,7 +9781,7 @@
         <v>76.618129999999994</v>
       </c>
     </row>
-    <row r="80" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="80" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H80">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9793,7 +9793,7 @@
         <v>76.480620000000002</v>
       </c>
     </row>
-    <row r="81" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="81" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H81">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9805,7 +9805,7 @@
         <v>76.648570000000007</v>
       </c>
     </row>
-    <row r="82" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="82" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H82">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9817,7 +9817,7 @@
         <v>76.311499999999995</v>
       </c>
     </row>
-    <row r="83" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="83" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H83">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9829,7 +9829,7 @@
         <v>76.679150000000007</v>
       </c>
     </row>
-    <row r="84" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="84" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H84">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9841,7 +9841,7 @@
         <v>76.621639999999999</v>
       </c>
     </row>
-    <row r="85" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="85" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H85">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9853,7 +9853,7 @@
         <v>76.371279999999999</v>
       </c>
     </row>
-    <row r="86" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="86" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H86">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9865,7 +9865,7 @@
         <v>76.636949999999999</v>
       </c>
     </row>
-    <row r="87" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="87" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H87">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>76.882059999999996</v>
       </c>
     </row>
-    <row r="88" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="88" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H88">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>76.91395</v>
       </c>
     </row>
-    <row r="89" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="89" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H89">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>76.394909999999996</v>
       </c>
     </row>
-    <row r="90" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="90" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H90">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9913,7 +9913,7 @@
         <v>76.664580000000001</v>
       </c>
     </row>
-    <row r="91" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="91" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9925,7 +9925,7 @@
         <v>76.792010000000005</v>
       </c>
     </row>
-    <row r="92" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="92" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H92">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9937,7 +9937,7 @@
         <v>86.622889999999998</v>
       </c>
     </row>
-    <row r="93" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="93" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H93">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9949,7 +9949,7 @@
         <v>86.426929999999999</v>
       </c>
     </row>
-    <row r="94" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="94" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H94">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9961,7 +9961,7 @@
         <v>86.291049999999998</v>
       </c>
     </row>
-    <row r="95" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="95" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H95">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>86.616039999999998</v>
       </c>
     </row>
-    <row r="96" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="96" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H96">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9985,7 +9985,7 @@
         <v>86.725769999999997</v>
       </c>
     </row>
-    <row r="97" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="97" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H97">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>86.364840000000001</v>
       </c>
     </row>
-    <row r="98" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="98" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H98">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10009,7 +10009,7 @@
         <v>86.454610000000002</v>
       </c>
     </row>
-    <row r="99" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="99" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H99">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10021,7 +10021,7 @@
         <v>86.403989999999993</v>
       </c>
     </row>
-    <row r="100" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="100" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H100">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10033,7 +10033,7 @@
         <v>86.471239999999995</v>
       </c>
     </row>
-    <row r="101" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="101" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H101">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10045,7 +10045,7 @@
         <v>86.733379999999997</v>
       </c>
     </row>
-    <row r="102" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="102" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H102">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10057,7 +10057,7 @@
         <v>86.402079999999998</v>
       </c>
     </row>
-    <row r="103" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="103" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H103">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10069,7 +10069,7 @@
         <v>86.439710000000005</v>
       </c>
     </row>
-    <row r="104" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="104" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H104">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10081,7 +10081,7 @@
         <v>86.730919999999998</v>
       </c>
     </row>
-    <row r="105" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="105" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H105">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10093,7 +10093,7 @@
         <v>86.136409999999998</v>
       </c>
     </row>
-    <row r="106" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="106" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10105,7 +10105,7 @@
         <v>86.486429999999999</v>
       </c>
     </row>
-    <row r="107" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="107" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H107">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>86.408940000000001</v>
       </c>
     </row>
-    <row r="108" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="108" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H108">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>86.266360000000006</v>
       </c>
     </row>
-    <row r="109" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="109" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H109">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10141,7 +10141,7 @@
         <v>96.321259999999995</v>
       </c>
     </row>
-    <row r="110" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="110" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10153,7 +10153,7 @@
         <v>95.994619999999998</v>
       </c>
     </row>
-    <row r="111" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="111" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H111">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10165,7 +10165,7 @@
         <v>96.47484</v>
       </c>
     </row>
-    <row r="112" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="112" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H112">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10177,7 +10177,7 @@
         <v>96.487459999999999</v>
       </c>
     </row>
-    <row r="113" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="113" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H113">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10189,7 +10189,7 @@
         <v>95.942539999999994</v>
       </c>
     </row>
-    <row r="114" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="114" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H114">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10201,7 +10201,7 @@
         <v>96.212249999999997</v>
       </c>
     </row>
-    <row r="115" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="115" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H115">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10213,7 +10213,7 @@
         <v>96.16</v>
       </c>
     </row>
-    <row r="116" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="116" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H116">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10225,7 +10225,7 @@
         <v>96.532060000000001</v>
       </c>
     </row>
-    <row r="117" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="117" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H117">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10237,7 +10237,7 @@
         <v>96.261859999999999</v>
       </c>
     </row>
-    <row r="118" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="118" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H118">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10249,7 +10249,7 @@
         <v>96.204570000000004</v>
       </c>
     </row>
-    <row r="119" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="119" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H119">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10261,7 +10261,7 @@
         <v>95.947130000000001</v>
       </c>
     </row>
-    <row r="120" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="120" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H120">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>102.5564</v>
       </c>
     </row>
-    <row r="121" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="121" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H121">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>96.26979</v>
       </c>
     </row>
-    <row r="122" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="122" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H122">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10297,7 +10297,7 @@
         <v>107.5222</v>
       </c>
     </row>
-    <row r="123" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="123" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H123">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10309,7 +10309,7 @@
         <v>96.174220000000005</v>
       </c>
     </row>
-    <row r="124" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="124" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H124">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>111.3181</v>
       </c>
     </row>
-    <row r="125" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="125" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H125">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10333,7 +10333,7 @@
         <v>96.214839999999995</v>
       </c>
     </row>
-    <row r="126" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="126" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H126">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10345,7 +10345,7 @@
         <v>122.13800000000001</v>
       </c>
     </row>
-    <row r="127" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="127" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H127">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>105.7696</v>
       </c>
     </row>
-    <row r="128" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="128" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H128">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>106.3018</v>
       </c>
     </row>
-    <row r="129" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="129" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H129">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>106.0164</v>
       </c>
     </row>
-    <row r="130" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="130" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H130">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10393,7 +10393,7 @@
         <v>106.0008</v>
       </c>
     </row>
-    <row r="131" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="131" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H131">
         <f t="shared" ref="H131:H194" si="3">D131-F131</f>
         <v>0</v>
@@ -10405,7 +10405,7 @@
         <v>106.2757</v>
       </c>
     </row>
-    <row r="132" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="132" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H132">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>105.7705</v>
       </c>
     </row>
-    <row r="133" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="133" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H133">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10429,7 +10429,7 @@
         <v>106.0813</v>
       </c>
     </row>
-    <row r="134" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="134" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H134">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>106.3004</v>
       </c>
     </row>
-    <row r="135" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="135" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H135">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10453,7 +10453,7 @@
         <v>105.8387</v>
       </c>
     </row>
-    <row r="136" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="136" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H136">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10465,7 +10465,7 @@
         <v>106.3312</v>
       </c>
     </row>
-    <row r="137" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="137" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H137">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10477,7 +10477,7 @@
         <v>105.94289999999999</v>
       </c>
     </row>
-    <row r="138" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="138" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H138">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10489,7 +10489,7 @@
         <v>105.88379999999999</v>
       </c>
     </row>
-    <row r="139" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="139" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H139">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10501,7 +10501,7 @@
         <v>105.9689</v>
       </c>
     </row>
-    <row r="140" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="140" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H140">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>106.07550000000001</v>
       </c>
     </row>
-    <row r="141" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="141" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H141">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>105.9944</v>
       </c>
     </row>
-    <row r="142" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="142" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H142">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10537,7 +10537,7 @@
         <v>105.9682</v>
       </c>
     </row>
-    <row r="143" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="143" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H143">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10549,7 +10549,7 @@
         <v>106.0844</v>
       </c>
     </row>
-    <row r="144" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="144" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H144">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10561,7 +10561,7 @@
         <v>106.253</v>
       </c>
     </row>
-    <row r="145" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="145" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H145">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10573,7 +10573,7 @@
         <v>105.9712</v>
       </c>
     </row>
-    <row r="146" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="146" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H146">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>105.7208</v>
       </c>
     </row>
-    <row r="147" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="147" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H147">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>106.00369999999999</v>
       </c>
     </row>
-    <row r="148" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="148" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H148">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>105.74850000000001</v>
       </c>
     </row>
-    <row r="149" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="149" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H149">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10621,7 +10621,7 @@
         <v>105.6892</v>
       </c>
     </row>
-    <row r="150" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="150" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H150">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10633,7 +10633,7 @@
         <v>115.9367</v>
       </c>
     </row>
-    <row r="151" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="151" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H151">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10645,7 +10645,7 @@
         <v>115.7723</v>
       </c>
     </row>
-    <row r="152" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="152" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H152">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10657,7 +10657,7 @@
         <v>115.5065</v>
       </c>
     </row>
-    <row r="153" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="153" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H153">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10669,7 +10669,7 @@
         <v>116.05670000000001</v>
       </c>
     </row>
-    <row r="154" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="154" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H154">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10681,7 +10681,7 @@
         <v>115.9269</v>
       </c>
     </row>
-    <row r="155" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="155" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H155">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10693,7 +10693,7 @@
         <v>115.9965</v>
       </c>
     </row>
-    <row r="156" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="156" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H156">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10705,7 +10705,7 @@
         <v>115.4991</v>
       </c>
     </row>
-    <row r="157" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="157" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H157">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10717,7 +10717,7 @@
         <v>115.5228</v>
       </c>
     </row>
-    <row r="158" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="158" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H158">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10729,7 +10729,7 @@
         <v>115.83710000000001</v>
       </c>
     </row>
-    <row r="159" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="159" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H159">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10741,7 +10741,7 @@
         <v>115.67700000000001</v>
       </c>
     </row>
-    <row r="160" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="160" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H160">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10753,7 +10753,7 @@
         <v>115.5472</v>
       </c>
     </row>
-    <row r="161" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="161" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H161">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10765,7 +10765,7 @@
         <v>116.02809999999999</v>
       </c>
     </row>
-    <row r="162" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="162" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H162">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10777,7 +10777,7 @@
         <v>115.7191</v>
       </c>
     </row>
-    <row r="163" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="163" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H163">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10789,7 +10789,7 @@
         <v>115.8503</v>
       </c>
     </row>
-    <row r="164" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="164" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H164">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10801,7 +10801,7 @@
         <v>116.01349999999999</v>
       </c>
     </row>
-    <row r="165" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="165" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H165">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10813,7 +10813,7 @@
         <v>116.0718</v>
       </c>
     </row>
-    <row r="166" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="166" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H166">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>115.88200000000001</v>
       </c>
     </row>
-    <row r="167" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="167" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H167">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>115.82640000000001</v>
       </c>
     </row>
-    <row r="168" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="168" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H168">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>116.0414</v>
       </c>
     </row>
-    <row r="169" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="169" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H169">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>115.7786</v>
       </c>
     </row>
-    <row r="170" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="170" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H170">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10873,7 +10873,7 @@
         <v>115.92440000000001</v>
       </c>
     </row>
-    <row r="171" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="171" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H171">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10885,7 +10885,7 @@
         <v>116.0988</v>
       </c>
     </row>
-    <row r="172" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="172" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H172">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10897,7 +10897,7 @@
         <v>115.9281</v>
       </c>
     </row>
-    <row r="173" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="173" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H173">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10909,7 +10909,7 @@
         <v>115.8377</v>
       </c>
     </row>
-    <row r="174" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="174" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H174">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10921,7 +10921,7 @@
         <v>116.0936</v>
       </c>
     </row>
-    <row r="175" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="175" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H175">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10933,7 +10933,7 @@
         <v>115.8402</v>
       </c>
     </row>
-    <row r="176" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="176" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H176">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10945,7 +10945,7 @@
         <v>116.17019999999999</v>
       </c>
     </row>
-    <row r="177" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="177" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H177">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10957,7 +10957,7 @@
         <v>115.6253</v>
       </c>
     </row>
-    <row r="178" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="178" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H178">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10969,7 +10969,7 @@
         <v>116.0719</v>
       </c>
     </row>
-    <row r="179" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="179" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H179">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>116.3058</v>
       </c>
     </row>
-    <row r="180" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="180" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H180">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10993,7 +10993,7 @@
         <v>115.8853</v>
       </c>
     </row>
-    <row r="181" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="181" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H181">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11005,7 +11005,7 @@
         <v>116.38339999999999</v>
       </c>
     </row>
-    <row r="182" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="182" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H182">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>116.1009</v>
       </c>
     </row>
-    <row r="183" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="183" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H183">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11029,7 +11029,7 @@
         <v>126.40130000000001</v>
       </c>
     </row>
-    <row r="184" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="184" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H184">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>115.6763</v>
       </c>
     </row>
-    <row r="185" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="185" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H185">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11053,7 +11053,7 @@
         <v>128.953</v>
       </c>
     </row>
-    <row r="186" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="186" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H186">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>115.9194</v>
       </c>
     </row>
-    <row r="187" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="187" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H187">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>131.6455</v>
       </c>
     </row>
-    <row r="188" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="188" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H188">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11089,7 +11089,7 @@
         <v>115.86109999999999</v>
       </c>
     </row>
-    <row r="189" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="189" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H189">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11101,7 +11101,7 @@
         <v>115.68819999999999</v>
       </c>
     </row>
-    <row r="190" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="190" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H190">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11113,7 +11113,7 @@
         <v>116.19329999999999</v>
       </c>
     </row>
-    <row r="191" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="191" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H191">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11125,7 +11125,7 @@
         <v>116.134</v>
       </c>
     </row>
-    <row r="192" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="192" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H192">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11137,7 +11137,7 @@
         <v>116.1763</v>
       </c>
     </row>
-    <row r="193" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="193" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H193">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11149,7 +11149,7 @@
         <v>116.0438</v>
       </c>
     </row>
-    <row r="194" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="194" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H194">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11161,7 +11161,7 @@
         <v>115.9259</v>
       </c>
     </row>
-    <row r="195" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="195" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H195">
         <f t="shared" ref="H195:H258" si="4">D195-F195</f>
         <v>0</v>
@@ -11173,7 +11173,7 @@
         <v>116.0008</v>
       </c>
     </row>
-    <row r="196" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="196" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H196">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11185,7 +11185,7 @@
         <v>116.0121</v>
       </c>
     </row>
-    <row r="197" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="197" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H197">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11197,7 +11197,7 @@
         <v>115.7264</v>
       </c>
     </row>
-    <row r="198" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="198" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H198">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11209,7 +11209,7 @@
         <v>115.9374</v>
       </c>
     </row>
-    <row r="199" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="199" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H199">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11221,7 +11221,7 @@
         <v>115.91459999999999</v>
       </c>
     </row>
-    <row r="200" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="200" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H200">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11233,7 +11233,7 @@
         <v>115.63939999999999</v>
       </c>
     </row>
-    <row r="201" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="201" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H201">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11245,7 +11245,7 @@
         <v>116.1581</v>
       </c>
     </row>
-    <row r="202" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="202" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H202">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11257,7 +11257,7 @@
         <v>115.8416</v>
       </c>
     </row>
-    <row r="203" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="203" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H203">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11269,7 +11269,7 @@
         <v>115.8566</v>
       </c>
     </row>
-    <row r="204" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="204" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H204">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11281,7 +11281,7 @@
         <v>115.8509</v>
       </c>
     </row>
-    <row r="205" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="205" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H205">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11293,7 +11293,7 @@
         <v>115.8514</v>
       </c>
     </row>
-    <row r="206" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="206" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H206">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>125.86709999999999</v>
       </c>
     </row>
-    <row r="207" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="207" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H207">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>125.4483</v>
       </c>
     </row>
-    <row r="208" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="208" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H208">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11329,7 +11329,7 @@
         <v>125.4024</v>
       </c>
     </row>
-    <row r="209" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="209" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H209">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11341,7 +11341,7 @@
         <v>125.7238</v>
       </c>
     </row>
-    <row r="210" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="210" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H210">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11353,7 +11353,7 @@
         <v>125.682</v>
       </c>
     </row>
-    <row r="211" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="211" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H211">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11365,7 +11365,7 @@
         <v>125.6857</v>
       </c>
     </row>
-    <row r="212" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="212" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H212">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11377,7 +11377,7 @@
         <v>125.4738</v>
       </c>
     </row>
-    <row r="213" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="213" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H213">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11389,7 +11389,7 @@
         <v>125.9331</v>
       </c>
     </row>
-    <row r="214" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="214" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H214">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11401,7 +11401,7 @@
         <v>125.37139999999999</v>
       </c>
     </row>
-    <row r="215" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="215" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H215">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11413,7 +11413,7 @@
         <v>125.9153</v>
       </c>
     </row>
-    <row r="216" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="216" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H216">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11425,7 +11425,7 @@
         <v>125.6576</v>
       </c>
     </row>
-    <row r="217" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="217" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H217">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11437,7 +11437,7 @@
         <v>125.5729</v>
       </c>
     </row>
-    <row r="218" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="218" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H218">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11449,7 +11449,7 @@
         <v>125.9589</v>
       </c>
     </row>
-    <row r="219" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="219" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H219">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11461,7 +11461,7 @@
         <v>135.2037</v>
       </c>
     </row>
-    <row r="220" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="220" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H220">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11473,7 +11473,7 @@
         <v>135.52789999999999</v>
       </c>
     </row>
-    <row r="221" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="221" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H221">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11485,7 +11485,7 @@
         <v>135.4736</v>
       </c>
     </row>
-    <row r="222" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="222" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H222">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11497,7 +11497,7 @@
         <v>135.52209999999999</v>
       </c>
     </row>
-    <row r="223" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="223" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H223">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11509,7 +11509,7 @@
         <v>135.203</v>
       </c>
     </row>
-    <row r="224" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="224" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H224">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11521,7 +11521,7 @@
         <v>135.62870000000001</v>
       </c>
     </row>
-    <row r="225" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="225" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H225">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>135.7516</v>
       </c>
     </row>
-    <row r="226" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="226" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H226">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11545,7 +11545,7 @@
         <v>135.196</v>
       </c>
     </row>
-    <row r="227" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="227" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H227">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11557,7 +11557,7 @@
         <v>135.72149999999999</v>
       </c>
     </row>
-    <row r="228" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="228" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H228">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>135.15219999999999</v>
       </c>
     </row>
-    <row r="229" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="229" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H229">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>135.52850000000001</v>
       </c>
     </row>
-    <row r="230" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="230" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H230">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11593,7 +11593,7 @@
         <v>135.50040000000001</v>
       </c>
     </row>
-    <row r="231" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="231" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H231">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11605,7 +11605,7 @@
         <v>135.14279999999999</v>
       </c>
     </row>
-    <row r="232" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="232" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H232">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>135.7586</v>
       </c>
     </row>
-    <row r="233" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="233" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H233">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>135.2062</v>
       </c>
     </row>
-    <row r="234" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="234" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H234">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11641,7 +11641,7 @@
         <v>135.19049999999999</v>
       </c>
     </row>
-    <row r="235" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="235" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H235">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11653,7 +11653,7 @@
         <v>135.5018</v>
       </c>
     </row>
-    <row r="236" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="236" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H236">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11665,7 +11665,7 @@
         <v>135.70230000000001</v>
       </c>
     </row>
-    <row r="237" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="237" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H237">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11677,7 +11677,7 @@
         <v>135.14320000000001</v>
       </c>
     </row>
-    <row r="238" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="238" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H238">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11689,7 +11689,7 @@
         <v>135.9186</v>
       </c>
     </row>
-    <row r="239" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="239" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H239">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11701,7 +11701,7 @@
         <v>135.1687</v>
       </c>
     </row>
-    <row r="240" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="240" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H240">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11713,7 +11713,7 @@
         <v>136.13910000000001</v>
       </c>
     </row>
-    <row r="241" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="241" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H241">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11725,7 +11725,7 @@
         <v>135.43340000000001</v>
       </c>
     </row>
-    <row r="242" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="242" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H242">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11737,7 +11737,7 @@
         <v>146.0427</v>
       </c>
     </row>
-    <row r="243" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="243" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H243">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11749,7 +11749,7 @@
         <v>135.41380000000001</v>
       </c>
     </row>
-    <row r="244" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="244" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H244">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11761,7 +11761,7 @@
         <v>148.27549999999999</v>
       </c>
     </row>
-    <row r="245" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="245" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H245">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11773,7 +11773,7 @@
         <v>135.7269</v>
       </c>
     </row>
-    <row r="246" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="246" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H246">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11785,7 +11785,7 @@
         <v>150.4016</v>
       </c>
     </row>
-    <row r="247" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="247" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H247">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11797,7 +11797,7 @@
         <v>135.68629999999999</v>
       </c>
     </row>
-    <row r="248" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="248" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H248">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11809,7 +11809,7 @@
         <v>149.3246</v>
       </c>
     </row>
-    <row r="249" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="249" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H249">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11821,7 +11821,7 @@
         <v>135.16829999999999</v>
       </c>
     </row>
-    <row r="250" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="250" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H250">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11833,7 +11833,7 @@
         <v>135.63730000000001</v>
       </c>
     </row>
-    <row r="251" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="251" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H251">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11845,7 +11845,7 @@
         <v>135.42089999999999</v>
       </c>
     </row>
-    <row r="252" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="252" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H252">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11857,7 +11857,7 @@
         <v>135.44110000000001</v>
       </c>
     </row>
-    <row r="253" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="253" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H253">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11869,7 +11869,7 @@
         <v>135.73140000000001</v>
       </c>
     </row>
-    <row r="254" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="254" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H254">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11881,7 +11881,7 @@
         <v>135.52979999999999</v>
       </c>
     </row>
-    <row r="255" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="255" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H255">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11893,7 +11893,7 @@
         <v>135.16589999999999</v>
       </c>
     </row>
-    <row r="256" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="256" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H256">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11905,7 +11905,7 @@
         <v>135.43109999999999</v>
       </c>
     </row>
-    <row r="257" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="257" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H257">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11917,7 +11917,7 @@
         <v>135.6944</v>
       </c>
     </row>
-    <row r="258" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="258" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H258">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11929,7 +11929,7 @@
         <v>135.5111</v>
       </c>
     </row>
-    <row r="259" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="259" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H259">
         <f t="shared" ref="H259:H297" si="5">D259-F259</f>
         <v>0</v>
@@ -11941,7 +11941,7 @@
         <v>135.74529999999999</v>
       </c>
     </row>
-    <row r="260" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="260" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H260">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -11953,7 +11953,7 @@
         <v>135.589</v>
       </c>
     </row>
-    <row r="261" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="261" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H261">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -11965,7 +11965,7 @@
         <v>135.4787</v>
       </c>
     </row>
-    <row r="262" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="262" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H262">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -11977,7 +11977,7 @@
         <v>135.501</v>
       </c>
     </row>
-    <row r="263" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="263" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H263">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -11989,7 +11989,7 @@
         <v>135.68340000000001</v>
       </c>
     </row>
-    <row r="264" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="264" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H264">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12001,7 +12001,7 @@
         <v>135.40479999999999</v>
       </c>
     </row>
-    <row r="265" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="265" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H265">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12013,7 +12013,7 @@
         <v>135.34440000000001</v>
       </c>
     </row>
-    <row r="266" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="266" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H266">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12025,7 +12025,7 @@
         <v>135.4581</v>
       </c>
     </row>
-    <row r="267" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="267" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H267">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12037,7 +12037,7 @@
         <v>135.1977</v>
       </c>
     </row>
-    <row r="268" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="268" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H268">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12049,7 +12049,7 @@
         <v>135.34399999999999</v>
       </c>
     </row>
-    <row r="269" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="269" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H269">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12061,7 +12061,7 @@
         <v>135.76349999999999</v>
       </c>
     </row>
-    <row r="270" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="270" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H270">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12073,7 +12073,7 @@
         <v>135.49199999999999</v>
       </c>
     </row>
-    <row r="271" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="271" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H271">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>135.47919999999999</v>
       </c>
     </row>
-    <row r="272" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="272" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H272">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12097,7 +12097,7 @@
         <v>135.7834</v>
       </c>
     </row>
-    <row r="273" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="273" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H273">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>135.50450000000001</v>
       </c>
     </row>
-    <row r="274" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="274" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H274">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12121,7 +12121,7 @@
         <v>135.22200000000001</v>
       </c>
     </row>
-    <row r="275" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="275" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H275">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12133,7 +12133,7 @@
         <v>135.49209999999999</v>
       </c>
     </row>
-    <row r="276" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="276" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H276">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12145,7 +12145,7 @@
         <v>135.19800000000001</v>
       </c>
     </row>
-    <row r="277" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="277" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H277">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12157,7 +12157,7 @@
         <v>135.47669999999999</v>
       </c>
     </row>
-    <row r="278" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="278" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H278">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12169,7 +12169,7 @@
         <v>135.24359999999999</v>
       </c>
     </row>
-    <row r="279" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="279" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H279">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12181,7 +12181,7 @@
         <v>135.78200000000001</v>
       </c>
     </row>
-    <row r="280" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="280" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H280">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12193,7 +12193,7 @@
         <v>135.61869999999999</v>
       </c>
     </row>
-    <row r="281" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="281" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H281">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>135.5112</v>
       </c>
     </row>
-    <row r="282" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="282" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H282">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12217,7 +12217,7 @@
         <v>135.25960000000001</v>
       </c>
     </row>
-    <row r="283" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="283" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H283">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12229,7 +12229,7 @@
         <v>135.57429999999999</v>
       </c>
     </row>
-    <row r="284" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="284" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H284">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12241,7 +12241,7 @@
         <v>135.48140000000001</v>
       </c>
     </row>
-    <row r="285" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="285" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H285">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>135.24860000000001</v>
       </c>
     </row>
-    <row r="286" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="286" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H286">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>135.2543</v>
       </c>
     </row>
-    <row r="287" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="287" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H287">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12277,7 +12277,7 @@
         <v>135.78460000000001</v>
       </c>
     </row>
-    <row r="288" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="288" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H288">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12289,7 +12289,7 @@
         <v>135.56190000000001</v>
       </c>
     </row>
-    <row r="289" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="289" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H289">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12301,7 +12301,7 @@
         <v>135.61609999999999</v>
       </c>
     </row>
-    <row r="290" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="290" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H290">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12313,7 +12313,7 @@
         <v>135.52010000000001</v>
       </c>
     </row>
-    <row r="291" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="291" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H291">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12325,7 +12325,7 @@
         <v>135.76300000000001</v>
       </c>
     </row>
-    <row r="292" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="292" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H292">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12337,7 +12337,7 @@
         <v>135.53290000000001</v>
       </c>
     </row>
-    <row r="293" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="293" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H293">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12349,7 +12349,7 @@
         <v>135.28210000000001</v>
       </c>
     </row>
-    <row r="294" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="294" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H294">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12361,7 +12361,7 @@
         <v>135.48609999999999</v>
       </c>
     </row>
-    <row r="295" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="295" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H295">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12373,7 +12373,7 @@
         <v>135.55950000000001</v>
       </c>
     </row>
-    <row r="296" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="296" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H296">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12385,7 +12385,7 @@
         <v>135.2533</v>
       </c>
     </row>
-    <row r="297" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="297" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H297">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12404,23 +12404,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100205AA101E2883C419D53A6EAA58BE6E4" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0732453c88b6c24a50b901808cd2a95">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="0ed78115-f4df-42b0-9376-ad3306022cc8" xmlns:ns4="94b7f148-c09a-42e6-baca-973a9a7cd962" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c3ce456d5e9a668ce7bebc57d13ab49" ns3:_="" ns4:_="">
     <xsd:import namespace="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
@@ -12673,10 +12656,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88B5DFD5-AF32-4053-8117-B9F97580063E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
+    <ds:schemaRef ds:uri="94b7f148-c09a-42e6-baca-973a9a7cd962"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12699,20 +12710,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88B5DFD5-AF32-4053-8117-B9F97580063E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
-    <ds:schemaRef ds:uri="94b7f148-c09a-42e6-baca-973a9a7cd962"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADADDB0-53C6-4F74-AD2A-692C2C13FA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C98234-5589-4202-B07D-A573C512C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="-28920" yWindow="3405" windowWidth="29040" windowHeight="15720" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -3708,23 +3708,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E7760-F87C-4D84-A63F-D473D279D553}">
-  <dimension ref="A1:K163"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T158" sqref="T158"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K181" sqref="K181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.40625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>45400</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>45400</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>45400</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>45400</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>45400</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45400</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>45400</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>45400</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>45400</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>45400</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>45400</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>45400</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="1">
         <v>45400</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>45400</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="1">
         <v>45400</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>45400</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="1">
         <v>45420</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>45420</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="1">
         <v>45420</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="1">
         <v>45420</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="1">
         <v>45420</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="1">
         <v>45420</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="1">
         <v>45420</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="1">
         <v>45420</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="1">
         <v>45420</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="1">
         <v>45420</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="1">
         <v>45420</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="1">
         <v>45420</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A30" s="1">
         <v>45420</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A31" s="1">
         <v>45420</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A32" s="1">
         <v>45420</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A33" s="1">
         <v>45420</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A34" s="1">
         <v>45442</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A35" s="1">
         <v>45442</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A36" s="1">
         <v>45442</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A37" s="1">
         <v>45442</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A38" s="1">
         <v>45442</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A39" s="1">
         <v>45442</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A40" s="1">
         <v>45442</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A41" s="1">
         <v>45442</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A42" s="1">
         <v>45442</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A43" s="1">
         <v>45442</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A44" s="1">
         <v>45442</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A45" s="1">
         <v>45442</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A46" s="1">
         <v>45442</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A47" s="1">
         <v>45442</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A48" s="1">
         <v>45442</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A49" s="1">
         <v>45442</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A50" s="1">
         <v>45463</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>-0.85000000000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A51" s="1">
         <v>45463</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>-1.55</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A52" s="1">
         <v>45463</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A53" s="1">
         <v>45463</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A54" s="1">
         <v>45463</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A55" s="1">
         <v>45463</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>-1.24</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A56" s="1">
         <v>45463</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A57" s="1">
         <v>45463</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A58" s="1">
         <v>45463</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A59" s="1">
         <v>45463</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A60" s="1">
         <v>45463</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>-1.0999999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A61" s="1">
         <v>45463</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>-2.79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A62" s="1">
         <v>45463</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>-1.4649999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A63" s="1">
         <v>45463</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A64" s="1">
         <v>45463</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A65" s="1">
         <v>45463</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>-2.0049999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A66" s="1">
         <v>45484</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A67" s="1">
         <v>45484</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A68" s="1">
         <v>45484</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A69" s="1">
         <v>45484</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A70" s="1">
         <v>45484</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A71" s="1">
         <v>45484</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A72" s="1">
         <v>45484</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A73" s="1">
         <v>45484</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A74" s="1">
         <v>45484</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A75" s="1">
         <v>45484</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>26.57</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A76" s="1">
         <v>45484</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A77" s="1">
         <v>45484</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A78" s="1">
         <v>45484</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A79" s="1">
         <v>45484</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A80" s="1">
         <v>45484</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A81" s="1">
         <v>45484</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A82" s="1">
         <v>45502</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A83" s="1">
         <v>45502</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A84" s="1">
         <v>45502</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A85" s="1">
         <v>45502</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A86" s="1">
         <v>45502</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>25.72</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A87" s="1">
         <v>45502</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A88" s="1">
         <v>45502</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A89" s="1">
         <v>45502</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A90" s="1">
         <v>45502</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A91" s="1">
         <v>45502</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A92" s="1">
         <v>45502</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A93" s="1">
         <v>45502</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A94" s="1">
         <v>45502</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A95" s="1">
         <v>45502</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A96" s="1">
         <v>45502</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A97" s="1">
         <v>45502</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A98" s="1">
         <v>45534</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A99" s="1">
         <v>45534</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A100" s="1">
         <v>45534</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A101" s="1">
         <v>45534</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A102" s="1">
         <v>45534</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>26.43</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A103" s="1">
         <v>45534</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A104" s="1">
         <v>45534</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A105" s="1">
         <v>45534</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>27.11</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A106" s="1">
         <v>45534</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A107" s="1">
         <v>45534</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>26.23</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A108" s="1">
         <v>45534</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A109" s="1">
         <v>45534</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A110" s="1">
         <v>45534</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A111" s="1">
         <v>45534</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>28.69</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A112" s="1">
         <v>45534</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A113" s="1">
         <v>45534</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A114" s="1">
         <v>45569</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A115" s="1">
         <v>45569</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A116" s="1">
         <v>45569</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A117" s="1">
         <v>45569</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A118" s="1">
         <v>45569</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A119" s="1">
         <v>45569</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A120" s="1">
         <v>45569</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A121" s="1">
         <v>45569</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A122" s="1">
         <v>45569</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A123" s="1">
         <v>45569</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>1373.6</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A124" s="3">
         <v>45569</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A125" s="1">
         <v>45569</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A126" s="1">
         <v>45569</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A127" s="1">
         <v>45569</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A128" s="1">
         <v>45569</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A129" s="1">
         <v>45569</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A130" s="1">
         <v>45597</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A131" s="1">
         <v>45597</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A132" s="1">
         <v>45597</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A133" s="1">
         <v>45597</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A134" s="1">
         <v>45597</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A135" s="1">
         <v>45597</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A136" s="1">
         <v>45597</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A137" s="1">
         <v>45597</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>0.5</v>
       </c>
       <c r="G137">
-        <f t="shared" ref="G137:G163" si="6">E137-F137</f>
+        <f t="shared" ref="G137:G169" si="6">E137-F137</f>
         <v>-0.42</v>
       </c>
       <c r="H137">
@@ -7727,7 +7727,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A138" s="1">
         <v>45597</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A139" s="1">
         <v>45597</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A140" s="1">
         <v>45597</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A141" s="1">
         <v>45597</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A142" s="1">
         <v>45597</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A143" s="1">
         <v>45597</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A144" s="1">
         <v>45597</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A145" s="1">
         <v>45597</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A146" s="1">
         <v>45635</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A147" s="1">
         <v>45635</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A148" s="1">
         <v>45635</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A149" s="1">
         <v>45635</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A150" s="1">
         <v>45635</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A151" s="1">
         <v>45635</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A152" s="1">
         <v>45635</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A153" s="1">
         <v>45635</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A154" s="1">
         <v>45635</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A155" s="1">
         <v>45635</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A156" s="1">
         <v>45635</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A157" s="1">
         <v>45635</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A158" s="1">
         <v>45635</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A159" s="1">
         <v>45635</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A160" s="1">
         <v>45635</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A161" s="1">
         <v>45635</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A162" s="1">
         <v>45635</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A163" s="1">
         <v>45635</v>
       </c>
@@ -8538,6 +8538,522 @@
       </c>
       <c r="K163">
         <v>19.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A164" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164">
+        <v>0.44</v>
+      </c>
+      <c r="F164">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="6"/>
+        <v>2.5000000000000022E-2</v>
+      </c>
+      <c r="H164">
+        <v>6.34</v>
+      </c>
+      <c r="K164">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A165" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F165">
+        <v>0.27</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="6"/>
+        <v>0.125</v>
+      </c>
+      <c r="H165">
+        <v>6.17</v>
+      </c>
+      <c r="K165">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A166" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166">
+        <v>0.78</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>5.85</v>
+      </c>
+      <c r="K166">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A167" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167">
+        <v>1.23</v>
+      </c>
+      <c r="F167">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="6"/>
+        <v>0.30499999999999994</v>
+      </c>
+      <c r="H167">
+        <v>5.31</v>
+      </c>
+      <c r="K167">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A168" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G168">
+        <v>0.04</v>
+      </c>
+      <c r="H168">
+        <v>4.47</v>
+      </c>
+      <c r="K168">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A169" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="C169">
+        <v>6</v>
+      </c>
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F169">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="6"/>
+        <v>-0.46</v>
+      </c>
+      <c r="H169">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K169">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A170" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+      <c r="C170">
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="G170">
+        <v>0.41</v>
+      </c>
+      <c r="H170">
+        <v>5.76</v>
+      </c>
+      <c r="K170">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A171" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>36</v>
+      </c>
+      <c r="E171">
+        <v>0.84</v>
+      </c>
+      <c r="G171">
+        <v>0.04</v>
+      </c>
+      <c r="H171">
+        <v>5.65</v>
+      </c>
+      <c r="K171">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A172" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B172">
+        <v>6</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172">
+        <v>0.18</v>
+      </c>
+      <c r="F172">
+        <v>0.45</v>
+      </c>
+      <c r="H172">
+        <v>4.37</v>
+      </c>
+      <c r="K172">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A173" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B173">
+        <v>6</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173">
+        <v>0.78</v>
+      </c>
+      <c r="G173">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H173">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A174" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B174">
+        <v>6</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174" t="s">
+        <v>16</v>
+      </c>
+      <c r="E174">
+        <v>0.85</v>
+      </c>
+      <c r="F174">
+        <v>1.36</v>
+      </c>
+      <c r="G174">
+        <f t="shared" ref="G174:G181" si="7">E174-F174</f>
+        <v>-0.51000000000000012</v>
+      </c>
+      <c r="H174">
+        <v>4.32</v>
+      </c>
+      <c r="K174">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A175" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B175">
+        <v>6</v>
+      </c>
+      <c r="C175">
+        <v>4</v>
+      </c>
+      <c r="D175" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175">
+        <v>0.2</v>
+      </c>
+      <c r="F175">
+        <v>0.315</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="7"/>
+        <v>-0.11499999999999999</v>
+      </c>
+      <c r="H175">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K175">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A176" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B176">
+        <v>6</v>
+      </c>
+      <c r="C176">
+        <v>5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E176">
+        <v>1.032</v>
+      </c>
+      <c r="F176">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="7"/>
+        <v>-1.2479999999999998</v>
+      </c>
+      <c r="H176">
+        <v>4.53</v>
+      </c>
+      <c r="K176">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A177" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B177">
+        <v>9</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177">
+        <v>0.255</v>
+      </c>
+      <c r="F177">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="7"/>
+        <v>-0.29000000000000004</v>
+      </c>
+      <c r="H177">
+        <v>3.71</v>
+      </c>
+      <c r="K177">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A178" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B178">
+        <v>9</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0.5</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="7"/>
+        <v>-0.5</v>
+      </c>
+      <c r="H178">
+        <v>3.9</v>
+      </c>
+      <c r="K178">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A179" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B179">
+        <v>9</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179" t="s">
+        <v>21</v>
+      </c>
+      <c r="E179">
+        <v>0.69</v>
+      </c>
+      <c r="F179">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="7"/>
+        <v>-0.58499999999999996</v>
+      </c>
+      <c r="H179">
+        <v>3.74</v>
+      </c>
+      <c r="K179">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A180" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B180">
+        <v>9</v>
+      </c>
+      <c r="C180">
+        <v>4</v>
+      </c>
+      <c r="D180" t="s">
+        <v>22</v>
+      </c>
+      <c r="E180">
+        <v>0.33</v>
+      </c>
+      <c r="F180">
+        <v>1.05</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="7"/>
+        <v>-0.72</v>
+      </c>
+      <c r="H180">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="K180">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A181" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B181">
+        <v>9</v>
+      </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>37</v>
+      </c>
+      <c r="E181">
+        <v>0.02</v>
+      </c>
+      <c r="F181">
+        <v>0.81</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="7"/>
+        <v>-0.79</v>
+      </c>
+      <c r="H181">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="K181">
+        <v>15.1</v>
       </c>
     </row>
   </sheetData>
@@ -8553,17 +9069,17 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -8595,7 +9111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -8623,7 +9139,7 @@
         <v>79.863910000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -8651,7 +9167,7 @@
         <v>76.943730000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -8679,7 +9195,7 @@
         <v>88.202100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -8707,7 +9223,7 @@
         <v>76.922430000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -8735,7 +9251,7 @@
         <v>92.059330000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -8763,7 +9279,7 @@
         <v>76.370699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -8788,7 +9304,7 @@
         <v>93.197450000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -8816,7 +9332,7 @@
         <v>76.815430000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -8844,7 +9360,7 @@
         <v>76.590829999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -8872,7 +9388,7 @@
         <v>76.606219999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -8900,7 +9416,7 @@
         <v>76.513019999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -8928,7 +9444,7 @@
         <v>76.622630000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -8956,7 +9472,7 @@
         <v>66.857730000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -8984,7 +9500,7 @@
         <v>67.045649999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -9012,7 +9528,7 @@
         <v>67.109120000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -9037,7 +9553,7 @@
         <v>66.502930000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9049,7 +9565,7 @@
         <v>66.842190000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9061,7 +9577,7 @@
         <v>66.69511</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H20">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9073,7 +9589,7 @@
         <v>67.072839999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H21">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9085,7 +9601,7 @@
         <v>66.492159999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9097,7 +9613,7 @@
         <v>66.821780000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H23">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9109,7 +9625,7 @@
         <v>66.970429999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H24">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9121,7 +9637,7 @@
         <v>66.743210000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9133,7 +9649,7 @@
         <v>66.741129999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H26">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9145,7 +9661,7 @@
         <v>66.642009999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9157,7 +9673,7 @@
         <v>66.604929999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H28">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9169,7 +9685,7 @@
         <v>66.727909999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9181,7 +9697,7 @@
         <v>66.755129999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H30">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9193,7 +9709,7 @@
         <v>66.565960000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H31">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9205,7 +9721,7 @@
         <v>66.708879999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.75">
       <c r="H32">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9217,7 +9733,7 @@
         <v>66.438630000000003</v>
       </c>
     </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9229,7 +9745,7 @@
         <v>66.721999999999994</v>
       </c>
     </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9241,7 +9757,7 @@
         <v>66.502319999999997</v>
       </c>
     </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9253,7 +9769,7 @@
         <v>66.603359999999995</v>
       </c>
     </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9265,7 +9781,7 @@
         <v>66.735640000000004</v>
       </c>
     </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H37">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9277,7 +9793,7 @@
         <v>67.009540000000001</v>
       </c>
     </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H38">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9289,7 +9805,7 @@
         <v>66.730959999999996</v>
       </c>
     </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9301,7 +9817,7 @@
         <v>66.700519999999997</v>
       </c>
     </row>
-    <row r="40" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H40">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9313,7 +9829,7 @@
         <v>66.432400000000001</v>
       </c>
     </row>
-    <row r="41" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H41">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9325,7 +9841,7 @@
         <v>66.440209999999993</v>
       </c>
     </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9337,7 +9853,7 @@
         <v>66.810680000000005</v>
       </c>
     </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H43">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9349,7 +9865,7 @@
         <v>66.765969999999996</v>
       </c>
     </row>
-    <row r="44" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9361,7 +9877,7 @@
         <v>66.688059999999993</v>
       </c>
     </row>
-    <row r="45" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H45">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9373,7 +9889,7 @@
         <v>66.708640000000003</v>
       </c>
     </row>
-    <row r="46" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H46">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9385,7 +9901,7 @@
         <v>66.707120000000003</v>
       </c>
     </row>
-    <row r="47" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H47">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9397,7 +9913,7 @@
         <v>66.699510000000004</v>
       </c>
     </row>
-    <row r="48" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9409,7 +9925,7 @@
         <v>67.011229999999998</v>
       </c>
     </row>
-    <row r="49" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H49">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9421,7 +9937,7 @@
         <v>66.578879999999998</v>
       </c>
     </row>
-    <row r="50" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9433,7 +9949,7 @@
         <v>66.439570000000003</v>
       </c>
     </row>
-    <row r="51" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H51">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9445,7 +9961,7 @@
         <v>66.421679999999995</v>
       </c>
     </row>
-    <row r="52" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H52">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9457,7 +9973,7 @@
         <v>66.699039999999997</v>
       </c>
     </row>
-    <row r="53" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H53">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9469,7 +9985,7 @@
         <v>66.41798</v>
       </c>
     </row>
-    <row r="54" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H54">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9481,7 +9997,7 @@
         <v>66.555769999999995</v>
       </c>
     </row>
-    <row r="55" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H55">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9493,7 +10009,7 @@
         <v>66.713909999999998</v>
       </c>
     </row>
-    <row r="56" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H56">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9505,7 +10021,7 @@
         <v>66.679460000000006</v>
       </c>
     </row>
-    <row r="57" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9517,7 +10033,7 @@
         <v>66.716350000000006</v>
       </c>
     </row>
-    <row r="58" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H58">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9529,7 +10045,7 @@
         <v>66.600700000000003</v>
       </c>
     </row>
-    <row r="59" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H59">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9541,7 +10057,7 @@
         <v>67.232489999999999</v>
       </c>
     </row>
-    <row r="60" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H60">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9553,7 +10069,7 @@
         <v>66.475719999999995</v>
       </c>
     </row>
-    <row r="61" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H61">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9565,7 +10081,7 @@
         <v>69.48903</v>
       </c>
     </row>
-    <row r="62" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H62">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9577,7 +10093,7 @@
         <v>66.661689999999993</v>
       </c>
     </row>
-    <row r="63" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H63">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9589,7 +10105,7 @@
         <v>77.511840000000007</v>
       </c>
     </row>
-    <row r="64" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H64">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9601,7 +10117,7 @@
         <v>66.713200000000001</v>
       </c>
     </row>
-    <row r="65" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H65">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9613,7 +10129,7 @@
         <v>80.544539999999998</v>
       </c>
     </row>
-    <row r="66" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H66">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9625,7 +10141,7 @@
         <v>66.882890000000003</v>
       </c>
     </row>
-    <row r="67" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H67">
         <f t="shared" ref="H67:H130" si="2">D67-F67</f>
         <v>0</v>
@@ -9637,7 +10153,7 @@
         <v>82.613020000000006</v>
       </c>
     </row>
-    <row r="68" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H68">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9649,7 +10165,7 @@
         <v>66.875720000000001</v>
       </c>
     </row>
-    <row r="69" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H69">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9661,7 +10177,7 @@
         <v>81.679119999999998</v>
       </c>
     </row>
-    <row r="70" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H70">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9673,7 +10189,7 @@
         <v>76.520039999999995</v>
       </c>
     </row>
-    <row r="71" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H71">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9685,7 +10201,7 @@
         <v>76.523030000000006</v>
       </c>
     </row>
-    <row r="72" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H72">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9697,7 +10213,7 @@
         <v>76.558539999999994</v>
       </c>
     </row>
-    <row r="73" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H73">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9709,7 +10225,7 @@
         <v>76.322270000000003</v>
       </c>
     </row>
-    <row r="74" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H74">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9721,7 +10237,7 @@
         <v>76.840400000000002</v>
       </c>
     </row>
-    <row r="75" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H75">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9733,7 +10249,7 @@
         <v>76.866280000000003</v>
       </c>
     </row>
-    <row r="76" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H76">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9745,7 +10261,7 @@
         <v>76.297600000000003</v>
       </c>
     </row>
-    <row r="77" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H77">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9757,7 +10273,7 @@
         <v>76.881839999999997</v>
       </c>
     </row>
-    <row r="78" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H78">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9769,7 +10285,7 @@
         <v>76.468999999999994</v>
       </c>
     </row>
-    <row r="79" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H79">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9781,7 +10297,7 @@
         <v>76.618129999999994</v>
       </c>
     </row>
-    <row r="80" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H80">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9793,7 +10309,7 @@
         <v>76.480620000000002</v>
       </c>
     </row>
-    <row r="81" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H81">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9805,7 +10321,7 @@
         <v>76.648570000000007</v>
       </c>
     </row>
-    <row r="82" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H82">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9817,7 +10333,7 @@
         <v>76.311499999999995</v>
       </c>
     </row>
-    <row r="83" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H83">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9829,7 +10345,7 @@
         <v>76.679150000000007</v>
       </c>
     </row>
-    <row r="84" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H84">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9841,7 +10357,7 @@
         <v>76.621639999999999</v>
       </c>
     </row>
-    <row r="85" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H85">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9853,7 +10369,7 @@
         <v>76.371279999999999</v>
       </c>
     </row>
-    <row r="86" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H86">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9865,7 +10381,7 @@
         <v>76.636949999999999</v>
       </c>
     </row>
-    <row r="87" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H87">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9877,7 +10393,7 @@
         <v>76.882059999999996</v>
       </c>
     </row>
-    <row r="88" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H88">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9889,7 +10405,7 @@
         <v>76.91395</v>
       </c>
     </row>
-    <row r="89" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H89">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9901,7 +10417,7 @@
         <v>76.394909999999996</v>
       </c>
     </row>
-    <row r="90" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H90">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9913,7 +10429,7 @@
         <v>76.664580000000001</v>
       </c>
     </row>
-    <row r="91" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9925,7 +10441,7 @@
         <v>76.792010000000005</v>
       </c>
     </row>
-    <row r="92" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H92">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9937,7 +10453,7 @@
         <v>86.622889999999998</v>
       </c>
     </row>
-    <row r="93" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H93">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9949,7 +10465,7 @@
         <v>86.426929999999999</v>
       </c>
     </row>
-    <row r="94" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H94">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9961,7 +10477,7 @@
         <v>86.291049999999998</v>
       </c>
     </row>
-    <row r="95" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H95">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9973,7 +10489,7 @@
         <v>86.616039999999998</v>
       </c>
     </row>
-    <row r="96" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H96">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9985,7 +10501,7 @@
         <v>86.725769999999997</v>
       </c>
     </row>
-    <row r="97" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H97">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9997,7 +10513,7 @@
         <v>86.364840000000001</v>
       </c>
     </row>
-    <row r="98" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H98">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10009,7 +10525,7 @@
         <v>86.454610000000002</v>
       </c>
     </row>
-    <row r="99" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H99">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10021,7 +10537,7 @@
         <v>86.403989999999993</v>
       </c>
     </row>
-    <row r="100" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H100">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10033,7 +10549,7 @@
         <v>86.471239999999995</v>
       </c>
     </row>
-    <row r="101" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H101">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10045,7 +10561,7 @@
         <v>86.733379999999997</v>
       </c>
     </row>
-    <row r="102" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H102">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10057,7 +10573,7 @@
         <v>86.402079999999998</v>
       </c>
     </row>
-    <row r="103" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H103">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10069,7 +10585,7 @@
         <v>86.439710000000005</v>
       </c>
     </row>
-    <row r="104" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H104">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10081,7 +10597,7 @@
         <v>86.730919999999998</v>
       </c>
     </row>
-    <row r="105" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H105">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10093,7 +10609,7 @@
         <v>86.136409999999998</v>
       </c>
     </row>
-    <row r="106" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10105,7 +10621,7 @@
         <v>86.486429999999999</v>
       </c>
     </row>
-    <row r="107" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H107">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10117,7 +10633,7 @@
         <v>86.408940000000001</v>
       </c>
     </row>
-    <row r="108" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H108">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10129,7 +10645,7 @@
         <v>86.266360000000006</v>
       </c>
     </row>
-    <row r="109" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H109">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10141,7 +10657,7 @@
         <v>96.321259999999995</v>
       </c>
     </row>
-    <row r="110" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10153,7 +10669,7 @@
         <v>95.994619999999998</v>
       </c>
     </row>
-    <row r="111" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H111">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10165,7 +10681,7 @@
         <v>96.47484</v>
       </c>
     </row>
-    <row r="112" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H112">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10177,7 +10693,7 @@
         <v>96.487459999999999</v>
       </c>
     </row>
-    <row r="113" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H113">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10189,7 +10705,7 @@
         <v>95.942539999999994</v>
       </c>
     </row>
-    <row r="114" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H114">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10201,7 +10717,7 @@
         <v>96.212249999999997</v>
       </c>
     </row>
-    <row r="115" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H115">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10213,7 +10729,7 @@
         <v>96.16</v>
       </c>
     </row>
-    <row r="116" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H116">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10225,7 +10741,7 @@
         <v>96.532060000000001</v>
       </c>
     </row>
-    <row r="117" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H117">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10237,7 +10753,7 @@
         <v>96.261859999999999</v>
       </c>
     </row>
-    <row r="118" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H118">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10249,7 +10765,7 @@
         <v>96.204570000000004</v>
       </c>
     </row>
-    <row r="119" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H119">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10261,7 +10777,7 @@
         <v>95.947130000000001</v>
       </c>
     </row>
-    <row r="120" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H120">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10273,7 +10789,7 @@
         <v>102.5564</v>
       </c>
     </row>
-    <row r="121" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H121">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10285,7 +10801,7 @@
         <v>96.26979</v>
       </c>
     </row>
-    <row r="122" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H122">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10297,7 +10813,7 @@
         <v>107.5222</v>
       </c>
     </row>
-    <row r="123" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H123">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10309,7 +10825,7 @@
         <v>96.174220000000005</v>
       </c>
     </row>
-    <row r="124" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H124">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10321,7 +10837,7 @@
         <v>111.3181</v>
       </c>
     </row>
-    <row r="125" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H125">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10333,7 +10849,7 @@
         <v>96.214839999999995</v>
       </c>
     </row>
-    <row r="126" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H126">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10345,7 +10861,7 @@
         <v>122.13800000000001</v>
       </c>
     </row>
-    <row r="127" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H127">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10357,7 +10873,7 @@
         <v>105.7696</v>
       </c>
     </row>
-    <row r="128" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H128">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10369,7 +10885,7 @@
         <v>106.3018</v>
       </c>
     </row>
-    <row r="129" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H129">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10381,7 +10897,7 @@
         <v>106.0164</v>
       </c>
     </row>
-    <row r="130" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H130">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10393,7 +10909,7 @@
         <v>106.0008</v>
       </c>
     </row>
-    <row r="131" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H131">
         <f t="shared" ref="H131:H194" si="3">D131-F131</f>
         <v>0</v>
@@ -10405,7 +10921,7 @@
         <v>106.2757</v>
       </c>
     </row>
-    <row r="132" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H132">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10417,7 +10933,7 @@
         <v>105.7705</v>
       </c>
     </row>
-    <row r="133" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H133">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10429,7 +10945,7 @@
         <v>106.0813</v>
       </c>
     </row>
-    <row r="134" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H134">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10441,7 +10957,7 @@
         <v>106.3004</v>
       </c>
     </row>
-    <row r="135" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H135">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10453,7 +10969,7 @@
         <v>105.8387</v>
       </c>
     </row>
-    <row r="136" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H136">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10465,7 +10981,7 @@
         <v>106.3312</v>
       </c>
     </row>
-    <row r="137" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H137">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10477,7 +10993,7 @@
         <v>105.94289999999999</v>
       </c>
     </row>
-    <row r="138" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H138">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10489,7 +11005,7 @@
         <v>105.88379999999999</v>
       </c>
     </row>
-    <row r="139" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H139">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10501,7 +11017,7 @@
         <v>105.9689</v>
       </c>
     </row>
-    <row r="140" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H140">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10513,7 +11029,7 @@
         <v>106.07550000000001</v>
       </c>
     </row>
-    <row r="141" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H141">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10525,7 +11041,7 @@
         <v>105.9944</v>
       </c>
     </row>
-    <row r="142" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H142">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10537,7 +11053,7 @@
         <v>105.9682</v>
       </c>
     </row>
-    <row r="143" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H143">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10549,7 +11065,7 @@
         <v>106.0844</v>
       </c>
     </row>
-    <row r="144" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H144">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10561,7 +11077,7 @@
         <v>106.253</v>
       </c>
     </row>
-    <row r="145" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H145">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10573,7 +11089,7 @@
         <v>105.9712</v>
       </c>
     </row>
-    <row r="146" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H146">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10585,7 +11101,7 @@
         <v>105.7208</v>
       </c>
     </row>
-    <row r="147" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H147">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10597,7 +11113,7 @@
         <v>106.00369999999999</v>
       </c>
     </row>
-    <row r="148" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H148">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10609,7 +11125,7 @@
         <v>105.74850000000001</v>
       </c>
     </row>
-    <row r="149" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H149">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10621,7 +11137,7 @@
         <v>105.6892</v>
       </c>
     </row>
-    <row r="150" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H150">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10633,7 +11149,7 @@
         <v>115.9367</v>
       </c>
     </row>
-    <row r="151" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H151">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10645,7 +11161,7 @@
         <v>115.7723</v>
       </c>
     </row>
-    <row r="152" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H152">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10657,7 +11173,7 @@
         <v>115.5065</v>
       </c>
     </row>
-    <row r="153" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H153">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10669,7 +11185,7 @@
         <v>116.05670000000001</v>
       </c>
     </row>
-    <row r="154" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H154">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10681,7 +11197,7 @@
         <v>115.9269</v>
       </c>
     </row>
-    <row r="155" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H155">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10693,7 +11209,7 @@
         <v>115.9965</v>
       </c>
     </row>
-    <row r="156" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H156">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10705,7 +11221,7 @@
         <v>115.4991</v>
       </c>
     </row>
-    <row r="157" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H157">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10717,7 +11233,7 @@
         <v>115.5228</v>
       </c>
     </row>
-    <row r="158" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H158">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10729,7 +11245,7 @@
         <v>115.83710000000001</v>
       </c>
     </row>
-    <row r="159" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H159">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10741,7 +11257,7 @@
         <v>115.67700000000001</v>
       </c>
     </row>
-    <row r="160" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H160">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10753,7 +11269,7 @@
         <v>115.5472</v>
       </c>
     </row>
-    <row r="161" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H161">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10765,7 +11281,7 @@
         <v>116.02809999999999</v>
       </c>
     </row>
-    <row r="162" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H162">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10777,7 +11293,7 @@
         <v>115.7191</v>
       </c>
     </row>
-    <row r="163" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H163">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10789,7 +11305,7 @@
         <v>115.8503</v>
       </c>
     </row>
-    <row r="164" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H164">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10801,7 +11317,7 @@
         <v>116.01349999999999</v>
       </c>
     </row>
-    <row r="165" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H165">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10813,7 +11329,7 @@
         <v>116.0718</v>
       </c>
     </row>
-    <row r="166" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H166">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10825,7 +11341,7 @@
         <v>115.88200000000001</v>
       </c>
     </row>
-    <row r="167" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H167">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10837,7 +11353,7 @@
         <v>115.82640000000001</v>
       </c>
     </row>
-    <row r="168" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H168">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10849,7 +11365,7 @@
         <v>116.0414</v>
       </c>
     </row>
-    <row r="169" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H169">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10861,7 +11377,7 @@
         <v>115.7786</v>
       </c>
     </row>
-    <row r="170" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H170">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10873,7 +11389,7 @@
         <v>115.92440000000001</v>
       </c>
     </row>
-    <row r="171" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H171">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10885,7 +11401,7 @@
         <v>116.0988</v>
       </c>
     </row>
-    <row r="172" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H172">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10897,7 +11413,7 @@
         <v>115.9281</v>
       </c>
     </row>
-    <row r="173" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H173">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10909,7 +11425,7 @@
         <v>115.8377</v>
       </c>
     </row>
-    <row r="174" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H174">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10921,7 +11437,7 @@
         <v>116.0936</v>
       </c>
     </row>
-    <row r="175" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H175">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10933,7 +11449,7 @@
         <v>115.8402</v>
       </c>
     </row>
-    <row r="176" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H176">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10945,7 +11461,7 @@
         <v>116.17019999999999</v>
       </c>
     </row>
-    <row r="177" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H177">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10957,7 +11473,7 @@
         <v>115.6253</v>
       </c>
     </row>
-    <row r="178" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H178">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10969,7 +11485,7 @@
         <v>116.0719</v>
       </c>
     </row>
-    <row r="179" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H179">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10981,7 +11497,7 @@
         <v>116.3058</v>
       </c>
     </row>
-    <row r="180" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H180">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -10993,7 +11509,7 @@
         <v>115.8853</v>
       </c>
     </row>
-    <row r="181" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H181">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11005,7 +11521,7 @@
         <v>116.38339999999999</v>
       </c>
     </row>
-    <row r="182" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H182">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11017,7 +11533,7 @@
         <v>116.1009</v>
       </c>
     </row>
-    <row r="183" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H183">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11029,7 +11545,7 @@
         <v>126.40130000000001</v>
       </c>
     </row>
-    <row r="184" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H184">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11041,7 +11557,7 @@
         <v>115.6763</v>
       </c>
     </row>
-    <row r="185" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H185">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11053,7 +11569,7 @@
         <v>128.953</v>
       </c>
     </row>
-    <row r="186" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H186">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11065,7 +11581,7 @@
         <v>115.9194</v>
       </c>
     </row>
-    <row r="187" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H187">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11077,7 +11593,7 @@
         <v>131.6455</v>
       </c>
     </row>
-    <row r="188" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H188">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11089,7 +11605,7 @@
         <v>115.86109999999999</v>
       </c>
     </row>
-    <row r="189" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H189">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11101,7 +11617,7 @@
         <v>115.68819999999999</v>
       </c>
     </row>
-    <row r="190" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H190">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11113,7 +11629,7 @@
         <v>116.19329999999999</v>
       </c>
     </row>
-    <row r="191" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H191">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11125,7 +11641,7 @@
         <v>116.134</v>
       </c>
     </row>
-    <row r="192" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H192">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11137,7 +11653,7 @@
         <v>116.1763</v>
       </c>
     </row>
-    <row r="193" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H193">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11149,7 +11665,7 @@
         <v>116.0438</v>
       </c>
     </row>
-    <row r="194" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H194">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11161,7 +11677,7 @@
         <v>115.9259</v>
       </c>
     </row>
-    <row r="195" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H195">
         <f t="shared" ref="H195:H258" si="4">D195-F195</f>
         <v>0</v>
@@ -11173,7 +11689,7 @@
         <v>116.0008</v>
       </c>
     </row>
-    <row r="196" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H196">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11185,7 +11701,7 @@
         <v>116.0121</v>
       </c>
     </row>
-    <row r="197" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H197">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11197,7 +11713,7 @@
         <v>115.7264</v>
       </c>
     </row>
-    <row r="198" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H198">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11209,7 +11725,7 @@
         <v>115.9374</v>
       </c>
     </row>
-    <row r="199" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H199">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11221,7 +11737,7 @@
         <v>115.91459999999999</v>
       </c>
     </row>
-    <row r="200" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H200">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11233,7 +11749,7 @@
         <v>115.63939999999999</v>
       </c>
     </row>
-    <row r="201" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H201">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11245,7 +11761,7 @@
         <v>116.1581</v>
       </c>
     </row>
-    <row r="202" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H202">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11257,7 +11773,7 @@
         <v>115.8416</v>
       </c>
     </row>
-    <row r="203" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H203">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11269,7 +11785,7 @@
         <v>115.8566</v>
       </c>
     </row>
-    <row r="204" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H204">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11281,7 +11797,7 @@
         <v>115.8509</v>
       </c>
     </row>
-    <row r="205" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H205">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11293,7 +11809,7 @@
         <v>115.8514</v>
       </c>
     </row>
-    <row r="206" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H206">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11305,7 +11821,7 @@
         <v>125.86709999999999</v>
       </c>
     </row>
-    <row r="207" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H207">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11317,7 +11833,7 @@
         <v>125.4483</v>
       </c>
     </row>
-    <row r="208" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H208">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11329,7 +11845,7 @@
         <v>125.4024</v>
       </c>
     </row>
-    <row r="209" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H209">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11341,7 +11857,7 @@
         <v>125.7238</v>
       </c>
     </row>
-    <row r="210" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H210">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11353,7 +11869,7 @@
         <v>125.682</v>
       </c>
     </row>
-    <row r="211" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H211">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11365,7 +11881,7 @@
         <v>125.6857</v>
       </c>
     </row>
-    <row r="212" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H212">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11377,7 +11893,7 @@
         <v>125.4738</v>
       </c>
     </row>
-    <row r="213" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H213">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11389,7 +11905,7 @@
         <v>125.9331</v>
       </c>
     </row>
-    <row r="214" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H214">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11401,7 +11917,7 @@
         <v>125.37139999999999</v>
       </c>
     </row>
-    <row r="215" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H215">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11413,7 +11929,7 @@
         <v>125.9153</v>
       </c>
     </row>
-    <row r="216" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H216">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11425,7 +11941,7 @@
         <v>125.6576</v>
       </c>
     </row>
-    <row r="217" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H217">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11437,7 +11953,7 @@
         <v>125.5729</v>
       </c>
     </row>
-    <row r="218" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H218">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11449,7 +11965,7 @@
         <v>125.9589</v>
       </c>
     </row>
-    <row r="219" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H219">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11461,7 +11977,7 @@
         <v>135.2037</v>
       </c>
     </row>
-    <row r="220" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H220">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11473,7 +11989,7 @@
         <v>135.52789999999999</v>
       </c>
     </row>
-    <row r="221" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H221">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11485,7 +12001,7 @@
         <v>135.4736</v>
       </c>
     </row>
-    <row r="222" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H222">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11497,7 +12013,7 @@
         <v>135.52209999999999</v>
       </c>
     </row>
-    <row r="223" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H223">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11509,7 +12025,7 @@
         <v>135.203</v>
       </c>
     </row>
-    <row r="224" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H224">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11521,7 +12037,7 @@
         <v>135.62870000000001</v>
       </c>
     </row>
-    <row r="225" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H225">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11533,7 +12049,7 @@
         <v>135.7516</v>
       </c>
     </row>
-    <row r="226" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H226">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11545,7 +12061,7 @@
         <v>135.196</v>
       </c>
     </row>
-    <row r="227" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H227">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11557,7 +12073,7 @@
         <v>135.72149999999999</v>
       </c>
     </row>
-    <row r="228" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H228">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11569,7 +12085,7 @@
         <v>135.15219999999999</v>
       </c>
     </row>
-    <row r="229" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H229">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11581,7 +12097,7 @@
         <v>135.52850000000001</v>
       </c>
     </row>
-    <row r="230" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H230">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11593,7 +12109,7 @@
         <v>135.50040000000001</v>
       </c>
     </row>
-    <row r="231" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H231">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11605,7 +12121,7 @@
         <v>135.14279999999999</v>
       </c>
     </row>
-    <row r="232" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H232">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11617,7 +12133,7 @@
         <v>135.7586</v>
       </c>
     </row>
-    <row r="233" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H233">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11629,7 +12145,7 @@
         <v>135.2062</v>
       </c>
     </row>
-    <row r="234" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H234">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11641,7 +12157,7 @@
         <v>135.19049999999999</v>
       </c>
     </row>
-    <row r="235" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H235">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11653,7 +12169,7 @@
         <v>135.5018</v>
       </c>
     </row>
-    <row r="236" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H236">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11665,7 +12181,7 @@
         <v>135.70230000000001</v>
       </c>
     </row>
-    <row r="237" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H237">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11677,7 +12193,7 @@
         <v>135.14320000000001</v>
       </c>
     </row>
-    <row r="238" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H238">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11689,7 +12205,7 @@
         <v>135.9186</v>
       </c>
     </row>
-    <row r="239" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H239">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11701,7 +12217,7 @@
         <v>135.1687</v>
       </c>
     </row>
-    <row r="240" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H240">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11713,7 +12229,7 @@
         <v>136.13910000000001</v>
       </c>
     </row>
-    <row r="241" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H241">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11725,7 +12241,7 @@
         <v>135.43340000000001</v>
       </c>
     </row>
-    <row r="242" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H242">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11737,7 +12253,7 @@
         <v>146.0427</v>
       </c>
     </row>
-    <row r="243" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H243">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11749,7 +12265,7 @@
         <v>135.41380000000001</v>
       </c>
     </row>
-    <row r="244" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H244">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11761,7 +12277,7 @@
         <v>148.27549999999999</v>
       </c>
     </row>
-    <row r="245" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H245">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11773,7 +12289,7 @@
         <v>135.7269</v>
       </c>
     </row>
-    <row r="246" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H246">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11785,7 +12301,7 @@
         <v>150.4016</v>
       </c>
     </row>
-    <row r="247" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H247">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11797,7 +12313,7 @@
         <v>135.68629999999999</v>
       </c>
     </row>
-    <row r="248" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H248">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11809,7 +12325,7 @@
         <v>149.3246</v>
       </c>
     </row>
-    <row r="249" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H249">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11821,7 +12337,7 @@
         <v>135.16829999999999</v>
       </c>
     </row>
-    <row r="250" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H250">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11833,7 +12349,7 @@
         <v>135.63730000000001</v>
       </c>
     </row>
-    <row r="251" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H251">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11845,7 +12361,7 @@
         <v>135.42089999999999</v>
       </c>
     </row>
-    <row r="252" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H252">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11857,7 +12373,7 @@
         <v>135.44110000000001</v>
       </c>
     </row>
-    <row r="253" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H253">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11869,7 +12385,7 @@
         <v>135.73140000000001</v>
       </c>
     </row>
-    <row r="254" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H254">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11881,7 +12397,7 @@
         <v>135.52979999999999</v>
       </c>
     </row>
-    <row r="255" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H255">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11893,7 +12409,7 @@
         <v>135.16589999999999</v>
       </c>
     </row>
-    <row r="256" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H256">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11905,7 +12421,7 @@
         <v>135.43109999999999</v>
       </c>
     </row>
-    <row r="257" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H257">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11917,7 +12433,7 @@
         <v>135.6944</v>
       </c>
     </row>
-    <row r="258" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H258">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -11929,7 +12445,7 @@
         <v>135.5111</v>
       </c>
     </row>
-    <row r="259" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H259">
         <f t="shared" ref="H259:H297" si="5">D259-F259</f>
         <v>0</v>
@@ -11941,7 +12457,7 @@
         <v>135.74529999999999</v>
       </c>
     </row>
-    <row r="260" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H260">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -11953,7 +12469,7 @@
         <v>135.589</v>
       </c>
     </row>
-    <row r="261" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H261">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -11965,7 +12481,7 @@
         <v>135.4787</v>
       </c>
     </row>
-    <row r="262" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H262">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -11977,7 +12493,7 @@
         <v>135.501</v>
       </c>
     </row>
-    <row r="263" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H263">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -11989,7 +12505,7 @@
         <v>135.68340000000001</v>
       </c>
     </row>
-    <row r="264" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H264">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12001,7 +12517,7 @@
         <v>135.40479999999999</v>
       </c>
     </row>
-    <row r="265" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H265">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12013,7 +12529,7 @@
         <v>135.34440000000001</v>
       </c>
     </row>
-    <row r="266" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H266">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12025,7 +12541,7 @@
         <v>135.4581</v>
       </c>
     </row>
-    <row r="267" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H267">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12037,7 +12553,7 @@
         <v>135.1977</v>
       </c>
     </row>
-    <row r="268" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H268">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12049,7 +12565,7 @@
         <v>135.34399999999999</v>
       </c>
     </row>
-    <row r="269" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H269">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12061,7 +12577,7 @@
         <v>135.76349999999999</v>
       </c>
     </row>
-    <row r="270" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H270">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12073,7 +12589,7 @@
         <v>135.49199999999999</v>
       </c>
     </row>
-    <row r="271" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H271">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12085,7 +12601,7 @@
         <v>135.47919999999999</v>
       </c>
     </row>
-    <row r="272" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H272">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12097,7 +12613,7 @@
         <v>135.7834</v>
       </c>
     </row>
-    <row r="273" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H273">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12109,7 +12625,7 @@
         <v>135.50450000000001</v>
       </c>
     </row>
-    <row r="274" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H274">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12121,7 +12637,7 @@
         <v>135.22200000000001</v>
       </c>
     </row>
-    <row r="275" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H275">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12133,7 +12649,7 @@
         <v>135.49209999999999</v>
       </c>
     </row>
-    <row r="276" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H276">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12145,7 +12661,7 @@
         <v>135.19800000000001</v>
       </c>
     </row>
-    <row r="277" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H277">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12157,7 +12673,7 @@
         <v>135.47669999999999</v>
       </c>
     </row>
-    <row r="278" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H278">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12169,7 +12685,7 @@
         <v>135.24359999999999</v>
       </c>
     </row>
-    <row r="279" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H279">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12181,7 +12697,7 @@
         <v>135.78200000000001</v>
       </c>
     </row>
-    <row r="280" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H280">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12193,7 +12709,7 @@
         <v>135.61869999999999</v>
       </c>
     </row>
-    <row r="281" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H281">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12205,7 +12721,7 @@
         <v>135.5112</v>
       </c>
     </row>
-    <row r="282" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H282">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12217,7 +12733,7 @@
         <v>135.25960000000001</v>
       </c>
     </row>
-    <row r="283" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H283">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12229,7 +12745,7 @@
         <v>135.57429999999999</v>
       </c>
     </row>
-    <row r="284" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H284">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12241,7 +12757,7 @@
         <v>135.48140000000001</v>
       </c>
     </row>
-    <row r="285" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H285">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12253,7 +12769,7 @@
         <v>135.24860000000001</v>
       </c>
     </row>
-    <row r="286" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H286">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12265,7 +12781,7 @@
         <v>135.2543</v>
       </c>
     </row>
-    <row r="287" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H287">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12277,7 +12793,7 @@
         <v>135.78460000000001</v>
       </c>
     </row>
-    <row r="288" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H288">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12289,7 +12805,7 @@
         <v>135.56190000000001</v>
       </c>
     </row>
-    <row r="289" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H289">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12301,7 +12817,7 @@
         <v>135.61609999999999</v>
       </c>
     </row>
-    <row r="290" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H290">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12313,7 +12829,7 @@
         <v>135.52010000000001</v>
       </c>
     </row>
-    <row r="291" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H291">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12325,7 +12841,7 @@
         <v>135.76300000000001</v>
       </c>
     </row>
-    <row r="292" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H292">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12337,7 +12853,7 @@
         <v>135.53290000000001</v>
       </c>
     </row>
-    <row r="293" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H293">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12349,7 +12865,7 @@
         <v>135.28210000000001</v>
       </c>
     </row>
-    <row r="294" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H294">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12361,7 +12877,7 @@
         <v>135.48609999999999</v>
       </c>
     </row>
-    <row r="295" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H295">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12373,7 +12889,7 @@
         <v>135.55950000000001</v>
       </c>
     </row>
-    <row r="296" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H296">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12385,7 +12901,7 @@
         <v>135.2533</v>
       </c>
     </row>
-    <row r="297" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="8:10" x14ac:dyDescent="0.75">
       <c r="H297">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12657,20 +13173,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12693,6 +13209,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
@@ -12707,12 +13231,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C98234-5589-4202-B07D-A573C512C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37534C80-662C-4FCC-8CE8-BF183DF50E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3405" windowWidth="29040" windowHeight="15720" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="-24045" yWindow="3900" windowWidth="19185" windowHeight="10065" activeTab="1" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>WT to Well Top (m)</t>
+  </si>
+  <si>
+    <t>DistanceID</t>
   </si>
 </sst>
 </file>
@@ -803,7 +806,7 @@
           </c:trendline>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$J:$J</c:f>
+              <c:f>Sheet1!$K:$K</c:f>
               <c:strCache>
                 <c:ptCount val="297"/>
                 <c:pt idx="0">
@@ -1702,7 +1705,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I:$I</c:f>
+              <c:f>Sheet1!$J:$J</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
@@ -3354,13 +3357,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
@@ -3710,7 +3713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E7760-F87C-4D84-A63F-D473D279D553}">
   <dimension ref="A1:K181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K181" sqref="K181"/>
     </sheetView>
@@ -9063,10 +9066,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DED55BC-E84B-4096-92BA-96DACA0090BF}">
-  <dimension ref="A1:J297"/>
+  <dimension ref="A1:K297"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9074,12 +9077,14 @@
     <col min="2" max="2" width="10.40625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -9104,14 +9109,17 @@
       <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -9133,13 +9141,16 @@
         <v>1.6500000000000001</v>
       </c>
       <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
         <v>532.32979999999998</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>79.863910000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -9161,13 +9172,16 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
         <v>547.30619999999999</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>76.943730000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -9189,13 +9203,16 @@
         <v>1.1949999999999998</v>
       </c>
       <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
         <v>547.31349999999998</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>88.202100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -9217,13 +9234,16 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>577.80020000000002</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>76.922430000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -9245,13 +9265,16 @@
         <v>0.59000000000000008</v>
       </c>
       <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
         <v>623.08079999999995</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>92.059330000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -9273,13 +9296,16 @@
         <v>1.95</v>
       </c>
       <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
         <v>653.02340000000004</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>76.370699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -9298,13 +9324,16 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
         <v>698.30179999999996</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>93.197450000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -9326,13 +9355,16 @@
         <v>1.8299999999999998</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>698.75670000000002</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>76.815430000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -9354,13 +9386,16 @@
         <v>0.63</v>
       </c>
       <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
         <v>744.30139999999994</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>76.590829999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -9382,13 +9417,16 @@
         <v>2.75</v>
       </c>
       <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
         <v>728.80870000000004</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>76.606219999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -9410,13 +9448,16 @@
         <v>-8.0000000000000071E-2</v>
       </c>
       <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
         <v>728.81809999999996</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>76.513019999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -9438,13 +9479,16 @@
         <v>2.38</v>
       </c>
       <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
         <v>728.81179999999995</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>76.622630000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -9466,13 +9510,16 @@
         <v>1.605</v>
       </c>
       <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
         <v>759.42010000000005</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>66.857730000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -9494,13 +9541,16 @@
         <v>2.1</v>
       </c>
       <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
         <v>744.24469999999997</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>67.045649999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -9522,13 +9572,16 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
         <v>698.35050000000001</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>67.109120000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -9547,3369 +9600,3398 @@
         <v>1.905</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>667.92629999999997</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>66.502930000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <f>B8+15.14</f>
+        <v>55.14</v>
+      </c>
+      <c r="C18">
+        <f>CONVERT(B18,"ft","m")</f>
+        <v>16.806671999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.44</v>
+      </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
         <v>652.93119999999999</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>66.842190000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19">
+        <v>0.02</v>
+      </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
         <v>653.20910000000003</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>66.69511</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>607.95830000000001</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>67.072839999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>607.56110000000001</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>66.492159999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>638.08180000000004</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>66.821780000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>638.25340000000006</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>66.970429999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>623.13530000000003</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>66.743210000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>607.76750000000004</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>66.741129999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>592.50710000000004</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>66.642009999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>577.47490000000005</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>66.604929999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>562.39620000000002</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>66.727909999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>562.76610000000005</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>66.755129999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>562.50009999999997</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>66.565960000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>562.36329999999998</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>66.708879999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>577.42870000000005</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>66.438630000000003</v>
       </c>
     </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="33" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>577.51340000000005</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>66.721999999999994</v>
       </c>
     </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="34" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>622.80349999999999</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>66.502319999999997</v>
       </c>
     </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="35" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>698.44579999999996</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>66.603359999999995</v>
       </c>
     </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="36" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>728.82050000000004</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>66.735640000000004</v>
       </c>
     </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="37" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>744.46180000000004</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>67.009540000000001</v>
       </c>
     </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="38" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>728.54539999999997</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>66.730959999999996</v>
       </c>
     </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="39" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>728.59079999999994</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>66.700519999999997</v>
       </c>
     </row>
-    <row r="40" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="40" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>728.52480000000003</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>66.432400000000001</v>
       </c>
     </row>
-    <row r="41" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="41" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>744.04729999999995</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>66.440209999999993</v>
       </c>
     </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="42" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>744.07650000000001</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>66.810680000000005</v>
       </c>
     </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="43" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>759.36440000000005</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>66.765969999999996</v>
       </c>
     </row>
-    <row r="44" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="44" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>774.61670000000004</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>66.688059999999993</v>
       </c>
     </row>
-    <row r="45" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="45" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>774.67240000000004</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>66.708640000000003</v>
       </c>
     </row>
-    <row r="46" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="46" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>789.6807</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>66.707120000000003</v>
       </c>
     </row>
-    <row r="47" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="47" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>834.55520000000001</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>66.699510000000004</v>
       </c>
     </row>
-    <row r="48" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="48" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>834.96130000000005</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>67.011229999999998</v>
       </c>
     </row>
-    <row r="49" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="49" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H49">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>850.197</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>66.578879999999998</v>
       </c>
     </row>
-    <row r="50" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="50" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>865.02120000000002</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>66.439570000000003</v>
       </c>
     </row>
-    <row r="51" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="51" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>865.25400000000002</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>66.421679999999995</v>
       </c>
     </row>
-    <row r="52" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="52" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>880.46839999999997</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>66.699039999999997</v>
       </c>
     </row>
-    <row r="53" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="53" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>895.39089999999999</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>66.41798</v>
       </c>
     </row>
-    <row r="54" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="54" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>895.33799999999997</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>66.555769999999995</v>
       </c>
     </row>
-    <row r="55" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="55" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>910.66690000000006</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>66.713909999999998</v>
       </c>
     </row>
-    <row r="56" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="56" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>925.98109999999997</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>66.679460000000006</v>
       </c>
     </row>
-    <row r="57" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="57" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>940.77919999999995</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>66.716350000000006</v>
       </c>
     </row>
-    <row r="58" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="58" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>955.72770000000003</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>66.600700000000003</v>
       </c>
     </row>
-    <row r="59" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="59" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>970.87699999999995</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>67.232489999999999</v>
       </c>
     </row>
-    <row r="60" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="60" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>986.60170000000005</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>66.475719999999995</v>
       </c>
     </row>
-    <row r="61" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="61" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>1001.513</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>69.48903</v>
       </c>
     </row>
-    <row r="62" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="62" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>1016.558</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>66.661689999999993</v>
       </c>
     </row>
-    <row r="63" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="63" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>1031.5419999999999</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>77.511840000000007</v>
       </c>
     </row>
-    <row r="64" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="64" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>1047.2439999999999</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>66.713200000000001</v>
       </c>
     </row>
-    <row r="65" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="65" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>1061.7260000000001</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>80.544539999999998</v>
       </c>
     </row>
-    <row r="66" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="66" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>1077.3230000000001</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>66.882890000000003</v>
       </c>
     </row>
-    <row r="67" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="67" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H67">
         <f t="shared" ref="H67:H130" si="2">D67-F67</f>
         <v>0</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>1107.306</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>82.613020000000006</v>
       </c>
     </row>
-    <row r="68" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="68" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H68">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>1122.7550000000001</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>66.875720000000001</v>
       </c>
     </row>
-    <row r="69" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="69" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>1167.7729999999999</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>81.679119999999998</v>
       </c>
     </row>
-    <row r="70" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="70" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H70">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>1183.0219999999999</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>76.520039999999995</v>
       </c>
     </row>
-    <row r="71" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="71" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>1183.3119999999999</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>76.523030000000006</v>
       </c>
     </row>
-    <row r="72" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="72" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>1198.4190000000001</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>76.558539999999994</v>
       </c>
     </row>
-    <row r="73" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="73" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>1213.2</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>76.322270000000003</v>
       </c>
     </row>
-    <row r="74" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="74" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H74">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>1213.443</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>76.840400000000002</v>
       </c>
     </row>
-    <row r="75" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="75" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H75">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>1228.8979999999999</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>76.866280000000003</v>
       </c>
     </row>
-    <row r="76" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="76" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H76">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>1244.1220000000001</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>76.297600000000003</v>
       </c>
     </row>
-    <row r="77" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="77" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>1259.123</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>76.881839999999997</v>
       </c>
     </row>
-    <row r="78" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="78" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H78">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>1258.752</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>76.468999999999994</v>
       </c>
     </row>
-    <row r="79" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="79" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H79">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>1304.1369999999999</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>76.618129999999994</v>
       </c>
     </row>
-    <row r="80" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="80" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>1349.9849999999999</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>76.480620000000002</v>
       </c>
     </row>
-    <row r="81" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="81" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>1350.0229999999999</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>76.648570000000007</v>
       </c>
     </row>
-    <row r="82" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="82" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H82">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>1364.8150000000001</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>76.311499999999995</v>
       </c>
     </row>
-    <row r="83" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="83" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>1380.152</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>76.679150000000007</v>
       </c>
     </row>
-    <row r="84" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="84" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>1380.086</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>76.621639999999999</v>
       </c>
     </row>
-    <row r="85" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="85" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H85">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>1379.7149999999999</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>76.371279999999999</v>
       </c>
     </row>
-    <row r="86" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="86" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H86">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>1394.9970000000001</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>76.636949999999999</v>
       </c>
     </row>
-    <row r="87" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="87" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>1410.3409999999999</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>76.882059999999996</v>
       </c>
     </row>
-    <row r="88" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="88" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>1425.6030000000001</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>76.91395</v>
       </c>
     </row>
-    <row r="89" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="89" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H89">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>1409.979</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>76.394909999999996</v>
       </c>
     </row>
-    <row r="90" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="90" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>1410.248</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>76.664580000000001</v>
       </c>
     </row>
-    <row r="91" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="91" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H91">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>1455.58</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>76.792010000000005</v>
       </c>
     </row>
-    <row r="92" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="92" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H92">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>1486.2159999999999</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>86.622889999999998</v>
       </c>
     </row>
-    <row r="93" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="93" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>1485.806</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>86.426929999999999</v>
       </c>
     </row>
-    <row r="94" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="94" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H94">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>1516.0709999999999</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>86.291049999999998</v>
       </c>
     </row>
-    <row r="95" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="95" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>1515.9280000000001</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>86.616039999999998</v>
       </c>
     </row>
-    <row r="96" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="96" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H96">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>1516.348</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>86.725769999999997</v>
       </c>
     </row>
-    <row r="97" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="97" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H97">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>1531.32</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>86.364840000000001</v>
       </c>
     </row>
-    <row r="98" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="98" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>1531.4570000000001</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>86.454610000000002</v>
       </c>
     </row>
-    <row r="99" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="99" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H99">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>1531.6220000000001</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>86.403989999999993</v>
       </c>
     </row>
-    <row r="100" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="100" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H100">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>1531.232</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>86.471239999999995</v>
       </c>
     </row>
-    <row r="101" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="101" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>1531.4369999999999</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>86.733379999999997</v>
       </c>
     </row>
-    <row r="102" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="102" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>1531.0519999999999</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>86.402079999999998</v>
       </c>
     </row>
-    <row r="103" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="103" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>1531.268</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>86.439710000000005</v>
       </c>
     </row>
-    <row r="104" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="104" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H104">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>1546.579</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>86.730919999999998</v>
       </c>
     </row>
-    <row r="105" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="105" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H105">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>1546.319</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>86.136409999999998</v>
       </c>
     </row>
-    <row r="106" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="106" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>1576.8009999999999</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>86.486429999999999</v>
       </c>
     </row>
-    <row r="107" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="107" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>1591.886</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>86.408940000000001</v>
       </c>
     </row>
-    <row r="108" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="108" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>1607.3309999999999</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>86.266360000000006</v>
       </c>
     </row>
-    <row r="109" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="109" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H109">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>1607.1669999999999</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>96.321259999999995</v>
       </c>
     </row>
-    <row r="110" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="110" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H110">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>1622.027</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>95.994619999999998</v>
       </c>
     </row>
-    <row r="111" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="111" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>1622.26</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>96.47484</v>
       </c>
     </row>
-    <row r="112" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="112" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H112">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>1637.01</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>96.487459999999999</v>
       </c>
     </row>
-    <row r="113" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="113" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H113">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>1637.1120000000001</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>95.942539999999994</v>
       </c>
     </row>
-    <row r="114" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="114" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>1652.441</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>96.212249999999997</v>
       </c>
     </row>
-    <row r="115" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="115" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>1652.6880000000001</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>96.16</v>
       </c>
     </row>
-    <row r="116" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="116" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H116">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>1652.4690000000001</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>96.532060000000001</v>
       </c>
     </row>
-    <row r="117" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="117" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H117">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>1667.163</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>96.261859999999999</v>
       </c>
     </row>
-    <row r="118" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="118" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H118">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>1682.24</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>96.204570000000004</v>
       </c>
     </row>
-    <row r="119" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="119" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H119">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>1682.7049999999999</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>95.947130000000001</v>
       </c>
     </row>
-    <row r="120" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="120" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>1697.7449999999999</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>102.5564</v>
       </c>
     </row>
-    <row r="121" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="121" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H121">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>1697.4570000000001</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>96.26979</v>
       </c>
     </row>
-    <row r="122" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="122" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>1697.8979999999999</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>107.5222</v>
       </c>
     </row>
-    <row r="123" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="123" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>1713.067</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>96.174220000000005</v>
       </c>
     </row>
-    <row r="124" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="124" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H124">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>1713.4069999999999</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>111.3181</v>
       </c>
     </row>
-    <row r="125" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="125" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H125">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>1713.269</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>96.214839999999995</v>
       </c>
     </row>
-    <row r="126" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="126" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>1742.9939999999999</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>122.13800000000001</v>
       </c>
     </row>
-    <row r="127" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="127" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>1773.7049999999999</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>105.7696</v>
       </c>
     </row>
-    <row r="128" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="128" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H128">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>1788.712</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>106.3018</v>
       </c>
     </row>
-    <row r="129" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="129" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>1803.973</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>106.0164</v>
       </c>
     </row>
-    <row r="130" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="130" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H130">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>1803.799</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>106.0008</v>
       </c>
     </row>
-    <row r="131" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="131" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H131">
         <f t="shared" ref="H131:H194" si="3">D131-F131</f>
         <v>0</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>1788.7460000000001</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>106.2757</v>
       </c>
     </row>
-    <row r="132" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="132" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>1803.846</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>105.7705</v>
       </c>
     </row>
-    <row r="133" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="133" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>1788.356</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>106.0813</v>
       </c>
     </row>
-    <row r="134" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="134" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H134">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>1773.8130000000001</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>106.3004</v>
       </c>
     </row>
-    <row r="135" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="135" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H135">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>1773.46</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>105.8387</v>
       </c>
     </row>
-    <row r="136" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="136" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H136">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>1773.855</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>106.3312</v>
       </c>
     </row>
-    <row r="137" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="137" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H137">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>1758.252</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>105.94289999999999</v>
       </c>
     </row>
-    <row r="138" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="138" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H138">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>1758.42</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <v>105.88379999999999</v>
       </c>
     </row>
-    <row r="139" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="139" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H139">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>1743.6389999999999</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>105.9689</v>
       </c>
     </row>
-    <row r="140" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="140" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H140">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>1743.116</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <v>106.07550000000001</v>
       </c>
     </row>
-    <row r="141" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="141" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H141">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>1743.41</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>105.9944</v>
       </c>
     </row>
-    <row r="142" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="142" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H142">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>1758.229</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <v>105.9682</v>
       </c>
     </row>
-    <row r="143" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="143" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H143">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>1758.6110000000001</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>106.0844</v>
       </c>
     </row>
-    <row r="144" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="144" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H144">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>1758.502</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>106.253</v>
       </c>
     </row>
-    <row r="145" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="145" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H145">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>1758.336</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>105.9712</v>
       </c>
     </row>
-    <row r="146" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="146" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H146">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>1743.46</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>105.7208</v>
       </c>
     </row>
-    <row r="147" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="147" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H147">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>1743.7249999999999</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <v>106.00369999999999</v>
       </c>
     </row>
-    <row r="148" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="148" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H148">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>1743.2550000000001</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <v>105.74850000000001</v>
       </c>
     </row>
-    <row r="149" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="149" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H149">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>1743.2</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <v>105.6892</v>
       </c>
     </row>
-    <row r="150" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="150" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H150">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>1743.645</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>115.9367</v>
       </c>
     </row>
-    <row r="151" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="151" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H151">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>1743.6010000000001</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>115.7723</v>
       </c>
     </row>
-    <row r="152" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="152" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H152">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>1743.2650000000001</v>
       </c>
-      <c r="J152">
+      <c r="K152">
         <v>115.5065</v>
       </c>
     </row>
-    <row r="153" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="153" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H153">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>1743.1210000000001</v>
       </c>
-      <c r="J153">
+      <c r="K153">
         <v>116.05670000000001</v>
       </c>
     </row>
-    <row r="154" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="154" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H154">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>1743.5830000000001</v>
       </c>
-      <c r="J154">
+      <c r="K154">
         <v>115.9269</v>
       </c>
     </row>
-    <row r="155" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="155" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H155">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>1743.1949999999999</v>
       </c>
-      <c r="J155">
+      <c r="K155">
         <v>115.9965</v>
       </c>
     </row>
-    <row r="156" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="156" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H156">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>1758.404</v>
       </c>
-      <c r="J156">
+      <c r="K156">
         <v>115.4991</v>
       </c>
     </row>
-    <row r="157" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="157" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H157">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>1743.6780000000001</v>
       </c>
-      <c r="J157">
+      <c r="K157">
         <v>115.5228</v>
       </c>
     </row>
-    <row r="158" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="158" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H158">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>1743.75</v>
       </c>
-      <c r="J158">
+      <c r="K158">
         <v>115.83710000000001</v>
       </c>
     </row>
-    <row r="159" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="159" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H159">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <v>1743.4010000000001</v>
       </c>
-      <c r="J159">
+      <c r="K159">
         <v>115.67700000000001</v>
       </c>
     </row>
-    <row r="160" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="160" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H160">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I160">
+      <c r="J160">
         <v>1758.3130000000001</v>
       </c>
-      <c r="J160">
+      <c r="K160">
         <v>115.5472</v>
       </c>
     </row>
-    <row r="161" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="161" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H161">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>1758.4659999999999</v>
       </c>
-      <c r="J161">
+      <c r="K161">
         <v>116.02809999999999</v>
       </c>
     </row>
-    <row r="162" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="162" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H162">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I162">
+      <c r="J162">
         <v>1758.309</v>
       </c>
-      <c r="J162">
+      <c r="K162">
         <v>115.7191</v>
       </c>
     </row>
-    <row r="163" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="163" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H163">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <v>1758.383</v>
       </c>
-      <c r="J163">
+      <c r="K163">
         <v>115.8503</v>
       </c>
     </row>
-    <row r="164" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="164" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H164">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I164">
+      <c r="J164">
         <v>1758.7819999999999</v>
       </c>
-      <c r="J164">
+      <c r="K164">
         <v>116.01349999999999</v>
       </c>
     </row>
-    <row r="165" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="165" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H165">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I165">
+      <c r="J165">
         <v>1788.462</v>
       </c>
-      <c r="J165">
+      <c r="K165">
         <v>116.0718</v>
       </c>
     </row>
-    <row r="166" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="166" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H166">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I166">
+      <c r="J166">
         <v>1804.0540000000001</v>
       </c>
-      <c r="J166">
+      <c r="K166">
         <v>115.88200000000001</v>
       </c>
     </row>
-    <row r="167" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="167" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H167">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I167">
+      <c r="J167">
         <v>1804.001</v>
       </c>
-      <c r="J167">
+      <c r="K167">
         <v>115.82640000000001</v>
       </c>
     </row>
-    <row r="168" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="168" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H168">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I168">
+      <c r="J168">
         <v>1818.5730000000001</v>
       </c>
-      <c r="J168">
+      <c r="K168">
         <v>116.0414</v>
       </c>
     </row>
-    <row r="169" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="169" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H169">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I169">
+      <c r="J169">
         <v>1818.624</v>
       </c>
-      <c r="J169">
+      <c r="K169">
         <v>115.7786</v>
       </c>
     </row>
-    <row r="170" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="170" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H170">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I170">
+      <c r="J170">
         <v>1818.7860000000001</v>
       </c>
-      <c r="J170">
+      <c r="K170">
         <v>115.92440000000001</v>
       </c>
     </row>
-    <row r="171" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="171" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H171">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I171">
+      <c r="J171">
         <v>1834.075</v>
       </c>
-      <c r="J171">
+      <c r="K171">
         <v>116.0988</v>
       </c>
     </row>
-    <row r="172" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="172" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H172">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I172">
+      <c r="J172">
         <v>1834.6020000000001</v>
       </c>
-      <c r="J172">
+      <c r="K172">
         <v>115.9281</v>
       </c>
     </row>
-    <row r="173" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="173" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H173">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I173">
+      <c r="J173">
         <v>1834.0730000000001</v>
       </c>
-      <c r="J173">
+      <c r="K173">
         <v>115.8377</v>
       </c>
     </row>
-    <row r="174" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="174" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H174">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I174">
+      <c r="J174">
         <v>1834.4480000000001</v>
       </c>
-      <c r="J174">
+      <c r="K174">
         <v>116.0936</v>
       </c>
     </row>
-    <row r="175" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="175" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H175">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I175">
+      <c r="J175">
         <v>1834.4960000000001</v>
       </c>
-      <c r="J175">
+      <c r="K175">
         <v>115.8402</v>
       </c>
     </row>
-    <row r="176" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="176" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H176">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I176">
+      <c r="J176">
         <v>1849.4380000000001</v>
       </c>
-      <c r="J176">
+      <c r="K176">
         <v>116.17019999999999</v>
       </c>
     </row>
-    <row r="177" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="177" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H177">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I177">
+      <c r="J177">
         <v>1864.201</v>
       </c>
-      <c r="J177">
+      <c r="K177">
         <v>115.6253</v>
       </c>
     </row>
-    <row r="178" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="178" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H178">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I178">
+      <c r="J178">
         <v>1864.7149999999999</v>
       </c>
-      <c r="J178">
+      <c r="K178">
         <v>116.0719</v>
       </c>
     </row>
-    <row r="179" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="179" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H179">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I179">
+      <c r="J179">
         <v>1879.3689999999999</v>
       </c>
-      <c r="J179">
+      <c r="K179">
         <v>116.3058</v>
       </c>
     </row>
-    <row r="180" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="180" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H180">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I180">
+      <c r="J180">
         <v>1894.5129999999999</v>
       </c>
-      <c r="J180">
+      <c r="K180">
         <v>115.8853</v>
       </c>
     </row>
-    <row r="181" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="181" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H181">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I181">
+      <c r="J181">
         <v>1894.61</v>
       </c>
-      <c r="J181">
+      <c r="K181">
         <v>116.38339999999999</v>
       </c>
     </row>
-    <row r="182" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="182" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H182">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I182">
+      <c r="J182">
         <v>1895.0039999999999</v>
       </c>
-      <c r="J182">
+      <c r="K182">
         <v>116.1009</v>
       </c>
     </row>
-    <row r="183" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="183" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H183">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I183">
+      <c r="J183">
         <v>1909.9960000000001</v>
       </c>
-      <c r="J183">
+      <c r="K183">
         <v>126.40130000000001</v>
       </c>
     </row>
-    <row r="184" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="184" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H184">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I184">
+      <c r="J184">
         <v>1909.953</v>
       </c>
-      <c r="J184">
+      <c r="K184">
         <v>115.6763</v>
       </c>
     </row>
-    <row r="185" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="185" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H185">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I185">
+      <c r="J185">
         <v>1909.9480000000001</v>
       </c>
-      <c r="J185">
+      <c r="K185">
         <v>128.953</v>
       </c>
     </row>
-    <row r="186" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="186" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H186">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I186">
+      <c r="J186">
         <v>1925.124</v>
       </c>
-      <c r="J186">
+      <c r="K186">
         <v>115.9194</v>
       </c>
     </row>
-    <row r="187" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="187" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H187">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I187">
+      <c r="J187">
         <v>1924.905</v>
       </c>
-      <c r="J187">
+      <c r="K187">
         <v>131.6455</v>
       </c>
     </row>
-    <row r="188" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="188" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H188">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I188">
+      <c r="J188">
         <v>1939.692</v>
       </c>
-      <c r="J188">
+      <c r="K188">
         <v>115.86109999999999</v>
       </c>
     </row>
-    <row r="189" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="189" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H189">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I189">
+      <c r="J189">
         <v>1939.9169999999999</v>
       </c>
-      <c r="J189">
+      <c r="K189">
         <v>115.68819999999999</v>
       </c>
     </row>
-    <row r="190" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="190" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H190">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I190">
+      <c r="J190">
         <v>1955.596</v>
       </c>
-      <c r="J190">
+      <c r="K190">
         <v>116.19329999999999</v>
       </c>
     </row>
-    <row r="191" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="191" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H191">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I191">
+      <c r="J191">
         <v>1970.683</v>
       </c>
-      <c r="J191">
+      <c r="K191">
         <v>116.134</v>
       </c>
     </row>
-    <row r="192" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="192" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H192">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I192">
+      <c r="J192">
         <v>1970.617</v>
       </c>
-      <c r="J192">
+      <c r="K192">
         <v>116.1763</v>
       </c>
     </row>
-    <row r="193" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="193" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H193">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I193">
+      <c r="J193">
         <v>1970.1420000000001</v>
       </c>
-      <c r="J193">
+      <c r="K193">
         <v>116.0438</v>
       </c>
     </row>
-    <row r="194" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="194" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H194">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I194">
+      <c r="J194">
         <v>1985.317</v>
       </c>
-      <c r="J194">
+      <c r="K194">
         <v>115.9259</v>
       </c>
     </row>
-    <row r="195" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="195" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H195">
         <f t="shared" ref="H195:H258" si="4">D195-F195</f>
         <v>0</v>
       </c>
-      <c r="I195">
+      <c r="J195">
         <v>1985.1020000000001</v>
       </c>
-      <c r="J195">
+      <c r="K195">
         <v>116.0008</v>
       </c>
     </row>
-    <row r="196" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="196" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H196">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I196">
+      <c r="J196">
         <v>2000.7739999999999</v>
       </c>
-      <c r="J196">
+      <c r="K196">
         <v>116.0121</v>
       </c>
     </row>
-    <row r="197" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="197" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H197">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I197">
+      <c r="J197">
         <v>2000.3019999999999</v>
       </c>
-      <c r="J197">
+      <c r="K197">
         <v>115.7264</v>
       </c>
     </row>
-    <row r="198" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="198" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H198">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I198">
+      <c r="J198">
         <v>2015.693</v>
       </c>
-      <c r="J198">
+      <c r="K198">
         <v>115.9374</v>
       </c>
     </row>
-    <row r="199" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="199" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H199">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I199">
+      <c r="J199">
         <v>2030.57</v>
       </c>
-      <c r="J199">
+      <c r="K199">
         <v>115.91459999999999</v>
       </c>
     </row>
-    <row r="200" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="200" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H200">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I200">
+      <c r="J200">
         <v>2046.1120000000001</v>
       </c>
-      <c r="J200">
+      <c r="K200">
         <v>115.63939999999999</v>
       </c>
     </row>
-    <row r="201" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="201" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H201">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I201">
+      <c r="J201">
         <v>2076.0819999999999</v>
       </c>
-      <c r="J201">
+      <c r="K201">
         <v>116.1581</v>
       </c>
     </row>
-    <row r="202" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="202" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H202">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I202">
+      <c r="J202">
         <v>2091.7159999999999</v>
       </c>
-      <c r="J202">
+      <c r="K202">
         <v>115.8416</v>
       </c>
     </row>
-    <row r="203" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="203" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H203">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I203">
+      <c r="J203">
         <v>2106.19</v>
       </c>
-      <c r="J203">
+      <c r="K203">
         <v>115.8566</v>
       </c>
     </row>
-    <row r="204" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="204" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H204">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I204">
+      <c r="J204">
         <v>2106.2840000000001</v>
       </c>
-      <c r="J204">
+      <c r="K204">
         <v>115.8509</v>
       </c>
     </row>
-    <row r="205" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="205" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H205">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I205">
+      <c r="J205">
         <v>2121.7220000000002</v>
       </c>
-      <c r="J205">
+      <c r="K205">
         <v>115.8514</v>
       </c>
     </row>
-    <row r="206" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="206" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H206">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I206">
+      <c r="J206">
         <v>2136.712</v>
       </c>
-      <c r="J206">
+      <c r="K206">
         <v>125.86709999999999</v>
       </c>
     </row>
-    <row r="207" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="207" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H207">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I207">
+      <c r="J207">
         <v>2136.752</v>
       </c>
-      <c r="J207">
+      <c r="K207">
         <v>125.4483</v>
       </c>
     </row>
-    <row r="208" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="208" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H208">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I208">
+      <c r="J208">
         <v>2136.913</v>
       </c>
-      <c r="J208">
+      <c r="K208">
         <v>125.4024</v>
       </c>
     </row>
-    <row r="209" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="209" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H209">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I209">
+      <c r="J209">
         <v>2167.261</v>
       </c>
-      <c r="J209">
+      <c r="K209">
         <v>125.7238</v>
       </c>
     </row>
-    <row r="210" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="210" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H210">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I210">
+      <c r="J210">
         <v>2181.7249999999999</v>
       </c>
-      <c r="J210">
+      <c r="K210">
         <v>125.682</v>
       </c>
     </row>
-    <row r="211" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="211" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H211">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I211">
+      <c r="J211">
         <v>2182.0329999999999</v>
       </c>
-      <c r="J211">
+      <c r="K211">
         <v>125.6857</v>
       </c>
     </row>
-    <row r="212" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="212" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H212">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I212">
+      <c r="J212">
         <v>2197.1640000000002</v>
       </c>
-      <c r="J212">
+      <c r="K212">
         <v>125.4738</v>
       </c>
     </row>
-    <row r="213" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="213" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H213">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I213">
+      <c r="J213">
         <v>2212.6770000000001</v>
       </c>
-      <c r="J213">
+      <c r="K213">
         <v>125.9331</v>
       </c>
     </row>
-    <row r="214" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="214" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H214">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I214">
+      <c r="J214">
         <v>2227.3980000000001</v>
       </c>
-      <c r="J214">
+      <c r="K214">
         <v>125.37139999999999</v>
       </c>
     </row>
-    <row r="215" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="215" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H215">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I215">
+      <c r="J215">
         <v>2242.422</v>
       </c>
-      <c r="J215">
+      <c r="K215">
         <v>125.9153</v>
       </c>
     </row>
-    <row r="216" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="216" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H216">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I216">
+      <c r="J216">
         <v>2257.8890000000001</v>
       </c>
-      <c r="J216">
+      <c r="K216">
         <v>125.6576</v>
       </c>
     </row>
-    <row r="217" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="217" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H217">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I217">
+      <c r="J217">
         <v>2272.59</v>
       </c>
-      <c r="J217">
+      <c r="K217">
         <v>125.5729</v>
       </c>
     </row>
-    <row r="218" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="218" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H218">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I218">
+      <c r="J218">
         <v>2288.2159999999999</v>
       </c>
-      <c r="J218">
+      <c r="K218">
         <v>125.9589</v>
       </c>
     </row>
-    <row r="219" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="219" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H219">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I219">
+      <c r="J219">
         <v>2302.7950000000001</v>
       </c>
-      <c r="J219">
+      <c r="K219">
         <v>135.2037</v>
       </c>
     </row>
-    <row r="220" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="220" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H220">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I220">
+      <c r="J220">
         <v>2318.6460000000002</v>
       </c>
-      <c r="J220">
+      <c r="K220">
         <v>135.52789999999999</v>
       </c>
     </row>
-    <row r="221" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="221" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H221">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I221">
+      <c r="J221">
         <v>2333.2890000000002</v>
       </c>
-      <c r="J221">
+      <c r="K221">
         <v>135.4736</v>
       </c>
     </row>
-    <row r="222" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="222" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H222">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I222">
+      <c r="J222">
         <v>2348.8989999999999</v>
       </c>
-      <c r="J222">
+      <c r="K222">
         <v>135.52209999999999</v>
       </c>
     </row>
-    <row r="223" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="223" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H223">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I223">
+      <c r="J223">
         <v>2363.453</v>
       </c>
-      <c r="J223">
+      <c r="K223">
         <v>135.203</v>
       </c>
     </row>
-    <row r="224" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="224" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H224">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I224">
+      <c r="J224">
         <v>2379.2429999999999</v>
       </c>
-      <c r="J224">
+      <c r="K224">
         <v>135.62870000000001</v>
       </c>
     </row>
-    <row r="225" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="225" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H225">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I225">
+      <c r="J225">
         <v>2378.7959999999998</v>
       </c>
-      <c r="J225">
+      <c r="K225">
         <v>135.7516</v>
       </c>
     </row>
-    <row r="226" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="226" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H226">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I226">
+      <c r="J226">
         <v>2379.1619999999998</v>
       </c>
-      <c r="J226">
+      <c r="K226">
         <v>135.196</v>
       </c>
     </row>
-    <row r="227" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="227" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H227">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I227">
+      <c r="J227">
         <v>2363.471</v>
       </c>
-      <c r="J227">
+      <c r="K227">
         <v>135.72149999999999</v>
       </c>
     </row>
-    <row r="228" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="228" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H228">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I228">
+      <c r="J228">
         <v>2318.3110000000001</v>
       </c>
-      <c r="J228">
+      <c r="K228">
         <v>135.15219999999999</v>
       </c>
     </row>
-    <row r="229" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="229" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H229">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I229">
+      <c r="J229">
         <v>2303.3679999999999</v>
       </c>
-      <c r="J229">
+      <c r="K229">
         <v>135.52850000000001</v>
       </c>
     </row>
-    <row r="230" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="230" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H230">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I230">
+      <c r="J230">
         <v>2303.4119999999998</v>
       </c>
-      <c r="J230">
+      <c r="K230">
         <v>135.50040000000001</v>
       </c>
     </row>
-    <row r="231" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="231" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H231">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I231">
+      <c r="J231">
         <v>2272.797</v>
       </c>
-      <c r="J231">
+      <c r="K231">
         <v>135.14279999999999</v>
       </c>
     </row>
-    <row r="232" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="232" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H232">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I232">
+      <c r="J232">
         <v>2257.855</v>
       </c>
-      <c r="J232">
+      <c r="K232">
         <v>135.7586</v>
       </c>
     </row>
-    <row r="233" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="233" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H233">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I233">
+      <c r="J233">
         <v>2257.732</v>
       </c>
-      <c r="J233">
+      <c r="K233">
         <v>135.2062</v>
       </c>
     </row>
-    <row r="234" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="234" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H234">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I234">
+      <c r="J234">
         <v>2243.0100000000002</v>
       </c>
-      <c r="J234">
+      <c r="K234">
         <v>135.19049999999999</v>
       </c>
     </row>
-    <row r="235" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="235" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H235">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I235">
+      <c r="J235">
         <v>2227.8380000000002</v>
       </c>
-      <c r="J235">
+      <c r="K235">
         <v>135.5018</v>
       </c>
     </row>
-    <row r="236" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="236" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H236">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I236">
+      <c r="J236">
         <v>2227.8609999999999</v>
       </c>
-      <c r="J236">
+      <c r="K236">
         <v>135.70230000000001</v>
       </c>
     </row>
-    <row r="237" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="237" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H237">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I237">
+      <c r="J237">
         <v>2227.7280000000001</v>
       </c>
-      <c r="J237">
+      <c r="K237">
         <v>135.14320000000001</v>
       </c>
     </row>
-    <row r="238" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="238" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H238">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I238">
+      <c r="J238">
         <v>2212.5929999999998</v>
       </c>
-      <c r="J238">
+      <c r="K238">
         <v>135.9186</v>
       </c>
     </row>
-    <row r="239" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="239" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H239">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I239">
+      <c r="J239">
         <v>2212.4630000000002</v>
       </c>
-      <c r="J239">
+      <c r="K239">
         <v>135.1687</v>
       </c>
     </row>
-    <row r="240" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="240" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H240">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I240">
+      <c r="J240">
         <v>2197.69</v>
       </c>
-      <c r="J240">
+      <c r="K240">
         <v>136.13910000000001</v>
       </c>
     </row>
-    <row r="241" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="241" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H241">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I241">
+      <c r="J241">
         <v>2197.442</v>
       </c>
-      <c r="J241">
+      <c r="K241">
         <v>135.43340000000001</v>
       </c>
     </row>
-    <row r="242" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="242" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H242">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I242">
+      <c r="J242">
         <v>2197.8220000000001</v>
       </c>
-      <c r="J242">
+      <c r="K242">
         <v>146.0427</v>
       </c>
     </row>
-    <row r="243" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="243" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H243">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I243">
+      <c r="J243">
         <v>2181.6410000000001</v>
       </c>
-      <c r="J243">
+      <c r="K243">
         <v>135.41380000000001</v>
       </c>
     </row>
-    <row r="244" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="244" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H244">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I244">
+      <c r="J244">
         <v>2181.77</v>
       </c>
-      <c r="J244">
+      <c r="K244">
         <v>148.27549999999999</v>
       </c>
     </row>
-    <row r="245" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="245" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H245">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I245">
+      <c r="J245">
         <v>2182.2109999999998</v>
       </c>
-      <c r="J245">
+      <c r="K245">
         <v>135.7269</v>
       </c>
     </row>
-    <row r="246" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="246" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H246">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I246">
+      <c r="J246">
         <v>2166.9209999999998</v>
       </c>
-      <c r="J246">
+      <c r="K246">
         <v>150.4016</v>
       </c>
     </row>
-    <row r="247" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="247" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H247">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I247">
+      <c r="J247">
         <v>2167.4630000000002</v>
       </c>
-      <c r="J247">
+      <c r="K247">
         <v>135.68629999999999</v>
       </c>
     </row>
-    <row r="248" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="248" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H248">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I248">
+      <c r="J248">
         <v>2166.9349999999999</v>
       </c>
-      <c r="J248">
+      <c r="K248">
         <v>149.3246</v>
       </c>
     </row>
-    <row r="249" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="249" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H249">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I249">
+      <c r="J249">
         <v>2152.0659999999998</v>
       </c>
-      <c r="J249">
+      <c r="K249">
         <v>135.16829999999999</v>
       </c>
     </row>
-    <row r="250" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="250" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H250">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I250">
+      <c r="J250">
         <v>2151.8969999999999</v>
       </c>
-      <c r="J250">
+      <c r="K250">
         <v>135.63730000000001</v>
       </c>
     </row>
-    <row r="251" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="251" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H251">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I251">
+      <c r="J251">
         <v>2151.701</v>
       </c>
-      <c r="J251">
+      <c r="K251">
         <v>135.42089999999999</v>
       </c>
     </row>
-    <row r="252" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="252" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H252">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I252">
+      <c r="J252">
         <v>2152.1179999999999</v>
       </c>
-      <c r="J252">
+      <c r="K252">
         <v>135.44110000000001</v>
       </c>
     </row>
-    <row r="253" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="253" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H253">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I253">
+      <c r="J253">
         <v>2137.1120000000001</v>
       </c>
-      <c r="J253">
+      <c r="K253">
         <v>135.73140000000001</v>
       </c>
     </row>
-    <row r="254" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="254" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H254">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I254">
+      <c r="J254">
         <v>2152.1480000000001</v>
       </c>
-      <c r="J254">
+      <c r="K254">
         <v>135.52979999999999</v>
       </c>
     </row>
-    <row r="255" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="255" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H255">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I255">
+      <c r="J255">
         <v>2136.7139999999999</v>
       </c>
-      <c r="J255">
+      <c r="K255">
         <v>135.16589999999999</v>
       </c>
     </row>
-    <row r="256" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="256" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H256">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I256">
+      <c r="J256">
         <v>2136.7220000000002</v>
       </c>
-      <c r="J256">
+      <c r="K256">
         <v>135.43109999999999</v>
       </c>
     </row>
-    <row r="257" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="257" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H257">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I257">
+      <c r="J257">
         <v>2137.1190000000001</v>
       </c>
-      <c r="J257">
+      <c r="K257">
         <v>135.6944</v>
       </c>
     </row>
-    <row r="258" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="258" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H258">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I258">
+      <c r="J258">
         <v>2137.2060000000001</v>
       </c>
-      <c r="J258">
+      <c r="K258">
         <v>135.5111</v>
       </c>
     </row>
-    <row r="259" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="259" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H259">
         <f t="shared" ref="H259:H297" si="5">D259-F259</f>
         <v>0</v>
       </c>
-      <c r="I259">
+      <c r="J259">
         <v>2137.136</v>
       </c>
-      <c r="J259">
+      <c r="K259">
         <v>135.74529999999999</v>
       </c>
     </row>
-    <row r="260" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="260" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H260">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I260">
+      <c r="J260">
         <v>2136.998</v>
       </c>
-      <c r="J260">
+      <c r="K260">
         <v>135.589</v>
       </c>
     </row>
-    <row r="261" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="261" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H261">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I261">
+      <c r="J261">
         <v>2137.0430000000001</v>
       </c>
-      <c r="J261">
+      <c r="K261">
         <v>135.4787</v>
       </c>
     </row>
-    <row r="262" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="262" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H262">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I262">
+      <c r="J262">
         <v>2136.9940000000001</v>
       </c>
-      <c r="J262">
+      <c r="K262">
         <v>135.501</v>
       </c>
     </row>
-    <row r="263" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="263" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H263">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I263">
+      <c r="J263">
         <v>2151.7600000000002</v>
       </c>
-      <c r="J263">
+      <c r="K263">
         <v>135.68340000000001</v>
       </c>
     </row>
-    <row r="264" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="264" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H264">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I264">
+      <c r="J264">
         <v>2136.674</v>
       </c>
-      <c r="J264">
+      <c r="K264">
         <v>135.40479999999999</v>
       </c>
     </row>
-    <row r="265" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="265" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H265">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I265">
+      <c r="J265">
         <v>2151.973</v>
       </c>
-      <c r="J265">
+      <c r="K265">
         <v>135.34440000000001</v>
       </c>
     </row>
-    <row r="266" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="266" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H266">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I266">
+      <c r="J266">
         <v>2151.9319999999998</v>
       </c>
-      <c r="J266">
+      <c r="K266">
         <v>135.4581</v>
       </c>
     </row>
-    <row r="267" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="267" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H267">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I267">
+      <c r="J267">
         <v>2151.9209999999998</v>
       </c>
-      <c r="J267">
+      <c r="K267">
         <v>135.1977</v>
       </c>
     </row>
-    <row r="268" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="268" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H268">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I268">
+      <c r="J268">
         <v>2151.9989999999998</v>
       </c>
-      <c r="J268">
+      <c r="K268">
         <v>135.34399999999999</v>
       </c>
     </row>
-    <row r="269" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="269" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H269">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I269">
+      <c r="J269">
         <v>2166.6460000000002</v>
       </c>
-      <c r="J269">
+      <c r="K269">
         <v>135.76349999999999</v>
       </c>
     </row>
-    <row r="270" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="270" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H270">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I270">
+      <c r="J270">
         <v>2152.134</v>
       </c>
-      <c r="J270">
+      <c r="K270">
         <v>135.49199999999999</v>
       </c>
     </row>
-    <row r="271" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="271" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H271">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I271">
+      <c r="J271">
         <v>2167.125</v>
       </c>
-      <c r="J271">
+      <c r="K271">
         <v>135.47919999999999</v>
       </c>
     </row>
-    <row r="272" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="272" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H272">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I272">
+      <c r="J272">
         <v>2166.8739999999998</v>
       </c>
-      <c r="J272">
+      <c r="K272">
         <v>135.7834</v>
       </c>
     </row>
-    <row r="273" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="273" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H273">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I273">
+      <c r="J273">
         <v>2182.17</v>
       </c>
-      <c r="J273">
+      <c r="K273">
         <v>135.50450000000001</v>
       </c>
     </row>
-    <row r="274" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="274" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H274">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I274">
+      <c r="J274">
         <v>2182.067</v>
       </c>
-      <c r="J274">
+      <c r="K274">
         <v>135.22200000000001</v>
       </c>
     </row>
-    <row r="275" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="275" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H275">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I275">
+      <c r="J275">
         <v>2197.5309999999999</v>
       </c>
-      <c r="J275">
+      <c r="K275">
         <v>135.49209999999999</v>
       </c>
     </row>
-    <row r="276" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="276" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H276">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I276">
+      <c r="J276">
         <v>2197.299</v>
       </c>
-      <c r="J276">
+      <c r="K276">
         <v>135.19800000000001</v>
       </c>
     </row>
-    <row r="277" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="277" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H277">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I277">
+      <c r="J277">
         <v>2212.5549999999998</v>
       </c>
-      <c r="J277">
+      <c r="K277">
         <v>135.47669999999999</v>
       </c>
     </row>
-    <row r="278" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="278" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H278">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I278">
+      <c r="J278">
         <v>2227.5909999999999</v>
       </c>
-      <c r="J278">
+      <c r="K278">
         <v>135.24359999999999</v>
       </c>
     </row>
-    <row r="279" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="279" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H279">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I279">
+      <c r="J279">
         <v>2242.674</v>
       </c>
-      <c r="J279">
+      <c r="K279">
         <v>135.78200000000001</v>
       </c>
     </row>
-    <row r="280" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="280" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H280">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I280">
+      <c r="J280">
         <v>2242.6320000000001</v>
       </c>
-      <c r="J280">
+      <c r="K280">
         <v>135.61869999999999</v>
       </c>
     </row>
-    <row r="281" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="281" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H281">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I281">
+      <c r="J281">
         <v>2257.8119999999999</v>
       </c>
-      <c r="J281">
+      <c r="K281">
         <v>135.5112</v>
       </c>
     </row>
-    <row r="282" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="282" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H282">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I282">
+      <c r="J282">
         <v>2257.9879999999998</v>
       </c>
-      <c r="J282">
+      <c r="K282">
         <v>135.25960000000001</v>
       </c>
     </row>
-    <row r="283" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="283" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H283">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I283">
+      <c r="J283">
         <v>2273.31</v>
       </c>
-      <c r="J283">
+      <c r="K283">
         <v>135.57429999999999</v>
       </c>
     </row>
-    <row r="284" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="284" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H284">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I284">
+      <c r="J284">
         <v>2272.7620000000002</v>
       </c>
-      <c r="J284">
+      <c r="K284">
         <v>135.48140000000001</v>
       </c>
     </row>
-    <row r="285" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="285" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H285">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I285">
+      <c r="J285">
         <v>2272.7910000000002</v>
       </c>
-      <c r="J285">
+      <c r="K285">
         <v>135.24860000000001</v>
       </c>
     </row>
-    <row r="286" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="286" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H286">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I286">
+      <c r="J286">
         <v>2303.0889999999999</v>
       </c>
-      <c r="J286">
+      <c r="K286">
         <v>135.2543</v>
       </c>
     </row>
-    <row r="287" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="287" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H287">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I287">
+      <c r="J287">
         <v>2318.8209999999999</v>
       </c>
-      <c r="J287">
+      <c r="K287">
         <v>135.78460000000001</v>
       </c>
     </row>
-    <row r="288" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="288" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H288">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I288">
+      <c r="J288">
         <v>2334.0030000000002</v>
       </c>
-      <c r="J288">
+      <c r="K288">
         <v>135.56190000000001</v>
       </c>
     </row>
-    <row r="289" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="289" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H289">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I289">
+      <c r="J289">
         <v>2348.922</v>
       </c>
-      <c r="J289">
+      <c r="K289">
         <v>135.61609999999999</v>
       </c>
     </row>
-    <row r="290" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="290" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H290">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I290">
+      <c r="J290">
         <v>2348.8249999999998</v>
       </c>
-      <c r="J290">
+      <c r="K290">
         <v>135.52010000000001</v>
       </c>
     </row>
-    <row r="291" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="291" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H291">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I291">
+      <c r="J291">
         <v>2348.7159999999999</v>
       </c>
-      <c r="J291">
+      <c r="K291">
         <v>135.76300000000001</v>
       </c>
     </row>
-    <row r="292" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="292" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H292">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I292">
+      <c r="J292">
         <v>2363.6129999999998</v>
       </c>
-      <c r="J292">
+      <c r="K292">
         <v>135.53290000000001</v>
       </c>
     </row>
-    <row r="293" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="293" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H293">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I293">
+      <c r="J293">
         <v>2378.8510000000001</v>
       </c>
-      <c r="J293">
+      <c r="K293">
         <v>135.28210000000001</v>
       </c>
     </row>
-    <row r="294" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="294" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H294">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I294">
+      <c r="J294">
         <v>2379.19</v>
       </c>
-      <c r="J294">
+      <c r="K294">
         <v>135.48609999999999</v>
       </c>
     </row>
-    <row r="295" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="295" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H295">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I295">
+      <c r="J295">
         <v>2394.2730000000001</v>
       </c>
-      <c r="J295">
+      <c r="K295">
         <v>135.55950000000001</v>
       </c>
     </row>
-    <row r="296" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="296" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H296">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I296">
+      <c r="J296">
         <v>2393.9299999999998</v>
       </c>
-      <c r="J296">
+      <c r="K296">
         <v>135.2533</v>
       </c>
     </row>
-    <row r="297" spans="8:10" x14ac:dyDescent="0.75">
+    <row r="297" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H297">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I297">
+      <c r="J297">
         <v>2394.2550000000001</v>
       </c>
-      <c r="J297">
+      <c r="K297">
         <v>135.85169999999999</v>
       </c>
     </row>

--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37534C80-662C-4FCC-8CE8-BF183DF50E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CFF97F-DCF9-4853-AD6C-DA8043CC2219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24045" yWindow="3900" windowWidth="19185" windowHeight="10065" activeTab="1" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="9750" windowHeight="10155" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -160,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +291,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3711,11 +3717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E7760-F87C-4D84-A63F-D473D279D553}">
-  <dimension ref="A1:K181"/>
+  <dimension ref="A1:K198"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K181" sqref="K181"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J189" sqref="J189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9059,7 +9065,387 @@
         <v>15.1</v>
       </c>
     </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A182" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B182">
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182">
+        <v>0.44</v>
+      </c>
+      <c r="G182">
+        <v>0.04</v>
+      </c>
+      <c r="H182">
+        <v>5.99</v>
+      </c>
+      <c r="K182">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A183" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B183">
+        <v>5</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G183">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="H183">
+        <v>6.09</v>
+      </c>
+      <c r="K183">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A184" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184">
+        <v>0.78</v>
+      </c>
+      <c r="G184">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="H184">
+        <v>5.93</v>
+      </c>
+      <c r="K184">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A185" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185">
+        <v>1.23</v>
+      </c>
+      <c r="H185">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="K185">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A186" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="D186" t="s">
+        <v>10</v>
+      </c>
+      <c r="E186">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G186">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="H186">
+        <v>4.18</v>
+      </c>
+      <c r="K186">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A187" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B187">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>6</v>
+      </c>
+      <c r="D187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H187">
+        <v>3.81</v>
+      </c>
+      <c r="K187">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A188" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>36</v>
+      </c>
+      <c r="E188">
+        <v>0.84</v>
+      </c>
+      <c r="G188">
+        <v>0.155</v>
+      </c>
+      <c r="H188">
+        <v>5.51</v>
+      </c>
+      <c r="K188">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A189" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B189">
+        <v>6</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189" t="s">
+        <v>16</v>
+      </c>
+      <c r="H189">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K189">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A190" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B190">
+        <v>6</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190" t="s">
+        <v>15</v>
+      </c>
+      <c r="G190">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H190">
+        <v>3.88</v>
+      </c>
+      <c r="K190">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A191" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B191">
+        <v>6</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>14</v>
+      </c>
+      <c r="H191">
+        <v>3.99</v>
+      </c>
+      <c r="K191">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A192" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B192">
+        <v>6</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+      <c r="D192" t="s">
+        <v>17</v>
+      </c>
+      <c r="H192">
+        <v>4.09</v>
+      </c>
+      <c r="K192">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A193" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B193">
+        <v>6</v>
+      </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>18</v>
+      </c>
+      <c r="H193">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="K193">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A194" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B194">
+        <v>9</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>19</v>
+      </c>
+      <c r="H194">
+        <v>3.57</v>
+      </c>
+      <c r="K194">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A195" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B195">
+        <v>9</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>20</v>
+      </c>
+      <c r="H195">
+        <v>3.55</v>
+      </c>
+      <c r="K195">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A196" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B196">
+        <v>9</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>21</v>
+      </c>
+      <c r="H196">
+        <v>3.56</v>
+      </c>
+      <c r="K196">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A197" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B197">
+        <v>9</v>
+      </c>
+      <c r="C197">
+        <v>4</v>
+      </c>
+      <c r="D197" t="s">
+        <v>22</v>
+      </c>
+      <c r="H197">
+        <v>3.97</v>
+      </c>
+      <c r="K197">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A198" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B198">
+        <v>9</v>
+      </c>
+      <c r="C198">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
+        <v>37</v>
+      </c>
+      <c r="H198">
+        <v>4.22</v>
+      </c>
+      <c r="K198">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9068,8 +9454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DED55BC-E84B-4096-92BA-96DACA0090BF}">
   <dimension ref="A1:K297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -13255,20 +13641,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13291,14 +13677,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
@@ -13313,4 +13691,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CFF97F-DCF9-4853-AD6C-DA8043CC2219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D5A888-647F-4DCA-B101-E58CAC643A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="9750" windowHeight="10155" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
@@ -3719,21 +3719,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E7760-F87C-4D84-A63F-D473D279D553}">
   <dimension ref="A1:K198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J189" sqref="J189"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.40625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45400</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45400</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45400</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45400</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45400</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45400</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45400</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45400</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45400</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45400</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45400</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45400</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45400</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45400</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45400</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45400</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45420</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45420</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45420</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45420</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45420</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45420</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45420</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45420</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45420</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45420</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45420</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45420</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45420</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45420</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45420</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45420</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45442</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>45442</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>45442</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>45442</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>45442</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>45442</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45442</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45442</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45442</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45442</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>45442</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45442</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45442</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45442</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45442</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45442</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45463</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>-0.85000000000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45463</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>-1.55</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45463</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>45463</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>45463</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>45463</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>-1.24</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>45463</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>45463</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>45463</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>45463</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>45463</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>-1.0999999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>45463</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>-2.79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>45463</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>-1.4649999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>45463</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>45463</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>45463</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>-2.0049999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>45484</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>45484</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>45484</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>45484</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>45484</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>45484</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>45484</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>45484</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>45484</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>45484</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>26.57</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>45484</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>45484</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>45484</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>45484</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>45484</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>45484</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>45502</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>45502</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>45502</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>45502</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>45502</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>25.72</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>45502</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>45502</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>45502</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>45502</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>45502</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>45502</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>45502</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45502</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>45502</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>45502</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>45502</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>45534</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>45534</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>45534</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>45534</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>45534</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>26.43</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>45534</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>45534</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>45534</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>27.11</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>45534</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>45534</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>26.23</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>45534</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>45534</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>45534</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>45534</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>28.69</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>45534</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>45534</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>45569</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>45569</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>45569</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>45569</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>45569</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>45569</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>45569</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>45569</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>45569</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>45569</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>1373.6</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>45569</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>45569</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>45569</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>45569</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>45569</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>45569</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>45597</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>45597</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>45597</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>45597</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>45597</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>45597</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>45597</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>45597</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>45597</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>45597</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>45597</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>45597</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>45597</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>45597</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>45597</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>45597</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>45635</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>45635</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>45635</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>45635</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>45635</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>45635</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>45635</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>45635</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>45635</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>45635</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>45635</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>45635</v>
       </c>
@@ -8369,7 +8369,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>45635</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>45635</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>45635</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>45635</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>45635</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>45635</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>45687</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>45687</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>45687</v>
       </c>
@@ -8635,7 +8635,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>45687</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>45687</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>45687</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>45687</v>
       </c>
@@ -8747,7 +8747,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>45687</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>45687</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>45687</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>45687</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>45687</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>45687</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>45687</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>45687</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>45687</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>45687</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>45687</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>45728</v>
       </c>
@@ -9079,7 +9079,10 @@
         <v>6</v>
       </c>
       <c r="E182">
-        <v>0.44</v>
+        <v>0.2</v>
+      </c>
+      <c r="F182">
+        <v>0.45500000000000002</v>
       </c>
       <c r="G182">
         <v>0.04</v>
@@ -9091,7 +9094,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>45728</v>
       </c>
@@ -9105,7 +9108,7 @@
         <v>7</v>
       </c>
       <c r="E183">
-        <v>0.39500000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="G183">
         <v>0.14499999999999999</v>
@@ -9117,7 +9120,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>45728</v>
       </c>
@@ -9131,7 +9134,7 @@
         <v>8</v>
       </c>
       <c r="E184">
-        <v>0.78</v>
+        <v>0.755</v>
       </c>
       <c r="G184">
         <v>0.28199999999999997</v>
@@ -9143,7 +9146,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>45728</v>
       </c>
@@ -9157,7 +9160,14 @@
         <v>9</v>
       </c>
       <c r="E185">
-        <v>1.23</v>
+        <v>0.24</v>
+      </c>
+      <c r="F185">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="G185">
+        <f>E185-F185</f>
+        <v>-0.51900000000000002</v>
       </c>
       <c r="H185">
         <v>5.0199999999999996</v>
@@ -9166,7 +9176,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>45728</v>
       </c>
@@ -9180,7 +9190,7 @@
         <v>10</v>
       </c>
       <c r="E186">
-        <v>0.10199999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G186">
         <v>0.28100000000000003</v>
@@ -9192,7 +9202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>45728</v>
       </c>
@@ -9206,7 +9216,14 @@
         <v>11</v>
       </c>
       <c r="E187">
-        <v>8.5000000000000006E-2</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F187">
+        <v>0.22</v>
+      </c>
+      <c r="G187">
+        <f>E187-F187</f>
+        <v>-0.15</v>
       </c>
       <c r="H187">
         <v>3.81</v>
@@ -9215,7 +9232,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>45728</v>
       </c>
@@ -9241,7 +9258,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>45728</v>
       </c>
@@ -9249,10 +9266,20 @@
         <v>6</v>
       </c>
       <c r="C189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="E189">
+        <v>0.18</v>
+      </c>
+      <c r="F189">
+        <v>0.39</v>
+      </c>
+      <c r="G189">
+        <f t="shared" ref="G189:G198" si="8">E189-F189</f>
+        <v>-0.21000000000000002</v>
       </c>
       <c r="H189">
         <v>4.0999999999999996</v>
@@ -9261,7 +9288,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>45728</v>
       </c>
@@ -9274,8 +9301,11 @@
       <c r="D190" t="s">
         <v>15</v>
       </c>
+      <c r="E190">
+        <v>0.78</v>
+      </c>
       <c r="G190">
-        <v>5.5E-2</v>
+        <v>0.05</v>
       </c>
       <c r="H190">
         <v>3.88</v>
@@ -9284,7 +9314,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>45728</v>
       </c>
@@ -9292,10 +9322,20 @@
         <v>6</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D191" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E191">
+        <v>0.85</v>
+      </c>
+      <c r="F191">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="8"/>
+        <v>0.32299999999999995</v>
       </c>
       <c r="H191">
         <v>3.99</v>
@@ -9304,7 +9344,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>45728</v>
       </c>
@@ -9317,6 +9357,16 @@
       <c r="D192" t="s">
         <v>17</v>
       </c>
+      <c r="E192">
+        <v>0.2</v>
+      </c>
+      <c r="F192">
+        <v>0.25</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="8"/>
+        <v>-4.9999999999999989E-2</v>
+      </c>
       <c r="H192">
         <v>4.09</v>
       </c>
@@ -9324,7 +9374,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>45728</v>
       </c>
@@ -9337,6 +9387,16 @@
       <c r="D193" t="s">
         <v>18</v>
       </c>
+      <c r="E193">
+        <v>1.032</v>
+      </c>
+      <c r="F193">
+        <v>2.23</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="8"/>
+        <v>-1.198</v>
+      </c>
       <c r="H193">
         <v>4.1900000000000004</v>
       </c>
@@ -9344,7 +9404,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>45728</v>
       </c>
@@ -9357,6 +9417,16 @@
       <c r="D194" t="s">
         <v>19</v>
       </c>
+      <c r="E194">
+        <v>0.23</v>
+      </c>
+      <c r="F194">
+        <v>0.378</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="8"/>
+        <v>-0.14799999999999999</v>
+      </c>
       <c r="H194">
         <v>3.57</v>
       </c>
@@ -9364,7 +9434,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>45728</v>
       </c>
@@ -9377,6 +9447,16 @@
       <c r="D195" t="s">
         <v>20</v>
       </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="8"/>
+        <v>-0.38200000000000001</v>
+      </c>
       <c r="H195">
         <v>3.55</v>
       </c>
@@ -9384,7 +9464,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>45728</v>
       </c>
@@ -9397,6 +9477,16 @@
       <c r="D196" t="s">
         <v>21</v>
       </c>
+      <c r="E196">
+        <v>0.68</v>
+      </c>
+      <c r="F196">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="8"/>
+        <v>0.36100000000000004</v>
+      </c>
       <c r="H196">
         <v>3.56</v>
       </c>
@@ -9404,7 +9494,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>45728</v>
       </c>
@@ -9417,6 +9507,16 @@
       <c r="D197" t="s">
         <v>22</v>
       </c>
+      <c r="E197">
+        <v>0.4</v>
+      </c>
+      <c r="F197">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="8"/>
+        <v>0.10100000000000003</v>
+      </c>
       <c r="H197">
         <v>3.97</v>
       </c>
@@ -9424,7 +9524,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>45728</v>
       </c>
@@ -9436,6 +9536,16 @@
       </c>
       <c r="D198" t="s">
         <v>37</v>
+      </c>
+      <c r="E198">
+        <v>0.69</v>
+      </c>
+      <c r="F198">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="8"/>
+        <v>-0.16300000000000003</v>
       </c>
       <c r="H198">
         <v>4.22</v>
@@ -9458,19 +9568,19 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.40625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1328125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -9505,7 +9615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -9536,7 +9646,7 @@
         <v>79.863910000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -9567,7 +9677,7 @@
         <v>76.943730000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -9598,7 +9708,7 @@
         <v>88.202100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -9629,7 +9739,7 @@
         <v>76.922430000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -9660,7 +9770,7 @@
         <v>92.059330000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -9691,7 +9801,7 @@
         <v>76.370699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -9719,7 +9829,7 @@
         <v>93.197450000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -9750,7 +9860,7 @@
         <v>76.815430000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -9781,7 +9891,7 @@
         <v>76.590829999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -9812,7 +9922,7 @@
         <v>76.606219999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -9843,7 +9953,7 @@
         <v>76.513019999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -9874,7 +9984,7 @@
         <v>76.622630000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -9905,7 +10015,7 @@
         <v>66.857730000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -9936,7 +10046,7 @@
         <v>67.045649999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -9967,7 +10077,7 @@
         <v>67.109120000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -9995,7 +10105,7 @@
         <v>66.502930000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -10024,7 +10134,7 @@
         <v>66.842190000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -10045,7 +10155,7 @@
         <v>66.69511</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H20">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10057,7 +10167,7 @@
         <v>67.072839999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10069,7 +10179,7 @@
         <v>66.492159999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10081,7 +10191,7 @@
         <v>66.821780000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H23">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10093,7 +10203,7 @@
         <v>66.970429999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H24">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10105,7 +10215,7 @@
         <v>66.743210000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10117,7 +10227,7 @@
         <v>66.741129999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H26">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10129,7 +10239,7 @@
         <v>66.642009999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10141,7 +10251,7 @@
         <v>66.604929999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H28">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10153,7 +10263,7 @@
         <v>66.727909999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10165,7 +10275,7 @@
         <v>66.755129999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H30">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10177,7 +10287,7 @@
         <v>66.565960000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H31">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10189,7 +10299,7 @@
         <v>66.708879999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H32">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10201,7 +10311,7 @@
         <v>66.438630000000003</v>
       </c>
     </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10213,7 +10323,7 @@
         <v>66.721999999999994</v>
       </c>
     </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10225,7 +10335,7 @@
         <v>66.502319999999997</v>
       </c>
     </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10237,7 +10347,7 @@
         <v>66.603359999999995</v>
       </c>
     </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10249,7 +10359,7 @@
         <v>66.735640000000004</v>
       </c>
     </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H37">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10261,7 +10371,7 @@
         <v>67.009540000000001</v>
       </c>
     </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H38">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10273,7 +10383,7 @@
         <v>66.730959999999996</v>
       </c>
     </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10285,7 +10395,7 @@
         <v>66.700519999999997</v>
       </c>
     </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H40">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10297,7 +10407,7 @@
         <v>66.432400000000001</v>
       </c>
     </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H41">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10309,7 +10419,7 @@
         <v>66.440209999999993</v>
       </c>
     </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="42" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10321,7 +10431,7 @@
         <v>66.810680000000005</v>
       </c>
     </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="43" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H43">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10333,7 +10443,7 @@
         <v>66.765969999999996</v>
       </c>
     </row>
-    <row r="44" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="44" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10345,7 +10455,7 @@
         <v>66.688059999999993</v>
       </c>
     </row>
-    <row r="45" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="45" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H45">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10357,7 +10467,7 @@
         <v>66.708640000000003</v>
       </c>
     </row>
-    <row r="46" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="46" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H46">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10369,7 +10479,7 @@
         <v>66.707120000000003</v>
       </c>
     </row>
-    <row r="47" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="47" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H47">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10381,7 +10491,7 @@
         <v>66.699510000000004</v>
       </c>
     </row>
-    <row r="48" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="48" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10393,7 +10503,7 @@
         <v>67.011229999999998</v>
       </c>
     </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H49">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10405,7 +10515,7 @@
         <v>66.578879999999998</v>
       </c>
     </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10417,7 +10527,7 @@
         <v>66.439570000000003</v>
       </c>
     </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H51">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10429,7 +10539,7 @@
         <v>66.421679999999995</v>
       </c>
     </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H52">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10441,7 +10551,7 @@
         <v>66.699039999999997</v>
       </c>
     </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="53" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H53">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10453,7 +10563,7 @@
         <v>66.41798</v>
       </c>
     </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H54">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10465,7 +10575,7 @@
         <v>66.555769999999995</v>
       </c>
     </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="55" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H55">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10477,7 +10587,7 @@
         <v>66.713909999999998</v>
       </c>
     </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="56" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H56">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10489,7 +10599,7 @@
         <v>66.679460000000006</v>
       </c>
     </row>
-    <row r="57" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="57" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10501,7 +10611,7 @@
         <v>66.716350000000006</v>
       </c>
     </row>
-    <row r="58" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="58" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H58">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10513,7 +10623,7 @@
         <v>66.600700000000003</v>
       </c>
     </row>
-    <row r="59" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="59" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H59">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10525,7 +10635,7 @@
         <v>67.232489999999999</v>
       </c>
     </row>
-    <row r="60" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="60" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H60">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10537,7 +10647,7 @@
         <v>66.475719999999995</v>
       </c>
     </row>
-    <row r="61" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="61" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H61">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10549,7 +10659,7 @@
         <v>69.48903</v>
       </c>
     </row>
-    <row r="62" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="62" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H62">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10561,7 +10671,7 @@
         <v>66.661689999999993</v>
       </c>
     </row>
-    <row r="63" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="63" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H63">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10573,7 +10683,7 @@
         <v>77.511840000000007</v>
       </c>
     </row>
-    <row r="64" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="64" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H64">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10585,7 +10695,7 @@
         <v>66.713200000000001</v>
       </c>
     </row>
-    <row r="65" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H65">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10597,7 +10707,7 @@
         <v>80.544539999999998</v>
       </c>
     </row>
-    <row r="66" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H66">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10609,7 +10719,7 @@
         <v>66.882890000000003</v>
       </c>
     </row>
-    <row r="67" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H67">
         <f t="shared" ref="H67:H130" si="2">D67-F67</f>
         <v>0</v>
@@ -10621,7 +10731,7 @@
         <v>82.613020000000006</v>
       </c>
     </row>
-    <row r="68" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="68" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H68">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10633,7 +10743,7 @@
         <v>66.875720000000001</v>
       </c>
     </row>
-    <row r="69" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="69" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H69">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10645,7 +10755,7 @@
         <v>81.679119999999998</v>
       </c>
     </row>
-    <row r="70" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="70" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H70">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10657,7 +10767,7 @@
         <v>76.520039999999995</v>
       </c>
     </row>
-    <row r="71" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="71" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H71">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10669,7 +10779,7 @@
         <v>76.523030000000006</v>
       </c>
     </row>
-    <row r="72" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="72" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H72">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10681,7 +10791,7 @@
         <v>76.558539999999994</v>
       </c>
     </row>
-    <row r="73" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="73" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H73">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10693,7 +10803,7 @@
         <v>76.322270000000003</v>
       </c>
     </row>
-    <row r="74" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="74" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H74">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10705,7 +10815,7 @@
         <v>76.840400000000002</v>
       </c>
     </row>
-    <row r="75" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="75" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H75">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10717,7 +10827,7 @@
         <v>76.866280000000003</v>
       </c>
     </row>
-    <row r="76" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="76" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H76">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10729,7 +10839,7 @@
         <v>76.297600000000003</v>
       </c>
     </row>
-    <row r="77" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="77" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H77">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10741,7 +10851,7 @@
         <v>76.881839999999997</v>
       </c>
     </row>
-    <row r="78" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="78" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H78">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10753,7 +10863,7 @@
         <v>76.468999999999994</v>
       </c>
     </row>
-    <row r="79" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="79" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H79">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10765,7 +10875,7 @@
         <v>76.618129999999994</v>
       </c>
     </row>
-    <row r="80" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="80" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H80">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10777,7 +10887,7 @@
         <v>76.480620000000002</v>
       </c>
     </row>
-    <row r="81" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="81" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H81">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10789,7 +10899,7 @@
         <v>76.648570000000007</v>
       </c>
     </row>
-    <row r="82" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="82" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H82">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10801,7 +10911,7 @@
         <v>76.311499999999995</v>
       </c>
     </row>
-    <row r="83" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="83" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H83">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10813,7 +10923,7 @@
         <v>76.679150000000007</v>
       </c>
     </row>
-    <row r="84" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="84" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H84">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10825,7 +10935,7 @@
         <v>76.621639999999999</v>
       </c>
     </row>
-    <row r="85" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="85" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H85">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10837,7 +10947,7 @@
         <v>76.371279999999999</v>
       </c>
     </row>
-    <row r="86" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="86" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H86">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10849,7 +10959,7 @@
         <v>76.636949999999999</v>
       </c>
     </row>
-    <row r="87" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="87" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H87">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10861,7 +10971,7 @@
         <v>76.882059999999996</v>
       </c>
     </row>
-    <row r="88" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="88" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H88">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10873,7 +10983,7 @@
         <v>76.91395</v>
       </c>
     </row>
-    <row r="89" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="89" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H89">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10885,7 +10995,7 @@
         <v>76.394909999999996</v>
       </c>
     </row>
-    <row r="90" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="90" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H90">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10897,7 +11007,7 @@
         <v>76.664580000000001</v>
       </c>
     </row>
-    <row r="91" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="91" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10909,7 +11019,7 @@
         <v>76.792010000000005</v>
       </c>
     </row>
-    <row r="92" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="92" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H92">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10921,7 +11031,7 @@
         <v>86.622889999999998</v>
       </c>
     </row>
-    <row r="93" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="93" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H93">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10933,7 +11043,7 @@
         <v>86.426929999999999</v>
       </c>
     </row>
-    <row r="94" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="94" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H94">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10945,7 +11055,7 @@
         <v>86.291049999999998</v>
       </c>
     </row>
-    <row r="95" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="95" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H95">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10957,7 +11067,7 @@
         <v>86.616039999999998</v>
       </c>
     </row>
-    <row r="96" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="96" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H96">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10969,7 +11079,7 @@
         <v>86.725769999999997</v>
       </c>
     </row>
-    <row r="97" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="97" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H97">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10981,7 +11091,7 @@
         <v>86.364840000000001</v>
       </c>
     </row>
-    <row r="98" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="98" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H98">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10993,7 +11103,7 @@
         <v>86.454610000000002</v>
       </c>
     </row>
-    <row r="99" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="99" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H99">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11005,7 +11115,7 @@
         <v>86.403989999999993</v>
       </c>
     </row>
-    <row r="100" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="100" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H100">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11017,7 +11127,7 @@
         <v>86.471239999999995</v>
       </c>
     </row>
-    <row r="101" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="101" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H101">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11029,7 +11139,7 @@
         <v>86.733379999999997</v>
       </c>
     </row>
-    <row r="102" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="102" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H102">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11041,7 +11151,7 @@
         <v>86.402079999999998</v>
       </c>
     </row>
-    <row r="103" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="103" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H103">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11053,7 +11163,7 @@
         <v>86.439710000000005</v>
       </c>
     </row>
-    <row r="104" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="104" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H104">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11065,7 +11175,7 @@
         <v>86.730919999999998</v>
       </c>
     </row>
-    <row r="105" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="105" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H105">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11077,7 +11187,7 @@
         <v>86.136409999999998</v>
       </c>
     </row>
-    <row r="106" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="106" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11089,7 +11199,7 @@
         <v>86.486429999999999</v>
       </c>
     </row>
-    <row r="107" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="107" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H107">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11101,7 +11211,7 @@
         <v>86.408940000000001</v>
       </c>
     </row>
-    <row r="108" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="108" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H108">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11113,7 +11223,7 @@
         <v>86.266360000000006</v>
       </c>
     </row>
-    <row r="109" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="109" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H109">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11125,7 +11235,7 @@
         <v>96.321259999999995</v>
       </c>
     </row>
-    <row r="110" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="110" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11137,7 +11247,7 @@
         <v>95.994619999999998</v>
       </c>
     </row>
-    <row r="111" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="111" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H111">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11149,7 +11259,7 @@
         <v>96.47484</v>
       </c>
     </row>
-    <row r="112" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="112" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H112">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11161,7 +11271,7 @@
         <v>96.487459999999999</v>
       </c>
     </row>
-    <row r="113" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="113" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H113">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11173,7 +11283,7 @@
         <v>95.942539999999994</v>
       </c>
     </row>
-    <row r="114" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="114" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H114">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11185,7 +11295,7 @@
         <v>96.212249999999997</v>
       </c>
     </row>
-    <row r="115" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="115" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H115">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11197,7 +11307,7 @@
         <v>96.16</v>
       </c>
     </row>
-    <row r="116" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="116" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H116">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11209,7 +11319,7 @@
         <v>96.532060000000001</v>
       </c>
     </row>
-    <row r="117" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="117" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H117">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11221,7 +11331,7 @@
         <v>96.261859999999999</v>
       </c>
     </row>
-    <row r="118" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="118" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H118">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11233,7 +11343,7 @@
         <v>96.204570000000004</v>
       </c>
     </row>
-    <row r="119" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="119" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H119">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11245,7 +11355,7 @@
         <v>95.947130000000001</v>
       </c>
     </row>
-    <row r="120" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="120" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H120">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11257,7 +11367,7 @@
         <v>102.5564</v>
       </c>
     </row>
-    <row r="121" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="121" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H121">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11269,7 +11379,7 @@
         <v>96.26979</v>
       </c>
     </row>
-    <row r="122" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="122" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H122">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11281,7 +11391,7 @@
         <v>107.5222</v>
       </c>
     </row>
-    <row r="123" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="123" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H123">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11293,7 +11403,7 @@
         <v>96.174220000000005</v>
       </c>
     </row>
-    <row r="124" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="124" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H124">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11305,7 +11415,7 @@
         <v>111.3181</v>
       </c>
     </row>
-    <row r="125" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="125" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H125">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11317,7 +11427,7 @@
         <v>96.214839999999995</v>
       </c>
     </row>
-    <row r="126" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="126" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H126">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11329,7 +11439,7 @@
         <v>122.13800000000001</v>
       </c>
     </row>
-    <row r="127" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="127" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H127">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11341,7 +11451,7 @@
         <v>105.7696</v>
       </c>
     </row>
-    <row r="128" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="128" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H128">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11353,7 +11463,7 @@
         <v>106.3018</v>
       </c>
     </row>
-    <row r="129" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="129" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H129">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11365,7 +11475,7 @@
         <v>106.0164</v>
       </c>
     </row>
-    <row r="130" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="130" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H130">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11377,7 +11487,7 @@
         <v>106.0008</v>
       </c>
     </row>
-    <row r="131" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="131" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H131">
         <f t="shared" ref="H131:H194" si="3">D131-F131</f>
         <v>0</v>
@@ -11389,7 +11499,7 @@
         <v>106.2757</v>
       </c>
     </row>
-    <row r="132" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="132" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H132">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11401,7 +11511,7 @@
         <v>105.7705</v>
       </c>
     </row>
-    <row r="133" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="133" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H133">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11413,7 +11523,7 @@
         <v>106.0813</v>
       </c>
     </row>
-    <row r="134" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="134" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H134">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11425,7 +11535,7 @@
         <v>106.3004</v>
       </c>
     </row>
-    <row r="135" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="135" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H135">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11437,7 +11547,7 @@
         <v>105.8387</v>
       </c>
     </row>
-    <row r="136" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="136" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H136">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11449,7 +11559,7 @@
         <v>106.3312</v>
       </c>
     </row>
-    <row r="137" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="137" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H137">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11461,7 +11571,7 @@
         <v>105.94289999999999</v>
       </c>
     </row>
-    <row r="138" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="138" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H138">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11473,7 +11583,7 @@
         <v>105.88379999999999</v>
       </c>
     </row>
-    <row r="139" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="139" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H139">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11485,7 +11595,7 @@
         <v>105.9689</v>
       </c>
     </row>
-    <row r="140" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="140" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H140">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11497,7 +11607,7 @@
         <v>106.07550000000001</v>
       </c>
     </row>
-    <row r="141" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="141" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H141">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11509,7 +11619,7 @@
         <v>105.9944</v>
       </c>
     </row>
-    <row r="142" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="142" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H142">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11521,7 +11631,7 @@
         <v>105.9682</v>
       </c>
     </row>
-    <row r="143" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="143" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H143">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11533,7 +11643,7 @@
         <v>106.0844</v>
       </c>
     </row>
-    <row r="144" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="144" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H144">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11545,7 +11655,7 @@
         <v>106.253</v>
       </c>
     </row>
-    <row r="145" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="145" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H145">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11557,7 +11667,7 @@
         <v>105.9712</v>
       </c>
     </row>
-    <row r="146" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="146" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H146">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11569,7 +11679,7 @@
         <v>105.7208</v>
       </c>
     </row>
-    <row r="147" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="147" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H147">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11581,7 +11691,7 @@
         <v>106.00369999999999</v>
       </c>
     </row>
-    <row r="148" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="148" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H148">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11593,7 +11703,7 @@
         <v>105.74850000000001</v>
       </c>
     </row>
-    <row r="149" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="149" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H149">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11605,7 +11715,7 @@
         <v>105.6892</v>
       </c>
     </row>
-    <row r="150" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="150" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H150">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11617,7 +11727,7 @@
         <v>115.9367</v>
       </c>
     </row>
-    <row r="151" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="151" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H151">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11629,7 +11739,7 @@
         <v>115.7723</v>
       </c>
     </row>
-    <row r="152" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="152" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H152">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11641,7 +11751,7 @@
         <v>115.5065</v>
       </c>
     </row>
-    <row r="153" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="153" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H153">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11653,7 +11763,7 @@
         <v>116.05670000000001</v>
       </c>
     </row>
-    <row r="154" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="154" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H154">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11665,7 +11775,7 @@
         <v>115.9269</v>
       </c>
     </row>
-    <row r="155" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="155" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H155">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11677,7 +11787,7 @@
         <v>115.9965</v>
       </c>
     </row>
-    <row r="156" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="156" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H156">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11689,7 +11799,7 @@
         <v>115.4991</v>
       </c>
     </row>
-    <row r="157" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="157" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H157">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11701,7 +11811,7 @@
         <v>115.5228</v>
       </c>
     </row>
-    <row r="158" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="158" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H158">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11713,7 +11823,7 @@
         <v>115.83710000000001</v>
       </c>
     </row>
-    <row r="159" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="159" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H159">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11725,7 +11835,7 @@
         <v>115.67700000000001</v>
       </c>
     </row>
-    <row r="160" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="160" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H160">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11737,7 +11847,7 @@
         <v>115.5472</v>
       </c>
     </row>
-    <row r="161" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="161" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H161">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11749,7 +11859,7 @@
         <v>116.02809999999999</v>
       </c>
     </row>
-    <row r="162" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="162" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H162">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11761,7 +11871,7 @@
         <v>115.7191</v>
       </c>
     </row>
-    <row r="163" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="163" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H163">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11773,7 +11883,7 @@
         <v>115.8503</v>
       </c>
     </row>
-    <row r="164" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="164" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H164">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11785,7 +11895,7 @@
         <v>116.01349999999999</v>
       </c>
     </row>
-    <row r="165" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="165" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H165">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11797,7 +11907,7 @@
         <v>116.0718</v>
       </c>
     </row>
-    <row r="166" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="166" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H166">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11809,7 +11919,7 @@
         <v>115.88200000000001</v>
       </c>
     </row>
-    <row r="167" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="167" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H167">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11821,7 +11931,7 @@
         <v>115.82640000000001</v>
       </c>
     </row>
-    <row r="168" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="168" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H168">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11833,7 +11943,7 @@
         <v>116.0414</v>
       </c>
     </row>
-    <row r="169" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="169" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H169">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11845,7 +11955,7 @@
         <v>115.7786</v>
       </c>
     </row>
-    <row r="170" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="170" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H170">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11857,7 +11967,7 @@
         <v>115.92440000000001</v>
       </c>
     </row>
-    <row r="171" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="171" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H171">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11869,7 +11979,7 @@
         <v>116.0988</v>
       </c>
     </row>
-    <row r="172" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="172" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H172">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11881,7 +11991,7 @@
         <v>115.9281</v>
       </c>
     </row>
-    <row r="173" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="173" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H173">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11893,7 +12003,7 @@
         <v>115.8377</v>
       </c>
     </row>
-    <row r="174" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="174" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H174">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11905,7 +12015,7 @@
         <v>116.0936</v>
       </c>
     </row>
-    <row r="175" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="175" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H175">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11917,7 +12027,7 @@
         <v>115.8402</v>
       </c>
     </row>
-    <row r="176" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="176" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H176">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11929,7 +12039,7 @@
         <v>116.17019999999999</v>
       </c>
     </row>
-    <row r="177" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="177" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H177">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11941,7 +12051,7 @@
         <v>115.6253</v>
       </c>
     </row>
-    <row r="178" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="178" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H178">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11953,7 +12063,7 @@
         <v>116.0719</v>
       </c>
     </row>
-    <row r="179" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="179" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H179">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11965,7 +12075,7 @@
         <v>116.3058</v>
       </c>
     </row>
-    <row r="180" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="180" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H180">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11977,7 +12087,7 @@
         <v>115.8853</v>
       </c>
     </row>
-    <row r="181" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="181" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H181">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11989,7 +12099,7 @@
         <v>116.38339999999999</v>
       </c>
     </row>
-    <row r="182" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="182" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H182">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12001,7 +12111,7 @@
         <v>116.1009</v>
       </c>
     </row>
-    <row r="183" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="183" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H183">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12013,7 +12123,7 @@
         <v>126.40130000000001</v>
       </c>
     </row>
-    <row r="184" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="184" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H184">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12025,7 +12135,7 @@
         <v>115.6763</v>
       </c>
     </row>
-    <row r="185" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="185" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H185">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12037,7 +12147,7 @@
         <v>128.953</v>
       </c>
     </row>
-    <row r="186" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="186" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H186">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12049,7 +12159,7 @@
         <v>115.9194</v>
       </c>
     </row>
-    <row r="187" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="187" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H187">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12061,7 +12171,7 @@
         <v>131.6455</v>
       </c>
     </row>
-    <row r="188" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="188" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H188">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12073,7 +12183,7 @@
         <v>115.86109999999999</v>
       </c>
     </row>
-    <row r="189" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="189" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H189">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12085,7 +12195,7 @@
         <v>115.68819999999999</v>
       </c>
     </row>
-    <row r="190" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="190" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H190">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12097,7 +12207,7 @@
         <v>116.19329999999999</v>
       </c>
     </row>
-    <row r="191" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="191" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H191">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12109,7 +12219,7 @@
         <v>116.134</v>
       </c>
     </row>
-    <row r="192" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="192" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H192">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12121,7 +12231,7 @@
         <v>116.1763</v>
       </c>
     </row>
-    <row r="193" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="193" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H193">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12133,7 +12243,7 @@
         <v>116.0438</v>
       </c>
     </row>
-    <row r="194" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="194" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H194">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12145,7 +12255,7 @@
         <v>115.9259</v>
       </c>
     </row>
-    <row r="195" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="195" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H195">
         <f t="shared" ref="H195:H258" si="4">D195-F195</f>
         <v>0</v>
@@ -12157,7 +12267,7 @@
         <v>116.0008</v>
       </c>
     </row>
-    <row r="196" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="196" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H196">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12169,7 +12279,7 @@
         <v>116.0121</v>
       </c>
     </row>
-    <row r="197" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="197" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H197">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12181,7 +12291,7 @@
         <v>115.7264</v>
       </c>
     </row>
-    <row r="198" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="198" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H198">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12193,7 +12303,7 @@
         <v>115.9374</v>
       </c>
     </row>
-    <row r="199" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="199" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H199">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12205,7 +12315,7 @@
         <v>115.91459999999999</v>
       </c>
     </row>
-    <row r="200" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="200" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H200">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12217,7 +12327,7 @@
         <v>115.63939999999999</v>
       </c>
     </row>
-    <row r="201" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="201" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H201">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12229,7 +12339,7 @@
         <v>116.1581</v>
       </c>
     </row>
-    <row r="202" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="202" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H202">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12241,7 +12351,7 @@
         <v>115.8416</v>
       </c>
     </row>
-    <row r="203" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="203" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H203">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12253,7 +12363,7 @@
         <v>115.8566</v>
       </c>
     </row>
-    <row r="204" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="204" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H204">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12265,7 +12375,7 @@
         <v>115.8509</v>
       </c>
     </row>
-    <row r="205" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="205" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H205">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12277,7 +12387,7 @@
         <v>115.8514</v>
       </c>
     </row>
-    <row r="206" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="206" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H206">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12289,7 +12399,7 @@
         <v>125.86709999999999</v>
       </c>
     </row>
-    <row r="207" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="207" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H207">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12301,7 +12411,7 @@
         <v>125.4483</v>
       </c>
     </row>
-    <row r="208" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="208" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H208">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12313,7 +12423,7 @@
         <v>125.4024</v>
       </c>
     </row>
-    <row r="209" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="209" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H209">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12325,7 +12435,7 @@
         <v>125.7238</v>
       </c>
     </row>
-    <row r="210" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="210" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H210">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12337,7 +12447,7 @@
         <v>125.682</v>
       </c>
     </row>
-    <row r="211" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="211" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H211">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12349,7 +12459,7 @@
         <v>125.6857</v>
       </c>
     </row>
-    <row r="212" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="212" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H212">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12361,7 +12471,7 @@
         <v>125.4738</v>
       </c>
     </row>
-    <row r="213" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="213" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H213">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12373,7 +12483,7 @@
         <v>125.9331</v>
       </c>
     </row>
-    <row r="214" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="214" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H214">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12385,7 +12495,7 @@
         <v>125.37139999999999</v>
       </c>
     </row>
-    <row r="215" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="215" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H215">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12397,7 +12507,7 @@
         <v>125.9153</v>
       </c>
     </row>
-    <row r="216" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="216" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H216">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12409,7 +12519,7 @@
         <v>125.6576</v>
       </c>
     </row>
-    <row r="217" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="217" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H217">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12421,7 +12531,7 @@
         <v>125.5729</v>
       </c>
     </row>
-    <row r="218" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="218" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H218">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12433,7 +12543,7 @@
         <v>125.9589</v>
       </c>
     </row>
-    <row r="219" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="219" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H219">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12445,7 +12555,7 @@
         <v>135.2037</v>
       </c>
     </row>
-    <row r="220" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="220" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H220">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12457,7 +12567,7 @@
         <v>135.52789999999999</v>
       </c>
     </row>
-    <row r="221" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="221" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H221">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12469,7 +12579,7 @@
         <v>135.4736</v>
       </c>
     </row>
-    <row r="222" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="222" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H222">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12481,7 +12591,7 @@
         <v>135.52209999999999</v>
       </c>
     </row>
-    <row r="223" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="223" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H223">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12493,7 +12603,7 @@
         <v>135.203</v>
       </c>
     </row>
-    <row r="224" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="224" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H224">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12505,7 +12615,7 @@
         <v>135.62870000000001</v>
       </c>
     </row>
-    <row r="225" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="225" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H225">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12517,7 +12627,7 @@
         <v>135.7516</v>
       </c>
     </row>
-    <row r="226" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="226" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H226">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12529,7 +12639,7 @@
         <v>135.196</v>
       </c>
     </row>
-    <row r="227" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="227" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H227">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12541,7 +12651,7 @@
         <v>135.72149999999999</v>
       </c>
     </row>
-    <row r="228" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="228" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H228">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12553,7 +12663,7 @@
         <v>135.15219999999999</v>
       </c>
     </row>
-    <row r="229" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="229" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H229">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12565,7 +12675,7 @@
         <v>135.52850000000001</v>
       </c>
     </row>
-    <row r="230" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="230" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H230">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12577,7 +12687,7 @@
         <v>135.50040000000001</v>
       </c>
     </row>
-    <row r="231" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="231" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H231">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12589,7 +12699,7 @@
         <v>135.14279999999999</v>
       </c>
     </row>
-    <row r="232" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="232" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H232">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12601,7 +12711,7 @@
         <v>135.7586</v>
       </c>
     </row>
-    <row r="233" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="233" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H233">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12613,7 +12723,7 @@
         <v>135.2062</v>
       </c>
     </row>
-    <row r="234" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="234" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H234">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12625,7 +12735,7 @@
         <v>135.19049999999999</v>
       </c>
     </row>
-    <row r="235" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="235" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H235">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12637,7 +12747,7 @@
         <v>135.5018</v>
       </c>
     </row>
-    <row r="236" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="236" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H236">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12649,7 +12759,7 @@
         <v>135.70230000000001</v>
       </c>
     </row>
-    <row r="237" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="237" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H237">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12661,7 +12771,7 @@
         <v>135.14320000000001</v>
       </c>
     </row>
-    <row r="238" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="238" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H238">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12673,7 +12783,7 @@
         <v>135.9186</v>
       </c>
     </row>
-    <row r="239" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="239" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H239">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12685,7 +12795,7 @@
         <v>135.1687</v>
       </c>
     </row>
-    <row r="240" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="240" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H240">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12697,7 +12807,7 @@
         <v>136.13910000000001</v>
       </c>
     </row>
-    <row r="241" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="241" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H241">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12709,7 +12819,7 @@
         <v>135.43340000000001</v>
       </c>
     </row>
-    <row r="242" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="242" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H242">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12721,7 +12831,7 @@
         <v>146.0427</v>
       </c>
     </row>
-    <row r="243" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="243" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H243">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12733,7 +12843,7 @@
         <v>135.41380000000001</v>
       </c>
     </row>
-    <row r="244" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="244" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H244">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12745,7 +12855,7 @@
         <v>148.27549999999999</v>
       </c>
     </row>
-    <row r="245" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="245" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H245">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12757,7 +12867,7 @@
         <v>135.7269</v>
       </c>
     </row>
-    <row r="246" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="246" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H246">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12769,7 +12879,7 @@
         <v>150.4016</v>
       </c>
     </row>
-    <row r="247" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="247" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H247">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12781,7 +12891,7 @@
         <v>135.68629999999999</v>
       </c>
     </row>
-    <row r="248" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="248" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H248">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12793,7 +12903,7 @@
         <v>149.3246</v>
       </c>
     </row>
-    <row r="249" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="249" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H249">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12805,7 +12915,7 @@
         <v>135.16829999999999</v>
       </c>
     </row>
-    <row r="250" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="250" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H250">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12817,7 +12927,7 @@
         <v>135.63730000000001</v>
       </c>
     </row>
-    <row r="251" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="251" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H251">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12829,7 +12939,7 @@
         <v>135.42089999999999</v>
       </c>
     </row>
-    <row r="252" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="252" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H252">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12841,7 +12951,7 @@
         <v>135.44110000000001</v>
       </c>
     </row>
-    <row r="253" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="253" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H253">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12853,7 +12963,7 @@
         <v>135.73140000000001</v>
       </c>
     </row>
-    <row r="254" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="254" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H254">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12865,7 +12975,7 @@
         <v>135.52979999999999</v>
       </c>
     </row>
-    <row r="255" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="255" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H255">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12877,7 +12987,7 @@
         <v>135.16589999999999</v>
       </c>
     </row>
-    <row r="256" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="256" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H256">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12889,7 +12999,7 @@
         <v>135.43109999999999</v>
       </c>
     </row>
-    <row r="257" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="257" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H257">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12901,7 +13011,7 @@
         <v>135.6944</v>
       </c>
     </row>
-    <row r="258" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="258" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H258">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12913,7 +13023,7 @@
         <v>135.5111</v>
       </c>
     </row>
-    <row r="259" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="259" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H259">
         <f t="shared" ref="H259:H297" si="5">D259-F259</f>
         <v>0</v>
@@ -12925,7 +13035,7 @@
         <v>135.74529999999999</v>
       </c>
     </row>
-    <row r="260" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="260" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H260">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12937,7 +13047,7 @@
         <v>135.589</v>
       </c>
     </row>
-    <row r="261" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="261" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H261">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12949,7 +13059,7 @@
         <v>135.4787</v>
       </c>
     </row>
-    <row r="262" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="262" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H262">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12961,7 +13071,7 @@
         <v>135.501</v>
       </c>
     </row>
-    <row r="263" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="263" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H263">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12973,7 +13083,7 @@
         <v>135.68340000000001</v>
       </c>
     </row>
-    <row r="264" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="264" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H264">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12985,7 +13095,7 @@
         <v>135.40479999999999</v>
       </c>
     </row>
-    <row r="265" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="265" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H265">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -12997,7 +13107,7 @@
         <v>135.34440000000001</v>
       </c>
     </row>
-    <row r="266" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="266" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H266">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13009,7 +13119,7 @@
         <v>135.4581</v>
       </c>
     </row>
-    <row r="267" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="267" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H267">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13021,7 +13131,7 @@
         <v>135.1977</v>
       </c>
     </row>
-    <row r="268" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="268" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H268">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13033,7 +13143,7 @@
         <v>135.34399999999999</v>
       </c>
     </row>
-    <row r="269" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="269" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H269">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13045,7 +13155,7 @@
         <v>135.76349999999999</v>
       </c>
     </row>
-    <row r="270" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="270" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H270">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13057,7 +13167,7 @@
         <v>135.49199999999999</v>
       </c>
     </row>
-    <row r="271" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="271" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H271">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13069,7 +13179,7 @@
         <v>135.47919999999999</v>
       </c>
     </row>
-    <row r="272" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="272" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H272">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13081,7 +13191,7 @@
         <v>135.7834</v>
       </c>
     </row>
-    <row r="273" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="273" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H273">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13093,7 +13203,7 @@
         <v>135.50450000000001</v>
       </c>
     </row>
-    <row r="274" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="274" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H274">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13105,7 +13215,7 @@
         <v>135.22200000000001</v>
       </c>
     </row>
-    <row r="275" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="275" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H275">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13117,7 +13227,7 @@
         <v>135.49209999999999</v>
       </c>
     </row>
-    <row r="276" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="276" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H276">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13129,7 +13239,7 @@
         <v>135.19800000000001</v>
       </c>
     </row>
-    <row r="277" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="277" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H277">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13141,7 +13251,7 @@
         <v>135.47669999999999</v>
       </c>
     </row>
-    <row r="278" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="278" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H278">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13153,7 +13263,7 @@
         <v>135.24359999999999</v>
       </c>
     </row>
-    <row r="279" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="279" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H279">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13165,7 +13275,7 @@
         <v>135.78200000000001</v>
       </c>
     </row>
-    <row r="280" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="280" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H280">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13177,7 +13287,7 @@
         <v>135.61869999999999</v>
       </c>
     </row>
-    <row r="281" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="281" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H281">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13189,7 +13299,7 @@
         <v>135.5112</v>
       </c>
     </row>
-    <row r="282" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="282" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H282">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13201,7 +13311,7 @@
         <v>135.25960000000001</v>
       </c>
     </row>
-    <row r="283" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="283" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H283">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13213,7 +13323,7 @@
         <v>135.57429999999999</v>
       </c>
     </row>
-    <row r="284" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="284" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H284">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13225,7 +13335,7 @@
         <v>135.48140000000001</v>
       </c>
     </row>
-    <row r="285" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="285" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H285">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13237,7 +13347,7 @@
         <v>135.24860000000001</v>
       </c>
     </row>
-    <row r="286" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="286" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H286">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13249,7 +13359,7 @@
         <v>135.2543</v>
       </c>
     </row>
-    <row r="287" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="287" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H287">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13261,7 +13371,7 @@
         <v>135.78460000000001</v>
       </c>
     </row>
-    <row r="288" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="288" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H288">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13273,7 +13383,7 @@
         <v>135.56190000000001</v>
       </c>
     </row>
-    <row r="289" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="289" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H289">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13285,7 +13395,7 @@
         <v>135.61609999999999</v>
       </c>
     </row>
-    <row r="290" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="290" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H290">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13297,7 +13407,7 @@
         <v>135.52010000000001</v>
       </c>
     </row>
-    <row r="291" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="291" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H291">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13309,7 +13419,7 @@
         <v>135.76300000000001</v>
       </c>
     </row>
-    <row r="292" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="292" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H292">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13321,7 +13431,7 @@
         <v>135.53290000000001</v>
       </c>
     </row>
-    <row r="293" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="293" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H293">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13333,7 +13443,7 @@
         <v>135.28210000000001</v>
       </c>
     </row>
-    <row r="294" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="294" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H294">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13345,7 +13455,7 @@
         <v>135.48609999999999</v>
       </c>
     </row>
-    <row r="295" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="295" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H295">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13357,7 +13467,7 @@
         <v>135.55950000000001</v>
       </c>
     </row>
-    <row r="296" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="296" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H296">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13369,7 +13479,7 @@
         <v>135.2533</v>
       </c>
     </row>
-    <row r="297" spans="8:11" x14ac:dyDescent="0.75">
+    <row r="297" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H297">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13641,20 +13751,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13677,6 +13787,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
@@ -13691,12 +13809,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D5A888-647F-4DCA-B101-E58CAC643A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A378AD-4070-4287-874A-09415022A359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10155" activeTab="1" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="elevations" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -154,6 +158,54 @@
   </si>
   <si>
     <t>DistanceID</t>
+  </si>
+  <si>
+    <t>Ellipsoid_h</t>
+  </si>
+  <si>
+    <t>Orthometric_h</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>Horizontal_accuracy</t>
+  </si>
+  <si>
+    <t>Vertical_accuracy</t>
+  </si>
+  <si>
+    <t>2.2m</t>
+  </si>
+  <si>
+    <t>2.34m</t>
+  </si>
+  <si>
+    <t>1.84m</t>
+  </si>
+  <si>
+    <t>1.38m</t>
+  </si>
+  <si>
+    <t>1.29m</t>
+  </si>
+  <si>
+    <t>1.79m</t>
+  </si>
+  <si>
+    <t>1.82m</t>
+  </si>
+  <si>
+    <t>5GW0</t>
+  </si>
+  <si>
+    <t>9GW0</t>
+  </si>
+  <si>
+    <t>6GW0</t>
   </si>
 </sst>
 </file>
@@ -3400,6 +3452,74 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="D2">
+            <v>29.862390000000001</v>
+          </cell>
+          <cell r="E2">
+            <v>82.283248</v>
+          </cell>
+          <cell r="F2">
+            <v>28.436</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="F3">
+            <v>34.398000000000003</v>
+          </cell>
+          <cell r="G3">
+            <v>5.4560000000000004</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>41.503</v>
+          </cell>
+          <cell r="G12">
+            <v>12.566000000000001</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>41.377000000000002</v>
+          </cell>
+          <cell r="G13">
+            <v>12.44</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14">
+            <v>43.530999999999999</v>
+          </cell>
+          <cell r="G14">
+            <v>14.593999999999999</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15">
+            <v>39.991</v>
+          </cell>
+          <cell r="G15">
+            <v>11.055</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3719,21 +3839,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E7760-F87C-4D84-A63F-D473D279D553}">
   <dimension ref="A1:K198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C204" sqref="C204"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D198" sqref="B182:D198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.40625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3768,7 +3888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>45400</v>
       </c>
@@ -3795,7 +3915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>45400</v>
       </c>
@@ -3822,7 +3942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>45400</v>
       </c>
@@ -3849,7 +3969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>45400</v>
       </c>
@@ -3876,7 +3996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>45400</v>
       </c>
@@ -3903,7 +4023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45400</v>
       </c>
@@ -3930,7 +4050,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>45400</v>
       </c>
@@ -3957,7 +4077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>45400</v>
       </c>
@@ -3984,7 +4104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>45400</v>
       </c>
@@ -4011,7 +4131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>45400</v>
       </c>
@@ -4038,7 +4158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>45400</v>
       </c>
@@ -4065,7 +4185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>45400</v>
       </c>
@@ -4089,7 +4209,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="1">
         <v>45400</v>
       </c>
@@ -4116,7 +4236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>45400</v>
       </c>
@@ -4143,7 +4263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="1">
         <v>45400</v>
       </c>
@@ -4170,7 +4290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>45400</v>
       </c>
@@ -4197,7 +4317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="1">
         <v>45420</v>
       </c>
@@ -4227,7 +4347,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>45420</v>
       </c>
@@ -4257,7 +4377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="1">
         <v>45420</v>
       </c>
@@ -4287,7 +4407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="1">
         <v>45420</v>
       </c>
@@ -4317,7 +4437,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="1">
         <v>45420</v>
       </c>
@@ -4347,7 +4467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="1">
         <v>45420</v>
       </c>
@@ -4377,7 +4497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="1">
         <v>45420</v>
       </c>
@@ -4407,7 +4527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="1">
         <v>45420</v>
       </c>
@@ -4437,7 +4557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="1">
         <v>45420</v>
       </c>
@@ -4467,7 +4587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="1">
         <v>45420</v>
       </c>
@@ -4497,7 +4617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="1">
         <v>45420</v>
       </c>
@@ -4527,7 +4647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="1">
         <v>45420</v>
       </c>
@@ -4557,7 +4677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A30" s="1">
         <v>45420</v>
       </c>
@@ -4587,7 +4707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A31" s="1">
         <v>45420</v>
       </c>
@@ -4617,7 +4737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A32" s="1">
         <v>45420</v>
       </c>
@@ -4647,7 +4767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A33" s="1">
         <v>45420</v>
       </c>
@@ -4677,7 +4797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A34" s="1">
         <v>45442</v>
       </c>
@@ -4707,7 +4827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A35" s="1">
         <v>45442</v>
       </c>
@@ -4737,7 +4857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A36" s="1">
         <v>45442</v>
       </c>
@@ -4767,7 +4887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A37" s="1">
         <v>45442</v>
       </c>
@@ -4797,7 +4917,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A38" s="1">
         <v>45442</v>
       </c>
@@ -4827,7 +4947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A39" s="1">
         <v>45442</v>
       </c>
@@ -4857,7 +4977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A40" s="1">
         <v>45442</v>
       </c>
@@ -4887,7 +5007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A41" s="1">
         <v>45442</v>
       </c>
@@ -4917,7 +5037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A42" s="1">
         <v>45442</v>
       </c>
@@ -4947,7 +5067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A43" s="1">
         <v>45442</v>
       </c>
@@ -4977,7 +5097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A44" s="1">
         <v>45442</v>
       </c>
@@ -5007,7 +5127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A45" s="1">
         <v>45442</v>
       </c>
@@ -5037,7 +5157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A46" s="1">
         <v>45442</v>
       </c>
@@ -5067,7 +5187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A47" s="1">
         <v>45442</v>
       </c>
@@ -5094,7 +5214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A48" s="1">
         <v>45442</v>
       </c>
@@ -5124,7 +5244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A49" s="1">
         <v>45442</v>
       </c>
@@ -5154,7 +5274,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A50" s="1">
         <v>45463</v>
       </c>
@@ -5178,7 +5298,7 @@
         <v>-0.85000000000000009</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A51" s="1">
         <v>45463</v>
       </c>
@@ -5202,7 +5322,7 @@
         <v>-1.55</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A52" s="1">
         <v>45463</v>
       </c>
@@ -5235,7 +5355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A53" s="1">
         <v>45463</v>
       </c>
@@ -5268,7 +5388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A54" s="1">
         <v>45463</v>
       </c>
@@ -5292,7 +5412,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A55" s="1">
         <v>45463</v>
       </c>
@@ -5316,7 +5436,7 @@
         <v>-1.24</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A56" s="1">
         <v>45463</v>
       </c>
@@ -5349,7 +5469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A57" s="1">
         <v>45463</v>
       </c>
@@ -5382,7 +5502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A58" s="1">
         <v>45463</v>
       </c>
@@ -5415,7 +5535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A59" s="1">
         <v>45463</v>
       </c>
@@ -5439,7 +5559,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A60" s="1">
         <v>45463</v>
       </c>
@@ -5463,7 +5583,7 @@
         <v>-1.0999999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A61" s="1">
         <v>45463</v>
       </c>
@@ -5487,7 +5607,7 @@
         <v>-2.79</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A62" s="1">
         <v>45463</v>
       </c>
@@ -5511,7 +5631,7 @@
         <v>-1.4649999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A63" s="1">
         <v>45463</v>
       </c>
@@ -5538,7 +5658,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A64" s="1">
         <v>45463</v>
       </c>
@@ -5562,7 +5682,7 @@
         <v>-2.19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A65" s="1">
         <v>45463</v>
       </c>
@@ -5586,7 +5706,7 @@
         <v>-2.0049999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A66" s="1">
         <v>45484</v>
       </c>
@@ -5619,7 +5739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A67" s="1">
         <v>45484</v>
       </c>
@@ -5652,7 +5772,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A68" s="1">
         <v>45484</v>
       </c>
@@ -5684,7 +5804,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A69" s="1">
         <v>45484</v>
       </c>
@@ -5717,7 +5837,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A70" s="1">
         <v>45484</v>
       </c>
@@ -5749,7 +5869,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A71" s="1">
         <v>45484</v>
       </c>
@@ -5782,7 +5902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A72" s="1">
         <v>45484</v>
       </c>
@@ -5815,7 +5935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A73" s="1">
         <v>45484</v>
       </c>
@@ -5848,7 +5968,7 @@
         <v>27.75</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A74" s="1">
         <v>45484</v>
       </c>
@@ -5881,7 +6001,7 @@
         <v>25.89</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A75" s="1">
         <v>45484</v>
       </c>
@@ -5914,7 +6034,7 @@
         <v>26.57</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A76" s="1">
         <v>45484</v>
       </c>
@@ -5947,7 +6067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A77" s="1">
         <v>45484</v>
       </c>
@@ -5974,7 +6094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A78" s="1">
         <v>45484</v>
       </c>
@@ -6001,7 +6121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A79" s="1">
         <v>45484</v>
       </c>
@@ -6034,7 +6154,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A80" s="1">
         <v>45484</v>
       </c>
@@ -6067,7 +6187,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A81" s="1">
         <v>45484</v>
       </c>
@@ -6094,7 +6214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A82" s="1">
         <v>45502</v>
       </c>
@@ -6123,7 +6243,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A83" s="1">
         <v>45502</v>
       </c>
@@ -6152,7 +6272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A84" s="1">
         <v>45502</v>
       </c>
@@ -6181,7 +6301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A85" s="1">
         <v>45502</v>
       </c>
@@ -6214,7 +6334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A86" s="1">
         <v>45502</v>
       </c>
@@ -6243,7 +6363,7 @@
         <v>25.72</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A87" s="1">
         <v>45502</v>
       </c>
@@ -6276,7 +6396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A88" s="1">
         <v>45502</v>
       </c>
@@ -6305,7 +6425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A89" s="1">
         <v>45502</v>
       </c>
@@ -6338,7 +6458,7 @@
         <v>34.33</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A90" s="1">
         <v>45502</v>
       </c>
@@ -6367,7 +6487,7 @@
         <v>32.46</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A91" s="1">
         <v>45502</v>
       </c>
@@ -6396,7 +6516,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A92" s="1">
         <v>45502</v>
       </c>
@@ -6429,7 +6549,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A93" s="1">
         <v>45502</v>
       </c>
@@ -6453,7 +6573,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A94" s="1">
         <v>45502</v>
       </c>
@@ -6486,7 +6606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A95" s="1">
         <v>45502</v>
       </c>
@@ -6519,7 +6639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A96" s="1">
         <v>45502</v>
       </c>
@@ -6548,7 +6668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A97" s="1">
         <v>45502</v>
       </c>
@@ -6575,7 +6695,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A98" s="1">
         <v>45534</v>
       </c>
@@ -6604,7 +6724,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A99" s="1">
         <v>45534</v>
       </c>
@@ -6633,7 +6753,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A100" s="1">
         <v>45534</v>
       </c>
@@ -6667,7 +6787,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A101" s="1">
         <v>45534</v>
       </c>
@@ -6701,7 +6821,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A102" s="1">
         <v>45534</v>
       </c>
@@ -6735,7 +6855,7 @@
         <v>26.43</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A103" s="1">
         <v>45534</v>
       </c>
@@ -6764,7 +6884,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A104" s="1">
         <v>45534</v>
       </c>
@@ -6781,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A105" s="1">
         <v>45534</v>
       </c>
@@ -6810,7 +6930,7 @@
         <v>27.11</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A106" s="1">
         <v>45534</v>
       </c>
@@ -6839,7 +6959,7 @@
         <v>26.01</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A107" s="1">
         <v>45534</v>
       </c>
@@ -6868,7 +6988,7 @@
         <v>26.23</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A108" s="1">
         <v>45534</v>
       </c>
@@ -6897,7 +7017,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A109" s="1">
         <v>45534</v>
       </c>
@@ -6927,7 +7047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A110" s="1">
         <v>45534</v>
       </c>
@@ -6957,7 +7077,7 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A111" s="1">
         <v>45534</v>
       </c>
@@ -6986,7 +7106,7 @@
         <v>28.69</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A112" s="1">
         <v>45534</v>
       </c>
@@ -7015,7 +7135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A113" s="1">
         <v>45534</v>
       </c>
@@ -7032,7 +7152,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A114" s="1">
         <v>45569</v>
       </c>
@@ -7059,7 +7179,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A115" s="1">
         <v>45569</v>
       </c>
@@ -7085,7 +7205,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A116" s="1">
         <v>45569</v>
       </c>
@@ -7115,7 +7235,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A117" s="1">
         <v>45569</v>
       </c>
@@ -7145,7 +7265,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A118" s="1">
         <v>45569</v>
       </c>
@@ -7175,7 +7295,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A119" s="1">
         <v>45569</v>
       </c>
@@ -7205,7 +7325,7 @@
         <v>4203</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A120" s="1">
         <v>45569</v>
       </c>
@@ -7232,7 +7352,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A121" s="1">
         <v>45569</v>
       </c>
@@ -7262,7 +7382,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A122" s="1">
         <v>45569</v>
       </c>
@@ -7288,7 +7408,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A123" s="1">
         <v>45569</v>
       </c>
@@ -7318,7 +7438,7 @@
         <v>1373.6</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A124" s="3">
         <v>45569</v>
       </c>
@@ -7347,7 +7467,7 @@
         <v>2755</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A125" s="1">
         <v>45569</v>
       </c>
@@ -7377,7 +7497,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A126" s="1">
         <v>45569</v>
       </c>
@@ -7407,7 +7527,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A127" s="1">
         <v>45569</v>
       </c>
@@ -7437,7 +7557,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A128" s="1">
         <v>45569</v>
       </c>
@@ -7467,7 +7587,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A129" s="1">
         <v>45569</v>
       </c>
@@ -7497,7 +7617,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A130" s="1">
         <v>45597</v>
       </c>
@@ -7527,7 +7647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A131" s="1">
         <v>45597</v>
       </c>
@@ -7561,7 +7681,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A132" s="1">
         <v>45597</v>
       </c>
@@ -7592,7 +7712,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A133" s="1">
         <v>45597</v>
       </c>
@@ -7622,7 +7742,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A134" s="1">
         <v>45597</v>
       </c>
@@ -7649,7 +7769,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A135" s="1">
         <v>45597</v>
       </c>
@@ -7672,7 +7792,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A136" s="1">
         <v>45597</v>
       </c>
@@ -7702,7 +7822,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A137" s="1">
         <v>45597</v>
       </c>
@@ -7736,7 +7856,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A138" s="1">
         <v>45597</v>
       </c>
@@ -7770,7 +7890,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A139" s="1">
         <v>45597</v>
       </c>
@@ -7805,7 +7925,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A140" s="1">
         <v>45597</v>
       </c>
@@ -7839,7 +7959,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A141" s="1">
         <v>45597</v>
       </c>
@@ -7873,7 +7993,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A142" s="1">
         <v>45597</v>
       </c>
@@ -7907,7 +8027,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A143" s="1">
         <v>45597</v>
       </c>
@@ -7941,7 +8061,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A144" s="1">
         <v>45597</v>
       </c>
@@ -7975,7 +8095,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A145" s="1">
         <v>45597</v>
       </c>
@@ -8009,7 +8129,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A146" s="1">
         <v>45635</v>
       </c>
@@ -8039,7 +8159,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A147" s="1">
         <v>45635</v>
       </c>
@@ -8069,7 +8189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A148" s="1">
         <v>45635</v>
       </c>
@@ -8099,7 +8219,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A149" s="1">
         <v>45635</v>
       </c>
@@ -8129,7 +8249,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A150" s="1">
         <v>45635</v>
       </c>
@@ -8159,7 +8279,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A151" s="1">
         <v>45635</v>
       </c>
@@ -8189,7 +8309,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A152" s="1">
         <v>45635</v>
       </c>
@@ -8219,7 +8339,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A153" s="1">
         <v>45635</v>
       </c>
@@ -8249,7 +8369,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A154" s="1">
         <v>45635</v>
       </c>
@@ -8279,7 +8399,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A155" s="1">
         <v>45635</v>
       </c>
@@ -8309,7 +8429,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A156" s="1">
         <v>45635</v>
       </c>
@@ -8339,7 +8459,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A157" s="1">
         <v>45635</v>
       </c>
@@ -8369,7 +8489,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A158" s="1">
         <v>45635</v>
       </c>
@@ -8399,7 +8519,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A159" s="1">
         <v>45635</v>
       </c>
@@ -8429,7 +8549,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A160" s="1">
         <v>45635</v>
       </c>
@@ -8459,7 +8579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A161" s="1">
         <v>45635</v>
       </c>
@@ -8489,7 +8609,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A162" s="1">
         <v>45635</v>
       </c>
@@ -8519,7 +8639,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A163" s="1">
         <v>45635</v>
       </c>
@@ -8549,7 +8669,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A164" s="1">
         <v>45687</v>
       </c>
@@ -8579,7 +8699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A165" s="1">
         <v>45687</v>
       </c>
@@ -8609,7 +8729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A166" s="1">
         <v>45687</v>
       </c>
@@ -8635,7 +8755,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A167" s="1">
         <v>45687</v>
       </c>
@@ -8665,7 +8785,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A168" s="1">
         <v>45687</v>
       </c>
@@ -8691,7 +8811,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A169" s="1">
         <v>45687</v>
       </c>
@@ -8721,7 +8841,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A170" s="1">
         <v>45687</v>
       </c>
@@ -8747,7 +8867,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A171" s="1">
         <v>45687</v>
       </c>
@@ -8773,7 +8893,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A172" s="1">
         <v>45687</v>
       </c>
@@ -8799,7 +8919,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A173" s="1">
         <v>45687</v>
       </c>
@@ -8825,7 +8945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A174" s="1">
         <v>45687</v>
       </c>
@@ -8855,7 +8975,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A175" s="1">
         <v>45687</v>
       </c>
@@ -8885,7 +9005,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A176" s="1">
         <v>45687</v>
       </c>
@@ -8915,7 +9035,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A177" s="1">
         <v>45687</v>
       </c>
@@ -8945,7 +9065,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A178" s="1">
         <v>45687</v>
       </c>
@@ -8975,7 +9095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A179" s="1">
         <v>45687</v>
       </c>
@@ -9005,7 +9125,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A180" s="1">
         <v>45687</v>
       </c>
@@ -9035,7 +9155,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A181" s="1">
         <v>45687</v>
       </c>
@@ -9065,7 +9185,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A182" s="1">
         <v>45728</v>
       </c>
@@ -9094,7 +9214,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A183" s="1">
         <v>45728</v>
       </c>
@@ -9120,7 +9240,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A184" s="1">
         <v>45728</v>
       </c>
@@ -9146,7 +9266,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A185" s="1">
         <v>45728</v>
       </c>
@@ -9176,7 +9296,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A186" s="1">
         <v>45728</v>
       </c>
@@ -9202,7 +9322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A187" s="1">
         <v>45728</v>
       </c>
@@ -9232,7 +9352,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A188" s="1">
         <v>45728</v>
       </c>
@@ -9258,7 +9378,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A189" s="1">
         <v>45728</v>
       </c>
@@ -9288,7 +9408,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A190" s="1">
         <v>45728</v>
       </c>
@@ -9314,7 +9434,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A191" s="1">
         <v>45728</v>
       </c>
@@ -9344,7 +9464,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A192" s="1">
         <v>45728</v>
       </c>
@@ -9374,7 +9494,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A193" s="1">
         <v>45728</v>
       </c>
@@ -9404,7 +9524,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A194" s="1">
         <v>45728</v>
       </c>
@@ -9434,7 +9554,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A195" s="1">
         <v>45728</v>
       </c>
@@ -9464,7 +9584,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A196" s="1">
         <v>45728</v>
       </c>
@@ -9494,7 +9614,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A197" s="1">
         <v>45728</v>
       </c>
@@ -9524,7 +9644,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A198" s="1">
         <v>45728</v>
       </c>
@@ -9561,6 +9681,639 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C27D6E-0A4D-4C54-92F8-2ABBEB60FD2A}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.2265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.04296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>4.0839999999999996</v>
+      </c>
+      <c r="E2">
+        <v>32.99</v>
+      </c>
+      <c r="F2">
+        <v>29.862067790000001</v>
+      </c>
+      <c r="G2">
+        <v>82.283401080000004</v>
+      </c>
+      <c r="H2">
+        <v>417</v>
+      </c>
+      <c r="I2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>3.577</v>
+      </c>
+      <c r="E3">
+        <v>32.518999999999998</v>
+      </c>
+      <c r="F3">
+        <v>29.862104739999999</v>
+      </c>
+      <c r="G3">
+        <v>82.28345736</v>
+      </c>
+      <c r="H3">
+        <v>396</v>
+      </c>
+      <c r="I3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>6.476</v>
+      </c>
+      <c r="E4">
+        <v>35.408999999999999</v>
+      </c>
+      <c r="F4">
+        <v>29.862195719999999</v>
+      </c>
+      <c r="G4">
+        <v>82.283391309999999</v>
+      </c>
+      <c r="H4">
+        <v>625</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>4.2489999999999997</v>
+      </c>
+      <c r="E5">
+        <v>33.191000000000003</v>
+      </c>
+      <c r="F5">
+        <v>29.86231411</v>
+      </c>
+      <c r="G5">
+        <v>82.283294209999994</v>
+      </c>
+      <c r="H5">
+        <v>814</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>3.198</v>
+      </c>
+      <c r="E6">
+        <v>32.14</v>
+      </c>
+      <c r="F6">
+        <v>29.86227684</v>
+      </c>
+      <c r="G6">
+        <v>82.283199249999996</v>
+      </c>
+      <c r="H6">
+        <v>616</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>3.1230000000000002</v>
+      </c>
+      <c r="E7">
+        <v>32.064</v>
+      </c>
+      <c r="F7">
+        <v>29.862254889999999</v>
+      </c>
+      <c r="G7">
+        <v>82.283057909999997</v>
+      </c>
+      <c r="H7">
+        <v>299</v>
+      </c>
+      <c r="I7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>4.8360000000000003</v>
+      </c>
+      <c r="E8">
+        <v>33.777000000000001</v>
+      </c>
+      <c r="F8">
+        <v>29.862505240000001</v>
+      </c>
+      <c r="G8">
+        <v>82.282908280000001</v>
+      </c>
+      <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>15.101000000000001</v>
+      </c>
+      <c r="E9">
+        <v>44.037999999999997</v>
+      </c>
+      <c r="F9">
+        <v>29.943852320000001</v>
+      </c>
+      <c r="G9">
+        <v>82.188597540000004</v>
+      </c>
+      <c r="H9">
+        <v>23</v>
+      </c>
+      <c r="I9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>23.632999999999999</v>
+      </c>
+      <c r="E10">
+        <v>52.57</v>
+      </c>
+      <c r="F10">
+        <v>29.943794799999999</v>
+      </c>
+      <c r="G10">
+        <v>82.188485189999994</v>
+      </c>
+      <c r="H10">
+        <v>830</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>13.087999999999999</v>
+      </c>
+      <c r="E11">
+        <v>42.024999999999999</v>
+      </c>
+      <c r="F11">
+        <v>29.943773879999998</v>
+      </c>
+      <c r="G11">
+        <v>82.188344869999995</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>12.225</v>
+      </c>
+      <c r="E12">
+        <v>41.162999999999997</v>
+      </c>
+      <c r="F12">
+        <v>29.943973979999999</v>
+      </c>
+      <c r="G12">
+        <v>82.188400130000005</v>
+      </c>
+      <c r="H12">
+        <v>796</v>
+      </c>
+      <c r="I12">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>9.2409999999999997</v>
+      </c>
+      <c r="E13">
+        <v>38.177999999999997</v>
+      </c>
+      <c r="F13">
+        <v>29.943842279999998</v>
+      </c>
+      <c r="G13">
+        <v>82.188898460000004</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>9.9109999999999996</v>
+      </c>
+      <c r="E14">
+        <v>38.847999999999999</v>
+      </c>
+      <c r="F14">
+        <v>29.90454549</v>
+      </c>
+      <c r="G14">
+        <v>82.220741270000005</v>
+      </c>
+      <c r="H14">
+        <v>865</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>13.340999999999999</v>
+      </c>
+      <c r="E15">
+        <v>42.277999999999999</v>
+      </c>
+      <c r="F15">
+        <v>29.90451659</v>
+      </c>
+      <c r="G15">
+        <v>82.220661160000006</v>
+      </c>
+      <c r="H15">
+        <v>998</v>
+      </c>
+      <c r="I15">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>10.266</v>
+      </c>
+      <c r="E16">
+        <v>39.201999999999998</v>
+      </c>
+      <c r="F16">
+        <v>29.904426640000001</v>
+      </c>
+      <c r="G16">
+        <v>82.220654969999998</v>
+      </c>
+      <c r="H16">
+        <v>309</v>
+      </c>
+      <c r="I16">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>10.337</v>
+      </c>
+      <c r="E17">
+        <v>39.274000000000001</v>
+      </c>
+      <c r="F17">
+        <v>29.904363159999999</v>
+      </c>
+      <c r="G17">
+        <v>82.220569519999998</v>
+      </c>
+      <c r="H17">
+        <v>407</v>
+      </c>
+      <c r="I17">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>11.179</v>
+      </c>
+      <c r="E18">
+        <v>40.115000000000002</v>
+      </c>
+      <c r="F18">
+        <v>29.904210039999999</v>
+      </c>
+      <c r="G18">
+        <v>82.220584849999995</v>
+      </c>
+      <c r="H18">
+        <v>312</v>
+      </c>
+      <c r="I18">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE([1]Sheet1!$G$3)</f>
+        <v>5.4560000000000004</v>
+      </c>
+      <c r="E19">
+        <f>AVERAGE([1]Sheet1!$F$2:$F$3)</f>
+        <v>31.417000000000002</v>
+      </c>
+      <c r="F19">
+        <f>[1]Sheet1!$D$2</f>
+        <v>29.862390000000001</v>
+      </c>
+      <c r="G19">
+        <f>[1]Sheet1!$E$2</f>
+        <v>82.283248</v>
+      </c>
+      <c r="I19">
+        <f>(906+43)/2</f>
+        <v>474.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE([1]Sheet1!$G$14:$G$15)</f>
+        <v>12.8245</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE([1]Sheet1!$F$14:$F$15)</f>
+        <v>41.760999999999996</v>
+      </c>
+      <c r="F20">
+        <v>29.90455759</v>
+      </c>
+      <c r="G20">
+        <v>82.220749130000002</v>
+      </c>
+      <c r="I20">
+        <f>(2.55+1.76)/2</f>
+        <v>2.1549999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <f>AVERAGE([1]Sheet1!$G$12:$G$13)</f>
+        <v>12.503</v>
+      </c>
+      <c r="E21">
+        <f>AVERAGE([1]Sheet1!$F$12:$F$13)</f>
+        <v>41.44</v>
+      </c>
+      <c r="F21">
+        <v>29.943579790000001</v>
+      </c>
+      <c r="G21">
+        <v>82.188659220000005</v>
+      </c>
+      <c r="I21">
+        <f>SUM(42+408)/2</f>
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DED55BC-E84B-4096-92BA-96DACA0090BF}">
   <dimension ref="A1:K297"/>
   <sheetViews>
@@ -9568,19 +10321,19 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -9615,7 +10368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -9646,7 +10399,7 @@
         <v>79.863910000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -9677,7 +10430,7 @@
         <v>76.943730000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -9708,7 +10461,7 @@
         <v>88.202100000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -9739,7 +10492,7 @@
         <v>76.922430000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -9770,7 +10523,7 @@
         <v>92.059330000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -9801,7 +10554,7 @@
         <v>76.370699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -9829,7 +10582,7 @@
         <v>93.197450000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -9860,7 +10613,7 @@
         <v>76.815430000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -9891,7 +10644,7 @@
         <v>76.590829999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -9922,7 +10675,7 @@
         <v>76.606219999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -9953,7 +10706,7 @@
         <v>76.513019999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -9984,7 +10737,7 @@
         <v>76.622630000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -10015,7 +10768,7 @@
         <v>66.857730000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -10046,7 +10799,7 @@
         <v>67.045649999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -10077,7 +10830,7 @@
         <v>67.109120000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -10105,7 +10858,7 @@
         <v>66.502930000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -10134,7 +10887,7 @@
         <v>66.842190000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -10155,7 +10908,7 @@
         <v>66.69511</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H20">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10167,7 +10920,7 @@
         <v>67.072839999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H21">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10179,7 +10932,7 @@
         <v>66.492159999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H22">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10191,7 +10944,7 @@
         <v>66.821780000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H23">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10203,7 +10956,7 @@
         <v>66.970429999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H24">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10215,7 +10968,7 @@
         <v>66.743210000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10227,7 +10980,7 @@
         <v>66.741129999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H26">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10239,7 +10992,7 @@
         <v>66.642009999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10251,7 +11004,7 @@
         <v>66.604929999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H28">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10263,7 +11016,7 @@
         <v>66.727909999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H29">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10275,7 +11028,7 @@
         <v>66.755129999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H30">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10287,7 +11040,7 @@
         <v>66.565960000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H31">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10299,7 +11052,7 @@
         <v>66.708879999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
       <c r="H32">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10311,7 +11064,7 @@
         <v>66.438630000000003</v>
       </c>
     </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10323,7 +11076,7 @@
         <v>66.721999999999994</v>
       </c>
     </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10335,7 +11088,7 @@
         <v>66.502319999999997</v>
       </c>
     </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10347,7 +11100,7 @@
         <v>66.603359999999995</v>
       </c>
     </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H36">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10359,7 +11112,7 @@
         <v>66.735640000000004</v>
       </c>
     </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H37">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10371,7 +11124,7 @@
         <v>67.009540000000001</v>
       </c>
     </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H38">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10383,7 +11136,7 @@
         <v>66.730959999999996</v>
       </c>
     </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10395,7 +11148,7 @@
         <v>66.700519999999997</v>
       </c>
     </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H40">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10407,7 +11160,7 @@
         <v>66.432400000000001</v>
       </c>
     </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H41">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10419,7 +11172,7 @@
         <v>66.440209999999993</v>
       </c>
     </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10431,7 +11184,7 @@
         <v>66.810680000000005</v>
       </c>
     </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H43">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10443,7 +11196,7 @@
         <v>66.765969999999996</v>
       </c>
     </row>
-    <row r="44" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H44">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10455,7 +11208,7 @@
         <v>66.688059999999993</v>
       </c>
     </row>
-    <row r="45" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H45">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10467,7 +11220,7 @@
         <v>66.708640000000003</v>
       </c>
     </row>
-    <row r="46" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H46">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10479,7 +11232,7 @@
         <v>66.707120000000003</v>
       </c>
     </row>
-    <row r="47" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H47">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10491,7 +11244,7 @@
         <v>66.699510000000004</v>
       </c>
     </row>
-    <row r="48" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10503,7 +11256,7 @@
         <v>67.011229999999998</v>
       </c>
     </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H49">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10515,7 +11268,7 @@
         <v>66.578879999999998</v>
       </c>
     </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H50">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10527,7 +11280,7 @@
         <v>66.439570000000003</v>
       </c>
     </row>
-    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H51">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10539,7 +11292,7 @@
         <v>66.421679999999995</v>
       </c>
     </row>
-    <row r="52" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H52">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10551,7 +11304,7 @@
         <v>66.699039999999997</v>
       </c>
     </row>
-    <row r="53" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H53">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10563,7 +11316,7 @@
         <v>66.41798</v>
       </c>
     </row>
-    <row r="54" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H54">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10575,7 +11328,7 @@
         <v>66.555769999999995</v>
       </c>
     </row>
-    <row r="55" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H55">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10587,7 +11340,7 @@
         <v>66.713909999999998</v>
       </c>
     </row>
-    <row r="56" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H56">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10599,7 +11352,7 @@
         <v>66.679460000000006</v>
       </c>
     </row>
-    <row r="57" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H57">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10611,7 +11364,7 @@
         <v>66.716350000000006</v>
       </c>
     </row>
-    <row r="58" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H58">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10623,7 +11376,7 @@
         <v>66.600700000000003</v>
       </c>
     </row>
-    <row r="59" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H59">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10635,7 +11388,7 @@
         <v>67.232489999999999</v>
       </c>
     </row>
-    <row r="60" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H60">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10647,7 +11400,7 @@
         <v>66.475719999999995</v>
       </c>
     </row>
-    <row r="61" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H61">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10659,7 +11412,7 @@
         <v>69.48903</v>
       </c>
     </row>
-    <row r="62" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H62">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10671,7 +11424,7 @@
         <v>66.661689999999993</v>
       </c>
     </row>
-    <row r="63" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H63">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10683,7 +11436,7 @@
         <v>77.511840000000007</v>
       </c>
     </row>
-    <row r="64" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H64">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10695,7 +11448,7 @@
         <v>66.713200000000001</v>
       </c>
     </row>
-    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H65">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10707,7 +11460,7 @@
         <v>80.544539999999998</v>
       </c>
     </row>
-    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H66">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -10719,7 +11472,7 @@
         <v>66.882890000000003</v>
       </c>
     </row>
-    <row r="67" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H67">
         <f t="shared" ref="H67:H130" si="2">D67-F67</f>
         <v>0</v>
@@ -10731,7 +11484,7 @@
         <v>82.613020000000006</v>
       </c>
     </row>
-    <row r="68" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H68">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10743,7 +11496,7 @@
         <v>66.875720000000001</v>
       </c>
     </row>
-    <row r="69" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H69">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10755,7 +11508,7 @@
         <v>81.679119999999998</v>
       </c>
     </row>
-    <row r="70" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H70">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10767,7 +11520,7 @@
         <v>76.520039999999995</v>
       </c>
     </row>
-    <row r="71" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H71">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10779,7 +11532,7 @@
         <v>76.523030000000006</v>
       </c>
     </row>
-    <row r="72" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H72">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10791,7 +11544,7 @@
         <v>76.558539999999994</v>
       </c>
     </row>
-    <row r="73" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H73">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10803,7 +11556,7 @@
         <v>76.322270000000003</v>
       </c>
     </row>
-    <row r="74" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H74">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10815,7 +11568,7 @@
         <v>76.840400000000002</v>
       </c>
     </row>
-    <row r="75" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H75">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10827,7 +11580,7 @@
         <v>76.866280000000003</v>
       </c>
     </row>
-    <row r="76" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H76">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10839,7 +11592,7 @@
         <v>76.297600000000003</v>
       </c>
     </row>
-    <row r="77" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H77">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10851,7 +11604,7 @@
         <v>76.881839999999997</v>
       </c>
     </row>
-    <row r="78" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H78">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10863,7 +11616,7 @@
         <v>76.468999999999994</v>
       </c>
     </row>
-    <row r="79" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H79">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10875,7 +11628,7 @@
         <v>76.618129999999994</v>
       </c>
     </row>
-    <row r="80" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H80">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10887,7 +11640,7 @@
         <v>76.480620000000002</v>
       </c>
     </row>
-    <row r="81" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H81">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10899,7 +11652,7 @@
         <v>76.648570000000007</v>
       </c>
     </row>
-    <row r="82" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H82">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10911,7 +11664,7 @@
         <v>76.311499999999995</v>
       </c>
     </row>
-    <row r="83" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H83">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10923,7 +11676,7 @@
         <v>76.679150000000007</v>
       </c>
     </row>
-    <row r="84" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H84">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10935,7 +11688,7 @@
         <v>76.621639999999999</v>
       </c>
     </row>
-    <row r="85" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H85">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10947,7 +11700,7 @@
         <v>76.371279999999999</v>
       </c>
     </row>
-    <row r="86" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H86">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10959,7 +11712,7 @@
         <v>76.636949999999999</v>
       </c>
     </row>
-    <row r="87" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H87">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10971,7 +11724,7 @@
         <v>76.882059999999996</v>
       </c>
     </row>
-    <row r="88" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H88">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10983,7 +11736,7 @@
         <v>76.91395</v>
       </c>
     </row>
-    <row r="89" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H89">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10995,7 +11748,7 @@
         <v>76.394909999999996</v>
       </c>
     </row>
-    <row r="90" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H90">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11007,7 +11760,7 @@
         <v>76.664580000000001</v>
       </c>
     </row>
-    <row r="91" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H91">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11019,7 +11772,7 @@
         <v>76.792010000000005</v>
       </c>
     </row>
-    <row r="92" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H92">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11031,7 +11784,7 @@
         <v>86.622889999999998</v>
       </c>
     </row>
-    <row r="93" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H93">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11043,7 +11796,7 @@
         <v>86.426929999999999</v>
       </c>
     </row>
-    <row r="94" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H94">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11055,7 +11808,7 @@
         <v>86.291049999999998</v>
       </c>
     </row>
-    <row r="95" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H95">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11067,7 +11820,7 @@
         <v>86.616039999999998</v>
       </c>
     </row>
-    <row r="96" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H96">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11079,7 +11832,7 @@
         <v>86.725769999999997</v>
       </c>
     </row>
-    <row r="97" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H97">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11091,7 +11844,7 @@
         <v>86.364840000000001</v>
       </c>
     </row>
-    <row r="98" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H98">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11103,7 +11856,7 @@
         <v>86.454610000000002</v>
       </c>
     </row>
-    <row r="99" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H99">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11115,7 +11868,7 @@
         <v>86.403989999999993</v>
       </c>
     </row>
-    <row r="100" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H100">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11127,7 +11880,7 @@
         <v>86.471239999999995</v>
       </c>
     </row>
-    <row r="101" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H101">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11139,7 +11892,7 @@
         <v>86.733379999999997</v>
       </c>
     </row>
-    <row r="102" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H102">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11151,7 +11904,7 @@
         <v>86.402079999999998</v>
       </c>
     </row>
-    <row r="103" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H103">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11163,7 +11916,7 @@
         <v>86.439710000000005</v>
       </c>
     </row>
-    <row r="104" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H104">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11175,7 +11928,7 @@
         <v>86.730919999999998</v>
       </c>
     </row>
-    <row r="105" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H105">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11187,7 +11940,7 @@
         <v>86.136409999999998</v>
       </c>
     </row>
-    <row r="106" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11199,7 +11952,7 @@
         <v>86.486429999999999</v>
       </c>
     </row>
-    <row r="107" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H107">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11211,7 +11964,7 @@
         <v>86.408940000000001</v>
       </c>
     </row>
-    <row r="108" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H108">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11223,7 +11976,7 @@
         <v>86.266360000000006</v>
       </c>
     </row>
-    <row r="109" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H109">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11235,7 +11988,7 @@
         <v>96.321259999999995</v>
       </c>
     </row>
-    <row r="110" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11247,7 +12000,7 @@
         <v>95.994619999999998</v>
       </c>
     </row>
-    <row r="111" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H111">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11259,7 +12012,7 @@
         <v>96.47484</v>
       </c>
     </row>
-    <row r="112" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H112">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11271,7 +12024,7 @@
         <v>96.487459999999999</v>
       </c>
     </row>
-    <row r="113" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H113">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11283,7 +12036,7 @@
         <v>95.942539999999994</v>
       </c>
     </row>
-    <row r="114" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H114">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11295,7 +12048,7 @@
         <v>96.212249999999997</v>
       </c>
     </row>
-    <row r="115" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H115">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11307,7 +12060,7 @@
         <v>96.16</v>
       </c>
     </row>
-    <row r="116" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H116">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11319,7 +12072,7 @@
         <v>96.532060000000001</v>
       </c>
     </row>
-    <row r="117" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H117">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11331,7 +12084,7 @@
         <v>96.261859999999999</v>
       </c>
     </row>
-    <row r="118" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H118">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11343,7 +12096,7 @@
         <v>96.204570000000004</v>
       </c>
     </row>
-    <row r="119" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H119">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11355,7 +12108,7 @@
         <v>95.947130000000001</v>
       </c>
     </row>
-    <row r="120" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H120">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11367,7 +12120,7 @@
         <v>102.5564</v>
       </c>
     </row>
-    <row r="121" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H121">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11379,7 +12132,7 @@
         <v>96.26979</v>
       </c>
     </row>
-    <row r="122" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H122">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11391,7 +12144,7 @@
         <v>107.5222</v>
       </c>
     </row>
-    <row r="123" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H123">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11403,7 +12156,7 @@
         <v>96.174220000000005</v>
       </c>
     </row>
-    <row r="124" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H124">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11415,7 +12168,7 @@
         <v>111.3181</v>
       </c>
     </row>
-    <row r="125" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H125">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11427,7 +12180,7 @@
         <v>96.214839999999995</v>
       </c>
     </row>
-    <row r="126" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H126">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11439,7 +12192,7 @@
         <v>122.13800000000001</v>
       </c>
     </row>
-    <row r="127" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H127">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11451,7 +12204,7 @@
         <v>105.7696</v>
       </c>
     </row>
-    <row r="128" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H128">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11463,7 +12216,7 @@
         <v>106.3018</v>
       </c>
     </row>
-    <row r="129" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H129">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11475,7 +12228,7 @@
         <v>106.0164</v>
       </c>
     </row>
-    <row r="130" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H130">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -11487,7 +12240,7 @@
         <v>106.0008</v>
       </c>
     </row>
-    <row r="131" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H131">
         <f t="shared" ref="H131:H194" si="3">D131-F131</f>
         <v>0</v>
@@ -11499,7 +12252,7 @@
         <v>106.2757</v>
       </c>
     </row>
-    <row r="132" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H132">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11511,7 +12264,7 @@
         <v>105.7705</v>
       </c>
     </row>
-    <row r="133" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H133">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11523,7 +12276,7 @@
         <v>106.0813</v>
       </c>
     </row>
-    <row r="134" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H134">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11535,7 +12288,7 @@
         <v>106.3004</v>
       </c>
     </row>
-    <row r="135" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H135">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11547,7 +12300,7 @@
         <v>105.8387</v>
       </c>
     </row>
-    <row r="136" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H136">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11559,7 +12312,7 @@
         <v>106.3312</v>
       </c>
     </row>
-    <row r="137" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H137">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11571,7 +12324,7 @@
         <v>105.94289999999999</v>
       </c>
     </row>
-    <row r="138" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H138">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11583,7 +12336,7 @@
         <v>105.88379999999999</v>
       </c>
     </row>
-    <row r="139" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H139">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11595,7 +12348,7 @@
         <v>105.9689</v>
       </c>
     </row>
-    <row r="140" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H140">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11607,7 +12360,7 @@
         <v>106.07550000000001</v>
       </c>
     </row>
-    <row r="141" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H141">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11619,7 +12372,7 @@
         <v>105.9944</v>
       </c>
     </row>
-    <row r="142" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H142">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11631,7 +12384,7 @@
         <v>105.9682</v>
       </c>
     </row>
-    <row r="143" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H143">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11643,7 +12396,7 @@
         <v>106.0844</v>
       </c>
     </row>
-    <row r="144" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H144">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11655,7 +12408,7 @@
         <v>106.253</v>
       </c>
     </row>
-    <row r="145" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H145">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11667,7 +12420,7 @@
         <v>105.9712</v>
       </c>
     </row>
-    <row r="146" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H146">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11679,7 +12432,7 @@
         <v>105.7208</v>
       </c>
     </row>
-    <row r="147" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H147">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11691,7 +12444,7 @@
         <v>106.00369999999999</v>
       </c>
     </row>
-    <row r="148" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H148">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11703,7 +12456,7 @@
         <v>105.74850000000001</v>
       </c>
     </row>
-    <row r="149" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H149">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11715,7 +12468,7 @@
         <v>105.6892</v>
       </c>
     </row>
-    <row r="150" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H150">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11727,7 +12480,7 @@
         <v>115.9367</v>
       </c>
     </row>
-    <row r="151" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H151">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11739,7 +12492,7 @@
         <v>115.7723</v>
       </c>
     </row>
-    <row r="152" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H152">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11751,7 +12504,7 @@
         <v>115.5065</v>
       </c>
     </row>
-    <row r="153" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H153">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11763,7 +12516,7 @@
         <v>116.05670000000001</v>
       </c>
     </row>
-    <row r="154" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H154">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11775,7 +12528,7 @@
         <v>115.9269</v>
       </c>
     </row>
-    <row r="155" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H155">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11787,7 +12540,7 @@
         <v>115.9965</v>
       </c>
     </row>
-    <row r="156" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H156">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11799,7 +12552,7 @@
         <v>115.4991</v>
       </c>
     </row>
-    <row r="157" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H157">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11811,7 +12564,7 @@
         <v>115.5228</v>
       </c>
     </row>
-    <row r="158" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H158">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11823,7 +12576,7 @@
         <v>115.83710000000001</v>
       </c>
     </row>
-    <row r="159" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H159">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11835,7 +12588,7 @@
         <v>115.67700000000001</v>
       </c>
     </row>
-    <row r="160" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H160">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11847,7 +12600,7 @@
         <v>115.5472</v>
       </c>
     </row>
-    <row r="161" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H161">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11859,7 +12612,7 @@
         <v>116.02809999999999</v>
       </c>
     </row>
-    <row r="162" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H162">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11871,7 +12624,7 @@
         <v>115.7191</v>
       </c>
     </row>
-    <row r="163" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H163">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11883,7 +12636,7 @@
         <v>115.8503</v>
       </c>
     </row>
-    <row r="164" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H164">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11895,7 +12648,7 @@
         <v>116.01349999999999</v>
       </c>
     </row>
-    <row r="165" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H165">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11907,7 +12660,7 @@
         <v>116.0718</v>
       </c>
     </row>
-    <row r="166" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H166">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11919,7 +12672,7 @@
         <v>115.88200000000001</v>
       </c>
     </row>
-    <row r="167" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H167">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11931,7 +12684,7 @@
         <v>115.82640000000001</v>
       </c>
     </row>
-    <row r="168" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H168">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11943,7 +12696,7 @@
         <v>116.0414</v>
       </c>
     </row>
-    <row r="169" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H169">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11955,7 +12708,7 @@
         <v>115.7786</v>
       </c>
     </row>
-    <row r="170" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H170">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11967,7 +12720,7 @@
         <v>115.92440000000001</v>
       </c>
     </row>
-    <row r="171" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H171">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11979,7 +12732,7 @@
         <v>116.0988</v>
       </c>
     </row>
-    <row r="172" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H172">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -11991,7 +12744,7 @@
         <v>115.9281</v>
       </c>
     </row>
-    <row r="173" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H173">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12003,7 +12756,7 @@
         <v>115.8377</v>
       </c>
     </row>
-    <row r="174" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H174">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12015,7 +12768,7 @@
         <v>116.0936</v>
       </c>
     </row>
-    <row r="175" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H175">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12027,7 +12780,7 @@
         <v>115.8402</v>
       </c>
     </row>
-    <row r="176" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H176">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12039,7 +12792,7 @@
         <v>116.17019999999999</v>
       </c>
     </row>
-    <row r="177" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H177">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12051,7 +12804,7 @@
         <v>115.6253</v>
       </c>
     </row>
-    <row r="178" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H178">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12063,7 +12816,7 @@
         <v>116.0719</v>
       </c>
     </row>
-    <row r="179" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H179">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12075,7 +12828,7 @@
         <v>116.3058</v>
       </c>
     </row>
-    <row r="180" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H180">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12087,7 +12840,7 @@
         <v>115.8853</v>
       </c>
     </row>
-    <row r="181" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H181">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12099,7 +12852,7 @@
         <v>116.38339999999999</v>
       </c>
     </row>
-    <row r="182" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H182">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12111,7 +12864,7 @@
         <v>116.1009</v>
       </c>
     </row>
-    <row r="183" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H183">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12123,7 +12876,7 @@
         <v>126.40130000000001</v>
       </c>
     </row>
-    <row r="184" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H184">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12135,7 +12888,7 @@
         <v>115.6763</v>
       </c>
     </row>
-    <row r="185" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H185">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12147,7 +12900,7 @@
         <v>128.953</v>
       </c>
     </row>
-    <row r="186" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H186">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12159,7 +12912,7 @@
         <v>115.9194</v>
       </c>
     </row>
-    <row r="187" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H187">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12171,7 +12924,7 @@
         <v>131.6455</v>
       </c>
     </row>
-    <row r="188" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H188">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12183,7 +12936,7 @@
         <v>115.86109999999999</v>
       </c>
     </row>
-    <row r="189" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H189">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12195,7 +12948,7 @@
         <v>115.68819999999999</v>
       </c>
     </row>
-    <row r="190" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H190">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12207,7 +12960,7 @@
         <v>116.19329999999999</v>
       </c>
     </row>
-    <row r="191" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H191">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12219,7 +12972,7 @@
         <v>116.134</v>
       </c>
     </row>
-    <row r="192" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H192">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12231,7 +12984,7 @@
         <v>116.1763</v>
       </c>
     </row>
-    <row r="193" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H193">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12243,7 +12996,7 @@
         <v>116.0438</v>
       </c>
     </row>
-    <row r="194" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H194">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -12255,7 +13008,7 @@
         <v>115.9259</v>
       </c>
     </row>
-    <row r="195" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H195">
         <f t="shared" ref="H195:H258" si="4">D195-F195</f>
         <v>0</v>
@@ -12267,7 +13020,7 @@
         <v>116.0008</v>
       </c>
     </row>
-    <row r="196" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H196">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12279,7 +13032,7 @@
         <v>116.0121</v>
       </c>
     </row>
-    <row r="197" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H197">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12291,7 +13044,7 @@
         <v>115.7264</v>
       </c>
     </row>
-    <row r="198" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H198">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12303,7 +13056,7 @@
         <v>115.9374</v>
       </c>
     </row>
-    <row r="199" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H199">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12315,7 +13068,7 @@
         <v>115.91459999999999</v>
       </c>
     </row>
-    <row r="200" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H200">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12327,7 +13080,7 @@
         <v>115.63939999999999</v>
       </c>
     </row>
-    <row r="201" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H201">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12339,7 +13092,7 @@
         <v>116.1581</v>
       </c>
     </row>
-    <row r="202" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H202">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12351,7 +13104,7 @@
         <v>115.8416</v>
       </c>
     </row>
-    <row r="203" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H203">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12363,7 +13116,7 @@
         <v>115.8566</v>
       </c>
     </row>
-    <row r="204" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H204">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12375,7 +13128,7 @@
         <v>115.8509</v>
       </c>
     </row>
-    <row r="205" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H205">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12387,7 +13140,7 @@
         <v>115.8514</v>
       </c>
     </row>
-    <row r="206" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H206">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12399,7 +13152,7 @@
         <v>125.86709999999999</v>
       </c>
     </row>
-    <row r="207" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H207">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12411,7 +13164,7 @@
         <v>125.4483</v>
       </c>
     </row>
-    <row r="208" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H208">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12423,7 +13176,7 @@
         <v>125.4024</v>
       </c>
     </row>
-    <row r="209" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H209">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12435,7 +13188,7 @@
         <v>125.7238</v>
       </c>
     </row>
-    <row r="210" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H210">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12447,7 +13200,7 @@
         <v>125.682</v>
       </c>
     </row>
-    <row r="211" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H211">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12459,7 +13212,7 @@
         <v>125.6857</v>
       </c>
     </row>
-    <row r="212" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H212">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12471,7 +13224,7 @@
         <v>125.4738</v>
       </c>
     </row>
-    <row r="213" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H213">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12483,7 +13236,7 @@
         <v>125.9331</v>
       </c>
     </row>
-    <row r="214" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H214">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12495,7 +13248,7 @@
         <v>125.37139999999999</v>
       </c>
     </row>
-    <row r="215" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H215">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12507,7 +13260,7 @@
         <v>125.9153</v>
       </c>
     </row>
-    <row r="216" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H216">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12519,7 +13272,7 @@
         <v>125.6576</v>
       </c>
     </row>
-    <row r="217" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H217">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12531,7 +13284,7 @@
         <v>125.5729</v>
       </c>
     </row>
-    <row r="218" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H218">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12543,7 +13296,7 @@
         <v>125.9589</v>
       </c>
     </row>
-    <row r="219" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H219">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12555,7 +13308,7 @@
         <v>135.2037</v>
       </c>
     </row>
-    <row r="220" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H220">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12567,7 +13320,7 @@
         <v>135.52789999999999</v>
       </c>
     </row>
-    <row r="221" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H221">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12579,7 +13332,7 @@
         <v>135.4736</v>
       </c>
     </row>
-    <row r="222" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H222">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12591,7 +13344,7 @@
         <v>135.52209999999999</v>
       </c>
     </row>
-    <row r="223" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H223">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12603,7 +13356,7 @@
         <v>135.203</v>
       </c>
     </row>
-    <row r="224" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H224">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12615,7 +13368,7 @@
         <v>135.62870000000001</v>
       </c>
     </row>
-    <row r="225" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H225">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12627,7 +13380,7 @@
         <v>135.7516</v>
       </c>
     </row>
-    <row r="226" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H226">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12639,7 +13392,7 @@
         <v>135.196</v>
       </c>
     </row>
-    <row r="227" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H227">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12651,7 +13404,7 @@
         <v>135.72149999999999</v>
       </c>
     </row>
-    <row r="228" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H228">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12663,7 +13416,7 @@
         <v>135.15219999999999</v>
       </c>
     </row>
-    <row r="229" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H229">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12675,7 +13428,7 @@
         <v>135.52850000000001</v>
       </c>
     </row>
-    <row r="230" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H230">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12687,7 +13440,7 @@
         <v>135.50040000000001</v>
       </c>
     </row>
-    <row r="231" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H231">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12699,7 +13452,7 @@
         <v>135.14279999999999</v>
       </c>
     </row>
-    <row r="232" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H232">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12711,7 +13464,7 @@
         <v>135.7586</v>
       </c>
     </row>
-    <row r="233" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H233">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12723,7 +13476,7 @@
         <v>135.2062</v>
       </c>
     </row>
-    <row r="234" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H234">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12735,7 +13488,7 @@
         <v>135.19049999999999</v>
       </c>
     </row>
-    <row r="235" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H235">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12747,7 +13500,7 @@
         <v>135.5018</v>
       </c>
     </row>
-    <row r="236" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H236">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12759,7 +13512,7 @@
         <v>135.70230000000001</v>
       </c>
     </row>
-    <row r="237" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H237">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12771,7 +13524,7 @@
         <v>135.14320000000001</v>
       </c>
     </row>
-    <row r="238" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H238">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12783,7 +13536,7 @@
         <v>135.9186</v>
       </c>
     </row>
-    <row r="239" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H239">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12795,7 +13548,7 @@
         <v>135.1687</v>
       </c>
     </row>
-    <row r="240" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H240">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12807,7 +13560,7 @@
         <v>136.13910000000001</v>
       </c>
     </row>
-    <row r="241" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H241">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12819,7 +13572,7 @@
         <v>135.43340000000001</v>
       </c>
     </row>
-    <row r="242" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H242">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12831,7 +13584,7 @@
         <v>146.0427</v>
       </c>
     </row>
-    <row r="243" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H243">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12843,7 +13596,7 @@
         <v>135.41380000000001</v>
       </c>
     </row>
-    <row r="244" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H244">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12855,7 +13608,7 @@
         <v>148.27549999999999</v>
       </c>
     </row>
-    <row r="245" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H245">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12867,7 +13620,7 @@
         <v>135.7269</v>
       </c>
     </row>
-    <row r="246" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H246">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12879,7 +13632,7 @@
         <v>150.4016</v>
       </c>
     </row>
-    <row r="247" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H247">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12891,7 +13644,7 @@
         <v>135.68629999999999</v>
       </c>
     </row>
-    <row r="248" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H248">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12903,7 +13656,7 @@
         <v>149.3246</v>
       </c>
     </row>
-    <row r="249" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H249">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12915,7 +13668,7 @@
         <v>135.16829999999999</v>
       </c>
     </row>
-    <row r="250" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H250">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12927,7 +13680,7 @@
         <v>135.63730000000001</v>
       </c>
     </row>
-    <row r="251" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H251">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12939,7 +13692,7 @@
         <v>135.42089999999999</v>
       </c>
     </row>
-    <row r="252" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H252">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12951,7 +13704,7 @@
         <v>135.44110000000001</v>
       </c>
     </row>
-    <row r="253" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H253">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12963,7 +13716,7 @@
         <v>135.73140000000001</v>
       </c>
     </row>
-    <row r="254" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H254">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12975,7 +13728,7 @@
         <v>135.52979999999999</v>
       </c>
     </row>
-    <row r="255" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H255">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12987,7 +13740,7 @@
         <v>135.16589999999999</v>
       </c>
     </row>
-    <row r="256" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H256">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -12999,7 +13752,7 @@
         <v>135.43109999999999</v>
       </c>
     </row>
-    <row r="257" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H257">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13011,7 +13764,7 @@
         <v>135.6944</v>
       </c>
     </row>
-    <row r="258" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H258">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -13023,7 +13776,7 @@
         <v>135.5111</v>
       </c>
     </row>
-    <row r="259" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H259">
         <f t="shared" ref="H259:H297" si="5">D259-F259</f>
         <v>0</v>
@@ -13035,7 +13788,7 @@
         <v>135.74529999999999</v>
       </c>
     </row>
-    <row r="260" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H260">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13047,7 +13800,7 @@
         <v>135.589</v>
       </c>
     </row>
-    <row r="261" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H261">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13059,7 +13812,7 @@
         <v>135.4787</v>
       </c>
     </row>
-    <row r="262" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H262">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13071,7 +13824,7 @@
         <v>135.501</v>
       </c>
     </row>
-    <row r="263" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H263">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13083,7 +13836,7 @@
         <v>135.68340000000001</v>
       </c>
     </row>
-    <row r="264" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H264">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13095,7 +13848,7 @@
         <v>135.40479999999999</v>
       </c>
     </row>
-    <row r="265" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H265">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13107,7 +13860,7 @@
         <v>135.34440000000001</v>
       </c>
     </row>
-    <row r="266" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H266">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13119,7 +13872,7 @@
         <v>135.4581</v>
       </c>
     </row>
-    <row r="267" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H267">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13131,7 +13884,7 @@
         <v>135.1977</v>
       </c>
     </row>
-    <row r="268" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H268">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13143,7 +13896,7 @@
         <v>135.34399999999999</v>
       </c>
     </row>
-    <row r="269" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H269">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13155,7 +13908,7 @@
         <v>135.76349999999999</v>
       </c>
     </row>
-    <row r="270" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H270">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13167,7 +13920,7 @@
         <v>135.49199999999999</v>
       </c>
     </row>
-    <row r="271" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H271">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13179,7 +13932,7 @@
         <v>135.47919999999999</v>
       </c>
     </row>
-    <row r="272" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H272">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13191,7 +13944,7 @@
         <v>135.7834</v>
       </c>
     </row>
-    <row r="273" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H273">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13203,7 +13956,7 @@
         <v>135.50450000000001</v>
       </c>
     </row>
-    <row r="274" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H274">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13215,7 +13968,7 @@
         <v>135.22200000000001</v>
       </c>
     </row>
-    <row r="275" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H275">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13227,7 +13980,7 @@
         <v>135.49209999999999</v>
       </c>
     </row>
-    <row r="276" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H276">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13239,7 +13992,7 @@
         <v>135.19800000000001</v>
       </c>
     </row>
-    <row r="277" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H277">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13251,7 +14004,7 @@
         <v>135.47669999999999</v>
       </c>
     </row>
-    <row r="278" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H278">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13263,7 +14016,7 @@
         <v>135.24359999999999</v>
       </c>
     </row>
-    <row r="279" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H279">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13275,7 +14028,7 @@
         <v>135.78200000000001</v>
       </c>
     </row>
-    <row r="280" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H280">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13287,7 +14040,7 @@
         <v>135.61869999999999</v>
       </c>
     </row>
-    <row r="281" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H281">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13299,7 +14052,7 @@
         <v>135.5112</v>
       </c>
     </row>
-    <row r="282" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H282">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13311,7 +14064,7 @@
         <v>135.25960000000001</v>
       </c>
     </row>
-    <row r="283" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H283">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13323,7 +14076,7 @@
         <v>135.57429999999999</v>
       </c>
     </row>
-    <row r="284" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H284">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13335,7 +14088,7 @@
         <v>135.48140000000001</v>
       </c>
     </row>
-    <row r="285" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H285">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13347,7 +14100,7 @@
         <v>135.24860000000001</v>
       </c>
     </row>
-    <row r="286" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H286">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13359,7 +14112,7 @@
         <v>135.2543</v>
       </c>
     </row>
-    <row r="287" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H287">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13371,7 +14124,7 @@
         <v>135.78460000000001</v>
       </c>
     </row>
-    <row r="288" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H288">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13383,7 +14136,7 @@
         <v>135.56190000000001</v>
       </c>
     </row>
-    <row r="289" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H289">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13395,7 +14148,7 @@
         <v>135.61609999999999</v>
       </c>
     </row>
-    <row r="290" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H290">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13407,7 +14160,7 @@
         <v>135.52010000000001</v>
       </c>
     </row>
-    <row r="291" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H291">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13419,7 +14172,7 @@
         <v>135.76300000000001</v>
       </c>
     </row>
-    <row r="292" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H292">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13431,7 +14184,7 @@
         <v>135.53290000000001</v>
       </c>
     </row>
-    <row r="293" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H293">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13443,7 +14196,7 @@
         <v>135.28210000000001</v>
       </c>
     </row>
-    <row r="294" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H294">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13455,7 +14208,7 @@
         <v>135.48609999999999</v>
       </c>
     </row>
-    <row r="295" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H295">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13467,7 +14220,7 @@
         <v>135.55950000000001</v>
       </c>
     </row>
-    <row r="296" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H296">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13479,7 +14232,7 @@
         <v>135.2533</v>
       </c>
     </row>
-    <row r="297" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="8:11" x14ac:dyDescent="0.75">
       <c r="H297">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -13751,20 +14504,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13787,14 +14540,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
@@ -13809,4 +14554,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samanthahowley\Desktop\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A378AD-4070-4287-874A-09415022A359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617C4A2D-CCEB-4795-A8D6-9E058BB85EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10155" activeTab="1" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
@@ -9682,22 +9682,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C27D6E-0A4D-4C54-92F8-2ABBEB60FD2A}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.2265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.04296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.04296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -9716,17 +9717,17 @@
       <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>44</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>5</v>
       </c>
@@ -9749,13 +9750,17 @@
         <v>82.283401080000004</v>
       </c>
       <c r="H2">
+        <f>G2*-1</f>
+        <v>-82.283401080000004</v>
+      </c>
+      <c r="I2">
         <v>417</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>891</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>5</v>
       </c>
@@ -9778,13 +9783,17 @@
         <v>82.28345736</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H21" si="0">G3*-1</f>
+        <v>-82.28345736</v>
+      </c>
+      <c r="I3">
         <v>396</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>777</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>5</v>
       </c>
@@ -9807,13 +9816,17 @@
         <v>82.283391309999999</v>
       </c>
       <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-82.283391309999999</v>
+      </c>
+      <c r="I4">
         <v>625</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>5</v>
       </c>
@@ -9836,13 +9849,17 @@
         <v>82.283294209999994</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-82.283294209999994</v>
+      </c>
+      <c r="I5">
         <v>814</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9865,13 +9882,17 @@
         <v>82.283199249999996</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-82.283199249999996</v>
+      </c>
+      <c r="I6">
         <v>616</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9894,13 +9915,17 @@
         <v>82.283057909999997</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-82.283057909999997</v>
+      </c>
+      <c r="I7">
         <v>299</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9923,13 +9948,17 @@
         <v>82.282908280000001</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-82.282908280000001</v>
+      </c>
+      <c r="I8">
         <v>18</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9952,13 +9981,17 @@
         <v>82.188597540000004</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-82.188597540000004</v>
+      </c>
+      <c r="I9">
         <v>23</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>6</v>
       </c>
@@ -9981,13 +10014,17 @@
         <v>82.188485189999994</v>
       </c>
       <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-82.188485189999994</v>
+      </c>
+      <c r="I10">
         <v>830</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>6</v>
       </c>
@@ -10010,13 +10047,17 @@
         <v>82.188344869999995</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-82.188344869999995</v>
+      </c>
+      <c r="I11">
         <v>18</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>6</v>
       </c>
@@ -10039,13 +10080,17 @@
         <v>82.188400130000005</v>
       </c>
       <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-82.188400130000005</v>
+      </c>
+      <c r="I12">
         <v>796</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>958</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>6</v>
       </c>
@@ -10067,14 +10112,18 @@
       <c r="G13">
         <v>82.188898460000004</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-82.188898460000004</v>
+      </c>
+      <c r="I13" t="s">
         <v>50</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>9</v>
       </c>
@@ -10097,13 +10146,17 @@
         <v>82.220741270000005</v>
       </c>
       <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-82.220741270000005</v>
+      </c>
+      <c r="I14">
         <v>865</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A15">
         <v>9</v>
       </c>
@@ -10126,13 +10179,17 @@
         <v>82.220661160000006</v>
       </c>
       <c r="H15">
+        <f t="shared" si="0"/>
+        <v>-82.220661160000006</v>
+      </c>
+      <c r="I15">
         <v>998</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1.88</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>9</v>
       </c>
@@ -10155,13 +10212,17 @@
         <v>82.220654969999998</v>
       </c>
       <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-82.220654969999998</v>
+      </c>
+      <c r="I16">
         <v>309</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>675</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>9</v>
       </c>
@@ -10184,13 +10245,17 @@
         <v>82.220569519999998</v>
       </c>
       <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-82.220569519999998</v>
+      </c>
+      <c r="I17">
         <v>407</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>729</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>9</v>
       </c>
@@ -10213,13 +10278,17 @@
         <v>82.220584849999995</v>
       </c>
       <c r="H18">
+        <f t="shared" si="0"/>
+        <v>-82.220584849999995</v>
+      </c>
+      <c r="I18">
         <v>312</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>612</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A19">
         <v>5</v>
       </c>
@@ -10245,12 +10314,16 @@
         <f>[1]Sheet1!$E$2</f>
         <v>82.283248</v>
       </c>
-      <c r="I19">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>-82.283248</v>
+      </c>
+      <c r="J19">
         <f>(906+43)/2</f>
         <v>474.5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>9</v>
       </c>
@@ -10274,12 +10347,16 @@
       <c r="G20">
         <v>82.220749130000002</v>
       </c>
-      <c r="I20">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>-82.220749130000002</v>
+      </c>
+      <c r="J20">
         <f>(2.55+1.76)/2</f>
         <v>2.1549999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A21">
         <v>6</v>
       </c>
@@ -10303,7 +10380,11 @@
       <c r="G21">
         <v>82.188659220000005</v>
       </c>
-      <c r="I21">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>-82.188659220000005</v>
+      </c>
+      <c r="J21">
         <f>SUM(42+408)/2</f>
         <v>225</v>
       </c>
@@ -14504,20 +14585,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="0ed78115-f4df-42b0-9376-ad3306022cc8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14540,6 +14621,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3CDB75-004F-4418-A9D1-0A5E1B428212}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="0ed78115-f4df-42b0-9376-ad3306022cc8"/>
@@ -14554,12 +14643,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D38091-7891-4922-BDA4-DDCC3109030A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_Raw_data/RC log.xlsx
+++ b/01_Raw_data/RC log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Howley_Bradford_Streams\Howley_Bradford_Streams\01_Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A378AD-4070-4287-874A-09415022A359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83FE6C6-A56B-43BF-8B3B-DD4A2F6460CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10155" activeTab="1" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{A079E74B-2391-4069-81A1-6515CCD90540}"/>
   </bookViews>
   <sheets>
     <sheet name="RC log" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -207,6 +207,12 @@
   <si>
     <t>6GW0</t>
   </si>
+  <si>
+    <t>stream_elevation</t>
+  </si>
+  <si>
+    <t>surface_elevation_m</t>
+  </si>
 </sst>
 </file>
 
@@ -354,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,6 +546,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -701,7 +713,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -709,6 +721,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3460,6 +3473,7 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -3470,51 +3484,34 @@
           <cell r="E2">
             <v>82.283248</v>
           </cell>
-          <cell r="F2">
-            <v>28.436</v>
-          </cell>
         </row>
         <row r="3">
-          <cell r="F3">
-            <v>34.398000000000003</v>
-          </cell>
           <cell r="G3">
             <v>5.4560000000000004</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="F12">
-            <v>41.503</v>
-          </cell>
           <cell r="G12">
             <v>12.566000000000001</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="F13">
-            <v>41.377000000000002</v>
-          </cell>
           <cell r="G13">
             <v>12.44</v>
           </cell>
         </row>
         <row r="14">
-          <cell r="F14">
-            <v>43.530999999999999</v>
-          </cell>
           <cell r="G14">
             <v>14.593999999999999</v>
           </cell>
         </row>
         <row r="15">
-          <cell r="F15">
-            <v>39.991</v>
-          </cell>
           <cell r="G15">
             <v>11.055</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3837,18 +3834,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04E7760-F87C-4D84-A63F-D473D279D553}">
-  <dimension ref="A1:K198"/>
+  <dimension ref="A1:K215"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D198" sqref="B182:D198"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G223" sqref="G223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="9.40625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -9398,7 +9395,7 @@
         <v>0.39</v>
       </c>
       <c r="G189">
-        <f t="shared" ref="G189:G198" si="8">E189-F189</f>
+        <f t="shared" ref="G189:G214" si="8">E189-F189</f>
         <v>-0.21000000000000002</v>
       </c>
       <c r="H189">
@@ -9672,6 +9669,484 @@
       </c>
       <c r="K198">
         <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A199" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B199">
+        <v>5</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A200" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B200">
+        <v>5</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200">
+        <v>0.41</v>
+      </c>
+      <c r="F200">
+        <v>0.68</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="8"/>
+        <v>-0.27000000000000007</v>
+      </c>
+      <c r="H200">
+        <v>6.4</v>
+      </c>
+      <c r="K200">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A201" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B201">
+        <v>5</v>
+      </c>
+      <c r="C201">
+        <v>3</v>
+      </c>
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="F201">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="8"/>
+        <v>-0.32999999999999996</v>
+      </c>
+      <c r="H201">
+        <v>6.2</v>
+      </c>
+      <c r="K201">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A202" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B202">
+        <v>5</v>
+      </c>
+      <c r="C202">
+        <v>4</v>
+      </c>
+      <c r="D202" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202">
+        <v>0.22</v>
+      </c>
+      <c r="F202">
+        <v>1.23</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="8"/>
+        <v>-1.01</v>
+      </c>
+      <c r="H202">
+        <v>5.25</v>
+      </c>
+      <c r="K202">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A203" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B203">
+        <v>5</v>
+      </c>
+      <c r="C203">
+        <v>5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203">
+        <v>0.09</v>
+      </c>
+      <c r="F203">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="8"/>
+        <v>-0.23500000000000001</v>
+      </c>
+      <c r="H203">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K203">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A204" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B204">
+        <v>5</v>
+      </c>
+      <c r="C204">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F204">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="8"/>
+        <v>-0.77</v>
+      </c>
+      <c r="H204">
+        <v>4.46</v>
+      </c>
+      <c r="K204">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A205" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="C205">
+        <v>8</v>
+      </c>
+      <c r="D205" t="s">
+        <v>36</v>
+      </c>
+      <c r="E205">
+        <v>0.82</v>
+      </c>
+      <c r="F205">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="8"/>
+        <v>-0.38500000000000012</v>
+      </c>
+      <c r="H205">
+        <v>5.56</v>
+      </c>
+      <c r="K205">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A206" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B206">
+        <v>6</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>14</v>
+      </c>
+      <c r="E206">
+        <v>0.16</v>
+      </c>
+      <c r="F206">
+        <v>0.98</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="8"/>
+        <v>-0.82</v>
+      </c>
+      <c r="H206">
+        <v>3.99</v>
+      </c>
+      <c r="K206">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A207" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B207">
+        <v>6</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>15</v>
+      </c>
+      <c r="E207">
+        <v>0.76</v>
+      </c>
+      <c r="F207">
+        <v>1.405</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="8"/>
+        <v>-0.64500000000000002</v>
+      </c>
+      <c r="H207">
+        <v>4</v>
+      </c>
+      <c r="K207">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A208" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B208">
+        <v>6</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208" t="s">
+        <v>16</v>
+      </c>
+      <c r="E208">
+        <v>0.04</v>
+      </c>
+      <c r="F208">
+        <v>0.83</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="8"/>
+        <v>-0.78999999999999992</v>
+      </c>
+      <c r="H208">
+        <v>4.26</v>
+      </c>
+      <c r="K208">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A209" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B209">
+        <v>6</v>
+      </c>
+      <c r="C209">
+        <v>4</v>
+      </c>
+      <c r="D209" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="F209">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="8"/>
+        <v>-0.34</v>
+      </c>
+      <c r="H209">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="K209">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A210" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B210">
+        <v>6</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
+      </c>
+      <c r="D210" t="s">
+        <v>18</v>
+      </c>
+      <c r="E210">
+        <v>0.08</v>
+      </c>
+      <c r="F210">
+        <v>1.925</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="8"/>
+        <v>-1.845</v>
+      </c>
+      <c r="H210">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="K210">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A211" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B211">
+        <v>9</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>19</v>
+      </c>
+      <c r="E211">
+        <v>0.215</v>
+      </c>
+      <c r="F211">
+        <v>0.625</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="8"/>
+        <v>-0.41000000000000003</v>
+      </c>
+      <c r="H211">
+        <v>4.17</v>
+      </c>
+      <c r="K211">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A212" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B212">
+        <v>9</v>
+      </c>
+      <c r="C212">
+        <v>2</v>
+      </c>
+      <c r="D212" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="8"/>
+        <v>-0.66500000000000004</v>
+      </c>
+      <c r="H212">
+        <v>4.04</v>
+      </c>
+      <c r="K212">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A213" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B213">
+        <v>9</v>
+      </c>
+      <c r="C213">
+        <v>3</v>
+      </c>
+      <c r="D213" t="s">
+        <v>21</v>
+      </c>
+      <c r="E213">
+        <v>0.1</v>
+      </c>
+      <c r="F213">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="8"/>
+        <v>-0.63500000000000001</v>
+      </c>
+      <c r="H213">
+        <v>3.71</v>
+      </c>
+      <c r="K213">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A214" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B214">
+        <v>9</v>
+      </c>
+      <c r="C214">
+        <v>4</v>
+      </c>
+      <c r="D214" t="s">
+        <v>22</v>
+      </c>
+      <c r="E214">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F214">
+        <v>1.335</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="H214">
+        <v>3.95</v>
+      </c>
+      <c r="K214">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A215" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B215">
+        <v>9</v>
+      </c>
+      <c r="C215">
+        <v>5</v>
+      </c>
+      <c r="D215" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -9682,22 +10157,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C27D6E-0A4D-4C54-92F8-2ABBEB60FD2A}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.36328125" customWidth="1"/>
     <col min="5" max="5" width="12.2265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.04296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="17.04296875" customWidth="1"/>
+    <col min="9" max="9" width="14.86328125" customWidth="1"/>
+    <col min="10" max="10" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -9725,587 +10202,730 @@
       <c r="I1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D2">
-        <v>4.0839999999999996</v>
+        <f>AVERAGE([1]Sheet1!$G$3)</f>
+        <v>5.4560000000000004</v>
       </c>
       <c r="E2">
-        <v>32.99</v>
+        <v>28.436</v>
       </c>
       <c r="F2">
-        <v>29.862067790000001</v>
+        <f>[1]Sheet1!$D$2</f>
+        <v>29.862390000000001</v>
       </c>
       <c r="G2">
-        <v>82.283401080000004</v>
-      </c>
-      <c r="H2">
-        <v>417</v>
+        <f>[1]Sheet1!$E$2</f>
+        <v>82.283248</v>
       </c>
       <c r="I2">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+        <f>(906+43)/2</f>
+        <v>474.5</v>
+      </c>
+      <c r="J2">
+        <v>28.436</v>
+      </c>
+      <c r="K2">
+        <f>E2-J2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>3.577</v>
+        <v>4.0839999999999996</v>
       </c>
       <c r="E3">
-        <v>32.518999999999998</v>
+        <v>32.99</v>
       </c>
       <c r="F3">
-        <v>29.862104739999999</v>
+        <v>29.862067790000001</v>
       </c>
       <c r="G3">
-        <v>82.28345736</v>
+        <v>82.283401080000004</v>
       </c>
       <c r="H3">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="I3">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+        <v>891</v>
+      </c>
+      <c r="J3">
+        <v>28.436</v>
+      </c>
+      <c r="K3">
+        <f>E3-J3</f>
+        <v>4.554000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>6.476</v>
+        <v>3.577</v>
       </c>
       <c r="E4">
-        <v>35.408999999999999</v>
+        <v>32.518999999999998</v>
       </c>
       <c r="F4">
-        <v>29.862195719999999</v>
+        <v>29.862104739999999</v>
       </c>
       <c r="G4">
-        <v>82.283391309999999</v>
+        <v>82.28345736</v>
       </c>
       <c r="H4">
-        <v>625</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+        <v>396</v>
+      </c>
+      <c r="I4">
+        <v>777</v>
+      </c>
+      <c r="J4">
+        <v>28.436</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K21" si="0">E4-J4</f>
+        <v>4.0829999999999984</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>4.2489999999999997</v>
+        <v>6.476</v>
       </c>
       <c r="E5">
-        <v>33.191000000000003</v>
+        <v>35.408999999999999</v>
       </c>
       <c r="F5">
-        <v>29.86231411</v>
+        <v>29.862195719999999</v>
       </c>
       <c r="G5">
-        <v>82.283294209999994</v>
+        <v>82.283391309999999</v>
       </c>
       <c r="H5">
-        <v>814</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+        <v>625</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>28.436</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>6.972999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>3.198</v>
+        <v>4.2489999999999997</v>
       </c>
       <c r="E6">
-        <v>32.14</v>
+        <v>33.191000000000003</v>
       </c>
       <c r="F6">
-        <v>29.86227684</v>
+        <v>29.86231411</v>
       </c>
       <c r="G6">
-        <v>82.283199249999996</v>
+        <v>82.283294209999994</v>
       </c>
       <c r="H6">
-        <v>616</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+        <v>814</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6">
+        <v>28.436</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>4.7550000000000026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>3.1230000000000002</v>
+        <v>3.198</v>
       </c>
       <c r="E7">
-        <v>32.064</v>
+        <v>32.14</v>
       </c>
       <c r="F7">
-        <v>29.862254889999999</v>
+        <v>29.86227684</v>
       </c>
       <c r="G7">
-        <v>82.283057909999997</v>
+        <v>82.283199249999996</v>
       </c>
       <c r="H7">
-        <v>299</v>
-      </c>
-      <c r="I7">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+        <v>616</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7">
+        <v>28.436</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>3.7040000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>3.1230000000000002</v>
+      </c>
+      <c r="E8">
+        <v>32.064</v>
+      </c>
+      <c r="F8">
+        <v>29.862254889999999</v>
+      </c>
+      <c r="G8">
+        <v>82.283057909999997</v>
+      </c>
+      <c r="H8">
+        <v>299</v>
+      </c>
+      <c r="I8">
+        <v>285</v>
+      </c>
+      <c r="J8">
+        <v>28.436</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>3.6280000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>4.8360000000000003</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>33.777000000000001</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>29.862505240000001</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>82.282908280000001</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>18</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>15.101000000000001</v>
-      </c>
-      <c r="E9">
-        <v>44.037999999999997</v>
-      </c>
-      <c r="F9">
-        <v>29.943852320000001</v>
-      </c>
-      <c r="G9">
-        <v>82.188597540000004</v>
-      </c>
-      <c r="H9">
-        <v>23</v>
-      </c>
-      <c r="I9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="J9">
+        <v>28.436</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>5.3410000000000011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>23.632999999999999</v>
+        <f>AVERAGE([1]Sheet1!$G$12:$G$13)</f>
+        <v>12.503</v>
       </c>
       <c r="E10">
-        <v>52.57</v>
+        <v>41.503</v>
       </c>
       <c r="F10">
-        <v>29.943794799999999</v>
+        <v>29.943579790000001</v>
       </c>
       <c r="G10">
-        <v>82.188485189999994</v>
-      </c>
-      <c r="H10">
-        <v>830</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+        <v>82.188659220000005</v>
+      </c>
+      <c r="I10">
+        <f>SUM(42+408)/2</f>
+        <v>225</v>
+      </c>
+      <c r="J10">
+        <v>41.503</v>
+      </c>
+      <c r="K10">
+        <f>E10-J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>13.087999999999999</v>
+        <v>15.101000000000001</v>
       </c>
       <c r="E11">
-        <v>42.024999999999999</v>
+        <v>44.037999999999997</v>
       </c>
       <c r="F11">
-        <v>29.943773879999998</v>
+        <v>29.943852320000001</v>
       </c>
       <c r="G11">
-        <v>82.188344869999995</v>
+        <v>82.188597540000004</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I11">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+        <v>53</v>
+      </c>
+      <c r="J11">
+        <v>41.503</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>2.5349999999999966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>12.225</v>
+        <v>23.632999999999999</v>
       </c>
       <c r="E12">
-        <v>41.162999999999997</v>
+        <v>52.57</v>
       </c>
       <c r="F12">
-        <v>29.943973979999999</v>
+        <v>29.943794799999999</v>
       </c>
       <c r="G12">
-        <v>82.188400130000005</v>
+        <v>82.188485189999994</v>
       </c>
       <c r="H12">
-        <v>796</v>
-      </c>
-      <c r="I12">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+        <v>830</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12">
+        <v>41.503</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>11.067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>13.087999999999999</v>
+      </c>
+      <c r="E13">
+        <v>42.024999999999999</v>
+      </c>
+      <c r="F13">
+        <v>29.943773879999998</v>
+      </c>
+      <c r="G13">
+        <v>82.188344869999995</v>
+      </c>
+      <c r="H13">
+        <v>18</v>
+      </c>
+      <c r="I13">
+        <v>37</v>
+      </c>
+      <c r="J13">
+        <v>41.503</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.52199999999999847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>12.225</v>
+      </c>
+      <c r="E14">
+        <v>41.162999999999997</v>
+      </c>
+      <c r="F14">
+        <v>29.943973979999999</v>
+      </c>
+      <c r="G14">
+        <v>82.188400130000005</v>
+      </c>
+      <c r="H14">
+        <v>796</v>
+      </c>
+      <c r="I14">
+        <v>958</v>
+      </c>
+      <c r="J14">
+        <v>41.503</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>-0.34000000000000341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>9.2409999999999997</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>38.177999999999997</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>29.943842279999998</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>82.188898460000004</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H15" t="s">
         <v>50</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I15" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>9.9109999999999996</v>
-      </c>
-      <c r="E14">
-        <v>38.847999999999999</v>
-      </c>
-      <c r="F14">
-        <v>29.90454549</v>
-      </c>
-      <c r="G14">
-        <v>82.220741270000005</v>
-      </c>
-      <c r="H14">
-        <v>865</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>13.340999999999999</v>
-      </c>
-      <c r="E15">
-        <v>42.277999999999999</v>
-      </c>
-      <c r="F15">
-        <v>29.90451659</v>
-      </c>
-      <c r="G15">
-        <v>82.220661160000006</v>
-      </c>
-      <c r="H15">
-        <v>998</v>
-      </c>
-      <c r="I15">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="J15">
+        <v>41.503</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>-3.3250000000000028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>10.266</v>
+        <f>AVERAGE([1]Sheet1!$G$14:$G$15)</f>
+        <v>12.8245</v>
       </c>
       <c r="E16">
-        <v>39.201999999999998</v>
+        <v>43.530999999999999</v>
       </c>
       <c r="F16">
-        <v>29.904426640000001</v>
+        <v>29.90455759</v>
       </c>
       <c r="G16">
-        <v>82.220654969999998</v>
-      </c>
-      <c r="H16">
-        <v>309</v>
-      </c>
-      <c r="I16">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+        <v>82.220749130000002</v>
+      </c>
+      <c r="I16" s="5">
+        <f>(2.55+1.76)/2</f>
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="J16">
+        <v>38.847999999999999</v>
+      </c>
+      <c r="K16">
+        <f>E16-J16</f>
+        <v>4.6829999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>9</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>10.337</v>
+        <v>9.9109999999999996</v>
       </c>
       <c r="E17">
-        <v>39.274000000000001</v>
+        <v>38.847999999999999</v>
       </c>
       <c r="F17">
-        <v>29.904363159999999</v>
+        <v>29.90454549</v>
       </c>
       <c r="G17">
-        <v>82.220569519999998</v>
+        <v>82.220741270000005</v>
       </c>
       <c r="H17">
-        <v>407</v>
-      </c>
-      <c r="I17">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+        <v>865</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17">
+        <v>38.847999999999999</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>11.179</v>
+        <v>13.340999999999999</v>
       </c>
       <c r="E18">
-        <v>40.115000000000002</v>
+        <v>42.277999999999999</v>
       </c>
       <c r="F18">
-        <v>29.904210039999999</v>
+        <v>29.90451659</v>
       </c>
       <c r="G18">
-        <v>82.220584849999995</v>
+        <v>82.220661160000006</v>
       </c>
       <c r="H18">
-        <v>312</v>
-      </c>
-      <c r="I18">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+        <v>998</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="J18">
+        <v>38.847999999999999</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>3.4299999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <f>AVERAGE([1]Sheet1!$G$3)</f>
-        <v>5.4560000000000004</v>
+        <v>10.266</v>
       </c>
       <c r="E19">
-        <f>AVERAGE([1]Sheet1!$F$2:$F$3)</f>
-        <v>31.417000000000002</v>
+        <v>39.201999999999998</v>
       </c>
       <c r="F19">
-        <f>[1]Sheet1!$D$2</f>
-        <v>29.862390000000001</v>
+        <v>29.904426640000001</v>
       </c>
       <c r="G19">
-        <f>[1]Sheet1!$E$2</f>
-        <v>82.283248</v>
+        <v>82.220654969999998</v>
+      </c>
+      <c r="H19">
+        <v>309</v>
       </c>
       <c r="I19">
-        <f>(906+43)/2</f>
-        <v>474.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
+        <v>675</v>
+      </c>
+      <c r="J19">
+        <v>38.847999999999999</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>0.3539999999999992</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <f>AVERAGE([1]Sheet1!$G$14:$G$15)</f>
-        <v>12.8245</v>
+        <v>10.337</v>
       </c>
       <c r="E20">
-        <f>AVERAGE([1]Sheet1!$F$14:$F$15)</f>
-        <v>41.760999999999996</v>
+        <v>39.274000000000001</v>
       </c>
       <c r="F20">
-        <v>29.90455759</v>
+        <v>29.904363159999999</v>
       </c>
       <c r="G20">
-        <v>82.220749130000002</v>
+        <v>82.220569519999998</v>
+      </c>
+      <c r="H20">
+        <v>407</v>
       </c>
       <c r="I20">
-        <f>(2.55+1.76)/2</f>
-        <v>2.1549999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+        <v>729</v>
+      </c>
+      <c r="J20">
+        <v>38.847999999999999</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>0.42600000000000193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <f>AVERAGE([1]Sheet1!$G$12:$G$13)</f>
-        <v>12.503</v>
+        <v>11.179</v>
       </c>
       <c r="E21">
-        <f>AVERAGE([1]Sheet1!$F$12:$F$13)</f>
-        <v>41.44</v>
+        <v>40.115000000000002</v>
       </c>
       <c r="F21">
-        <v>29.943579790000001</v>
+        <v>29.904210039999999</v>
       </c>
       <c r="G21">
-        <v>82.188659220000005</v>
+        <v>82.220584849999995</v>
+      </c>
+      <c r="H21">
+        <v>312</v>
       </c>
       <c r="I21">
-        <f>SUM(42+408)/2</f>
-        <v>225</v>
+        <v>612</v>
+      </c>
+      <c r="J21">
+        <v>38.847999999999999</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1.267000000000003</v>
       </c>
     </row>
   </sheetData>
